--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10103_顧客登録.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10103_顧客登録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D118CF-3056-4493-BB9C-20D21C3F898E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67847C71-5B60-4B7C-853B-AD5827520F8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,11 +734,6 @@
     <t>テーブル</t>
   </si>
   <si>
-    <t>201
-(Created)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>正常に処理が終了した場合。</t>
     <rPh sb="0" eb="2">
       <t>セイジョウ</t>
@@ -1115,6 +1110,11 @@
       <t>ハン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>200
+(OK)</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1910,6 +1910,96 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2021,80 +2111,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2132,44 +2186,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2189,32 +2231,176 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2244,18 +2430,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2270,181 +2444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6314,7 +6314,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="36"/>
       <c r="J23" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
@@ -6968,57 +6968,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="172" t="s">
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="202" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="190" t="s">
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="220" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="192"/>
-      <c r="AA1" s="178" t="s">
+      <c r="T1" s="221"/>
+      <c r="U1" s="221"/>
+      <c r="V1" s="221"/>
+      <c r="W1" s="221"/>
+      <c r="X1" s="221"/>
+      <c r="Y1" s="221"/>
+      <c r="Z1" s="222"/>
+      <c r="AA1" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="162" t="str">
+      <c r="AB1" s="210"/>
+      <c r="AC1" s="192" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="165">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="195">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="166"/>
-      <c r="AI1" s="167"/>
+      <c r="AH1" s="196"/>
+      <c r="AI1" s="197"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -7026,53 +7026,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="172" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="202" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="195"/>
-      <c r="AA2" s="178" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="223"/>
+      <c r="T2" s="224"/>
+      <c r="U2" s="224"/>
+      <c r="V2" s="224"/>
+      <c r="W2" s="224"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
+      <c r="Z2" s="225"/>
+      <c r="AA2" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="175" t="str">
+      <c r="AB2" s="210"/>
+      <c r="AC2" s="205" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="176"/>
-      <c r="AE2" s="176"/>
-      <c r="AF2" s="177"/>
-      <c r="AG2" s="165">
+      <c r="AD2" s="206"/>
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="207"/>
+      <c r="AG2" s="195">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="167"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="197"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -7080,45 +7080,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="172" t="s">
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="202" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="196"/>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="162"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="165"/>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="167"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="226"/>
+      <c r="T3" s="227"/>
+      <c r="U3" s="227"/>
+      <c r="V3" s="227"/>
+      <c r="W3" s="227"/>
+      <c r="X3" s="227"/>
+      <c r="Y3" s="227"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="208"/>
+      <c r="AB3" s="210"/>
+      <c r="AC3" s="192"/>
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="195"/>
+      <c r="AH3" s="196"/>
+      <c r="AI3" s="197"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -7155,1204 +7155,1048 @@
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="168" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="170"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="168" t="s">
+      <c r="E7" s="200"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="171" t="s">
+      <c r="H7" s="200"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="201" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="168" t="s">
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="199"/>
+      <c r="Q7" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="170"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="170"/>
-      <c r="U7" s="170"/>
-      <c r="V7" s="170"/>
-      <c r="W7" s="170"/>
-      <c r="X7" s="170"/>
-      <c r="Y7" s="170"/>
-      <c r="Z7" s="170"/>
-      <c r="AA7" s="170"/>
-      <c r="AB7" s="170"/>
-      <c r="AC7" s="170"/>
-      <c r="AD7" s="170"/>
-      <c r="AE7" s="169"/>
-      <c r="AF7" s="168" t="s">
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="200"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="199"/>
+      <c r="AF7" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="170"/>
-      <c r="AH7" s="170"/>
-      <c r="AI7" s="169"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="200"/>
+      <c r="AI7" s="199"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="114">
         <v>1</v>
       </c>
-      <c r="B8" s="211" t="s">
+      <c r="B8" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213">
+      <c r="C8" s="180"/>
+      <c r="D8" s="181">
         <v>43718</v>
       </c>
-      <c r="E8" s="214"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="216" t="s">
+      <c r="E8" s="182"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="184" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="185"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="186" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="217"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="220" t="s">
+      <c r="K8" s="187"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="187"/>
+      <c r="P8" s="188"/>
+      <c r="Q8" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="K8" s="218"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="218"/>
-      <c r="N8" s="218"/>
-      <c r="O8" s="218"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="339" t="s">
-        <v>140</v>
-      </c>
-      <c r="R8" s="221"/>
-      <c r="S8" s="221"/>
-      <c r="T8" s="221"/>
-      <c r="U8" s="221"/>
-      <c r="V8" s="221"/>
-      <c r="W8" s="221"/>
-      <c r="X8" s="221"/>
-      <c r="Y8" s="221"/>
-      <c r="Z8" s="221"/>
-      <c r="AA8" s="221"/>
-      <c r="AB8" s="221"/>
-      <c r="AC8" s="221"/>
-      <c r="AD8" s="221"/>
-      <c r="AE8" s="222"/>
-      <c r="AF8" s="220" t="s">
+      <c r="R8" s="190"/>
+      <c r="S8" s="190"/>
+      <c r="T8" s="190"/>
+      <c r="U8" s="190"/>
+      <c r="V8" s="190"/>
+      <c r="W8" s="190"/>
+      <c r="X8" s="190"/>
+      <c r="Y8" s="190"/>
+      <c r="Z8" s="190"/>
+      <c r="AA8" s="190"/>
+      <c r="AB8" s="190"/>
+      <c r="AC8" s="190"/>
+      <c r="AD8" s="190"/>
+      <c r="AE8" s="191"/>
+      <c r="AF8" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="218"/>
-      <c r="AH8" s="218"/>
-      <c r="AI8" s="219"/>
+      <c r="AG8" s="187"/>
+      <c r="AH8" s="187"/>
+      <c r="AI8" s="188"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="115">
         <v>2</v>
       </c>
-      <c r="B9" s="337" t="s">
+      <c r="B9" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="163"/>
+      <c r="D9" s="164">
+        <v>44825</v>
+      </c>
+      <c r="E9" s="165"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="200"/>
-      <c r="D9" s="201">
-        <v>44825</v>
-      </c>
-      <c r="E9" s="202"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="338" t="s">
-        <v>137</v>
-      </c>
-      <c r="H9" s="204"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="287" t="s">
+      <c r="H9" s="167"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="177" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="169"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="177" t="s">
+        <v>142</v>
+      </c>
+      <c r="R9" s="172"/>
+      <c r="S9" s="172"/>
+      <c r="T9" s="172"/>
+      <c r="U9" s="172"/>
+      <c r="V9" s="172"/>
+      <c r="W9" s="172"/>
+      <c r="X9" s="172"/>
+      <c r="Y9" s="172"/>
+      <c r="Z9" s="172"/>
+      <c r="AA9" s="172"/>
+      <c r="AB9" s="172"/>
+      <c r="AC9" s="172"/>
+      <c r="AD9" s="172"/>
+      <c r="AE9" s="173"/>
+      <c r="AF9" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="K9" s="206"/>
-      <c r="L9" s="206"/>
-      <c r="M9" s="206"/>
-      <c r="N9" s="206"/>
-      <c r="O9" s="206"/>
-      <c r="P9" s="207"/>
-      <c r="Q9" s="287" t="s">
-        <v>143</v>
-      </c>
-      <c r="R9" s="209"/>
-      <c r="S9" s="209"/>
-      <c r="T9" s="209"/>
-      <c r="U9" s="209"/>
-      <c r="V9" s="209"/>
-      <c r="W9" s="209"/>
-      <c r="X9" s="209"/>
-      <c r="Y9" s="209"/>
-      <c r="Z9" s="209"/>
-      <c r="AA9" s="209"/>
-      <c r="AB9" s="209"/>
-      <c r="AC9" s="209"/>
-      <c r="AD9" s="209"/>
-      <c r="AE9" s="210"/>
-      <c r="AF9" s="340" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG9" s="206"/>
-      <c r="AH9" s="206"/>
-      <c r="AI9" s="207"/>
+      <c r="AG9" s="169"/>
+      <c r="AH9" s="169"/>
+      <c r="AI9" s="170"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="115"/>
-      <c r="B10" s="199"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="199"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="206"/>
-      <c r="L10" s="206"/>
-      <c r="M10" s="206"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="206"/>
-      <c r="P10" s="207"/>
-      <c r="Q10" s="208"/>
-      <c r="R10" s="209"/>
-      <c r="S10" s="209"/>
-      <c r="T10" s="209"/>
-      <c r="U10" s="209"/>
-      <c r="V10" s="209"/>
-      <c r="W10" s="209"/>
-      <c r="X10" s="209"/>
-      <c r="Y10" s="209"/>
-      <c r="Z10" s="209"/>
-      <c r="AA10" s="209"/>
-      <c r="AB10" s="209"/>
-      <c r="AC10" s="209"/>
-      <c r="AD10" s="209"/>
-      <c r="AE10" s="210"/>
-      <c r="AF10" s="205"/>
-      <c r="AG10" s="206"/>
-      <c r="AH10" s="206"/>
-      <c r="AI10" s="207"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="172"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
+      <c r="U10" s="172"/>
+      <c r="V10" s="172"/>
+      <c r="W10" s="172"/>
+      <c r="X10" s="172"/>
+      <c r="Y10" s="172"/>
+      <c r="Z10" s="172"/>
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="172"/>
+      <c r="AC10" s="172"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="173"/>
+      <c r="AF10" s="168"/>
+      <c r="AG10" s="169"/>
+      <c r="AH10" s="169"/>
+      <c r="AI10" s="170"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="115"/>
-      <c r="B11" s="199"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="202"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="199"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="206"/>
-      <c r="L11" s="206"/>
-      <c r="M11" s="206"/>
-      <c r="N11" s="206"/>
-      <c r="O11" s="206"/>
-      <c r="P11" s="207"/>
-      <c r="Q11" s="208"/>
-      <c r="R11" s="209"/>
-      <c r="S11" s="209"/>
-      <c r="T11" s="209"/>
-      <c r="U11" s="209"/>
-      <c r="V11" s="209"/>
-      <c r="W11" s="209"/>
-      <c r="X11" s="209"/>
-      <c r="Y11" s="209"/>
-      <c r="Z11" s="209"/>
-      <c r="AA11" s="209"/>
-      <c r="AB11" s="209"/>
-      <c r="AC11" s="209"/>
-      <c r="AD11" s="209"/>
-      <c r="AE11" s="210"/>
-      <c r="AF11" s="205"/>
-      <c r="AG11" s="206"/>
-      <c r="AH11" s="206"/>
-      <c r="AI11" s="207"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="172"/>
+      <c r="T11" s="172"/>
+      <c r="U11" s="172"/>
+      <c r="V11" s="172"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="172"/>
+      <c r="Z11" s="172"/>
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="172"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="173"/>
+      <c r="AF11" s="168"/>
+      <c r="AG11" s="169"/>
+      <c r="AH11" s="169"/>
+      <c r="AI11" s="170"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="115"/>
-      <c r="B12" s="199"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="199"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="206"/>
-      <c r="L12" s="206"/>
-      <c r="M12" s="206"/>
-      <c r="N12" s="206"/>
-      <c r="O12" s="206"/>
-      <c r="P12" s="207"/>
-      <c r="Q12" s="208"/>
-      <c r="R12" s="209"/>
-      <c r="S12" s="209"/>
-      <c r="T12" s="209"/>
-      <c r="U12" s="209"/>
-      <c r="V12" s="209"/>
-      <c r="W12" s="209"/>
-      <c r="X12" s="209"/>
-      <c r="Y12" s="209"/>
-      <c r="Z12" s="209"/>
-      <c r="AA12" s="209"/>
-      <c r="AB12" s="209"/>
-      <c r="AC12" s="209"/>
-      <c r="AD12" s="209"/>
-      <c r="AE12" s="210"/>
-      <c r="AF12" s="205"/>
-      <c r="AG12" s="206"/>
-      <c r="AH12" s="206"/>
-      <c r="AI12" s="207"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="171"/>
+      <c r="R12" s="172"/>
+      <c r="S12" s="172"/>
+      <c r="T12" s="172"/>
+      <c r="U12" s="172"/>
+      <c r="V12" s="172"/>
+      <c r="W12" s="172"/>
+      <c r="X12" s="172"/>
+      <c r="Y12" s="172"/>
+      <c r="Z12" s="172"/>
+      <c r="AA12" s="172"/>
+      <c r="AB12" s="172"/>
+      <c r="AC12" s="172"/>
+      <c r="AD12" s="172"/>
+      <c r="AE12" s="173"/>
+      <c r="AF12" s="168"/>
+      <c r="AG12" s="169"/>
+      <c r="AH12" s="169"/>
+      <c r="AI12" s="170"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="115"/>
-      <c r="B13" s="199"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="206"/>
-      <c r="L13" s="206"/>
-      <c r="M13" s="206"/>
-      <c r="N13" s="206"/>
-      <c r="O13" s="206"/>
-      <c r="P13" s="207"/>
-      <c r="Q13" s="208"/>
-      <c r="R13" s="209"/>
-      <c r="S13" s="209"/>
-      <c r="T13" s="209"/>
-      <c r="U13" s="209"/>
-      <c r="V13" s="209"/>
-      <c r="W13" s="209"/>
-      <c r="X13" s="209"/>
-      <c r="Y13" s="209"/>
-      <c r="Z13" s="209"/>
-      <c r="AA13" s="209"/>
-      <c r="AB13" s="209"/>
-      <c r="AC13" s="209"/>
-      <c r="AD13" s="209"/>
-      <c r="AE13" s="210"/>
-      <c r="AF13" s="205"/>
-      <c r="AG13" s="206"/>
-      <c r="AH13" s="206"/>
-      <c r="AI13" s="207"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="169"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="172"/>
+      <c r="S13" s="172"/>
+      <c r="T13" s="172"/>
+      <c r="U13" s="172"/>
+      <c r="V13" s="172"/>
+      <c r="W13" s="172"/>
+      <c r="X13" s="172"/>
+      <c r="Y13" s="172"/>
+      <c r="Z13" s="172"/>
+      <c r="AA13" s="172"/>
+      <c r="AB13" s="172"/>
+      <c r="AC13" s="172"/>
+      <c r="AD13" s="172"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="168"/>
+      <c r="AG13" s="169"/>
+      <c r="AH13" s="169"/>
+      <c r="AI13" s="170"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="115"/>
-      <c r="B14" s="199"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="199"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="206"/>
-      <c r="L14" s="206"/>
-      <c r="M14" s="206"/>
-      <c r="N14" s="206"/>
-      <c r="O14" s="206"/>
-      <c r="P14" s="207"/>
-      <c r="Q14" s="208"/>
-      <c r="R14" s="209"/>
-      <c r="S14" s="209"/>
-      <c r="T14" s="209"/>
-      <c r="U14" s="209"/>
-      <c r="V14" s="209"/>
-      <c r="W14" s="209"/>
-      <c r="X14" s="209"/>
-      <c r="Y14" s="209"/>
-      <c r="Z14" s="209"/>
-      <c r="AA14" s="209"/>
-      <c r="AB14" s="209"/>
-      <c r="AC14" s="209"/>
-      <c r="AD14" s="209"/>
-      <c r="AE14" s="210"/>
-      <c r="AF14" s="205"/>
-      <c r="AG14" s="206"/>
-      <c r="AH14" s="206"/>
-      <c r="AI14" s="207"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="171"/>
+      <c r="R14" s="172"/>
+      <c r="S14" s="172"/>
+      <c r="T14" s="172"/>
+      <c r="U14" s="172"/>
+      <c r="V14" s="172"/>
+      <c r="W14" s="172"/>
+      <c r="X14" s="172"/>
+      <c r="Y14" s="172"/>
+      <c r="Z14" s="172"/>
+      <c r="AA14" s="172"/>
+      <c r="AB14" s="172"/>
+      <c r="AC14" s="172"/>
+      <c r="AD14" s="172"/>
+      <c r="AE14" s="173"/>
+      <c r="AF14" s="168"/>
+      <c r="AG14" s="169"/>
+      <c r="AH14" s="169"/>
+      <c r="AI14" s="170"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="115"/>
-      <c r="B15" s="199"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="203"/>
-      <c r="G15" s="199"/>
-      <c r="H15" s="204"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="206"/>
-      <c r="L15" s="206"/>
-      <c r="M15" s="206"/>
-      <c r="N15" s="206"/>
-      <c r="O15" s="206"/>
-      <c r="P15" s="207"/>
-      <c r="Q15" s="208"/>
-      <c r="R15" s="209"/>
-      <c r="S15" s="209"/>
-      <c r="T15" s="209"/>
-      <c r="U15" s="209"/>
-      <c r="V15" s="209"/>
-      <c r="W15" s="209"/>
-      <c r="X15" s="209"/>
-      <c r="Y15" s="209"/>
-      <c r="Z15" s="209"/>
-      <c r="AA15" s="209"/>
-      <c r="AB15" s="209"/>
-      <c r="AC15" s="209"/>
-      <c r="AD15" s="209"/>
-      <c r="AE15" s="210"/>
-      <c r="AF15" s="205"/>
-      <c r="AG15" s="206"/>
-      <c r="AH15" s="206"/>
-      <c r="AI15" s="207"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="169"/>
+      <c r="M15" s="169"/>
+      <c r="N15" s="169"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="172"/>
+      <c r="S15" s="172"/>
+      <c r="T15" s="172"/>
+      <c r="U15" s="172"/>
+      <c r="V15" s="172"/>
+      <c r="W15" s="172"/>
+      <c r="X15" s="172"/>
+      <c r="Y15" s="172"/>
+      <c r="Z15" s="172"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="172"/>
+      <c r="AC15" s="172"/>
+      <c r="AD15" s="172"/>
+      <c r="AE15" s="173"/>
+      <c r="AF15" s="168"/>
+      <c r="AG15" s="169"/>
+      <c r="AH15" s="169"/>
+      <c r="AI15" s="170"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="115"/>
-      <c r="B16" s="199"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="202"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="199"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="205"/>
-      <c r="K16" s="206"/>
-      <c r="L16" s="206"/>
-      <c r="M16" s="206"/>
-      <c r="N16" s="206"/>
-      <c r="O16" s="206"/>
-      <c r="P16" s="207"/>
-      <c r="Q16" s="208"/>
-      <c r="R16" s="209"/>
-      <c r="S16" s="209"/>
-      <c r="T16" s="209"/>
-      <c r="U16" s="209"/>
-      <c r="V16" s="209"/>
-      <c r="W16" s="209"/>
-      <c r="X16" s="209"/>
-      <c r="Y16" s="209"/>
-      <c r="Z16" s="209"/>
-      <c r="AA16" s="209"/>
-      <c r="AB16" s="209"/>
-      <c r="AC16" s="209"/>
-      <c r="AD16" s="209"/>
-      <c r="AE16" s="210"/>
-      <c r="AF16" s="205"/>
-      <c r="AG16" s="206"/>
-      <c r="AH16" s="206"/>
-      <c r="AI16" s="207"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="164"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="169"/>
+      <c r="M16" s="169"/>
+      <c r="N16" s="169"/>
+      <c r="O16" s="169"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="171"/>
+      <c r="R16" s="172"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="172"/>
+      <c r="U16" s="172"/>
+      <c r="V16" s="172"/>
+      <c r="W16" s="172"/>
+      <c r="X16" s="172"/>
+      <c r="Y16" s="172"/>
+      <c r="Z16" s="172"/>
+      <c r="AA16" s="172"/>
+      <c r="AB16" s="172"/>
+      <c r="AC16" s="172"/>
+      <c r="AD16" s="172"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="168"/>
+      <c r="AG16" s="169"/>
+      <c r="AH16" s="169"/>
+      <c r="AI16" s="170"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="115"/>
-      <c r="B17" s="199"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="199"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="206"/>
-      <c r="L17" s="206"/>
-      <c r="M17" s="206"/>
-      <c r="N17" s="206"/>
-      <c r="O17" s="206"/>
-      <c r="P17" s="207"/>
-      <c r="Q17" s="208"/>
-      <c r="R17" s="209"/>
-      <c r="S17" s="209"/>
-      <c r="T17" s="209"/>
-      <c r="U17" s="209"/>
-      <c r="V17" s="209"/>
-      <c r="W17" s="209"/>
-      <c r="X17" s="209"/>
-      <c r="Y17" s="209"/>
-      <c r="Z17" s="209"/>
-      <c r="AA17" s="209"/>
-      <c r="AB17" s="209"/>
-      <c r="AC17" s="209"/>
-      <c r="AD17" s="209"/>
-      <c r="AE17" s="210"/>
-      <c r="AF17" s="205"/>
-      <c r="AG17" s="206"/>
-      <c r="AH17" s="206"/>
-      <c r="AI17" s="207"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="169"/>
+      <c r="N17" s="169"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="170"/>
+      <c r="Q17" s="171"/>
+      <c r="R17" s="172"/>
+      <c r="S17" s="172"/>
+      <c r="T17" s="172"/>
+      <c r="U17" s="172"/>
+      <c r="V17" s="172"/>
+      <c r="W17" s="172"/>
+      <c r="X17" s="172"/>
+      <c r="Y17" s="172"/>
+      <c r="Z17" s="172"/>
+      <c r="AA17" s="172"/>
+      <c r="AB17" s="172"/>
+      <c r="AC17" s="172"/>
+      <c r="AD17" s="172"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="168"/>
+      <c r="AG17" s="169"/>
+      <c r="AH17" s="169"/>
+      <c r="AI17" s="170"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="115"/>
-      <c r="B18" s="199"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="202"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="205"/>
-      <c r="K18" s="206"/>
-      <c r="L18" s="206"/>
-      <c r="M18" s="206"/>
-      <c r="N18" s="206"/>
-      <c r="O18" s="206"/>
-      <c r="P18" s="207"/>
-      <c r="Q18" s="208"/>
-      <c r="R18" s="209"/>
-      <c r="S18" s="209"/>
-      <c r="T18" s="209"/>
-      <c r="U18" s="209"/>
-      <c r="V18" s="209"/>
-      <c r="W18" s="209"/>
-      <c r="X18" s="209"/>
-      <c r="Y18" s="209"/>
-      <c r="Z18" s="209"/>
-      <c r="AA18" s="209"/>
-      <c r="AB18" s="209"/>
-      <c r="AC18" s="209"/>
-      <c r="AD18" s="209"/>
-      <c r="AE18" s="210"/>
-      <c r="AF18" s="205"/>
-      <c r="AG18" s="206"/>
-      <c r="AH18" s="206"/>
-      <c r="AI18" s="207"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="169"/>
+      <c r="M18" s="169"/>
+      <c r="N18" s="169"/>
+      <c r="O18" s="169"/>
+      <c r="P18" s="170"/>
+      <c r="Q18" s="171"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="172"/>
+      <c r="T18" s="172"/>
+      <c r="U18" s="172"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="172"/>
+      <c r="X18" s="172"/>
+      <c r="Y18" s="172"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="172"/>
+      <c r="AC18" s="172"/>
+      <c r="AD18" s="172"/>
+      <c r="AE18" s="173"/>
+      <c r="AF18" s="168"/>
+      <c r="AG18" s="169"/>
+      <c r="AH18" s="169"/>
+      <c r="AI18" s="170"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="115"/>
-      <c r="B19" s="199"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="202"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="204"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="206"/>
-      <c r="L19" s="206"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="206"/>
-      <c r="O19" s="206"/>
-      <c r="P19" s="207"/>
-      <c r="Q19" s="208"/>
-      <c r="R19" s="209"/>
-      <c r="S19" s="209"/>
-      <c r="T19" s="209"/>
-      <c r="U19" s="209"/>
-      <c r="V19" s="209"/>
-      <c r="W19" s="209"/>
-      <c r="X19" s="209"/>
-      <c r="Y19" s="209"/>
-      <c r="Z19" s="209"/>
-      <c r="AA19" s="209"/>
-      <c r="AB19" s="209"/>
-      <c r="AC19" s="209"/>
-      <c r="AD19" s="209"/>
-      <c r="AE19" s="210"/>
-      <c r="AF19" s="205"/>
-      <c r="AG19" s="206"/>
-      <c r="AH19" s="206"/>
-      <c r="AI19" s="207"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="169"/>
+      <c r="L19" s="169"/>
+      <c r="M19" s="169"/>
+      <c r="N19" s="169"/>
+      <c r="O19" s="169"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="171"/>
+      <c r="R19" s="172"/>
+      <c r="S19" s="172"/>
+      <c r="T19" s="172"/>
+      <c r="U19" s="172"/>
+      <c r="V19" s="172"/>
+      <c r="W19" s="172"/>
+      <c r="X19" s="172"/>
+      <c r="Y19" s="172"/>
+      <c r="Z19" s="172"/>
+      <c r="AA19" s="172"/>
+      <c r="AB19" s="172"/>
+      <c r="AC19" s="172"/>
+      <c r="AD19" s="172"/>
+      <c r="AE19" s="173"/>
+      <c r="AF19" s="168"/>
+      <c r="AG19" s="169"/>
+      <c r="AH19" s="169"/>
+      <c r="AI19" s="170"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="115"/>
-      <c r="B20" s="199"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="205"/>
-      <c r="K20" s="206"/>
-      <c r="L20" s="206"/>
-      <c r="M20" s="206"/>
-      <c r="N20" s="206"/>
-      <c r="O20" s="206"/>
-      <c r="P20" s="207"/>
-      <c r="Q20" s="208"/>
-      <c r="R20" s="209"/>
-      <c r="S20" s="209"/>
-      <c r="T20" s="209"/>
-      <c r="U20" s="209"/>
-      <c r="V20" s="209"/>
-      <c r="W20" s="209"/>
-      <c r="X20" s="209"/>
-      <c r="Y20" s="209"/>
-      <c r="Z20" s="209"/>
-      <c r="AA20" s="209"/>
-      <c r="AB20" s="209"/>
-      <c r="AC20" s="209"/>
-      <c r="AD20" s="209"/>
-      <c r="AE20" s="210"/>
-      <c r="AF20" s="205"/>
-      <c r="AG20" s="206"/>
-      <c r="AH20" s="206"/>
-      <c r="AI20" s="207"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="169"/>
+      <c r="P20" s="170"/>
+      <c r="Q20" s="171"/>
+      <c r="R20" s="172"/>
+      <c r="S20" s="172"/>
+      <c r="T20" s="172"/>
+      <c r="U20" s="172"/>
+      <c r="V20" s="172"/>
+      <c r="W20" s="172"/>
+      <c r="X20" s="172"/>
+      <c r="Y20" s="172"/>
+      <c r="Z20" s="172"/>
+      <c r="AA20" s="172"/>
+      <c r="AB20" s="172"/>
+      <c r="AC20" s="172"/>
+      <c r="AD20" s="172"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="168"/>
+      <c r="AG20" s="169"/>
+      <c r="AH20" s="169"/>
+      <c r="AI20" s="170"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="115"/>
-      <c r="B21" s="199"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="205"/>
-      <c r="K21" s="206"/>
-      <c r="L21" s="206"/>
-      <c r="M21" s="206"/>
-      <c r="N21" s="206"/>
-      <c r="O21" s="206"/>
-      <c r="P21" s="207"/>
-      <c r="Q21" s="208"/>
-      <c r="R21" s="209"/>
-      <c r="S21" s="209"/>
-      <c r="T21" s="209"/>
-      <c r="U21" s="209"/>
-      <c r="V21" s="209"/>
-      <c r="W21" s="209"/>
-      <c r="X21" s="209"/>
-      <c r="Y21" s="209"/>
-      <c r="Z21" s="209"/>
-      <c r="AA21" s="209"/>
-      <c r="AB21" s="209"/>
-      <c r="AC21" s="209"/>
-      <c r="AD21" s="209"/>
-      <c r="AE21" s="210"/>
-      <c r="AF21" s="205"/>
-      <c r="AG21" s="206"/>
-      <c r="AH21" s="206"/>
-      <c r="AI21" s="207"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="169"/>
+      <c r="M21" s="169"/>
+      <c r="N21" s="169"/>
+      <c r="O21" s="169"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="171"/>
+      <c r="R21" s="172"/>
+      <c r="S21" s="172"/>
+      <c r="T21" s="172"/>
+      <c r="U21" s="172"/>
+      <c r="V21" s="172"/>
+      <c r="W21" s="172"/>
+      <c r="X21" s="172"/>
+      <c r="Y21" s="172"/>
+      <c r="Z21" s="172"/>
+      <c r="AA21" s="172"/>
+      <c r="AB21" s="172"/>
+      <c r="AC21" s="172"/>
+      <c r="AD21" s="172"/>
+      <c r="AE21" s="173"/>
+      <c r="AF21" s="168"/>
+      <c r="AG21" s="169"/>
+      <c r="AH21" s="169"/>
+      <c r="AI21" s="170"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="115"/>
-      <c r="B22" s="199"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="206"/>
-      <c r="L22" s="206"/>
-      <c r="M22" s="206"/>
-      <c r="N22" s="206"/>
-      <c r="O22" s="206"/>
-      <c r="P22" s="207"/>
-      <c r="Q22" s="208"/>
-      <c r="R22" s="209"/>
-      <c r="S22" s="209"/>
-      <c r="T22" s="209"/>
-      <c r="U22" s="209"/>
-      <c r="V22" s="209"/>
-      <c r="W22" s="209"/>
-      <c r="X22" s="209"/>
-      <c r="Y22" s="209"/>
-      <c r="Z22" s="209"/>
-      <c r="AA22" s="209"/>
-      <c r="AB22" s="209"/>
-      <c r="AC22" s="209"/>
-      <c r="AD22" s="209"/>
-      <c r="AE22" s="210"/>
-      <c r="AF22" s="205"/>
-      <c r="AG22" s="206"/>
-      <c r="AH22" s="206"/>
-      <c r="AI22" s="207"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="164"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="169"/>
+      <c r="M22" s="169"/>
+      <c r="N22" s="169"/>
+      <c r="O22" s="169"/>
+      <c r="P22" s="170"/>
+      <c r="Q22" s="171"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
+      <c r="T22" s="172"/>
+      <c r="U22" s="172"/>
+      <c r="V22" s="172"/>
+      <c r="W22" s="172"/>
+      <c r="X22" s="172"/>
+      <c r="Y22" s="172"/>
+      <c r="Z22" s="172"/>
+      <c r="AA22" s="172"/>
+      <c r="AB22" s="172"/>
+      <c r="AC22" s="172"/>
+      <c r="AD22" s="172"/>
+      <c r="AE22" s="173"/>
+      <c r="AF22" s="168"/>
+      <c r="AG22" s="169"/>
+      <c r="AH22" s="169"/>
+      <c r="AI22" s="170"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="115"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="199"/>
-      <c r="H23" s="204"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="205"/>
-      <c r="K23" s="206"/>
-      <c r="L23" s="206"/>
-      <c r="M23" s="206"/>
-      <c r="N23" s="206"/>
-      <c r="O23" s="206"/>
-      <c r="P23" s="207"/>
-      <c r="Q23" s="208"/>
-      <c r="R23" s="209"/>
-      <c r="S23" s="209"/>
-      <c r="T23" s="209"/>
-      <c r="U23" s="209"/>
-      <c r="V23" s="209"/>
-      <c r="W23" s="209"/>
-      <c r="X23" s="209"/>
-      <c r="Y23" s="209"/>
-      <c r="Z23" s="209"/>
-      <c r="AA23" s="209"/>
-      <c r="AB23" s="209"/>
-      <c r="AC23" s="209"/>
-      <c r="AD23" s="209"/>
-      <c r="AE23" s="210"/>
-      <c r="AF23" s="205"/>
-      <c r="AG23" s="206"/>
-      <c r="AH23" s="206"/>
-      <c r="AI23" s="207"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="169"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="169"/>
+      <c r="N23" s="169"/>
+      <c r="O23" s="169"/>
+      <c r="P23" s="170"/>
+      <c r="Q23" s="171"/>
+      <c r="R23" s="172"/>
+      <c r="S23" s="172"/>
+      <c r="T23" s="172"/>
+      <c r="U23" s="172"/>
+      <c r="V23" s="172"/>
+      <c r="W23" s="172"/>
+      <c r="X23" s="172"/>
+      <c r="Y23" s="172"/>
+      <c r="Z23" s="172"/>
+      <c r="AA23" s="172"/>
+      <c r="AB23" s="172"/>
+      <c r="AC23" s="172"/>
+      <c r="AD23" s="172"/>
+      <c r="AE23" s="173"/>
+      <c r="AF23" s="168"/>
+      <c r="AG23" s="169"/>
+      <c r="AH23" s="169"/>
+      <c r="AI23" s="170"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="115"/>
-      <c r="B24" s="199"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="199"/>
-      <c r="H24" s="204"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="205"/>
-      <c r="K24" s="206"/>
-      <c r="L24" s="206"/>
-      <c r="M24" s="206"/>
-      <c r="N24" s="206"/>
-      <c r="O24" s="206"/>
-      <c r="P24" s="207"/>
-      <c r="Q24" s="208"/>
-      <c r="R24" s="209"/>
-      <c r="S24" s="209"/>
-      <c r="T24" s="209"/>
-      <c r="U24" s="209"/>
-      <c r="V24" s="209"/>
-      <c r="W24" s="209"/>
-      <c r="X24" s="209"/>
-      <c r="Y24" s="209"/>
-      <c r="Z24" s="209"/>
-      <c r="AA24" s="209"/>
-      <c r="AB24" s="209"/>
-      <c r="AC24" s="209"/>
-      <c r="AD24" s="209"/>
-      <c r="AE24" s="210"/>
-      <c r="AF24" s="205"/>
-      <c r="AG24" s="206"/>
-      <c r="AH24" s="206"/>
-      <c r="AI24" s="207"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="169"/>
+      <c r="L24" s="169"/>
+      <c r="M24" s="169"/>
+      <c r="N24" s="169"/>
+      <c r="O24" s="169"/>
+      <c r="P24" s="170"/>
+      <c r="Q24" s="171"/>
+      <c r="R24" s="172"/>
+      <c r="S24" s="172"/>
+      <c r="T24" s="172"/>
+      <c r="U24" s="172"/>
+      <c r="V24" s="172"/>
+      <c r="W24" s="172"/>
+      <c r="X24" s="172"/>
+      <c r="Y24" s="172"/>
+      <c r="Z24" s="172"/>
+      <c r="AA24" s="172"/>
+      <c r="AB24" s="172"/>
+      <c r="AC24" s="172"/>
+      <c r="AD24" s="172"/>
+      <c r="AE24" s="173"/>
+      <c r="AF24" s="168"/>
+      <c r="AG24" s="169"/>
+      <c r="AH24" s="169"/>
+      <c r="AI24" s="170"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="115"/>
-      <c r="B25" s="199"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="206"/>
-      <c r="L25" s="206"/>
-      <c r="M25" s="206"/>
-      <c r="N25" s="206"/>
-      <c r="O25" s="206"/>
-      <c r="P25" s="207"/>
-      <c r="Q25" s="208"/>
-      <c r="R25" s="209"/>
-      <c r="S25" s="209"/>
-      <c r="T25" s="209"/>
-      <c r="U25" s="209"/>
-      <c r="V25" s="209"/>
-      <c r="W25" s="209"/>
-      <c r="X25" s="209"/>
-      <c r="Y25" s="209"/>
-      <c r="Z25" s="209"/>
-      <c r="AA25" s="209"/>
-      <c r="AB25" s="209"/>
-      <c r="AC25" s="209"/>
-      <c r="AD25" s="209"/>
-      <c r="AE25" s="210"/>
-      <c r="AF25" s="205"/>
-      <c r="AG25" s="206"/>
-      <c r="AH25" s="206"/>
-      <c r="AI25" s="207"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="169"/>
+      <c r="L25" s="169"/>
+      <c r="M25" s="169"/>
+      <c r="N25" s="169"/>
+      <c r="O25" s="169"/>
+      <c r="P25" s="170"/>
+      <c r="Q25" s="171"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="172"/>
+      <c r="T25" s="172"/>
+      <c r="U25" s="172"/>
+      <c r="V25" s="172"/>
+      <c r="W25" s="172"/>
+      <c r="X25" s="172"/>
+      <c r="Y25" s="172"/>
+      <c r="Z25" s="172"/>
+      <c r="AA25" s="172"/>
+      <c r="AB25" s="172"/>
+      <c r="AC25" s="172"/>
+      <c r="AD25" s="172"/>
+      <c r="AE25" s="173"/>
+      <c r="AF25" s="168"/>
+      <c r="AG25" s="169"/>
+      <c r="AH25" s="169"/>
+      <c r="AI25" s="170"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="115"/>
-      <c r="B26" s="199"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="204"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="205"/>
-      <c r="K26" s="206"/>
-      <c r="L26" s="206"/>
-      <c r="M26" s="206"/>
-      <c r="N26" s="206"/>
-      <c r="O26" s="206"/>
-      <c r="P26" s="207"/>
-      <c r="Q26" s="208"/>
-      <c r="R26" s="209"/>
-      <c r="S26" s="209"/>
-      <c r="T26" s="209"/>
-      <c r="U26" s="209"/>
-      <c r="V26" s="209"/>
-      <c r="W26" s="209"/>
-      <c r="X26" s="209"/>
-      <c r="Y26" s="209"/>
-      <c r="Z26" s="209"/>
-      <c r="AA26" s="209"/>
-      <c r="AB26" s="209"/>
-      <c r="AC26" s="209"/>
-      <c r="AD26" s="209"/>
-      <c r="AE26" s="210"/>
-      <c r="AF26" s="205"/>
-      <c r="AG26" s="206"/>
-      <c r="AH26" s="206"/>
-      <c r="AI26" s="207"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="169"/>
+      <c r="L26" s="169"/>
+      <c r="M26" s="169"/>
+      <c r="N26" s="169"/>
+      <c r="O26" s="169"/>
+      <c r="P26" s="170"/>
+      <c r="Q26" s="171"/>
+      <c r="R26" s="172"/>
+      <c r="S26" s="172"/>
+      <c r="T26" s="172"/>
+      <c r="U26" s="172"/>
+      <c r="V26" s="172"/>
+      <c r="W26" s="172"/>
+      <c r="X26" s="172"/>
+      <c r="Y26" s="172"/>
+      <c r="Z26" s="172"/>
+      <c r="AA26" s="172"/>
+      <c r="AB26" s="172"/>
+      <c r="AC26" s="172"/>
+      <c r="AD26" s="172"/>
+      <c r="AE26" s="173"/>
+      <c r="AF26" s="168"/>
+      <c r="AG26" s="169"/>
+      <c r="AH26" s="169"/>
+      <c r="AI26" s="170"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="115"/>
-      <c r="B27" s="199"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="201"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="204"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="205"/>
-      <c r="K27" s="206"/>
-      <c r="L27" s="206"/>
-      <c r="M27" s="206"/>
-      <c r="N27" s="206"/>
-      <c r="O27" s="206"/>
-      <c r="P27" s="207"/>
-      <c r="Q27" s="208"/>
-      <c r="R27" s="209"/>
-      <c r="S27" s="209"/>
-      <c r="T27" s="209"/>
-      <c r="U27" s="209"/>
-      <c r="V27" s="209"/>
-      <c r="W27" s="209"/>
-      <c r="X27" s="209"/>
-      <c r="Y27" s="209"/>
-      <c r="Z27" s="209"/>
-      <c r="AA27" s="209"/>
-      <c r="AB27" s="209"/>
-      <c r="AC27" s="209"/>
-      <c r="AD27" s="209"/>
-      <c r="AE27" s="210"/>
-      <c r="AF27" s="205"/>
-      <c r="AG27" s="206"/>
-      <c r="AH27" s="206"/>
-      <c r="AI27" s="207"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="164"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="169"/>
+      <c r="L27" s="169"/>
+      <c r="M27" s="169"/>
+      <c r="N27" s="169"/>
+      <c r="O27" s="169"/>
+      <c r="P27" s="170"/>
+      <c r="Q27" s="171"/>
+      <c r="R27" s="172"/>
+      <c r="S27" s="172"/>
+      <c r="T27" s="172"/>
+      <c r="U27" s="172"/>
+      <c r="V27" s="172"/>
+      <c r="W27" s="172"/>
+      <c r="X27" s="172"/>
+      <c r="Y27" s="172"/>
+      <c r="Z27" s="172"/>
+      <c r="AA27" s="172"/>
+      <c r="AB27" s="172"/>
+      <c r="AC27" s="172"/>
+      <c r="AD27" s="172"/>
+      <c r="AE27" s="173"/>
+      <c r="AF27" s="168"/>
+      <c r="AG27" s="169"/>
+      <c r="AH27" s="169"/>
+      <c r="AI27" s="170"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="115"/>
-      <c r="B28" s="199"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="205"/>
-      <c r="K28" s="206"/>
-      <c r="L28" s="206"/>
-      <c r="M28" s="206"/>
-      <c r="N28" s="206"/>
-      <c r="O28" s="206"/>
-      <c r="P28" s="207"/>
-      <c r="Q28" s="208"/>
-      <c r="R28" s="209"/>
-      <c r="S28" s="209"/>
-      <c r="T28" s="209"/>
-      <c r="U28" s="209"/>
-      <c r="V28" s="209"/>
-      <c r="W28" s="209"/>
-      <c r="X28" s="209"/>
-      <c r="Y28" s="209"/>
-      <c r="Z28" s="209"/>
-      <c r="AA28" s="209"/>
-      <c r="AB28" s="209"/>
-      <c r="AC28" s="209"/>
-      <c r="AD28" s="209"/>
-      <c r="AE28" s="210"/>
-      <c r="AF28" s="205"/>
-      <c r="AG28" s="206"/>
-      <c r="AH28" s="206"/>
-      <c r="AI28" s="207"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="169"/>
+      <c r="L28" s="169"/>
+      <c r="M28" s="169"/>
+      <c r="N28" s="169"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="171"/>
+      <c r="R28" s="172"/>
+      <c r="S28" s="172"/>
+      <c r="T28" s="172"/>
+      <c r="U28" s="172"/>
+      <c r="V28" s="172"/>
+      <c r="W28" s="172"/>
+      <c r="X28" s="172"/>
+      <c r="Y28" s="172"/>
+      <c r="Z28" s="172"/>
+      <c r="AA28" s="172"/>
+      <c r="AB28" s="172"/>
+      <c r="AC28" s="172"/>
+      <c r="AD28" s="172"/>
+      <c r="AE28" s="173"/>
+      <c r="AF28" s="168"/>
+      <c r="AG28" s="169"/>
+      <c r="AH28" s="169"/>
+      <c r="AI28" s="170"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="115"/>
-      <c r="B29" s="199"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="205"/>
-      <c r="K29" s="206"/>
-      <c r="L29" s="206"/>
-      <c r="M29" s="206"/>
-      <c r="N29" s="206"/>
-      <c r="O29" s="206"/>
-      <c r="P29" s="207"/>
-      <c r="Q29" s="208"/>
-      <c r="R29" s="209"/>
-      <c r="S29" s="209"/>
-      <c r="T29" s="209"/>
-      <c r="U29" s="209"/>
-      <c r="V29" s="209"/>
-      <c r="W29" s="209"/>
-      <c r="X29" s="209"/>
-      <c r="Y29" s="209"/>
-      <c r="Z29" s="209"/>
-      <c r="AA29" s="209"/>
-      <c r="AB29" s="209"/>
-      <c r="AC29" s="209"/>
-      <c r="AD29" s="209"/>
-      <c r="AE29" s="210"/>
-      <c r="AF29" s="205"/>
-      <c r="AG29" s="206"/>
-      <c r="AH29" s="206"/>
-      <c r="AI29" s="207"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="169"/>
+      <c r="L29" s="169"/>
+      <c r="M29" s="169"/>
+      <c r="N29" s="169"/>
+      <c r="O29" s="169"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="171"/>
+      <c r="R29" s="172"/>
+      <c r="S29" s="172"/>
+      <c r="T29" s="172"/>
+      <c r="U29" s="172"/>
+      <c r="V29" s="172"/>
+      <c r="W29" s="172"/>
+      <c r="X29" s="172"/>
+      <c r="Y29" s="172"/>
+      <c r="Z29" s="172"/>
+      <c r="AA29" s="172"/>
+      <c r="AB29" s="172"/>
+      <c r="AC29" s="172"/>
+      <c r="AD29" s="172"/>
+      <c r="AE29" s="173"/>
+      <c r="AF29" s="168"/>
+      <c r="AG29" s="169"/>
+      <c r="AH29" s="169"/>
+      <c r="AI29" s="170"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="115"/>
-      <c r="B30" s="199"/>
-      <c r="C30" s="200"/>
-      <c r="D30" s="201"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="204"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="205"/>
-      <c r="K30" s="206"/>
-      <c r="L30" s="206"/>
-      <c r="M30" s="206"/>
-      <c r="N30" s="206"/>
-      <c r="O30" s="206"/>
-      <c r="P30" s="207"/>
-      <c r="Q30" s="208"/>
-      <c r="R30" s="209"/>
-      <c r="S30" s="209"/>
-      <c r="T30" s="209"/>
-      <c r="U30" s="209"/>
-      <c r="V30" s="209"/>
-      <c r="W30" s="209"/>
-      <c r="X30" s="209"/>
-      <c r="Y30" s="209"/>
-      <c r="Z30" s="209"/>
-      <c r="AA30" s="209"/>
-      <c r="AB30" s="209"/>
-      <c r="AC30" s="209"/>
-      <c r="AD30" s="209"/>
-      <c r="AE30" s="210"/>
-      <c r="AF30" s="205"/>
-      <c r="AG30" s="206"/>
-      <c r="AH30" s="206"/>
-      <c r="AI30" s="207"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="169"/>
+      <c r="L30" s="169"/>
+      <c r="M30" s="169"/>
+      <c r="N30" s="169"/>
+      <c r="O30" s="169"/>
+      <c r="P30" s="170"/>
+      <c r="Q30" s="171"/>
+      <c r="R30" s="172"/>
+      <c r="S30" s="172"/>
+      <c r="T30" s="172"/>
+      <c r="U30" s="172"/>
+      <c r="V30" s="172"/>
+      <c r="W30" s="172"/>
+      <c r="X30" s="172"/>
+      <c r="Y30" s="172"/>
+      <c r="Z30" s="172"/>
+      <c r="AA30" s="172"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="172"/>
+      <c r="AD30" s="172"/>
+      <c r="AE30" s="173"/>
+      <c r="AF30" s="168"/>
+      <c r="AG30" s="169"/>
+      <c r="AH30" s="169"/>
+      <c r="AI30" s="170"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="115"/>
-      <c r="B31" s="199"/>
-      <c r="C31" s="200"/>
-      <c r="D31" s="201"/>
-      <c r="E31" s="202"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="204"/>
-      <c r="I31" s="200"/>
-      <c r="J31" s="205"/>
-      <c r="K31" s="206"/>
-      <c r="L31" s="206"/>
-      <c r="M31" s="206"/>
-      <c r="N31" s="206"/>
-      <c r="O31" s="206"/>
-      <c r="P31" s="207"/>
-      <c r="Q31" s="208"/>
-      <c r="R31" s="209"/>
-      <c r="S31" s="209"/>
-      <c r="T31" s="209"/>
-      <c r="U31" s="209"/>
-      <c r="V31" s="209"/>
-      <c r="W31" s="209"/>
-      <c r="X31" s="209"/>
-      <c r="Y31" s="209"/>
-      <c r="Z31" s="209"/>
-      <c r="AA31" s="209"/>
-      <c r="AB31" s="209"/>
-      <c r="AC31" s="209"/>
-      <c r="AD31" s="209"/>
-      <c r="AE31" s="210"/>
-      <c r="AF31" s="205"/>
-      <c r="AG31" s="206"/>
-      <c r="AH31" s="206"/>
-      <c r="AI31" s="207"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="169"/>
+      <c r="L31" s="169"/>
+      <c r="M31" s="169"/>
+      <c r="N31" s="169"/>
+      <c r="O31" s="169"/>
+      <c r="P31" s="170"/>
+      <c r="Q31" s="171"/>
+      <c r="R31" s="172"/>
+      <c r="S31" s="172"/>
+      <c r="T31" s="172"/>
+      <c r="U31" s="172"/>
+      <c r="V31" s="172"/>
+      <c r="W31" s="172"/>
+      <c r="X31" s="172"/>
+      <c r="Y31" s="172"/>
+      <c r="Z31" s="172"/>
+      <c r="AA31" s="172"/>
+      <c r="AB31" s="172"/>
+      <c r="AC31" s="172"/>
+      <c r="AD31" s="172"/>
+      <c r="AE31" s="173"/>
+      <c r="AF31" s="168"/>
+      <c r="AG31" s="169"/>
+      <c r="AH31" s="169"/>
+      <c r="AI31" s="170"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="115"/>
-      <c r="B32" s="199"/>
-      <c r="C32" s="200"/>
-      <c r="D32" s="201"/>
-      <c r="E32" s="202"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="199"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="200"/>
-      <c r="J32" s="205"/>
-      <c r="K32" s="223"/>
-      <c r="L32" s="206"/>
-      <c r="M32" s="206"/>
-      <c r="N32" s="206"/>
-      <c r="O32" s="206"/>
-      <c r="P32" s="207"/>
-      <c r="Q32" s="208"/>
-      <c r="R32" s="209"/>
-      <c r="S32" s="209"/>
-      <c r="T32" s="209"/>
-      <c r="U32" s="209"/>
-      <c r="V32" s="209"/>
-      <c r="W32" s="209"/>
-      <c r="X32" s="209"/>
-      <c r="Y32" s="209"/>
-      <c r="Z32" s="209"/>
-      <c r="AA32" s="209"/>
-      <c r="AB32" s="209"/>
-      <c r="AC32" s="209"/>
-      <c r="AD32" s="209"/>
-      <c r="AE32" s="210"/>
-      <c r="AF32" s="205"/>
-      <c r="AG32" s="206"/>
-      <c r="AH32" s="206"/>
-      <c r="AI32" s="207"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="169"/>
+      <c r="N32" s="169"/>
+      <c r="O32" s="169"/>
+      <c r="P32" s="170"/>
+      <c r="Q32" s="171"/>
+      <c r="R32" s="172"/>
+      <c r="S32" s="172"/>
+      <c r="T32" s="172"/>
+      <c r="U32" s="172"/>
+      <c r="V32" s="172"/>
+      <c r="W32" s="172"/>
+      <c r="X32" s="172"/>
+      <c r="Y32" s="172"/>
+      <c r="Z32" s="172"/>
+      <c r="AA32" s="172"/>
+      <c r="AB32" s="172"/>
+      <c r="AC32" s="172"/>
+      <c r="AD32" s="172"/>
+      <c r="AE32" s="173"/>
+      <c r="AF32" s="168"/>
+      <c r="AG32" s="169"/>
+      <c r="AH32" s="169"/>
+      <c r="AI32" s="170"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="115"/>
-      <c r="B33" s="199"/>
-      <c r="C33" s="200"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="203"/>
-      <c r="G33" s="199"/>
-      <c r="H33" s="204"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="205"/>
-      <c r="K33" s="206"/>
-      <c r="L33" s="206"/>
-      <c r="M33" s="206"/>
-      <c r="N33" s="206"/>
-      <c r="O33" s="206"/>
-      <c r="P33" s="207"/>
-      <c r="Q33" s="208"/>
-      <c r="R33" s="209"/>
-      <c r="S33" s="209"/>
-      <c r="T33" s="209"/>
-      <c r="U33" s="209"/>
-      <c r="V33" s="209"/>
-      <c r="W33" s="209"/>
-      <c r="X33" s="209"/>
-      <c r="Y33" s="209"/>
-      <c r="Z33" s="209"/>
-      <c r="AA33" s="209"/>
-      <c r="AB33" s="209"/>
-      <c r="AC33" s="209"/>
-      <c r="AD33" s="209"/>
-      <c r="AE33" s="210"/>
-      <c r="AF33" s="205"/>
-      <c r="AG33" s="206"/>
-      <c r="AH33" s="206"/>
-      <c r="AI33" s="207"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="169"/>
+      <c r="L33" s="169"/>
+      <c r="M33" s="169"/>
+      <c r="N33" s="169"/>
+      <c r="O33" s="169"/>
+      <c r="P33" s="170"/>
+      <c r="Q33" s="171"/>
+      <c r="R33" s="172"/>
+      <c r="S33" s="172"/>
+      <c r="T33" s="172"/>
+      <c r="U33" s="172"/>
+      <c r="V33" s="172"/>
+      <c r="W33" s="172"/>
+      <c r="X33" s="172"/>
+      <c r="Y33" s="172"/>
+      <c r="Z33" s="172"/>
+      <c r="AA33" s="172"/>
+      <c r="AB33" s="172"/>
+      <c r="AC33" s="172"/>
+      <c r="AD33" s="172"/>
+      <c r="AE33" s="173"/>
+      <c r="AF33" s="168"/>
+      <c r="AG33" s="169"/>
+      <c r="AH33" s="169"/>
+      <c r="AI33" s="170"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8376,6 +8220,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8532,157 +8532,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="242" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="236" t="str">
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="227" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="245" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="240" t="str">
+      <c r="P1" s="246"/>
+      <c r="Q1" s="246"/>
+      <c r="R1" s="247"/>
+      <c r="S1" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="242"/>
-      <c r="AA1" s="224" t="s">
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="234"/>
+      <c r="X1" s="234"/>
+      <c r="Y1" s="234"/>
+      <c r="Z1" s="235"/>
+      <c r="AA1" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="226"/>
-      <c r="AC1" s="162" t="str">
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="237">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="229">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
+      <c r="AH1" s="230"/>
+      <c r="AI1" s="231"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="236" t="str">
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="224" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="249"/>
+      <c r="R2" s="250"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="238"/>
+      <c r="AA2" s="242" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="226"/>
-      <c r="AC2" s="162" t="str">
+      <c r="AB2" s="244"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="237">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="229">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="239"/>
+      <c r="AH2" s="230"/>
+      <c r="AI2" s="231"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="242" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="236" t="str">
+      <c r="B3" s="243"/>
+      <c r="C3" s="243"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="224"/>
-      <c r="AB3" s="226"/>
-      <c r="AC3" s="162" t="str">
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="252"/>
+      <c r="R3" s="253"/>
+      <c r="S3" s="239"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="241"/>
+      <c r="AA3" s="242"/>
+      <c r="AB3" s="244"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="237" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="229" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="239"/>
+      <c r="AH3" s="230"/>
+      <c r="AI3" s="231"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42"/>
@@ -10149,6 +10149,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -10158,14 +10166,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10194,157 +10194,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="236" t="str">
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="240" t="str">
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="242"/>
-      <c r="AA1" s="178" t="s">
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="234"/>
+      <c r="X1" s="234"/>
+      <c r="Y1" s="234"/>
+      <c r="Z1" s="235"/>
+      <c r="AA1" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="162" t="str">
+      <c r="AB1" s="210"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="250">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="252"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="236" t="str">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="178" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="238"/>
+      <c r="AA2" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="162" t="str">
+      <c r="AB2" s="210"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="250">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="264">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="251"/>
-      <c r="AI2" s="252"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="236" t="str">
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="162" t="str">
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="239"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="241"/>
+      <c r="AA3" s="208"/>
+      <c r="AB3" s="210"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="250" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="251"/>
-      <c r="AI3" s="252"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -10500,92 +10500,92 @@
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="255" t="s">
+      <c r="D8" s="257" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="253" t="s">
+      <c r="E8" s="258"/>
+      <c r="F8" s="258"/>
+      <c r="G8" s="259"/>
+      <c r="H8" s="267" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="254"/>
-      <c r="J8" s="254"/>
-      <c r="K8" s="254"/>
-      <c r="L8" s="254"/>
-      <c r="M8" s="254"/>
-      <c r="N8" s="254"/>
-      <c r="O8" s="254"/>
-      <c r="P8" s="254"/>
-      <c r="Q8" s="254"/>
-      <c r="R8" s="254"/>
-      <c r="S8" s="254"/>
-      <c r="T8" s="254"/>
-      <c r="U8" s="254"/>
-      <c r="V8" s="254"/>
-      <c r="W8" s="254"/>
-      <c r="X8" s="254"/>
-      <c r="Y8" s="254"/>
-      <c r="Z8" s="254"/>
-      <c r="AA8" s="254"/>
-      <c r="AB8" s="254"/>
-      <c r="AC8" s="254"/>
-      <c r="AD8" s="254"/>
-      <c r="AE8" s="254"/>
-      <c r="AF8" s="254"/>
-      <c r="AG8" s="254"/>
-      <c r="AH8" s="254"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="268"/>
+      <c r="K8" s="268"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="268"/>
+      <c r="N8" s="268"/>
+      <c r="O8" s="268"/>
+      <c r="P8" s="268"/>
+      <c r="Q8" s="268"/>
+      <c r="R8" s="268"/>
+      <c r="S8" s="268"/>
+      <c r="T8" s="268"/>
+      <c r="U8" s="268"/>
+      <c r="V8" s="268"/>
+      <c r="W8" s="268"/>
+      <c r="X8" s="268"/>
+      <c r="Y8" s="268"/>
+      <c r="Z8" s="268"/>
+      <c r="AA8" s="268"/>
+      <c r="AB8" s="268"/>
+      <c r="AC8" s="268"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="268"/>
+      <c r="AF8" s="268"/>
+      <c r="AG8" s="268"/>
+      <c r="AH8" s="268"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="255" t="s">
+      <c r="D9" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="249" t="s">
+      <c r="E9" s="258"/>
+      <c r="F9" s="258"/>
+      <c r="G9" s="259"/>
+      <c r="H9" s="263" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="249"/>
-      <c r="J9" s="249"/>
-      <c r="K9" s="249"/>
-      <c r="L9" s="249"/>
-      <c r="M9" s="249"/>
-      <c r="N9" s="249"/>
-      <c r="O9" s="249"/>
-      <c r="P9" s="249"/>
-      <c r="Q9" s="249"/>
-      <c r="R9" s="249"/>
-      <c r="S9" s="249"/>
-      <c r="T9" s="249"/>
-      <c r="U9" s="249"/>
-      <c r="V9" s="249"/>
-      <c r="W9" s="249"/>
-      <c r="X9" s="249"/>
-      <c r="Y9" s="249"/>
-      <c r="Z9" s="249"/>
-      <c r="AA9" s="249"/>
-      <c r="AB9" s="249"/>
-      <c r="AC9" s="249"/>
-      <c r="AD9" s="249"/>
-      <c r="AE9" s="249"/>
-      <c r="AF9" s="249"/>
-      <c r="AG9" s="249"/>
-      <c r="AH9" s="249"/>
+      <c r="I9" s="263"/>
+      <c r="J9" s="263"/>
+      <c r="K9" s="263"/>
+      <c r="L9" s="263"/>
+      <c r="M9" s="263"/>
+      <c r="N9" s="263"/>
+      <c r="O9" s="263"/>
+      <c r="P9" s="263"/>
+      <c r="Q9" s="263"/>
+      <c r="R9" s="263"/>
+      <c r="S9" s="263"/>
+      <c r="T9" s="263"/>
+      <c r="U9" s="263"/>
+      <c r="V9" s="263"/>
+      <c r="W9" s="263"/>
+      <c r="X9" s="263"/>
+      <c r="Y9" s="263"/>
+      <c r="Z9" s="263"/>
+      <c r="AA9" s="263"/>
+      <c r="AB9" s="263"/>
+      <c r="AC9" s="263"/>
+      <c r="AD9" s="263"/>
+      <c r="AE9" s="263"/>
+      <c r="AF9" s="263"/>
+      <c r="AG9" s="263"/>
+      <c r="AH9" s="263"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="258" t="s">
+      <c r="D10" s="254" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="259"/>
-      <c r="F10" s="259"/>
-      <c r="G10" s="260"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="256"/>
       <c r="H10" s="100" t="s">
         <v>75</v>
       </c>
@@ -10620,172 +10620,172 @@
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="255" t="s">
+      <c r="D11" s="257" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="256"/>
-      <c r="F11" s="256"/>
-      <c r="G11" s="257"/>
-      <c r="H11" s="253" t="s">
+      <c r="E11" s="258"/>
+      <c r="F11" s="258"/>
+      <c r="G11" s="259"/>
+      <c r="H11" s="267" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="254"/>
-      <c r="J11" s="254"/>
-      <c r="K11" s="254"/>
-      <c r="L11" s="254"/>
-      <c r="M11" s="254"/>
-      <c r="N11" s="254"/>
-      <c r="O11" s="254"/>
-      <c r="P11" s="254"/>
-      <c r="Q11" s="254"/>
-      <c r="R11" s="254"/>
-      <c r="S11" s="254"/>
-      <c r="T11" s="254"/>
-      <c r="U11" s="254"/>
-      <c r="V11" s="254"/>
-      <c r="W11" s="254"/>
-      <c r="X11" s="254"/>
-      <c r="Y11" s="254"/>
-      <c r="Z11" s="254"/>
-      <c r="AA11" s="254"/>
-      <c r="AB11" s="254"/>
-      <c r="AC11" s="254"/>
-      <c r="AD11" s="254"/>
-      <c r="AE11" s="254"/>
-      <c r="AF11" s="254"/>
-      <c r="AG11" s="254"/>
-      <c r="AH11" s="254"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="268"/>
+      <c r="K11" s="268"/>
+      <c r="L11" s="268"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="268"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="268"/>
+      <c r="S11" s="268"/>
+      <c r="T11" s="268"/>
+      <c r="U11" s="268"/>
+      <c r="V11" s="268"/>
+      <c r="W11" s="268"/>
+      <c r="X11" s="268"/>
+      <c r="Y11" s="268"/>
+      <c r="Z11" s="268"/>
+      <c r="AA11" s="268"/>
+      <c r="AB11" s="268"/>
+      <c r="AC11" s="268"/>
+      <c r="AD11" s="268"/>
+      <c r="AE11" s="268"/>
+      <c r="AF11" s="268"/>
+      <c r="AG11" s="268"/>
+      <c r="AH11" s="268"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="255" t="s">
+      <c r="D12" s="257" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="257"/>
-      <c r="H12" s="249" t="s">
+      <c r="E12" s="258"/>
+      <c r="F12" s="258"/>
+      <c r="G12" s="259"/>
+      <c r="H12" s="263" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="249"/>
-      <c r="J12" s="249"/>
-      <c r="K12" s="249"/>
-      <c r="L12" s="249"/>
-      <c r="M12" s="249"/>
-      <c r="N12" s="249"/>
-      <c r="O12" s="249"/>
-      <c r="P12" s="249"/>
-      <c r="Q12" s="249"/>
-      <c r="R12" s="249"/>
-      <c r="S12" s="249"/>
-      <c r="T12" s="249"/>
-      <c r="U12" s="249"/>
-      <c r="V12" s="249"/>
-      <c r="W12" s="249"/>
-      <c r="X12" s="249"/>
-      <c r="Y12" s="249"/>
-      <c r="Z12" s="249"/>
-      <c r="AA12" s="249"/>
-      <c r="AB12" s="249"/>
-      <c r="AC12" s="249"/>
-      <c r="AD12" s="249"/>
-      <c r="AE12" s="249"/>
-      <c r="AF12" s="249"/>
-      <c r="AG12" s="249"/>
-      <c r="AH12" s="249"/>
+      <c r="I12" s="263"/>
+      <c r="J12" s="263"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="263"/>
+      <c r="M12" s="263"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="263"/>
+      <c r="P12" s="263"/>
+      <c r="Q12" s="263"/>
+      <c r="R12" s="263"/>
+      <c r="S12" s="263"/>
+      <c r="T12" s="263"/>
+      <c r="U12" s="263"/>
+      <c r="V12" s="263"/>
+      <c r="W12" s="263"/>
+      <c r="X12" s="263"/>
+      <c r="Y12" s="263"/>
+      <c r="Z12" s="263"/>
+      <c r="AA12" s="263"/>
+      <c r="AB12" s="263"/>
+      <c r="AC12" s="263"/>
+      <c r="AD12" s="263"/>
+      <c r="AE12" s="263"/>
+      <c r="AF12" s="263"/>
+      <c r="AG12" s="263"/>
+      <c r="AH12" s="263"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="255" t="s">
+      <c r="D13" s="257" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="257"/>
-      <c r="H13" s="249" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="249"/>
-      <c r="J13" s="249"/>
-      <c r="K13" s="249"/>
-      <c r="L13" s="249"/>
-      <c r="M13" s="249"/>
-      <c r="N13" s="249"/>
-      <c r="O13" s="249"/>
-      <c r="P13" s="249"/>
-      <c r="Q13" s="249"/>
-      <c r="R13" s="249"/>
-      <c r="S13" s="249"/>
-      <c r="T13" s="249"/>
-      <c r="U13" s="249"/>
-      <c r="V13" s="249"/>
-      <c r="W13" s="249"/>
-      <c r="X13" s="249"/>
-      <c r="Y13" s="249"/>
-      <c r="Z13" s="249"/>
-      <c r="AA13" s="249"/>
-      <c r="AB13" s="249"/>
-      <c r="AC13" s="249"/>
-      <c r="AD13" s="249"/>
-      <c r="AE13" s="249"/>
-      <c r="AF13" s="249"/>
-      <c r="AG13" s="249"/>
-      <c r="AH13" s="249"/>
+      <c r="E13" s="258"/>
+      <c r="F13" s="258"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="263" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="263"/>
+      <c r="J13" s="263"/>
+      <c r="K13" s="263"/>
+      <c r="L13" s="263"/>
+      <c r="M13" s="263"/>
+      <c r="N13" s="263"/>
+      <c r="O13" s="263"/>
+      <c r="P13" s="263"/>
+      <c r="Q13" s="263"/>
+      <c r="R13" s="263"/>
+      <c r="S13" s="263"/>
+      <c r="T13" s="263"/>
+      <c r="U13" s="263"/>
+      <c r="V13" s="263"/>
+      <c r="W13" s="263"/>
+      <c r="X13" s="263"/>
+      <c r="Y13" s="263"/>
+      <c r="Z13" s="263"/>
+      <c r="AA13" s="263"/>
+      <c r="AB13" s="263"/>
+      <c r="AC13" s="263"/>
+      <c r="AD13" s="263"/>
+      <c r="AE13" s="263"/>
+      <c r="AF13" s="263"/>
+      <c r="AG13" s="263"/>
+      <c r="AH13" s="263"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="255" t="s">
+      <c r="D14" s="257" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="257"/>
-      <c r="H14" s="249" t="s">
+      <c r="E14" s="258"/>
+      <c r="F14" s="258"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="263" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="249"/>
-      <c r="J14" s="249"/>
-      <c r="K14" s="249"/>
-      <c r="L14" s="249"/>
-      <c r="M14" s="249"/>
-      <c r="N14" s="249"/>
-      <c r="O14" s="249"/>
-      <c r="P14" s="249"/>
-      <c r="Q14" s="249"/>
-      <c r="R14" s="249"/>
-      <c r="S14" s="249"/>
-      <c r="T14" s="249"/>
-      <c r="U14" s="249"/>
-      <c r="V14" s="249"/>
-      <c r="W14" s="249"/>
-      <c r="X14" s="249"/>
-      <c r="Y14" s="249"/>
-      <c r="Z14" s="249"/>
-      <c r="AA14" s="249"/>
-      <c r="AB14" s="249"/>
-      <c r="AC14" s="249"/>
-      <c r="AD14" s="249"/>
-      <c r="AE14" s="249"/>
-      <c r="AF14" s="249"/>
-      <c r="AG14" s="249"/>
-      <c r="AH14" s="249"/>
+      <c r="I14" s="263"/>
+      <c r="J14" s="263"/>
+      <c r="K14" s="263"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="263"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="263"/>
+      <c r="Q14" s="263"/>
+      <c r="R14" s="263"/>
+      <c r="S14" s="263"/>
+      <c r="T14" s="263"/>
+      <c r="U14" s="263"/>
+      <c r="V14" s="263"/>
+      <c r="W14" s="263"/>
+      <c r="X14" s="263"/>
+      <c r="Y14" s="263"/>
+      <c r="Z14" s="263"/>
+      <c r="AA14" s="263"/>
+      <c r="AB14" s="263"/>
+      <c r="AC14" s="263"/>
+      <c r="AD14" s="263"/>
+      <c r="AE14" s="263"/>
+      <c r="AF14" s="263"/>
+      <c r="AG14" s="263"/>
+      <c r="AH14" s="263"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="255" t="s">
+      <c r="D15" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="257"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="258"/>
+      <c r="G15" s="259"/>
       <c r="H15" s="128" t="s">
         <v>98</v>
       </c>
@@ -10937,30 +10937,30 @@
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="263"/>
-      <c r="H19" s="263"/>
-      <c r="I19" s="263"/>
-      <c r="J19" s="263"/>
-      <c r="K19" s="263"/>
-      <c r="L19" s="263"/>
-      <c r="M19" s="263"/>
-      <c r="N19" s="263"/>
-      <c r="O19" s="261"/>
-      <c r="P19" s="262"/>
-      <c r="Q19" s="262"/>
-      <c r="R19" s="262"/>
-      <c r="S19" s="262"/>
-      <c r="T19" s="262"/>
-      <c r="U19" s="262"/>
-      <c r="V19" s="262"/>
-      <c r="W19" s="262"/>
-      <c r="X19" s="262"/>
-      <c r="Y19" s="262"/>
-      <c r="Z19" s="262"/>
-      <c r="AA19" s="262"/>
-      <c r="AB19" s="262"/>
-      <c r="AC19" s="262"/>
-      <c r="AD19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="262"/>
+      <c r="I19" s="262"/>
+      <c r="J19" s="262"/>
+      <c r="K19" s="262"/>
+      <c r="L19" s="262"/>
+      <c r="M19" s="262"/>
+      <c r="N19" s="262"/>
+      <c r="O19" s="260"/>
+      <c r="P19" s="261"/>
+      <c r="Q19" s="261"/>
+      <c r="R19" s="261"/>
+      <c r="S19" s="261"/>
+      <c r="T19" s="261"/>
+      <c r="U19" s="261"/>
+      <c r="V19" s="261"/>
+      <c r="W19" s="261"/>
+      <c r="X19" s="261"/>
+      <c r="Y19" s="261"/>
+      <c r="Z19" s="261"/>
+      <c r="AA19" s="261"/>
+      <c r="AB19" s="261"/>
+      <c r="AC19" s="261"/>
+      <c r="AD19" s="261"/>
       <c r="AE19" s="31"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11412,15 +11412,14 @@
     <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11437,14 +11436,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11473,157 +11473,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="236" t="str">
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="240" t="str">
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="242"/>
-      <c r="AA1" s="178" t="s">
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="234"/>
+      <c r="X1" s="234"/>
+      <c r="Y1" s="234"/>
+      <c r="Z1" s="235"/>
+      <c r="AA1" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="162" t="str">
+      <c r="AB1" s="210"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="250">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="252"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="236" t="str">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="178" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="238"/>
+      <c r="AA2" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="162" t="str">
+      <c r="AB2" s="210"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="250">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="264">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="251"/>
-      <c r="AI2" s="252"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="236" t="str">
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="162" t="str">
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="239"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="241"/>
+      <c r="AA3" s="208"/>
+      <c r="AB3" s="210"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="250" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="251"/>
-      <c r="AI3" s="252"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11634,12 +11634,6 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11651,6 +11645,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11680,163 +11680,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="236" t="str">
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="181" t="s">
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="211" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="182"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="240" t="str">
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="242"/>
-      <c r="AA1" s="178" t="s">
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="234"/>
+      <c r="W1" s="234"/>
+      <c r="X1" s="234"/>
+      <c r="Y1" s="234"/>
+      <c r="Z1" s="235"/>
+      <c r="AA1" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="180"/>
-      <c r="AC1" s="162" t="str">
+      <c r="AB1" s="210"/>
+      <c r="AC1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="164"/>
-      <c r="AG1" s="250">
+      <c r="AD1" s="193"/>
+      <c r="AE1" s="193"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="264">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="252"/>
+      <c r="AH1" s="265"/>
+      <c r="AI1" s="266"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="236" t="str">
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="173"/>
-      <c r="K2" s="173"/>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="243"/>
-      <c r="T2" s="244"/>
-      <c r="U2" s="244"/>
-      <c r="V2" s="244"/>
-      <c r="W2" s="244"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="178" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="238"/>
+      <c r="AA2" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="180"/>
-      <c r="AC2" s="162" t="str">
+      <c r="AB2" s="210"/>
+      <c r="AC2" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="250">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="264">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="251"/>
-      <c r="AI2" s="252"/>
+      <c r="AH2" s="265"/>
+      <c r="AI2" s="266"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="236" t="str">
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="232" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="173"/>
-      <c r="G3" s="173"/>
-      <c r="H3" s="173"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="173"/>
-      <c r="K3" s="173"/>
-      <c r="L3" s="173"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="174"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="188"/>
-      <c r="Q3" s="188"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="246"/>
-      <c r="T3" s="247"/>
-      <c r="U3" s="247"/>
-      <c r="V3" s="247"/>
-      <c r="W3" s="247"/>
-      <c r="X3" s="247"/>
-      <c r="Y3" s="247"/>
-      <c r="Z3" s="248"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="180"/>
-      <c r="AC3" s="162" t="str">
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="218"/>
+      <c r="Q3" s="218"/>
+      <c r="R3" s="219"/>
+      <c r="S3" s="239"/>
+      <c r="T3" s="240"/>
+      <c r="U3" s="240"/>
+      <c r="V3" s="240"/>
+      <c r="W3" s="240"/>
+      <c r="X3" s="240"/>
+      <c r="Y3" s="240"/>
+      <c r="Z3" s="241"/>
+      <c r="AA3" s="208"/>
+      <c r="AB3" s="210"/>
+      <c r="AC3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="250" t="str">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="251"/>
-      <c r="AI3" s="252"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="266"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11954,65 +11954,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="308" t="s">
+      <c r="D8" s="278" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="311" t="s">
+      <c r="E8" s="281" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="312"/>
-      <c r="G8" s="312"/>
-      <c r="H8" s="312"/>
-      <c r="I8" s="312"/>
-      <c r="J8" s="313"/>
-      <c r="K8" s="317" t="s">
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="282"/>
+      <c r="I8" s="282"/>
+      <c r="J8" s="283"/>
+      <c r="K8" s="287" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="312"/>
-      <c r="M8" s="312"/>
-      <c r="N8" s="313"/>
-      <c r="O8" s="318" t="s">
+      <c r="L8" s="282"/>
+      <c r="M8" s="282"/>
+      <c r="N8" s="283"/>
+      <c r="O8" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="323" t="s">
+      <c r="P8" s="293" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="324"/>
-      <c r="R8" s="324"/>
-      <c r="S8" s="324"/>
-      <c r="T8" s="324"/>
-      <c r="U8" s="325"/>
-      <c r="V8" s="320" t="s">
+      <c r="Q8" s="294"/>
+      <c r="R8" s="294"/>
+      <c r="S8" s="294"/>
+      <c r="T8" s="294"/>
+      <c r="U8" s="295"/>
+      <c r="V8" s="290" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="320"/>
-      <c r="X8" s="320"/>
-      <c r="Y8" s="320"/>
-      <c r="Z8" s="320"/>
-      <c r="AA8" s="320"/>
-      <c r="AB8" s="320"/>
-      <c r="AC8" s="320"/>
-      <c r="AD8" s="320"/>
-      <c r="AE8" s="320"/>
-      <c r="AF8" s="320"/>
-      <c r="AG8" s="320"/>
-      <c r="AH8" s="320"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="290"/>
+      <c r="Y8" s="290"/>
+      <c r="Z8" s="290"/>
+      <c r="AA8" s="290"/>
+      <c r="AB8" s="290"/>
+      <c r="AC8" s="290"/>
+      <c r="AD8" s="290"/>
+      <c r="AE8" s="290"/>
+      <c r="AF8" s="290"/>
+      <c r="AG8" s="290"/>
+      <c r="AH8" s="290"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="309"/>
-      <c r="E9" s="314"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
-      <c r="I9" s="315"/>
-      <c r="J9" s="316"/>
-      <c r="K9" s="314"/>
-      <c r="L9" s="315"/>
-      <c r="M9" s="315"/>
-      <c r="N9" s="316"/>
-      <c r="O9" s="319"/>
+      <c r="D9" s="279"/>
+      <c r="E9" s="284"/>
+      <c r="F9" s="285"/>
+      <c r="G9" s="285"/>
+      <c r="H9" s="285"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="285"/>
+      <c r="M9" s="285"/>
+      <c r="N9" s="286"/>
+      <c r="O9" s="289"/>
       <c r="P9" s="87" t="s">
         <v>45</v>
       </c>
@@ -12025,23 +12025,23 @@
       <c r="S9" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="321" t="s">
+      <c r="T9" s="291" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="322"/>
-      <c r="V9" s="320"/>
-      <c r="W9" s="320"/>
-      <c r="X9" s="320"/>
-      <c r="Y9" s="320"/>
-      <c r="Z9" s="320"/>
-      <c r="AA9" s="320"/>
-      <c r="AB9" s="320"/>
-      <c r="AC9" s="320"/>
-      <c r="AD9" s="320"/>
-      <c r="AE9" s="320"/>
-      <c r="AF9" s="320"/>
-      <c r="AG9" s="320"/>
-      <c r="AH9" s="320"/>
+      <c r="U9" s="292"/>
+      <c r="V9" s="290"/>
+      <c r="W9" s="290"/>
+      <c r="X9" s="290"/>
+      <c r="Y9" s="290"/>
+      <c r="Z9" s="290"/>
+      <c r="AA9" s="290"/>
+      <c r="AB9" s="290"/>
+      <c r="AC9" s="290"/>
+      <c r="AD9" s="290"/>
+      <c r="AE9" s="290"/>
+      <c r="AF9" s="290"/>
+      <c r="AG9" s="290"/>
+      <c r="AH9" s="290"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="29"/>
@@ -12049,20 +12049,20 @@
       <c r="D10" s="111">
         <v>1</v>
       </c>
-      <c r="E10" s="287" t="s">
+      <c r="E10" s="177" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="209"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="208" t="s">
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="209"/>
-      <c r="M10" s="209"/>
-      <c r="N10" s="210"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="173"/>
       <c r="O10" s="112" t="s">
         <v>80</v>
       </c>
@@ -12078,23 +12078,23 @@
       <c r="S10" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="326" t="s">
+      <c r="T10" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="U10" s="327"/>
-      <c r="V10" s="208"/>
-      <c r="W10" s="209"/>
-      <c r="X10" s="209"/>
-      <c r="Y10" s="209"/>
-      <c r="Z10" s="209"/>
-      <c r="AA10" s="209"/>
-      <c r="AB10" s="209"/>
-      <c r="AC10" s="209"/>
-      <c r="AD10" s="209"/>
-      <c r="AE10" s="209"/>
-      <c r="AF10" s="209"/>
-      <c r="AG10" s="209"/>
-      <c r="AH10" s="210"/>
+      <c r="U10" s="277"/>
+      <c r="V10" s="171"/>
+      <c r="W10" s="172"/>
+      <c r="X10" s="172"/>
+      <c r="Y10" s="172"/>
+      <c r="Z10" s="172"/>
+      <c r="AA10" s="172"/>
+      <c r="AB10" s="172"/>
+      <c r="AC10" s="172"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="172"/>
+      <c r="AF10" s="172"/>
+      <c r="AG10" s="172"/>
+      <c r="AH10" s="173"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="29"/>
@@ -12102,20 +12102,20 @@
       <c r="D11" s="111">
         <v>2</v>
       </c>
-      <c r="E11" s="287" t="s">
+      <c r="E11" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="209"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="208" t="s">
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="L11" s="209"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="210"/>
+      <c r="L11" s="172"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="173"/>
       <c r="O11" s="113" t="s">
         <v>79</v>
       </c>
@@ -12131,23 +12131,23 @@
       <c r="S11" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="326" t="s">
+      <c r="T11" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="U11" s="327"/>
-      <c r="V11" s="208"/>
-      <c r="W11" s="209"/>
-      <c r="X11" s="209"/>
-      <c r="Y11" s="209"/>
-      <c r="Z11" s="209"/>
-      <c r="AA11" s="209"/>
-      <c r="AB11" s="209"/>
-      <c r="AC11" s="209"/>
-      <c r="AD11" s="209"/>
-      <c r="AE11" s="209"/>
-      <c r="AF11" s="209"/>
-      <c r="AG11" s="209"/>
-      <c r="AH11" s="210"/>
+      <c r="U11" s="277"/>
+      <c r="V11" s="171"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="172"/>
+      <c r="Z11" s="172"/>
+      <c r="AA11" s="172"/>
+      <c r="AB11" s="172"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="172"/>
+      <c r="AF11" s="172"/>
+      <c r="AG11" s="172"/>
+      <c r="AH11" s="173"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="29"/>
@@ -12155,20 +12155,20 @@
       <c r="D12" s="111">
         <v>3</v>
       </c>
-      <c r="E12" s="287" t="s">
+      <c r="E12" s="177" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="208" t="s">
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="209"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="210"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="173"/>
       <c r="O12" s="113" t="s">
         <v>79</v>
       </c>
@@ -12184,23 +12184,23 @@
       <c r="S12" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="326" t="s">
+      <c r="T12" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="U12" s="327"/>
-      <c r="V12" s="208"/>
-      <c r="W12" s="209"/>
-      <c r="X12" s="209"/>
-      <c r="Y12" s="209"/>
-      <c r="Z12" s="209"/>
-      <c r="AA12" s="209"/>
-      <c r="AB12" s="209"/>
-      <c r="AC12" s="209"/>
-      <c r="AD12" s="209"/>
-      <c r="AE12" s="209"/>
-      <c r="AF12" s="209"/>
-      <c r="AG12" s="209"/>
-      <c r="AH12" s="210"/>
+      <c r="U12" s="277"/>
+      <c r="V12" s="171"/>
+      <c r="W12" s="172"/>
+      <c r="X12" s="172"/>
+      <c r="Y12" s="172"/>
+      <c r="Z12" s="172"/>
+      <c r="AA12" s="172"/>
+      <c r="AB12" s="172"/>
+      <c r="AC12" s="172"/>
+      <c r="AD12" s="172"/>
+      <c r="AE12" s="172"/>
+      <c r="AF12" s="172"/>
+      <c r="AG12" s="172"/>
+      <c r="AH12" s="173"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="29"/>
@@ -12350,40 +12350,40 @@
       <c r="D17" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="334" t="s">
+      <c r="E17" s="303" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="335"/>
-      <c r="G17" s="336"/>
-      <c r="H17" s="328" t="s">
+      <c r="F17" s="304"/>
+      <c r="G17" s="305"/>
+      <c r="H17" s="300" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="329"/>
-      <c r="J17" s="329"/>
-      <c r="K17" s="329"/>
-      <c r="L17" s="329"/>
-      <c r="M17" s="329"/>
-      <c r="N17" s="329"/>
-      <c r="O17" s="329"/>
-      <c r="P17" s="329"/>
-      <c r="Q17" s="329"/>
-      <c r="R17" s="329"/>
-      <c r="S17" s="329"/>
-      <c r="T17" s="329"/>
-      <c r="U17" s="329"/>
-      <c r="V17" s="329"/>
-      <c r="W17" s="329"/>
-      <c r="X17" s="329"/>
-      <c r="Y17" s="329"/>
-      <c r="Z17" s="329"/>
-      <c r="AA17" s="329"/>
-      <c r="AB17" s="329"/>
-      <c r="AC17" s="329"/>
-      <c r="AD17" s="329"/>
-      <c r="AE17" s="329"/>
-      <c r="AF17" s="329"/>
-      <c r="AG17" s="329"/>
-      <c r="AH17" s="330"/>
+      <c r="I17" s="301"/>
+      <c r="J17" s="301"/>
+      <c r="K17" s="301"/>
+      <c r="L17" s="301"/>
+      <c r="M17" s="301"/>
+      <c r="N17" s="301"/>
+      <c r="O17" s="301"/>
+      <c r="P17" s="301"/>
+      <c r="Q17" s="301"/>
+      <c r="R17" s="301"/>
+      <c r="S17" s="301"/>
+      <c r="T17" s="301"/>
+      <c r="U17" s="301"/>
+      <c r="V17" s="301"/>
+      <c r="W17" s="301"/>
+      <c r="X17" s="301"/>
+      <c r="Y17" s="301"/>
+      <c r="Z17" s="301"/>
+      <c r="AA17" s="301"/>
+      <c r="AB17" s="301"/>
+      <c r="AC17" s="301"/>
+      <c r="AD17" s="301"/>
+      <c r="AE17" s="301"/>
+      <c r="AF17" s="301"/>
+      <c r="AG17" s="301"/>
+      <c r="AH17" s="302"/>
     </row>
     <row r="18" spans="1:34" s="85" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="29"/>
@@ -12391,40 +12391,40 @@
       <c r="D18" s="111">
         <v>1</v>
       </c>
-      <c r="E18" s="287" t="s">
+      <c r="E18" s="177" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="172"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="177" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="209"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="287" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
-      <c r="O18" s="209"/>
-      <c r="P18" s="209"/>
-      <c r="Q18" s="209"/>
-      <c r="R18" s="209"/>
-      <c r="S18" s="209"/>
-      <c r="T18" s="209"/>
-      <c r="U18" s="209"/>
-      <c r="V18" s="209"/>
-      <c r="W18" s="209"/>
-      <c r="X18" s="209"/>
-      <c r="Y18" s="209"/>
-      <c r="Z18" s="209"/>
-      <c r="AA18" s="209"/>
-      <c r="AB18" s="209"/>
-      <c r="AC18" s="209"/>
-      <c r="AD18" s="209"/>
-      <c r="AE18" s="209"/>
-      <c r="AF18" s="209"/>
-      <c r="AG18" s="209"/>
-      <c r="AH18" s="210"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="172"/>
+      <c r="R18" s="172"/>
+      <c r="S18" s="172"/>
+      <c r="T18" s="172"/>
+      <c r="U18" s="172"/>
+      <c r="V18" s="172"/>
+      <c r="W18" s="172"/>
+      <c r="X18" s="172"/>
+      <c r="Y18" s="172"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="172"/>
+      <c r="AC18" s="172"/>
+      <c r="AD18" s="172"/>
+      <c r="AE18" s="172"/>
+      <c r="AF18" s="172"/>
+      <c r="AG18" s="172"/>
+      <c r="AH18" s="173"/>
     </row>
     <row r="19" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
@@ -12432,40 +12432,40 @@
       <c r="D19" s="111">
         <v>2</v>
       </c>
-      <c r="E19" s="287" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="209"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="287" t="s">
+      <c r="E19" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="172"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="I19" s="209"/>
-      <c r="J19" s="209"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="209"/>
-      <c r="M19" s="209"/>
-      <c r="N19" s="209"/>
-      <c r="O19" s="209"/>
-      <c r="P19" s="209"/>
-      <c r="Q19" s="209"/>
-      <c r="R19" s="209"/>
-      <c r="S19" s="209"/>
-      <c r="T19" s="209"/>
-      <c r="U19" s="209"/>
-      <c r="V19" s="209"/>
-      <c r="W19" s="209"/>
-      <c r="X19" s="209"/>
-      <c r="Y19" s="209"/>
-      <c r="Z19" s="209"/>
-      <c r="AA19" s="209"/>
-      <c r="AB19" s="209"/>
-      <c r="AC19" s="209"/>
-      <c r="AD19" s="209"/>
-      <c r="AE19" s="209"/>
-      <c r="AF19" s="209"/>
-      <c r="AG19" s="209"/>
-      <c r="AH19" s="210"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="172"/>
+      <c r="S19" s="172"/>
+      <c r="T19" s="172"/>
+      <c r="U19" s="172"/>
+      <c r="V19" s="172"/>
+      <c r="W19" s="172"/>
+      <c r="X19" s="172"/>
+      <c r="Y19" s="172"/>
+      <c r="Z19" s="172"/>
+      <c r="AA19" s="172"/>
+      <c r="AB19" s="172"/>
+      <c r="AC19" s="172"/>
+      <c r="AD19" s="172"/>
+      <c r="AE19" s="172"/>
+      <c r="AF19" s="172"/>
+      <c r="AG19" s="172"/>
+      <c r="AH19" s="173"/>
     </row>
     <row r="20" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -12473,40 +12473,40 @@
       <c r="D20" s="111">
         <v>3</v>
       </c>
-      <c r="E20" s="287" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="209"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="287" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="209"/>
-      <c r="J20" s="209"/>
-      <c r="K20" s="209"/>
-      <c r="L20" s="209"/>
-      <c r="M20" s="209"/>
-      <c r="N20" s="209"/>
-      <c r="O20" s="209"/>
-      <c r="P20" s="209"/>
-      <c r="Q20" s="209"/>
-      <c r="R20" s="209"/>
-      <c r="S20" s="209"/>
-      <c r="T20" s="209"/>
-      <c r="U20" s="209"/>
-      <c r="V20" s="209"/>
-      <c r="W20" s="209"/>
-      <c r="X20" s="209"/>
-      <c r="Y20" s="209"/>
-      <c r="Z20" s="209"/>
-      <c r="AA20" s="209"/>
-      <c r="AB20" s="209"/>
-      <c r="AC20" s="209"/>
-      <c r="AD20" s="209"/>
-      <c r="AE20" s="209"/>
-      <c r="AF20" s="209"/>
-      <c r="AG20" s="209"/>
-      <c r="AH20" s="210"/>
+      <c r="E20" s="177" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="172"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="177" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="172"/>
+      <c r="R20" s="172"/>
+      <c r="S20" s="172"/>
+      <c r="T20" s="172"/>
+      <c r="U20" s="172"/>
+      <c r="V20" s="172"/>
+      <c r="W20" s="172"/>
+      <c r="X20" s="172"/>
+      <c r="Y20" s="172"/>
+      <c r="Z20" s="172"/>
+      <c r="AA20" s="172"/>
+      <c r="AB20" s="172"/>
+      <c r="AC20" s="172"/>
+      <c r="AD20" s="172"/>
+      <c r="AE20" s="172"/>
+      <c r="AF20" s="172"/>
+      <c r="AG20" s="172"/>
+      <c r="AH20" s="173"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B21" s="84"/>
@@ -12691,7 +12691,7 @@
       <c r="B26" s="84"/>
       <c r="C26" s="90"/>
       <c r="E26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -12764,44 +12764,44 @@
       <c r="B28" s="84"/>
       <c r="C28" s="90"/>
       <c r="D28" s="121"/>
-      <c r="E28" s="276" t="s">
+      <c r="E28" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="276"/>
-      <c r="G28" s="310" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="310"/>
-      <c r="I28" s="310"/>
-      <c r="J28" s="310"/>
-      <c r="K28" s="310"/>
-      <c r="L28" s="310"/>
-      <c r="M28" s="276" t="s">
+      <c r="F28" s="299"/>
+      <c r="G28" s="280" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="280"/>
+      <c r="I28" s="280"/>
+      <c r="J28" s="280"/>
+      <c r="K28" s="280"/>
+      <c r="L28" s="280"/>
+      <c r="M28" s="299" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="276"/>
-      <c r="O28" s="273" t="s">
+      <c r="N28" s="299"/>
+      <c r="O28" s="296" t="s">
         <v>76</v>
       </c>
-      <c r="P28" s="274"/>
-      <c r="Q28" s="274"/>
-      <c r="R28" s="274"/>
-      <c r="S28" s="274"/>
-      <c r="T28" s="274"/>
-      <c r="U28" s="274"/>
-      <c r="V28" s="274"/>
-      <c r="W28" s="274"/>
-      <c r="X28" s="274"/>
-      <c r="Y28" s="274"/>
-      <c r="Z28" s="274"/>
-      <c r="AA28" s="274"/>
-      <c r="AB28" s="274"/>
-      <c r="AC28" s="274"/>
-      <c r="AD28" s="274"/>
-      <c r="AE28" s="274"/>
-      <c r="AF28" s="274"/>
-      <c r="AG28" s="274"/>
-      <c r="AH28" s="275"/>
+      <c r="P28" s="297"/>
+      <c r="Q28" s="297"/>
+      <c r="R28" s="297"/>
+      <c r="S28" s="297"/>
+      <c r="T28" s="297"/>
+      <c r="U28" s="297"/>
+      <c r="V28" s="297"/>
+      <c r="W28" s="297"/>
+      <c r="X28" s="297"/>
+      <c r="Y28" s="297"/>
+      <c r="Z28" s="297"/>
+      <c r="AA28" s="297"/>
+      <c r="AB28" s="297"/>
+      <c r="AC28" s="297"/>
+      <c r="AD28" s="297"/>
+      <c r="AE28" s="297"/>
+      <c r="AF28" s="297"/>
+      <c r="AG28" s="297"/>
+      <c r="AH28" s="298"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A29" s="46"/>
@@ -12845,10 +12845,10 @@
       <c r="C30" s="132"/>
       <c r="D30" s="121"/>
       <c r="E30" s="149" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="150" t="s">
         <v>115</v>
-      </c>
-      <c r="F30" s="150" t="s">
-        <v>116</v>
       </c>
       <c r="G30" s="151"/>
       <c r="H30" s="151"/>
@@ -12856,7 +12856,7 @@
       <c r="J30" s="151"/>
       <c r="K30" s="152"/>
       <c r="L30" s="150" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M30" s="151"/>
       <c r="N30" s="151"/>
@@ -12868,10 +12868,10 @@
       <c r="T30" s="151"/>
       <c r="U30" s="152"/>
       <c r="V30" s="150" t="s">
+        <v>117</v>
+      </c>
+      <c r="W30" s="150" t="s">
         <v>118</v>
-      </c>
-      <c r="W30" s="150" t="s">
-        <v>119</v>
       </c>
       <c r="X30" s="151"/>
       <c r="Y30" s="151"/>
@@ -12894,7 +12894,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="141" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" s="142"/>
       <c r="H31" s="142"/>
@@ -12902,7 +12902,7 @@
       <c r="J31" s="142"/>
       <c r="K31" s="143"/>
       <c r="L31" s="141" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M31" s="142"/>
       <c r="N31" s="142"/>
@@ -12914,10 +12914,10 @@
       <c r="T31" s="142"/>
       <c r="U31" s="143"/>
       <c r="V31" s="141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W31" s="144" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X31" s="145"/>
       <c r="Y31" s="145"/>
@@ -12940,7 +12940,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="144" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G32" s="145"/>
       <c r="H32" s="145"/>
@@ -12948,7 +12948,7 @@
       <c r="J32" s="145"/>
       <c r="K32" s="146"/>
       <c r="L32" s="144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M32" s="145"/>
       <c r="N32" s="138"/>
@@ -12960,10 +12960,10 @@
       <c r="T32" s="145"/>
       <c r="U32" s="146"/>
       <c r="V32" s="144" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W32" s="144" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X32" s="145"/>
       <c r="Y32" s="145"/>
@@ -13173,43 +13173,43 @@
       <c r="E38" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="288" t="s">
+      <c r="F38" s="306" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="289"/>
-      <c r="H38" s="289"/>
-      <c r="I38" s="289"/>
-      <c r="J38" s="289"/>
-      <c r="K38" s="290"/>
-      <c r="L38" s="291" t="s">
+      <c r="G38" s="307"/>
+      <c r="H38" s="307"/>
+      <c r="I38" s="307"/>
+      <c r="J38" s="307"/>
+      <c r="K38" s="308"/>
+      <c r="L38" s="309" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="289"/>
-      <c r="N38" s="289"/>
-      <c r="O38" s="289"/>
-      <c r="P38" s="289"/>
-      <c r="Q38" s="289"/>
-      <c r="R38" s="289"/>
-      <c r="S38" s="289"/>
-      <c r="T38" s="289"/>
-      <c r="U38" s="290"/>
-      <c r="V38" s="292" t="s">
+      <c r="M38" s="307"/>
+      <c r="N38" s="307"/>
+      <c r="O38" s="307"/>
+      <c r="P38" s="307"/>
+      <c r="Q38" s="307"/>
+      <c r="R38" s="307"/>
+      <c r="S38" s="307"/>
+      <c r="T38" s="307"/>
+      <c r="U38" s="308"/>
+      <c r="V38" s="310" t="s">
         <v>86</v>
       </c>
-      <c r="W38" s="293"/>
-      <c r="X38" s="294"/>
-      <c r="Y38" s="292" t="s">
+      <c r="W38" s="311"/>
+      <c r="X38" s="312"/>
+      <c r="Y38" s="310" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="293"/>
-      <c r="AA38" s="293"/>
-      <c r="AB38" s="294"/>
-      <c r="AC38" s="295" t="s">
+      <c r="Z38" s="311"/>
+      <c r="AA38" s="311"/>
+      <c r="AB38" s="312"/>
+      <c r="AC38" s="313" t="s">
         <v>88</v>
       </c>
-      <c r="AD38" s="296"/>
-      <c r="AE38" s="296"/>
-      <c r="AF38" s="297"/>
+      <c r="AD38" s="314"/>
+      <c r="AE38" s="314"/>
+      <c r="AF38" s="315"/>
       <c r="AG38" s="46"/>
       <c r="AH38" s="46"/>
       <c r="AI38" s="46"/>
@@ -13222,43 +13222,43 @@
       <c r="E39" s="126">
         <v>1</v>
       </c>
-      <c r="F39" s="300" t="s">
+      <c r="F39" s="319" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="298"/>
-      <c r="H39" s="298"/>
-      <c r="I39" s="298"/>
-      <c r="J39" s="298"/>
-      <c r="K39" s="299"/>
-      <c r="L39" s="286" t="s">
+      <c r="G39" s="317"/>
+      <c r="H39" s="317"/>
+      <c r="I39" s="317"/>
+      <c r="J39" s="317"/>
+      <c r="K39" s="318"/>
+      <c r="L39" s="316" t="s">
         <v>90</v>
       </c>
-      <c r="M39" s="298"/>
-      <c r="N39" s="298"/>
-      <c r="O39" s="298"/>
-      <c r="P39" s="298"/>
-      <c r="Q39" s="298"/>
-      <c r="R39" s="298"/>
-      <c r="S39" s="298"/>
-      <c r="T39" s="298"/>
-      <c r="U39" s="299"/>
-      <c r="V39" s="301" t="s">
+      <c r="M39" s="317"/>
+      <c r="N39" s="317"/>
+      <c r="O39" s="317"/>
+      <c r="P39" s="317"/>
+      <c r="Q39" s="317"/>
+      <c r="R39" s="317"/>
+      <c r="S39" s="317"/>
+      <c r="T39" s="317"/>
+      <c r="U39" s="318"/>
+      <c r="V39" s="320" t="s">
         <v>91</v>
       </c>
-      <c r="W39" s="302"/>
-      <c r="X39" s="303"/>
-      <c r="Y39" s="305" t="s">
+      <c r="W39" s="321"/>
+      <c r="X39" s="322"/>
+      <c r="Y39" s="323" t="s">
         <v>92</v>
       </c>
-      <c r="Z39" s="306"/>
-      <c r="AA39" s="306"/>
-      <c r="AB39" s="307"/>
-      <c r="AC39" s="286" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD39" s="298"/>
-      <c r="AE39" s="298"/>
-      <c r="AF39" s="299"/>
+      <c r="Z39" s="324"/>
+      <c r="AA39" s="324"/>
+      <c r="AB39" s="325"/>
+      <c r="AC39" s="316" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD39" s="317"/>
+      <c r="AE39" s="317"/>
+      <c r="AF39" s="318"/>
       <c r="AG39" s="46"/>
       <c r="AH39" s="46"/>
       <c r="AI39" s="46"/>
@@ -13342,7 +13342,7 @@
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
       <c r="D42" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="46"/>
       <c r="F42" s="46"/>
@@ -13419,7 +13419,7 @@
       <c r="C44" s="46"/>
       <c r="D44" s="46"/>
       <c r="E44" s="127" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
@@ -13495,7 +13495,7 @@
       <c r="C46" s="56"/>
       <c r="D46"/>
       <c r="E46" s="88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F46"/>
       <c r="G46"/>
@@ -13646,7 +13646,7 @@
       <c r="C50" s="46"/>
       <c r="D50" s="46"/>
       <c r="E50" s="127" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="46"/>
       <c r="G50" s="46"/>
@@ -13758,7 +13758,7 @@
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
       <c r="D53" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" s="46"/>
       <c r="F53" s="46"/>
@@ -13835,7 +13835,7 @@
       <c r="C55" s="46"/>
       <c r="D55" s="46"/>
       <c r="E55" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F55" s="46"/>
       <c r="G55" s="46"/>
@@ -14058,7 +14058,7 @@
       <c r="C61" s="159"/>
       <c r="D61" s="156"/>
       <c r="E61" s="157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F61" s="157"/>
       <c r="G61" s="157"/>
@@ -14137,44 +14137,44 @@
       <c r="B63" s="155"/>
       <c r="C63" s="159"/>
       <c r="D63" s="159"/>
-      <c r="E63" s="276" t="s">
+      <c r="E63" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="276"/>
-      <c r="G63" s="273" t="s">
-        <v>131</v>
-      </c>
-      <c r="H63" s="274"/>
-      <c r="I63" s="274"/>
-      <c r="J63" s="274"/>
-      <c r="K63" s="274"/>
-      <c r="L63" s="275"/>
-      <c r="M63" s="276" t="s">
+      <c r="F63" s="299"/>
+      <c r="G63" s="296" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" s="297"/>
+      <c r="I63" s="297"/>
+      <c r="J63" s="297"/>
+      <c r="K63" s="297"/>
+      <c r="L63" s="298"/>
+      <c r="M63" s="299" t="s">
         <v>22</v>
       </c>
-      <c r="N63" s="276"/>
-      <c r="O63" s="273" t="s">
-        <v>133</v>
-      </c>
-      <c r="P63" s="274"/>
-      <c r="Q63" s="274"/>
-      <c r="R63" s="274"/>
-      <c r="S63" s="274"/>
-      <c r="T63" s="274"/>
-      <c r="U63" s="274"/>
-      <c r="V63" s="274"/>
-      <c r="W63" s="274"/>
-      <c r="X63" s="274"/>
-      <c r="Y63" s="274"/>
-      <c r="Z63" s="274"/>
-      <c r="AA63" s="274"/>
-      <c r="AB63" s="274"/>
-      <c r="AC63" s="274"/>
-      <c r="AD63" s="274"/>
-      <c r="AE63" s="274"/>
-      <c r="AF63" s="274"/>
-      <c r="AG63" s="274"/>
-      <c r="AH63" s="275"/>
+      <c r="N63" s="299"/>
+      <c r="O63" s="296" t="s">
+        <v>132</v>
+      </c>
+      <c r="P63" s="297"/>
+      <c r="Q63" s="297"/>
+      <c r="R63" s="297"/>
+      <c r="S63" s="297"/>
+      <c r="T63" s="297"/>
+      <c r="U63" s="297"/>
+      <c r="V63" s="297"/>
+      <c r="W63" s="297"/>
+      <c r="X63" s="297"/>
+      <c r="Y63" s="297"/>
+      <c r="Z63" s="297"/>
+      <c r="AA63" s="297"/>
+      <c r="AB63" s="297"/>
+      <c r="AC63" s="297"/>
+      <c r="AD63" s="297"/>
+      <c r="AE63" s="297"/>
+      <c r="AF63" s="297"/>
+      <c r="AG63" s="297"/>
+      <c r="AH63" s="298"/>
       <c r="AI63" s="133"/>
       <c r="AJ63" s="133"/>
       <c r="AK63" s="133"/>
@@ -14342,48 +14342,48 @@
       <c r="B68" s="155"/>
       <c r="C68" s="159"/>
       <c r="D68" s="159"/>
-      <c r="E68" s="270" t="s">
-        <v>115</v>
-      </c>
-      <c r="F68" s="264" t="s">
+      <c r="E68" s="332" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" s="326" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="265"/>
-      <c r="H68" s="265"/>
-      <c r="I68" s="266"/>
-      <c r="J68" s="264" t="s">
+      <c r="G68" s="327"/>
+      <c r="H68" s="327"/>
+      <c r="I68" s="328"/>
+      <c r="J68" s="326" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="265"/>
-      <c r="L68" s="265"/>
-      <c r="M68" s="266"/>
-      <c r="N68" s="272" t="s">
+      <c r="K68" s="327"/>
+      <c r="L68" s="327"/>
+      <c r="M68" s="328"/>
+      <c r="N68" s="334" t="s">
         <v>25</v>
       </c>
-      <c r="O68" s="272"/>
-      <c r="P68" s="272"/>
-      <c r="Q68" s="272"/>
-      <c r="R68" s="272"/>
-      <c r="S68" s="272"/>
-      <c r="T68" s="272"/>
-      <c r="U68" s="272"/>
-      <c r="V68" s="272"/>
-      <c r="W68" s="264" t="s">
+      <c r="O68" s="334"/>
+      <c r="P68" s="334"/>
+      <c r="Q68" s="334"/>
+      <c r="R68" s="334"/>
+      <c r="S68" s="334"/>
+      <c r="T68" s="334"/>
+      <c r="U68" s="334"/>
+      <c r="V68" s="334"/>
+      <c r="W68" s="326" t="s">
         <v>33</v>
       </c>
-      <c r="X68" s="265"/>
-      <c r="Y68" s="265"/>
-      <c r="Z68" s="265"/>
-      <c r="AA68" s="265"/>
-      <c r="AB68" s="265"/>
-      <c r="AC68" s="266"/>
-      <c r="AD68" s="264" t="s">
+      <c r="X68" s="327"/>
+      <c r="Y68" s="327"/>
+      <c r="Z68" s="327"/>
+      <c r="AA68" s="327"/>
+      <c r="AB68" s="327"/>
+      <c r="AC68" s="328"/>
+      <c r="AD68" s="326" t="s">
         <v>34</v>
       </c>
-      <c r="AE68" s="265"/>
-      <c r="AF68" s="265"/>
-      <c r="AG68" s="265"/>
-      <c r="AH68" s="266"/>
+      <c r="AE68" s="327"/>
+      <c r="AF68" s="327"/>
+      <c r="AG68" s="327"/>
+      <c r="AH68" s="328"/>
       <c r="AI68" s="133"/>
       <c r="AJ68" s="133"/>
       <c r="AK68" s="133"/>
@@ -14393,40 +14393,40 @@
       <c r="B69" s="155"/>
       <c r="C69" s="159"/>
       <c r="D69" s="157"/>
-      <c r="E69" s="271"/>
-      <c r="F69" s="267"/>
-      <c r="G69" s="268"/>
-      <c r="H69" s="268"/>
-      <c r="I69" s="269"/>
-      <c r="J69" s="267"/>
-      <c r="K69" s="268"/>
-      <c r="L69" s="268"/>
-      <c r="M69" s="269"/>
-      <c r="N69" s="272" t="s">
+      <c r="E69" s="333"/>
+      <c r="F69" s="329"/>
+      <c r="G69" s="330"/>
+      <c r="H69" s="330"/>
+      <c r="I69" s="331"/>
+      <c r="J69" s="329"/>
+      <c r="K69" s="330"/>
+      <c r="L69" s="330"/>
+      <c r="M69" s="331"/>
+      <c r="N69" s="334" t="s">
         <v>28</v>
       </c>
-      <c r="O69" s="272"/>
-      <c r="P69" s="272"/>
-      <c r="Q69" s="272"/>
-      <c r="R69" s="272"/>
-      <c r="S69" s="304" t="s">
+      <c r="O69" s="334"/>
+      <c r="P69" s="334"/>
+      <c r="Q69" s="334"/>
+      <c r="R69" s="334"/>
+      <c r="S69" s="340" t="s">
         <v>29</v>
       </c>
-      <c r="T69" s="304"/>
-      <c r="U69" s="304"/>
-      <c r="V69" s="304"/>
-      <c r="W69" s="267"/>
-      <c r="X69" s="268"/>
-      <c r="Y69" s="268"/>
-      <c r="Z69" s="268"/>
-      <c r="AA69" s="268"/>
-      <c r="AB69" s="268"/>
-      <c r="AC69" s="269"/>
-      <c r="AD69" s="267"/>
-      <c r="AE69" s="268"/>
-      <c r="AF69" s="268"/>
-      <c r="AG69" s="268"/>
-      <c r="AH69" s="269"/>
+      <c r="T69" s="340"/>
+      <c r="U69" s="340"/>
+      <c r="V69" s="340"/>
+      <c r="W69" s="329"/>
+      <c r="X69" s="330"/>
+      <c r="Y69" s="330"/>
+      <c r="Z69" s="330"/>
+      <c r="AA69" s="330"/>
+      <c r="AB69" s="330"/>
+      <c r="AC69" s="331"/>
+      <c r="AD69" s="329"/>
+      <c r="AE69" s="330"/>
+      <c r="AF69" s="330"/>
+      <c r="AG69" s="330"/>
+      <c r="AH69" s="331"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A70" s="155"/>
@@ -14436,43 +14436,43 @@
       <c r="E70" s="160">
         <v>1</v>
       </c>
-      <c r="F70" s="277" t="s">
+      <c r="F70" s="335" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="338"/>
+      <c r="H70" s="338"/>
+      <c r="I70" s="339"/>
+      <c r="J70" s="335" t="s">
         <v>126</v>
       </c>
-      <c r="G70" s="280"/>
-      <c r="H70" s="280"/>
-      <c r="I70" s="281"/>
-      <c r="J70" s="277" t="s">
+      <c r="K70" s="336"/>
+      <c r="L70" s="336"/>
+      <c r="M70" s="337"/>
+      <c r="N70" s="269" t="s">
         <v>127</v>
       </c>
-      <c r="K70" s="278"/>
-      <c r="L70" s="278"/>
-      <c r="M70" s="279"/>
-      <c r="N70" s="282" t="s">
-        <v>128</v>
-      </c>
-      <c r="O70" s="283"/>
-      <c r="P70" s="283"/>
-      <c r="Q70" s="283"/>
-      <c r="R70" s="283"/>
-      <c r="S70" s="284" t="s">
-        <v>127</v>
-      </c>
-      <c r="T70" s="285"/>
-      <c r="U70" s="285"/>
-      <c r="V70" s="285"/>
-      <c r="W70" s="331"/>
-      <c r="X70" s="332"/>
-      <c r="Y70" s="332"/>
-      <c r="Z70" s="332"/>
-      <c r="AA70" s="332"/>
-      <c r="AB70" s="332"/>
-      <c r="AC70" s="333"/>
-      <c r="AD70" s="331"/>
-      <c r="AE70" s="332"/>
-      <c r="AF70" s="332"/>
-      <c r="AG70" s="332"/>
-      <c r="AH70" s="333"/>
+      <c r="O70" s="270"/>
+      <c r="P70" s="270"/>
+      <c r="Q70" s="270"/>
+      <c r="R70" s="270"/>
+      <c r="S70" s="271" t="s">
+        <v>126</v>
+      </c>
+      <c r="T70" s="272"/>
+      <c r="U70" s="272"/>
+      <c r="V70" s="272"/>
+      <c r="W70" s="273"/>
+      <c r="X70" s="274"/>
+      <c r="Y70" s="274"/>
+      <c r="Z70" s="274"/>
+      <c r="AA70" s="274"/>
+      <c r="AB70" s="274"/>
+      <c r="AC70" s="275"/>
+      <c r="AD70" s="273"/>
+      <c r="AE70" s="274"/>
+      <c r="AF70" s="274"/>
+      <c r="AG70" s="274"/>
+      <c r="AH70" s="275"/>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A71" s="155"/>
@@ -14482,43 +14482,43 @@
       <c r="E71" s="160">
         <v>2</v>
       </c>
-      <c r="F71" s="277" t="s">
-        <v>120</v>
-      </c>
-      <c r="G71" s="280"/>
-      <c r="H71" s="280"/>
-      <c r="I71" s="281"/>
-      <c r="J71" s="277" t="s">
-        <v>129</v>
-      </c>
-      <c r="K71" s="278"/>
-      <c r="L71" s="278"/>
-      <c r="M71" s="279"/>
-      <c r="N71" s="282" t="s">
+      <c r="F71" s="335" t="s">
+        <v>119</v>
+      </c>
+      <c r="G71" s="338"/>
+      <c r="H71" s="338"/>
+      <c r="I71" s="339"/>
+      <c r="J71" s="335" t="s">
         <v>128</v>
       </c>
-      <c r="O71" s="283"/>
-      <c r="P71" s="283"/>
-      <c r="Q71" s="283"/>
-      <c r="R71" s="283"/>
-      <c r="S71" s="284" t="s">
-        <v>129</v>
-      </c>
-      <c r="T71" s="285"/>
-      <c r="U71" s="285"/>
-      <c r="V71" s="285"/>
-      <c r="W71" s="331"/>
-      <c r="X71" s="332"/>
-      <c r="Y71" s="332"/>
-      <c r="Z71" s="332"/>
-      <c r="AA71" s="332"/>
-      <c r="AB71" s="332"/>
-      <c r="AC71" s="333"/>
-      <c r="AD71" s="331"/>
-      <c r="AE71" s="332"/>
-      <c r="AF71" s="332"/>
-      <c r="AG71" s="332"/>
-      <c r="AH71" s="333"/>
+      <c r="K71" s="336"/>
+      <c r="L71" s="336"/>
+      <c r="M71" s="337"/>
+      <c r="N71" s="269" t="s">
+        <v>127</v>
+      </c>
+      <c r="O71" s="270"/>
+      <c r="P71" s="270"/>
+      <c r="Q71" s="270"/>
+      <c r="R71" s="270"/>
+      <c r="S71" s="271" t="s">
+        <v>128</v>
+      </c>
+      <c r="T71" s="272"/>
+      <c r="U71" s="272"/>
+      <c r="V71" s="272"/>
+      <c r="W71" s="273"/>
+      <c r="X71" s="274"/>
+      <c r="Y71" s="274"/>
+      <c r="Z71" s="274"/>
+      <c r="AA71" s="274"/>
+      <c r="AB71" s="274"/>
+      <c r="AC71" s="275"/>
+      <c r="AD71" s="273"/>
+      <c r="AE71" s="274"/>
+      <c r="AF71" s="274"/>
+      <c r="AG71" s="274"/>
+      <c r="AH71" s="275"/>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A72" s="155"/>
@@ -14528,77 +14528,85 @@
       <c r="E72" s="160">
         <v>3</v>
       </c>
-      <c r="F72" s="277" t="s">
-        <v>132</v>
-      </c>
-      <c r="G72" s="280"/>
-      <c r="H72" s="280"/>
-      <c r="I72" s="281"/>
-      <c r="J72" s="277" t="s">
-        <v>130</v>
-      </c>
-      <c r="K72" s="278"/>
-      <c r="L72" s="278"/>
-      <c r="M72" s="279"/>
-      <c r="N72" s="282" t="s">
-        <v>128</v>
-      </c>
-      <c r="O72" s="283"/>
-      <c r="P72" s="283"/>
-      <c r="Q72" s="283"/>
-      <c r="R72" s="283"/>
-      <c r="S72" s="284" t="s">
-        <v>130</v>
-      </c>
-      <c r="T72" s="285"/>
-      <c r="U72" s="285"/>
-      <c r="V72" s="285"/>
-      <c r="W72" s="331"/>
-      <c r="X72" s="332"/>
-      <c r="Y72" s="332"/>
-      <c r="Z72" s="332"/>
-      <c r="AA72" s="332"/>
-      <c r="AB72" s="332"/>
-      <c r="AC72" s="333"/>
-      <c r="AD72" s="331"/>
-      <c r="AE72" s="332"/>
-      <c r="AF72" s="332"/>
-      <c r="AG72" s="332"/>
-      <c r="AH72" s="333"/>
+      <c r="F72" s="335" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="338"/>
+      <c r="H72" s="338"/>
+      <c r="I72" s="339"/>
+      <c r="J72" s="335" t="s">
+        <v>129</v>
+      </c>
+      <c r="K72" s="336"/>
+      <c r="L72" s="336"/>
+      <c r="M72" s="337"/>
+      <c r="N72" s="269" t="s">
+        <v>127</v>
+      </c>
+      <c r="O72" s="270"/>
+      <c r="P72" s="270"/>
+      <c r="Q72" s="270"/>
+      <c r="R72" s="270"/>
+      <c r="S72" s="271" t="s">
+        <v>129</v>
+      </c>
+      <c r="T72" s="272"/>
+      <c r="U72" s="272"/>
+      <c r="V72" s="272"/>
+      <c r="W72" s="273"/>
+      <c r="X72" s="274"/>
+      <c r="Y72" s="274"/>
+      <c r="Z72" s="274"/>
+      <c r="AA72" s="274"/>
+      <c r="AB72" s="274"/>
+      <c r="AC72" s="275"/>
+      <c r="AD72" s="273"/>
+      <c r="AE72" s="274"/>
+      <c r="AF72" s="274"/>
+      <c r="AG72" s="274"/>
+      <c r="AH72" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="N72:R72"/>
-    <mergeCell ref="S72:V72"/>
-    <mergeCell ref="W72:AC72"/>
-    <mergeCell ref="AD70:AH70"/>
-    <mergeCell ref="AD71:AH71"/>
-    <mergeCell ref="AD72:AH72"/>
-    <mergeCell ref="W70:AC70"/>
-    <mergeCell ref="W71:AC71"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="N71:R71"/>
+    <mergeCell ref="N70:R70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="F68:I69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="N68:V68"/>
+    <mergeCell ref="N69:R69"/>
+    <mergeCell ref="G63:L63"/>
+    <mergeCell ref="O63:AH63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="W68:AC69"/>
+    <mergeCell ref="AD68:AH69"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="J68:M69"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="L39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="L38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="V12:AH12"/>
     <mergeCell ref="D8:D9"/>
@@ -14615,47 +14623,39 @@
     <mergeCell ref="H17:AH17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="L38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="L39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="F68:I69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="N68:V68"/>
-    <mergeCell ref="N69:R69"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="O63:AH63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="N71:R71"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="N72:R72"/>
+    <mergeCell ref="S72:V72"/>
+    <mergeCell ref="W72:AC72"/>
+    <mergeCell ref="AD70:AH70"/>
+    <mergeCell ref="AD71:AH71"/>
+    <mergeCell ref="AD72:AH72"/>
+    <mergeCell ref="W70:AC70"/>
+    <mergeCell ref="W71:AC71"/>
     <mergeCell ref="S71:V71"/>
-    <mergeCell ref="N70:R70"/>
     <mergeCell ref="S70:V70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="W68:AC69"/>
-    <mergeCell ref="AD68:AH69"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="J68:M69"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10103_顧客登録.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10103_顧客登録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67847C71-5B60-4B7C-853B-AD5827520F8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AA95B5-4717-4784-8C31-F92EA4A5CBB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. Webサービス取引概要'!$A$1:$AI$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10103（顧客登録）'!$A$1:$AI$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10103（顧客登録）'!$A$1:$AI$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="154">
   <si>
     <t>PJ名</t>
   </si>
@@ -701,16 +701,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>(3) 登録処理</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -808,42 +798,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(2) 重複登録チェック</t>
-    <rPh sb="4" eb="6">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>指定された顧客データを登録する。</t>
-    <rPh sb="0" eb="1">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(4) 応答電文作成</t>
-    <rPh sb="4" eb="6">
-      <t>オウトウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>デンブン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1114,6 +1068,148 @@
   <si>
     <t>200
 (OK)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>登録仕様については下記の通り。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出力項目名</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出力情報</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>情報取得元</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>‐</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>入力データ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(3) 重複登録チェック</t>
+    <rPh sb="4" eb="6">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(4) 登録処理</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(5) 応答電文作成</t>
+    <rPh sb="4" eb="6">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>デンブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(2) DBアクセス（登録処理）</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>指定された顧客データを(2)の登録仕様に沿って登録する。</t>
+    <rPh sb="0" eb="1">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1529,7 +1625,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1907,9 +2003,129 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1946,169 +2162,97 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2120,9 +2264,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2150,41 +2291,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2195,15 +2327,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2213,23 +2336,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2237,6 +2357,186 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2252,200 +2552,68 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6314,7 +6482,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="36"/>
       <c r="J23" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
@@ -6332,12 +6500,12 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="161">
+      <c r="I25" s="164">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44825</v>
       </c>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
+      <c r="J25" s="164"/>
+      <c r="K25" s="164"/>
       <c r="L25" s="36"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6968,57 +7136,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="202" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="211" t="s">
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="220" t="s">
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="193" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="221"/>
-      <c r="U1" s="221"/>
-      <c r="V1" s="221"/>
-      <c r="W1" s="221"/>
-      <c r="X1" s="221"/>
-      <c r="Y1" s="221"/>
-      <c r="Z1" s="222"/>
-      <c r="AA1" s="208" t="s">
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="165" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="195">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="168">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="196"/>
-      <c r="AI1" s="197"/>
+      <c r="AH1" s="169"/>
+      <c r="AI1" s="170"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -7026,53 +7194,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="202" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="223"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="225"/>
-      <c r="AA2" s="208" t="s">
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="181" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="205" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="178" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="206"/>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="207"/>
-      <c r="AG2" s="195">
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="168">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="197"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="170"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -7080,45 +7248,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="202" t="s">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="226"/>
-      <c r="T3" s="227"/>
-      <c r="U3" s="227"/>
-      <c r="V3" s="227"/>
-      <c r="W3" s="227"/>
-      <c r="X3" s="227"/>
-      <c r="Y3" s="227"/>
-      <c r="Z3" s="228"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="192"/>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="195"/>
-      <c r="AH3" s="196"/>
-      <c r="AI3" s="197"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="169"/>
+      <c r="AI3" s="170"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -7155,1048 +7323,1204 @@
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="198" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="198" t="s">
+      <c r="E7" s="173"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="200"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="173"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="174" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="198" t="s">
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="200"/>
-      <c r="W7" s="200"/>
-      <c r="X7" s="200"/>
-      <c r="Y7" s="200"/>
-      <c r="Z7" s="200"/>
-      <c r="AA7" s="200"/>
-      <c r="AB7" s="200"/>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="200"/>
-      <c r="AE7" s="199"/>
-      <c r="AF7" s="198" t="s">
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
+      <c r="W7" s="173"/>
+      <c r="X7" s="173"/>
+      <c r="Y7" s="173"/>
+      <c r="Z7" s="173"/>
+      <c r="AA7" s="173"/>
+      <c r="AB7" s="173"/>
+      <c r="AC7" s="173"/>
+      <c r="AD7" s="173"/>
+      <c r="AE7" s="172"/>
+      <c r="AF7" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="200"/>
-      <c r="AH7" s="200"/>
-      <c r="AI7" s="199"/>
+      <c r="AG7" s="173"/>
+      <c r="AH7" s="173"/>
+      <c r="AI7" s="172"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="114">
         <v>1</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="218" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="181">
+      <c r="C8" s="219"/>
+      <c r="D8" s="220">
         <v>43718</v>
       </c>
-      <c r="E8" s="182"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="184" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="185"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="186" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="187"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="189" t="s">
-        <v>139</v>
-      </c>
-      <c r="R8" s="190"/>
-      <c r="S8" s="190"/>
-      <c r="T8" s="190"/>
-      <c r="U8" s="190"/>
-      <c r="V8" s="190"/>
-      <c r="W8" s="190"/>
-      <c r="X8" s="190"/>
-      <c r="Y8" s="190"/>
-      <c r="Z8" s="190"/>
-      <c r="AA8" s="190"/>
-      <c r="AB8" s="190"/>
-      <c r="AC8" s="190"/>
-      <c r="AD8" s="190"/>
-      <c r="AE8" s="191"/>
-      <c r="AF8" s="186" t="s">
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="223" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="224"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="225" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="226"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="226"/>
+      <c r="N8" s="226"/>
+      <c r="O8" s="226"/>
+      <c r="P8" s="227"/>
+      <c r="Q8" s="228" t="s">
+        <v>135</v>
+      </c>
+      <c r="R8" s="229"/>
+      <c r="S8" s="229"/>
+      <c r="T8" s="229"/>
+      <c r="U8" s="229"/>
+      <c r="V8" s="229"/>
+      <c r="W8" s="229"/>
+      <c r="X8" s="229"/>
+      <c r="Y8" s="229"/>
+      <c r="Z8" s="229"/>
+      <c r="AA8" s="229"/>
+      <c r="AB8" s="229"/>
+      <c r="AC8" s="229"/>
+      <c r="AD8" s="229"/>
+      <c r="AE8" s="230"/>
+      <c r="AF8" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="187"/>
-      <c r="AH8" s="187"/>
-      <c r="AI8" s="188"/>
+      <c r="AG8" s="226"/>
+      <c r="AH8" s="226"/>
+      <c r="AI8" s="227"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="115">
         <v>2</v>
       </c>
-      <c r="B9" s="175" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="164">
+      <c r="B9" s="214" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="203"/>
+      <c r="D9" s="204">
         <v>44825</v>
       </c>
-      <c r="E9" s="165"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="176" t="s">
+      <c r="E9" s="205"/>
+      <c r="F9" s="206"/>
+      <c r="G9" s="215" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="207"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="216" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="167"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="177" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="169"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="169"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="177" t="s">
-        <v>142</v>
-      </c>
-      <c r="R9" s="172"/>
-      <c r="S9" s="172"/>
-      <c r="T9" s="172"/>
-      <c r="U9" s="172"/>
-      <c r="V9" s="172"/>
-      <c r="W9" s="172"/>
-      <c r="X9" s="172"/>
-      <c r="Y9" s="172"/>
-      <c r="Z9" s="172"/>
-      <c r="AA9" s="172"/>
-      <c r="AB9" s="172"/>
-      <c r="AC9" s="172"/>
-      <c r="AD9" s="172"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="178" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG9" s="169"/>
-      <c r="AH9" s="169"/>
-      <c r="AI9" s="170"/>
+      <c r="K9" s="209"/>
+      <c r="L9" s="209"/>
+      <c r="M9" s="209"/>
+      <c r="N9" s="209"/>
+      <c r="O9" s="209"/>
+      <c r="P9" s="210"/>
+      <c r="Q9" s="216" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" s="212"/>
+      <c r="S9" s="212"/>
+      <c r="T9" s="212"/>
+      <c r="U9" s="212"/>
+      <c r="V9" s="212"/>
+      <c r="W9" s="212"/>
+      <c r="X9" s="212"/>
+      <c r="Y9" s="212"/>
+      <c r="Z9" s="212"/>
+      <c r="AA9" s="212"/>
+      <c r="AB9" s="212"/>
+      <c r="AC9" s="212"/>
+      <c r="AD9" s="212"/>
+      <c r="AE9" s="213"/>
+      <c r="AF9" s="217" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG9" s="209"/>
+      <c r="AH9" s="209"/>
+      <c r="AI9" s="210"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="115"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="169"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="172"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="172"/>
-      <c r="W10" s="172"/>
-      <c r="X10" s="172"/>
-      <c r="Y10" s="172"/>
-      <c r="Z10" s="172"/>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="172"/>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="172"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="168"/>
-      <c r="AG10" s="169"/>
-      <c r="AH10" s="169"/>
-      <c r="AI10" s="170"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="207"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="208"/>
+      <c r="K10" s="209"/>
+      <c r="L10" s="209"/>
+      <c r="M10" s="209"/>
+      <c r="N10" s="209"/>
+      <c r="O10" s="209"/>
+      <c r="P10" s="210"/>
+      <c r="Q10" s="211"/>
+      <c r="R10" s="212"/>
+      <c r="S10" s="212"/>
+      <c r="T10" s="212"/>
+      <c r="U10" s="212"/>
+      <c r="V10" s="212"/>
+      <c r="W10" s="212"/>
+      <c r="X10" s="212"/>
+      <c r="Y10" s="212"/>
+      <c r="Z10" s="212"/>
+      <c r="AA10" s="212"/>
+      <c r="AB10" s="212"/>
+      <c r="AC10" s="212"/>
+      <c r="AD10" s="212"/>
+      <c r="AE10" s="213"/>
+      <c r="AF10" s="208"/>
+      <c r="AG10" s="209"/>
+      <c r="AH10" s="209"/>
+      <c r="AI10" s="210"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="115"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="169"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="172"/>
-      <c r="S11" s="172"/>
-      <c r="T11" s="172"/>
-      <c r="U11" s="172"/>
-      <c r="V11" s="172"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="172"/>
-      <c r="Z11" s="172"/>
-      <c r="AA11" s="172"/>
-      <c r="AB11" s="172"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="168"/>
-      <c r="AG11" s="169"/>
-      <c r="AH11" s="169"/>
-      <c r="AI11" s="170"/>
+      <c r="B11" s="202"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="202"/>
+      <c r="H11" s="207"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="209"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="209"/>
+      <c r="N11" s="209"/>
+      <c r="O11" s="209"/>
+      <c r="P11" s="210"/>
+      <c r="Q11" s="211"/>
+      <c r="R11" s="212"/>
+      <c r="S11" s="212"/>
+      <c r="T11" s="212"/>
+      <c r="U11" s="212"/>
+      <c r="V11" s="212"/>
+      <c r="W11" s="212"/>
+      <c r="X11" s="212"/>
+      <c r="Y11" s="212"/>
+      <c r="Z11" s="212"/>
+      <c r="AA11" s="212"/>
+      <c r="AB11" s="212"/>
+      <c r="AC11" s="212"/>
+      <c r="AD11" s="212"/>
+      <c r="AE11" s="213"/>
+      <c r="AF11" s="208"/>
+      <c r="AG11" s="209"/>
+      <c r="AH11" s="209"/>
+      <c r="AI11" s="210"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="115"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="169"/>
-      <c r="N12" s="169"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="171"/>
-      <c r="R12" s="172"/>
-      <c r="S12" s="172"/>
-      <c r="T12" s="172"/>
-      <c r="U12" s="172"/>
-      <c r="V12" s="172"/>
-      <c r="W12" s="172"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="172"/>
-      <c r="Z12" s="172"/>
-      <c r="AA12" s="172"/>
-      <c r="AB12" s="172"/>
-      <c r="AC12" s="172"/>
-      <c r="AD12" s="172"/>
-      <c r="AE12" s="173"/>
-      <c r="AF12" s="168"/>
-      <c r="AG12" s="169"/>
-      <c r="AH12" s="169"/>
-      <c r="AI12" s="170"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="208"/>
+      <c r="K12" s="209"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="209"/>
+      <c r="N12" s="209"/>
+      <c r="O12" s="209"/>
+      <c r="P12" s="210"/>
+      <c r="Q12" s="211"/>
+      <c r="R12" s="212"/>
+      <c r="S12" s="212"/>
+      <c r="T12" s="212"/>
+      <c r="U12" s="212"/>
+      <c r="V12" s="212"/>
+      <c r="W12" s="212"/>
+      <c r="X12" s="212"/>
+      <c r="Y12" s="212"/>
+      <c r="Z12" s="212"/>
+      <c r="AA12" s="212"/>
+      <c r="AB12" s="212"/>
+      <c r="AC12" s="212"/>
+      <c r="AD12" s="212"/>
+      <c r="AE12" s="213"/>
+      <c r="AF12" s="208"/>
+      <c r="AG12" s="209"/>
+      <c r="AH12" s="209"/>
+      <c r="AI12" s="210"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="115"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="168"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="169"/>
-      <c r="N13" s="169"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="172"/>
-      <c r="S13" s="172"/>
-      <c r="T13" s="172"/>
-      <c r="U13" s="172"/>
-      <c r="V13" s="172"/>
-      <c r="W13" s="172"/>
-      <c r="X13" s="172"/>
-      <c r="Y13" s="172"/>
-      <c r="Z13" s="172"/>
-      <c r="AA13" s="172"/>
-      <c r="AB13" s="172"/>
-      <c r="AC13" s="172"/>
-      <c r="AD13" s="172"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="168"/>
-      <c r="AG13" s="169"/>
-      <c r="AH13" s="169"/>
-      <c r="AI13" s="170"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="207"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="209"/>
+      <c r="L13" s="209"/>
+      <c r="M13" s="209"/>
+      <c r="N13" s="209"/>
+      <c r="O13" s="209"/>
+      <c r="P13" s="210"/>
+      <c r="Q13" s="211"/>
+      <c r="R13" s="212"/>
+      <c r="S13" s="212"/>
+      <c r="T13" s="212"/>
+      <c r="U13" s="212"/>
+      <c r="V13" s="212"/>
+      <c r="W13" s="212"/>
+      <c r="X13" s="212"/>
+      <c r="Y13" s="212"/>
+      <c r="Z13" s="212"/>
+      <c r="AA13" s="212"/>
+      <c r="AB13" s="212"/>
+      <c r="AC13" s="212"/>
+      <c r="AD13" s="212"/>
+      <c r="AE13" s="213"/>
+      <c r="AF13" s="208"/>
+      <c r="AG13" s="209"/>
+      <c r="AH13" s="209"/>
+      <c r="AI13" s="210"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="115"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="171"/>
-      <c r="R14" s="172"/>
-      <c r="S14" s="172"/>
-      <c r="T14" s="172"/>
-      <c r="U14" s="172"/>
-      <c r="V14" s="172"/>
-      <c r="W14" s="172"/>
-      <c r="X14" s="172"/>
-      <c r="Y14" s="172"/>
-      <c r="Z14" s="172"/>
-      <c r="AA14" s="172"/>
-      <c r="AB14" s="172"/>
-      <c r="AC14" s="172"/>
-      <c r="AD14" s="172"/>
-      <c r="AE14" s="173"/>
-      <c r="AF14" s="168"/>
-      <c r="AG14" s="169"/>
-      <c r="AH14" s="169"/>
-      <c r="AI14" s="170"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="208"/>
+      <c r="K14" s="209"/>
+      <c r="L14" s="209"/>
+      <c r="M14" s="209"/>
+      <c r="N14" s="209"/>
+      <c r="O14" s="209"/>
+      <c r="P14" s="210"/>
+      <c r="Q14" s="211"/>
+      <c r="R14" s="212"/>
+      <c r="S14" s="212"/>
+      <c r="T14" s="212"/>
+      <c r="U14" s="212"/>
+      <c r="V14" s="212"/>
+      <c r="W14" s="212"/>
+      <c r="X14" s="212"/>
+      <c r="Y14" s="212"/>
+      <c r="Z14" s="212"/>
+      <c r="AA14" s="212"/>
+      <c r="AB14" s="212"/>
+      <c r="AC14" s="212"/>
+      <c r="AD14" s="212"/>
+      <c r="AE14" s="213"/>
+      <c r="AF14" s="208"/>
+      <c r="AG14" s="209"/>
+      <c r="AH14" s="209"/>
+      <c r="AI14" s="210"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="115"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="172"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="172"/>
-      <c r="U15" s="172"/>
-      <c r="V15" s="172"/>
-      <c r="W15" s="172"/>
-      <c r="X15" s="172"/>
-      <c r="Y15" s="172"/>
-      <c r="Z15" s="172"/>
-      <c r="AA15" s="172"/>
-      <c r="AB15" s="172"/>
-      <c r="AC15" s="172"/>
-      <c r="AD15" s="172"/>
-      <c r="AE15" s="173"/>
-      <c r="AF15" s="168"/>
-      <c r="AG15" s="169"/>
-      <c r="AH15" s="169"/>
-      <c r="AI15" s="170"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="207"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="208"/>
+      <c r="K15" s="209"/>
+      <c r="L15" s="209"/>
+      <c r="M15" s="209"/>
+      <c r="N15" s="209"/>
+      <c r="O15" s="209"/>
+      <c r="P15" s="210"/>
+      <c r="Q15" s="211"/>
+      <c r="R15" s="212"/>
+      <c r="S15" s="212"/>
+      <c r="T15" s="212"/>
+      <c r="U15" s="212"/>
+      <c r="V15" s="212"/>
+      <c r="W15" s="212"/>
+      <c r="X15" s="212"/>
+      <c r="Y15" s="212"/>
+      <c r="Z15" s="212"/>
+      <c r="AA15" s="212"/>
+      <c r="AB15" s="212"/>
+      <c r="AC15" s="212"/>
+      <c r="AD15" s="212"/>
+      <c r="AE15" s="213"/>
+      <c r="AF15" s="208"/>
+      <c r="AG15" s="209"/>
+      <c r="AH15" s="209"/>
+      <c r="AI15" s="210"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="115"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="169"/>
-      <c r="N16" s="169"/>
-      <c r="O16" s="169"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="172"/>
-      <c r="U16" s="172"/>
-      <c r="V16" s="172"/>
-      <c r="W16" s="172"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="172"/>
-      <c r="Z16" s="172"/>
-      <c r="AA16" s="172"/>
-      <c r="AB16" s="172"/>
-      <c r="AC16" s="172"/>
-      <c r="AD16" s="172"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="168"/>
-      <c r="AG16" s="169"/>
-      <c r="AH16" s="169"/>
-      <c r="AI16" s="170"/>
+      <c r="B16" s="202"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="206"/>
+      <c r="G16" s="202"/>
+      <c r="H16" s="207"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="208"/>
+      <c r="K16" s="209"/>
+      <c r="L16" s="209"/>
+      <c r="M16" s="209"/>
+      <c r="N16" s="209"/>
+      <c r="O16" s="209"/>
+      <c r="P16" s="210"/>
+      <c r="Q16" s="211"/>
+      <c r="R16" s="212"/>
+      <c r="S16" s="212"/>
+      <c r="T16" s="212"/>
+      <c r="U16" s="212"/>
+      <c r="V16" s="212"/>
+      <c r="W16" s="212"/>
+      <c r="X16" s="212"/>
+      <c r="Y16" s="212"/>
+      <c r="Z16" s="212"/>
+      <c r="AA16" s="212"/>
+      <c r="AB16" s="212"/>
+      <c r="AC16" s="212"/>
+      <c r="AD16" s="212"/>
+      <c r="AE16" s="213"/>
+      <c r="AF16" s="208"/>
+      <c r="AG16" s="209"/>
+      <c r="AH16" s="209"/>
+      <c r="AI16" s="210"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="115"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="169"/>
-      <c r="N17" s="169"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="171"/>
-      <c r="R17" s="172"/>
-      <c r="S17" s="172"/>
-      <c r="T17" s="172"/>
-      <c r="U17" s="172"/>
-      <c r="V17" s="172"/>
-      <c r="W17" s="172"/>
-      <c r="X17" s="172"/>
-      <c r="Y17" s="172"/>
-      <c r="Z17" s="172"/>
-      <c r="AA17" s="172"/>
-      <c r="AB17" s="172"/>
-      <c r="AC17" s="172"/>
-      <c r="AD17" s="172"/>
-      <c r="AE17" s="173"/>
-      <c r="AF17" s="168"/>
-      <c r="AG17" s="169"/>
-      <c r="AH17" s="169"/>
-      <c r="AI17" s="170"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="209"/>
+      <c r="L17" s="209"/>
+      <c r="M17" s="209"/>
+      <c r="N17" s="209"/>
+      <c r="O17" s="209"/>
+      <c r="P17" s="210"/>
+      <c r="Q17" s="211"/>
+      <c r="R17" s="212"/>
+      <c r="S17" s="212"/>
+      <c r="T17" s="212"/>
+      <c r="U17" s="212"/>
+      <c r="V17" s="212"/>
+      <c r="W17" s="212"/>
+      <c r="X17" s="212"/>
+      <c r="Y17" s="212"/>
+      <c r="Z17" s="212"/>
+      <c r="AA17" s="212"/>
+      <c r="AB17" s="212"/>
+      <c r="AC17" s="212"/>
+      <c r="AD17" s="212"/>
+      <c r="AE17" s="213"/>
+      <c r="AF17" s="208"/>
+      <c r="AG17" s="209"/>
+      <c r="AH17" s="209"/>
+      <c r="AI17" s="210"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="115"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="171"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="172"/>
-      <c r="U18" s="172"/>
-      <c r="V18" s="172"/>
-      <c r="W18" s="172"/>
-      <c r="X18" s="172"/>
-      <c r="Y18" s="172"/>
-      <c r="Z18" s="172"/>
-      <c r="AA18" s="172"/>
-      <c r="AB18" s="172"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="172"/>
-      <c r="AE18" s="173"/>
-      <c r="AF18" s="168"/>
-      <c r="AG18" s="169"/>
-      <c r="AH18" s="169"/>
-      <c r="AI18" s="170"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="209"/>
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
+      <c r="O18" s="209"/>
+      <c r="P18" s="210"/>
+      <c r="Q18" s="211"/>
+      <c r="R18" s="212"/>
+      <c r="S18" s="212"/>
+      <c r="T18" s="212"/>
+      <c r="U18" s="212"/>
+      <c r="V18" s="212"/>
+      <c r="W18" s="212"/>
+      <c r="X18" s="212"/>
+      <c r="Y18" s="212"/>
+      <c r="Z18" s="212"/>
+      <c r="AA18" s="212"/>
+      <c r="AB18" s="212"/>
+      <c r="AC18" s="212"/>
+      <c r="AD18" s="212"/>
+      <c r="AE18" s="213"/>
+      <c r="AF18" s="208"/>
+      <c r="AG18" s="209"/>
+      <c r="AH18" s="209"/>
+      <c r="AI18" s="210"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="115"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="169"/>
-      <c r="M19" s="169"/>
-      <c r="N19" s="169"/>
-      <c r="O19" s="169"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="171"/>
-      <c r="R19" s="172"/>
-      <c r="S19" s="172"/>
-      <c r="T19" s="172"/>
-      <c r="U19" s="172"/>
-      <c r="V19" s="172"/>
-      <c r="W19" s="172"/>
-      <c r="X19" s="172"/>
-      <c r="Y19" s="172"/>
-      <c r="Z19" s="172"/>
-      <c r="AA19" s="172"/>
-      <c r="AB19" s="172"/>
-      <c r="AC19" s="172"/>
-      <c r="AD19" s="172"/>
-      <c r="AE19" s="173"/>
-      <c r="AF19" s="168"/>
-      <c r="AG19" s="169"/>
-      <c r="AH19" s="169"/>
-      <c r="AI19" s="170"/>
+      <c r="B19" s="202"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="208"/>
+      <c r="K19" s="209"/>
+      <c r="L19" s="209"/>
+      <c r="M19" s="209"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="209"/>
+      <c r="P19" s="210"/>
+      <c r="Q19" s="211"/>
+      <c r="R19" s="212"/>
+      <c r="S19" s="212"/>
+      <c r="T19" s="212"/>
+      <c r="U19" s="212"/>
+      <c r="V19" s="212"/>
+      <c r="W19" s="212"/>
+      <c r="X19" s="212"/>
+      <c r="Y19" s="212"/>
+      <c r="Z19" s="212"/>
+      <c r="AA19" s="212"/>
+      <c r="AB19" s="212"/>
+      <c r="AC19" s="212"/>
+      <c r="AD19" s="212"/>
+      <c r="AE19" s="213"/>
+      <c r="AF19" s="208"/>
+      <c r="AG19" s="209"/>
+      <c r="AH19" s="209"/>
+      <c r="AI19" s="210"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="115"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="171"/>
-      <c r="R20" s="172"/>
-      <c r="S20" s="172"/>
-      <c r="T20" s="172"/>
-      <c r="U20" s="172"/>
-      <c r="V20" s="172"/>
-      <c r="W20" s="172"/>
-      <c r="X20" s="172"/>
-      <c r="Y20" s="172"/>
-      <c r="Z20" s="172"/>
-      <c r="AA20" s="172"/>
-      <c r="AB20" s="172"/>
-      <c r="AC20" s="172"/>
-      <c r="AD20" s="172"/>
-      <c r="AE20" s="173"/>
-      <c r="AF20" s="168"/>
-      <c r="AG20" s="169"/>
-      <c r="AH20" s="169"/>
-      <c r="AI20" s="170"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="205"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="207"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="208"/>
+      <c r="K20" s="209"/>
+      <c r="L20" s="209"/>
+      <c r="M20" s="209"/>
+      <c r="N20" s="209"/>
+      <c r="O20" s="209"/>
+      <c r="P20" s="210"/>
+      <c r="Q20" s="211"/>
+      <c r="R20" s="212"/>
+      <c r="S20" s="212"/>
+      <c r="T20" s="212"/>
+      <c r="U20" s="212"/>
+      <c r="V20" s="212"/>
+      <c r="W20" s="212"/>
+      <c r="X20" s="212"/>
+      <c r="Y20" s="212"/>
+      <c r="Z20" s="212"/>
+      <c r="AA20" s="212"/>
+      <c r="AB20" s="212"/>
+      <c r="AC20" s="212"/>
+      <c r="AD20" s="212"/>
+      <c r="AE20" s="213"/>
+      <c r="AF20" s="208"/>
+      <c r="AG20" s="209"/>
+      <c r="AH20" s="209"/>
+      <c r="AI20" s="210"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="115"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="169"/>
-      <c r="O21" s="169"/>
-      <c r="P21" s="170"/>
-      <c r="Q21" s="171"/>
-      <c r="R21" s="172"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="172"/>
-      <c r="U21" s="172"/>
-      <c r="V21" s="172"/>
-      <c r="W21" s="172"/>
-      <c r="X21" s="172"/>
-      <c r="Y21" s="172"/>
-      <c r="Z21" s="172"/>
-      <c r="AA21" s="172"/>
-      <c r="AB21" s="172"/>
-      <c r="AC21" s="172"/>
-      <c r="AD21" s="172"/>
-      <c r="AE21" s="173"/>
-      <c r="AF21" s="168"/>
-      <c r="AG21" s="169"/>
-      <c r="AH21" s="169"/>
-      <c r="AI21" s="170"/>
+      <c r="B21" s="202"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="202"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="208"/>
+      <c r="K21" s="209"/>
+      <c r="L21" s="209"/>
+      <c r="M21" s="209"/>
+      <c r="N21" s="209"/>
+      <c r="O21" s="209"/>
+      <c r="P21" s="210"/>
+      <c r="Q21" s="211"/>
+      <c r="R21" s="212"/>
+      <c r="S21" s="212"/>
+      <c r="T21" s="212"/>
+      <c r="U21" s="212"/>
+      <c r="V21" s="212"/>
+      <c r="W21" s="212"/>
+      <c r="X21" s="212"/>
+      <c r="Y21" s="212"/>
+      <c r="Z21" s="212"/>
+      <c r="AA21" s="212"/>
+      <c r="AB21" s="212"/>
+      <c r="AC21" s="212"/>
+      <c r="AD21" s="212"/>
+      <c r="AE21" s="213"/>
+      <c r="AF21" s="208"/>
+      <c r="AG21" s="209"/>
+      <c r="AH21" s="209"/>
+      <c r="AI21" s="210"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="115"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="169"/>
-      <c r="P22" s="170"/>
-      <c r="Q22" s="171"/>
-      <c r="R22" s="172"/>
-      <c r="S22" s="172"/>
-      <c r="T22" s="172"/>
-      <c r="U22" s="172"/>
-      <c r="V22" s="172"/>
-      <c r="W22" s="172"/>
-      <c r="X22" s="172"/>
-      <c r="Y22" s="172"/>
-      <c r="Z22" s="172"/>
-      <c r="AA22" s="172"/>
-      <c r="AB22" s="172"/>
-      <c r="AC22" s="172"/>
-      <c r="AD22" s="172"/>
-      <c r="AE22" s="173"/>
-      <c r="AF22" s="168"/>
-      <c r="AG22" s="169"/>
-      <c r="AH22" s="169"/>
-      <c r="AI22" s="170"/>
+      <c r="B22" s="202"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="206"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="207"/>
+      <c r="I22" s="203"/>
+      <c r="J22" s="208"/>
+      <c r="K22" s="209"/>
+      <c r="L22" s="209"/>
+      <c r="M22" s="209"/>
+      <c r="N22" s="209"/>
+      <c r="O22" s="209"/>
+      <c r="P22" s="210"/>
+      <c r="Q22" s="211"/>
+      <c r="R22" s="212"/>
+      <c r="S22" s="212"/>
+      <c r="T22" s="212"/>
+      <c r="U22" s="212"/>
+      <c r="V22" s="212"/>
+      <c r="W22" s="212"/>
+      <c r="X22" s="212"/>
+      <c r="Y22" s="212"/>
+      <c r="Z22" s="212"/>
+      <c r="AA22" s="212"/>
+      <c r="AB22" s="212"/>
+      <c r="AC22" s="212"/>
+      <c r="AD22" s="212"/>
+      <c r="AE22" s="213"/>
+      <c r="AF22" s="208"/>
+      <c r="AG22" s="209"/>
+      <c r="AH22" s="209"/>
+      <c r="AI22" s="210"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="115"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="169"/>
-      <c r="O23" s="169"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="171"/>
-      <c r="R23" s="172"/>
-      <c r="S23" s="172"/>
-      <c r="T23" s="172"/>
-      <c r="U23" s="172"/>
-      <c r="V23" s="172"/>
-      <c r="W23" s="172"/>
-      <c r="X23" s="172"/>
-      <c r="Y23" s="172"/>
-      <c r="Z23" s="172"/>
-      <c r="AA23" s="172"/>
-      <c r="AB23" s="172"/>
-      <c r="AC23" s="172"/>
-      <c r="AD23" s="172"/>
-      <c r="AE23" s="173"/>
-      <c r="AF23" s="168"/>
-      <c r="AG23" s="169"/>
-      <c r="AH23" s="169"/>
-      <c r="AI23" s="170"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="209"/>
+      <c r="L23" s="209"/>
+      <c r="M23" s="209"/>
+      <c r="N23" s="209"/>
+      <c r="O23" s="209"/>
+      <c r="P23" s="210"/>
+      <c r="Q23" s="211"/>
+      <c r="R23" s="212"/>
+      <c r="S23" s="212"/>
+      <c r="T23" s="212"/>
+      <c r="U23" s="212"/>
+      <c r="V23" s="212"/>
+      <c r="W23" s="212"/>
+      <c r="X23" s="212"/>
+      <c r="Y23" s="212"/>
+      <c r="Z23" s="212"/>
+      <c r="AA23" s="212"/>
+      <c r="AB23" s="212"/>
+      <c r="AC23" s="212"/>
+      <c r="AD23" s="212"/>
+      <c r="AE23" s="213"/>
+      <c r="AF23" s="208"/>
+      <c r="AG23" s="209"/>
+      <c r="AH23" s="209"/>
+      <c r="AI23" s="210"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="115"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="169"/>
-      <c r="P24" s="170"/>
-      <c r="Q24" s="171"/>
-      <c r="R24" s="172"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="172"/>
-      <c r="U24" s="172"/>
-      <c r="V24" s="172"/>
-      <c r="W24" s="172"/>
-      <c r="X24" s="172"/>
-      <c r="Y24" s="172"/>
-      <c r="Z24" s="172"/>
-      <c r="AA24" s="172"/>
-      <c r="AB24" s="172"/>
-      <c r="AC24" s="172"/>
-      <c r="AD24" s="172"/>
-      <c r="AE24" s="173"/>
-      <c r="AF24" s="168"/>
-      <c r="AG24" s="169"/>
-      <c r="AH24" s="169"/>
-      <c r="AI24" s="170"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="202"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="203"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="209"/>
+      <c r="L24" s="209"/>
+      <c r="M24" s="209"/>
+      <c r="N24" s="209"/>
+      <c r="O24" s="209"/>
+      <c r="P24" s="210"/>
+      <c r="Q24" s="211"/>
+      <c r="R24" s="212"/>
+      <c r="S24" s="212"/>
+      <c r="T24" s="212"/>
+      <c r="U24" s="212"/>
+      <c r="V24" s="212"/>
+      <c r="W24" s="212"/>
+      <c r="X24" s="212"/>
+      <c r="Y24" s="212"/>
+      <c r="Z24" s="212"/>
+      <c r="AA24" s="212"/>
+      <c r="AB24" s="212"/>
+      <c r="AC24" s="212"/>
+      <c r="AD24" s="212"/>
+      <c r="AE24" s="213"/>
+      <c r="AF24" s="208"/>
+      <c r="AG24" s="209"/>
+      <c r="AH24" s="209"/>
+      <c r="AI24" s="210"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="115"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="169"/>
-      <c r="N25" s="169"/>
-      <c r="O25" s="169"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="171"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="172"/>
-      <c r="U25" s="172"/>
-      <c r="V25" s="172"/>
-      <c r="W25" s="172"/>
-      <c r="X25" s="172"/>
-      <c r="Y25" s="172"/>
-      <c r="Z25" s="172"/>
-      <c r="AA25" s="172"/>
-      <c r="AB25" s="172"/>
-      <c r="AC25" s="172"/>
-      <c r="AD25" s="172"/>
-      <c r="AE25" s="173"/>
-      <c r="AF25" s="168"/>
-      <c r="AG25" s="169"/>
-      <c r="AH25" s="169"/>
-      <c r="AI25" s="170"/>
+      <c r="B25" s="202"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="205"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="208"/>
+      <c r="K25" s="209"/>
+      <c r="L25" s="209"/>
+      <c r="M25" s="209"/>
+      <c r="N25" s="209"/>
+      <c r="O25" s="209"/>
+      <c r="P25" s="210"/>
+      <c r="Q25" s="211"/>
+      <c r="R25" s="212"/>
+      <c r="S25" s="212"/>
+      <c r="T25" s="212"/>
+      <c r="U25" s="212"/>
+      <c r="V25" s="212"/>
+      <c r="W25" s="212"/>
+      <c r="X25" s="212"/>
+      <c r="Y25" s="212"/>
+      <c r="Z25" s="212"/>
+      <c r="AA25" s="212"/>
+      <c r="AB25" s="212"/>
+      <c r="AC25" s="212"/>
+      <c r="AD25" s="212"/>
+      <c r="AE25" s="213"/>
+      <c r="AF25" s="208"/>
+      <c r="AG25" s="209"/>
+      <c r="AH25" s="209"/>
+      <c r="AI25" s="210"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="115"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="169"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="169"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="171"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172"/>
-      <c r="U26" s="172"/>
-      <c r="V26" s="172"/>
-      <c r="W26" s="172"/>
-      <c r="X26" s="172"/>
-      <c r="Y26" s="172"/>
-      <c r="Z26" s="172"/>
-      <c r="AA26" s="172"/>
-      <c r="AB26" s="172"/>
-      <c r="AC26" s="172"/>
-      <c r="AD26" s="172"/>
-      <c r="AE26" s="173"/>
-      <c r="AF26" s="168"/>
-      <c r="AG26" s="169"/>
-      <c r="AH26" s="169"/>
-      <c r="AI26" s="170"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="208"/>
+      <c r="K26" s="209"/>
+      <c r="L26" s="209"/>
+      <c r="M26" s="209"/>
+      <c r="N26" s="209"/>
+      <c r="O26" s="209"/>
+      <c r="P26" s="210"/>
+      <c r="Q26" s="211"/>
+      <c r="R26" s="212"/>
+      <c r="S26" s="212"/>
+      <c r="T26" s="212"/>
+      <c r="U26" s="212"/>
+      <c r="V26" s="212"/>
+      <c r="W26" s="212"/>
+      <c r="X26" s="212"/>
+      <c r="Y26" s="212"/>
+      <c r="Z26" s="212"/>
+      <c r="AA26" s="212"/>
+      <c r="AB26" s="212"/>
+      <c r="AC26" s="212"/>
+      <c r="AD26" s="212"/>
+      <c r="AE26" s="213"/>
+      <c r="AF26" s="208"/>
+      <c r="AG26" s="209"/>
+      <c r="AH26" s="209"/>
+      <c r="AI26" s="210"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="115"/>
-      <c r="B27" s="162"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="169"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="169"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="171"/>
-      <c r="R27" s="172"/>
-      <c r="S27" s="172"/>
-      <c r="T27" s="172"/>
-      <c r="U27" s="172"/>
-      <c r="V27" s="172"/>
-      <c r="W27" s="172"/>
-      <c r="X27" s="172"/>
-      <c r="Y27" s="172"/>
-      <c r="Z27" s="172"/>
-      <c r="AA27" s="172"/>
-      <c r="AB27" s="172"/>
-      <c r="AC27" s="172"/>
-      <c r="AD27" s="172"/>
-      <c r="AE27" s="173"/>
-      <c r="AF27" s="168"/>
-      <c r="AG27" s="169"/>
-      <c r="AH27" s="169"/>
-      <c r="AI27" s="170"/>
+      <c r="B27" s="202"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="205"/>
+      <c r="F27" s="206"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="208"/>
+      <c r="K27" s="209"/>
+      <c r="L27" s="209"/>
+      <c r="M27" s="209"/>
+      <c r="N27" s="209"/>
+      <c r="O27" s="209"/>
+      <c r="P27" s="210"/>
+      <c r="Q27" s="211"/>
+      <c r="R27" s="212"/>
+      <c r="S27" s="212"/>
+      <c r="T27" s="212"/>
+      <c r="U27" s="212"/>
+      <c r="V27" s="212"/>
+      <c r="W27" s="212"/>
+      <c r="X27" s="212"/>
+      <c r="Y27" s="212"/>
+      <c r="Z27" s="212"/>
+      <c r="AA27" s="212"/>
+      <c r="AB27" s="212"/>
+      <c r="AC27" s="212"/>
+      <c r="AD27" s="212"/>
+      <c r="AE27" s="213"/>
+      <c r="AF27" s="208"/>
+      <c r="AG27" s="209"/>
+      <c r="AH27" s="209"/>
+      <c r="AI27" s="210"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="115"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="169"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="169"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="171"/>
-      <c r="R28" s="172"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="172"/>
-      <c r="U28" s="172"/>
-      <c r="V28" s="172"/>
-      <c r="W28" s="172"/>
-      <c r="X28" s="172"/>
-      <c r="Y28" s="172"/>
-      <c r="Z28" s="172"/>
-      <c r="AA28" s="172"/>
-      <c r="AB28" s="172"/>
-      <c r="AC28" s="172"/>
-      <c r="AD28" s="172"/>
-      <c r="AE28" s="173"/>
-      <c r="AF28" s="168"/>
-      <c r="AG28" s="169"/>
-      <c r="AH28" s="169"/>
-      <c r="AI28" s="170"/>
+      <c r="B28" s="202"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="205"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="208"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="209"/>
+      <c r="M28" s="209"/>
+      <c r="N28" s="209"/>
+      <c r="O28" s="209"/>
+      <c r="P28" s="210"/>
+      <c r="Q28" s="211"/>
+      <c r="R28" s="212"/>
+      <c r="S28" s="212"/>
+      <c r="T28" s="212"/>
+      <c r="U28" s="212"/>
+      <c r="V28" s="212"/>
+      <c r="W28" s="212"/>
+      <c r="X28" s="212"/>
+      <c r="Y28" s="212"/>
+      <c r="Z28" s="212"/>
+      <c r="AA28" s="212"/>
+      <c r="AB28" s="212"/>
+      <c r="AC28" s="212"/>
+      <c r="AD28" s="212"/>
+      <c r="AE28" s="213"/>
+      <c r="AF28" s="208"/>
+      <c r="AG28" s="209"/>
+      <c r="AH28" s="209"/>
+      <c r="AI28" s="210"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="115"/>
-      <c r="B29" s="162"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="169"/>
-      <c r="M29" s="169"/>
-      <c r="N29" s="169"/>
-      <c r="O29" s="169"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="172"/>
-      <c r="T29" s="172"/>
-      <c r="U29" s="172"/>
-      <c r="V29" s="172"/>
-      <c r="W29" s="172"/>
-      <c r="X29" s="172"/>
-      <c r="Y29" s="172"/>
-      <c r="Z29" s="172"/>
-      <c r="AA29" s="172"/>
-      <c r="AB29" s="172"/>
-      <c r="AC29" s="172"/>
-      <c r="AD29" s="172"/>
-      <c r="AE29" s="173"/>
-      <c r="AF29" s="168"/>
-      <c r="AG29" s="169"/>
-      <c r="AH29" s="169"/>
-      <c r="AI29" s="170"/>
+      <c r="B29" s="202"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="206"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="208"/>
+      <c r="K29" s="209"/>
+      <c r="L29" s="209"/>
+      <c r="M29" s="209"/>
+      <c r="N29" s="209"/>
+      <c r="O29" s="209"/>
+      <c r="P29" s="210"/>
+      <c r="Q29" s="211"/>
+      <c r="R29" s="212"/>
+      <c r="S29" s="212"/>
+      <c r="T29" s="212"/>
+      <c r="U29" s="212"/>
+      <c r="V29" s="212"/>
+      <c r="W29" s="212"/>
+      <c r="X29" s="212"/>
+      <c r="Y29" s="212"/>
+      <c r="Z29" s="212"/>
+      <c r="AA29" s="212"/>
+      <c r="AB29" s="212"/>
+      <c r="AC29" s="212"/>
+      <c r="AD29" s="212"/>
+      <c r="AE29" s="213"/>
+      <c r="AF29" s="208"/>
+      <c r="AG29" s="209"/>
+      <c r="AH29" s="209"/>
+      <c r="AI29" s="210"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="115"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="169"/>
-      <c r="N30" s="169"/>
-      <c r="O30" s="169"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="172"/>
-      <c r="S30" s="172"/>
-      <c r="T30" s="172"/>
-      <c r="U30" s="172"/>
-      <c r="V30" s="172"/>
-      <c r="W30" s="172"/>
-      <c r="X30" s="172"/>
-      <c r="Y30" s="172"/>
-      <c r="Z30" s="172"/>
-      <c r="AA30" s="172"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="172"/>
-      <c r="AD30" s="172"/>
-      <c r="AE30" s="173"/>
-      <c r="AF30" s="168"/>
-      <c r="AG30" s="169"/>
-      <c r="AH30" s="169"/>
-      <c r="AI30" s="170"/>
+      <c r="B30" s="202"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="203"/>
+      <c r="J30" s="208"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="209"/>
+      <c r="M30" s="209"/>
+      <c r="N30" s="209"/>
+      <c r="O30" s="209"/>
+      <c r="P30" s="210"/>
+      <c r="Q30" s="211"/>
+      <c r="R30" s="212"/>
+      <c r="S30" s="212"/>
+      <c r="T30" s="212"/>
+      <c r="U30" s="212"/>
+      <c r="V30" s="212"/>
+      <c r="W30" s="212"/>
+      <c r="X30" s="212"/>
+      <c r="Y30" s="212"/>
+      <c r="Z30" s="212"/>
+      <c r="AA30" s="212"/>
+      <c r="AB30" s="212"/>
+      <c r="AC30" s="212"/>
+      <c r="AD30" s="212"/>
+      <c r="AE30" s="213"/>
+      <c r="AF30" s="208"/>
+      <c r="AG30" s="209"/>
+      <c r="AH30" s="209"/>
+      <c r="AI30" s="210"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="115"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="169"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="169"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="171"/>
-      <c r="R31" s="172"/>
-      <c r="S31" s="172"/>
-      <c r="T31" s="172"/>
-      <c r="U31" s="172"/>
-      <c r="V31" s="172"/>
-      <c r="W31" s="172"/>
-      <c r="X31" s="172"/>
-      <c r="Y31" s="172"/>
-      <c r="Z31" s="172"/>
-      <c r="AA31" s="172"/>
-      <c r="AB31" s="172"/>
-      <c r="AC31" s="172"/>
-      <c r="AD31" s="172"/>
-      <c r="AE31" s="173"/>
-      <c r="AF31" s="168"/>
-      <c r="AG31" s="169"/>
-      <c r="AH31" s="169"/>
-      <c r="AI31" s="170"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="202"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="208"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="209"/>
+      <c r="M31" s="209"/>
+      <c r="N31" s="209"/>
+      <c r="O31" s="209"/>
+      <c r="P31" s="210"/>
+      <c r="Q31" s="211"/>
+      <c r="R31" s="212"/>
+      <c r="S31" s="212"/>
+      <c r="T31" s="212"/>
+      <c r="U31" s="212"/>
+      <c r="V31" s="212"/>
+      <c r="W31" s="212"/>
+      <c r="X31" s="212"/>
+      <c r="Y31" s="212"/>
+      <c r="Z31" s="212"/>
+      <c r="AA31" s="212"/>
+      <c r="AB31" s="212"/>
+      <c r="AC31" s="212"/>
+      <c r="AD31" s="212"/>
+      <c r="AE31" s="213"/>
+      <c r="AF31" s="208"/>
+      <c r="AG31" s="209"/>
+      <c r="AH31" s="209"/>
+      <c r="AI31" s="210"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="115"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="168"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="171"/>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
-      <c r="T32" s="172"/>
-      <c r="U32" s="172"/>
-      <c r="V32" s="172"/>
-      <c r="W32" s="172"/>
-      <c r="X32" s="172"/>
-      <c r="Y32" s="172"/>
-      <c r="Z32" s="172"/>
-      <c r="AA32" s="172"/>
-      <c r="AB32" s="172"/>
-      <c r="AC32" s="172"/>
-      <c r="AD32" s="172"/>
-      <c r="AE32" s="173"/>
-      <c r="AF32" s="168"/>
-      <c r="AG32" s="169"/>
-      <c r="AH32" s="169"/>
-      <c r="AI32" s="170"/>
+      <c r="B32" s="202"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="202"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="208"/>
+      <c r="K32" s="231"/>
+      <c r="L32" s="209"/>
+      <c r="M32" s="209"/>
+      <c r="N32" s="209"/>
+      <c r="O32" s="209"/>
+      <c r="P32" s="210"/>
+      <c r="Q32" s="211"/>
+      <c r="R32" s="212"/>
+      <c r="S32" s="212"/>
+      <c r="T32" s="212"/>
+      <c r="U32" s="212"/>
+      <c r="V32" s="212"/>
+      <c r="W32" s="212"/>
+      <c r="X32" s="212"/>
+      <c r="Y32" s="212"/>
+      <c r="Z32" s="212"/>
+      <c r="AA32" s="212"/>
+      <c r="AB32" s="212"/>
+      <c r="AC32" s="212"/>
+      <c r="AD32" s="212"/>
+      <c r="AE32" s="213"/>
+      <c r="AF32" s="208"/>
+      <c r="AG32" s="209"/>
+      <c r="AH32" s="209"/>
+      <c r="AI32" s="210"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="115"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="169"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="169"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="171"/>
-      <c r="R33" s="172"/>
-      <c r="S33" s="172"/>
-      <c r="T33" s="172"/>
-      <c r="U33" s="172"/>
-      <c r="V33" s="172"/>
-      <c r="W33" s="172"/>
-      <c r="X33" s="172"/>
-      <c r="Y33" s="172"/>
-      <c r="Z33" s="172"/>
-      <c r="AA33" s="172"/>
-      <c r="AB33" s="172"/>
-      <c r="AC33" s="172"/>
-      <c r="AD33" s="172"/>
-      <c r="AE33" s="173"/>
-      <c r="AF33" s="168"/>
-      <c r="AG33" s="169"/>
-      <c r="AH33" s="169"/>
-      <c r="AI33" s="170"/>
+      <c r="B33" s="202"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="208"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="209"/>
+      <c r="M33" s="209"/>
+      <c r="N33" s="209"/>
+      <c r="O33" s="209"/>
+      <c r="P33" s="210"/>
+      <c r="Q33" s="211"/>
+      <c r="R33" s="212"/>
+      <c r="S33" s="212"/>
+      <c r="T33" s="212"/>
+      <c r="U33" s="212"/>
+      <c r="V33" s="212"/>
+      <c r="W33" s="212"/>
+      <c r="X33" s="212"/>
+      <c r="Y33" s="212"/>
+      <c r="Z33" s="212"/>
+      <c r="AA33" s="212"/>
+      <c r="AB33" s="212"/>
+      <c r="AC33" s="212"/>
+      <c r="AD33" s="212"/>
+      <c r="AE33" s="213"/>
+      <c r="AF33" s="208"/>
+      <c r="AG33" s="209"/>
+      <c r="AH33" s="209"/>
+      <c r="AI33" s="210"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8220,162 +8544,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8532,157 +8700,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="232" t="str">
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="245" t="s">
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="246"/>
-      <c r="Q1" s="246"/>
-      <c r="R1" s="247"/>
-      <c r="S1" s="233" t="str">
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="248" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="234"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="242" t="s">
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="234"/>
+      <c r="AC1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="229">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="245">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="230"/>
-      <c r="AI1" s="231"/>
+      <c r="AH1" s="246"/>
+      <c r="AI1" s="247"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="232" t="str">
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="248"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="250"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="238"/>
-      <c r="AA2" s="242" t="s">
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="234"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="229">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="245">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="230"/>
-      <c r="AI2" s="231"/>
+      <c r="AH2" s="246"/>
+      <c r="AI2" s="247"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="232" t="str">
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="252"/>
-      <c r="Q3" s="252"/>
-      <c r="R3" s="253"/>
-      <c r="S3" s="239"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="242"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="241"/>
+      <c r="P3" s="242"/>
+      <c r="Q3" s="242"/>
+      <c r="R3" s="243"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="232"/>
+      <c r="AB3" s="234"/>
+      <c r="AC3" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="229" t="str">
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="245" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="230"/>
-      <c r="AI3" s="231"/>
+      <c r="AH3" s="246"/>
+      <c r="AI3" s="247"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42"/>
@@ -10149,14 +10317,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -10166,6 +10326,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10194,157 +10362,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="232" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="211" t="s">
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="233" t="str">
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="248" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="234"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="208" t="s">
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="258">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="260"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="232" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="238"/>
-      <c r="AA2" s="208" t="s">
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="264">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="258">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
+      <c r="AH2" s="259"/>
+      <c r="AI2" s="260"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="232" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="239"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="264" t="str">
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
+      <c r="AH3" s="259"/>
+      <c r="AI3" s="260"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -10500,92 +10668,92 @@
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="257" t="s">
+      <c r="D8" s="263" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="258"/>
-      <c r="F8" s="258"/>
-      <c r="G8" s="259"/>
-      <c r="H8" s="267" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="268"/>
-      <c r="K8" s="268"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="268"/>
-      <c r="N8" s="268"/>
-      <c r="O8" s="268"/>
-      <c r="P8" s="268"/>
-      <c r="Q8" s="268"/>
-      <c r="R8" s="268"/>
-      <c r="S8" s="268"/>
-      <c r="T8" s="268"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="268"/>
-      <c r="W8" s="268"/>
-      <c r="X8" s="268"/>
-      <c r="Y8" s="268"/>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="268"/>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="268"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="261" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="262"/>
+      <c r="M8" s="262"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="262"/>
+      <c r="P8" s="262"/>
+      <c r="Q8" s="262"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="262"/>
+      <c r="T8" s="262"/>
+      <c r="U8" s="262"/>
+      <c r="V8" s="262"/>
+      <c r="W8" s="262"/>
+      <c r="X8" s="262"/>
+      <c r="Y8" s="262"/>
+      <c r="Z8" s="262"/>
+      <c r="AA8" s="262"/>
+      <c r="AB8" s="262"/>
+      <c r="AC8" s="262"/>
+      <c r="AD8" s="262"/>
+      <c r="AE8" s="262"/>
+      <c r="AF8" s="262"/>
+      <c r="AG8" s="262"/>
+      <c r="AH8" s="262"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="257" t="s">
+      <c r="D9" s="263" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="258"/>
-      <c r="F9" s="258"/>
-      <c r="G9" s="259"/>
-      <c r="H9" s="263" t="s">
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="257" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="263"/>
-      <c r="J9" s="263"/>
-      <c r="K9" s="263"/>
-      <c r="L9" s="263"/>
-      <c r="M9" s="263"/>
-      <c r="N9" s="263"/>
-      <c r="O9" s="263"/>
-      <c r="P9" s="263"/>
-      <c r="Q9" s="263"/>
-      <c r="R9" s="263"/>
-      <c r="S9" s="263"/>
-      <c r="T9" s="263"/>
-      <c r="U9" s="263"/>
-      <c r="V9" s="263"/>
-      <c r="W9" s="263"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="263"/>
-      <c r="Z9" s="263"/>
-      <c r="AA9" s="263"/>
-      <c r="AB9" s="263"/>
-      <c r="AC9" s="263"/>
-      <c r="AD9" s="263"/>
-      <c r="AE9" s="263"/>
-      <c r="AF9" s="263"/>
-      <c r="AG9" s="263"/>
-      <c r="AH9" s="263"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="257"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="257"/>
+      <c r="Q9" s="257"/>
+      <c r="R9" s="257"/>
+      <c r="S9" s="257"/>
+      <c r="T9" s="257"/>
+      <c r="U9" s="257"/>
+      <c r="V9" s="257"/>
+      <c r="W9" s="257"/>
+      <c r="X9" s="257"/>
+      <c r="Y9" s="257"/>
+      <c r="Z9" s="257"/>
+      <c r="AA9" s="257"/>
+      <c r="AB9" s="257"/>
+      <c r="AC9" s="257"/>
+      <c r="AD9" s="257"/>
+      <c r="AE9" s="257"/>
+      <c r="AF9" s="257"/>
+      <c r="AG9" s="257"/>
+      <c r="AH9" s="257"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="254" t="s">
+      <c r="D10" s="266" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="255"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="256"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="268"/>
       <c r="H10" s="100" t="s">
         <v>75</v>
       </c>
@@ -10620,174 +10788,174 @@
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="257" t="s">
+      <c r="D11" s="263" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="258"/>
-      <c r="F11" s="258"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="267" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="268"/>
-      <c r="K11" s="268"/>
-      <c r="L11" s="268"/>
-      <c r="M11" s="268"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="268"/>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="268"/>
-      <c r="S11" s="268"/>
-      <c r="T11" s="268"/>
-      <c r="U11" s="268"/>
-      <c r="V11" s="268"/>
-      <c r="W11" s="268"/>
-      <c r="X11" s="268"/>
-      <c r="Y11" s="268"/>
-      <c r="Z11" s="268"/>
-      <c r="AA11" s="268"/>
-      <c r="AB11" s="268"/>
-      <c r="AC11" s="268"/>
-      <c r="AD11" s="268"/>
-      <c r="AE11" s="268"/>
-      <c r="AF11" s="268"/>
-      <c r="AG11" s="268"/>
-      <c r="AH11" s="268"/>
+      <c r="E11" s="264"/>
+      <c r="F11" s="264"/>
+      <c r="G11" s="265"/>
+      <c r="H11" s="261" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="262"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="262"/>
+      <c r="L11" s="262"/>
+      <c r="M11" s="262"/>
+      <c r="N11" s="262"/>
+      <c r="O11" s="262"/>
+      <c r="P11" s="262"/>
+      <c r="Q11" s="262"/>
+      <c r="R11" s="262"/>
+      <c r="S11" s="262"/>
+      <c r="T11" s="262"/>
+      <c r="U11" s="262"/>
+      <c r="V11" s="262"/>
+      <c r="W11" s="262"/>
+      <c r="X11" s="262"/>
+      <c r="Y11" s="262"/>
+      <c r="Z11" s="262"/>
+      <c r="AA11" s="262"/>
+      <c r="AB11" s="262"/>
+      <c r="AC11" s="262"/>
+      <c r="AD11" s="262"/>
+      <c r="AE11" s="262"/>
+      <c r="AF11" s="262"/>
+      <c r="AG11" s="262"/>
+      <c r="AH11" s="262"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="257" t="s">
+      <c r="D12" s="263" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="258"/>
-      <c r="F12" s="258"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="263" t="s">
+      <c r="E12" s="264"/>
+      <c r="F12" s="264"/>
+      <c r="G12" s="265"/>
+      <c r="H12" s="257" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="263"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="263"/>
-      <c r="L12" s="263"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="263"/>
-      <c r="Q12" s="263"/>
-      <c r="R12" s="263"/>
-      <c r="S12" s="263"/>
-      <c r="T12" s="263"/>
-      <c r="U12" s="263"/>
-      <c r="V12" s="263"/>
-      <c r="W12" s="263"/>
-      <c r="X12" s="263"/>
-      <c r="Y12" s="263"/>
-      <c r="Z12" s="263"/>
-      <c r="AA12" s="263"/>
-      <c r="AB12" s="263"/>
-      <c r="AC12" s="263"/>
-      <c r="AD12" s="263"/>
-      <c r="AE12" s="263"/>
-      <c r="AF12" s="263"/>
-      <c r="AG12" s="263"/>
-      <c r="AH12" s="263"/>
+      <c r="I12" s="257"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="257"/>
+      <c r="L12" s="257"/>
+      <c r="M12" s="257"/>
+      <c r="N12" s="257"/>
+      <c r="O12" s="257"/>
+      <c r="P12" s="257"/>
+      <c r="Q12" s="257"/>
+      <c r="R12" s="257"/>
+      <c r="S12" s="257"/>
+      <c r="T12" s="257"/>
+      <c r="U12" s="257"/>
+      <c r="V12" s="257"/>
+      <c r="W12" s="257"/>
+      <c r="X12" s="257"/>
+      <c r="Y12" s="257"/>
+      <c r="Z12" s="257"/>
+      <c r="AA12" s="257"/>
+      <c r="AB12" s="257"/>
+      <c r="AC12" s="257"/>
+      <c r="AD12" s="257"/>
+      <c r="AE12" s="257"/>
+      <c r="AF12" s="257"/>
+      <c r="AG12" s="257"/>
+      <c r="AH12" s="257"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="257" t="s">
+      <c r="D13" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="258"/>
-      <c r="F13" s="258"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="263" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="263"/>
-      <c r="J13" s="263"/>
-      <c r="K13" s="263"/>
-      <c r="L13" s="263"/>
-      <c r="M13" s="263"/>
-      <c r="N13" s="263"/>
-      <c r="O13" s="263"/>
-      <c r="P13" s="263"/>
-      <c r="Q13" s="263"/>
-      <c r="R13" s="263"/>
-      <c r="S13" s="263"/>
-      <c r="T13" s="263"/>
-      <c r="U13" s="263"/>
-      <c r="V13" s="263"/>
-      <c r="W13" s="263"/>
-      <c r="X13" s="263"/>
-      <c r="Y13" s="263"/>
-      <c r="Z13" s="263"/>
-      <c r="AA13" s="263"/>
-      <c r="AB13" s="263"/>
-      <c r="AC13" s="263"/>
-      <c r="AD13" s="263"/>
-      <c r="AE13" s="263"/>
-      <c r="AF13" s="263"/>
-      <c r="AG13" s="263"/>
-      <c r="AH13" s="263"/>
+      <c r="E13" s="264"/>
+      <c r="F13" s="264"/>
+      <c r="G13" s="265"/>
+      <c r="H13" s="257" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="257"/>
+      <c r="J13" s="257"/>
+      <c r="K13" s="257"/>
+      <c r="L13" s="257"/>
+      <c r="M13" s="257"/>
+      <c r="N13" s="257"/>
+      <c r="O13" s="257"/>
+      <c r="P13" s="257"/>
+      <c r="Q13" s="257"/>
+      <c r="R13" s="257"/>
+      <c r="S13" s="257"/>
+      <c r="T13" s="257"/>
+      <c r="U13" s="257"/>
+      <c r="V13" s="257"/>
+      <c r="W13" s="257"/>
+      <c r="X13" s="257"/>
+      <c r="Y13" s="257"/>
+      <c r="Z13" s="257"/>
+      <c r="AA13" s="257"/>
+      <c r="AB13" s="257"/>
+      <c r="AC13" s="257"/>
+      <c r="AD13" s="257"/>
+      <c r="AE13" s="257"/>
+      <c r="AF13" s="257"/>
+      <c r="AG13" s="257"/>
+      <c r="AH13" s="257"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="257" t="s">
+      <c r="D14" s="263" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="258"/>
-      <c r="F14" s="258"/>
-      <c r="G14" s="259"/>
-      <c r="H14" s="263" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="263"/>
-      <c r="J14" s="263"/>
-      <c r="K14" s="263"/>
-      <c r="L14" s="263"/>
-      <c r="M14" s="263"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="263"/>
-      <c r="P14" s="263"/>
-      <c r="Q14" s="263"/>
-      <c r="R14" s="263"/>
-      <c r="S14" s="263"/>
-      <c r="T14" s="263"/>
-      <c r="U14" s="263"/>
-      <c r="V14" s="263"/>
-      <c r="W14" s="263"/>
-      <c r="X14" s="263"/>
-      <c r="Y14" s="263"/>
-      <c r="Z14" s="263"/>
-      <c r="AA14" s="263"/>
-      <c r="AB14" s="263"/>
-      <c r="AC14" s="263"/>
-      <c r="AD14" s="263"/>
-      <c r="AE14" s="263"/>
-      <c r="AF14" s="263"/>
-      <c r="AG14" s="263"/>
-      <c r="AH14" s="263"/>
+      <c r="E14" s="264"/>
+      <c r="F14" s="264"/>
+      <c r="G14" s="265"/>
+      <c r="H14" s="257" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="257"/>
+      <c r="J14" s="257"/>
+      <c r="K14" s="257"/>
+      <c r="L14" s="257"/>
+      <c r="M14" s="257"/>
+      <c r="N14" s="257"/>
+      <c r="O14" s="257"/>
+      <c r="P14" s="257"/>
+      <c r="Q14" s="257"/>
+      <c r="R14" s="257"/>
+      <c r="S14" s="257"/>
+      <c r="T14" s="257"/>
+      <c r="U14" s="257"/>
+      <c r="V14" s="257"/>
+      <c r="W14" s="257"/>
+      <c r="X14" s="257"/>
+      <c r="Y14" s="257"/>
+      <c r="Z14" s="257"/>
+      <c r="AA14" s="257"/>
+      <c r="AB14" s="257"/>
+      <c r="AC14" s="257"/>
+      <c r="AD14" s="257"/>
+      <c r="AE14" s="257"/>
+      <c r="AF14" s="257"/>
+      <c r="AG14" s="257"/>
+      <c r="AH14" s="257"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="257" t="s">
+      <c r="D15" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="258"/>
-      <c r="F15" s="258"/>
-      <c r="G15" s="259"/>
+      <c r="E15" s="264"/>
+      <c r="F15" s="264"/>
+      <c r="G15" s="265"/>
       <c r="H15" s="128" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" s="129"/>
       <c r="J15" s="129"/>
@@ -10937,30 +11105,30 @@
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="262"/>
-      <c r="H19" s="262"/>
-      <c r="I19" s="262"/>
-      <c r="J19" s="262"/>
-      <c r="K19" s="262"/>
-      <c r="L19" s="262"/>
-      <c r="M19" s="262"/>
-      <c r="N19" s="262"/>
-      <c r="O19" s="260"/>
-      <c r="P19" s="261"/>
-      <c r="Q19" s="261"/>
-      <c r="R19" s="261"/>
-      <c r="S19" s="261"/>
-      <c r="T19" s="261"/>
-      <c r="U19" s="261"/>
-      <c r="V19" s="261"/>
-      <c r="W19" s="261"/>
-      <c r="X19" s="261"/>
-      <c r="Y19" s="261"/>
-      <c r="Z19" s="261"/>
-      <c r="AA19" s="261"/>
-      <c r="AB19" s="261"/>
-      <c r="AC19" s="261"/>
-      <c r="AD19" s="261"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="271"/>
+      <c r="I19" s="271"/>
+      <c r="J19" s="271"/>
+      <c r="K19" s="271"/>
+      <c r="L19" s="271"/>
+      <c r="M19" s="271"/>
+      <c r="N19" s="271"/>
+      <c r="O19" s="269"/>
+      <c r="P19" s="270"/>
+      <c r="Q19" s="270"/>
+      <c r="R19" s="270"/>
+      <c r="S19" s="270"/>
+      <c r="T19" s="270"/>
+      <c r="U19" s="270"/>
+      <c r="V19" s="270"/>
+      <c r="W19" s="270"/>
+      <c r="X19" s="270"/>
+      <c r="Y19" s="270"/>
+      <c r="Z19" s="270"/>
+      <c r="AA19" s="270"/>
+      <c r="AB19" s="270"/>
+      <c r="AC19" s="270"/>
+      <c r="AD19" s="270"/>
       <c r="AE19" s="31"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11412,14 +11580,15 @@
     <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11436,15 +11605,14 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11473,157 +11641,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="232" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="211" t="s">
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="233" t="str">
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="248" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="234"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="208" t="s">
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="258">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="260"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="232" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="238"/>
-      <c r="AA2" s="208" t="s">
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="264">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="258">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
+      <c r="AH2" s="259"/>
+      <c r="AI2" s="260"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="232" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="239"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="264" t="str">
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
+      <c r="AH3" s="259"/>
+      <c r="AI3" s="260"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11634,6 +11802,12 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11645,12 +11819,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11668,7 +11836,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL72"/>
+  <dimension ref="A1:AL84"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -11680,163 +11848,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="232" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="211" t="s">
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="233" t="str">
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="248" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="234"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="208" t="s">
+      <c r="T1" s="249"/>
+      <c r="U1" s="249"/>
+      <c r="V1" s="249"/>
+      <c r="W1" s="249"/>
+      <c r="X1" s="249"/>
+      <c r="Y1" s="249"/>
+      <c r="Z1" s="250"/>
+      <c r="AA1" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="166"/>
+      <c r="AE1" s="166"/>
+      <c r="AF1" s="167"/>
+      <c r="AG1" s="258">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="260"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="232" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="238"/>
-      <c r="AA2" s="208" t="s">
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="189"/>
+      <c r="S2" s="251"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="253"/>
+      <c r="AA2" s="181" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="264">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="258">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
+      <c r="AH2" s="259"/>
+      <c r="AI2" s="260"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="232" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="244" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="239"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="190"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="254"/>
+      <c r="T3" s="255"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="255"/>
+      <c r="Z3" s="256"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="264" t="str">
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="167"/>
+      <c r="AG3" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
+      <c r="AH3" s="259"/>
+      <c r="AI3" s="260"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11844,7 +12012,7 @@
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -11954,65 +12122,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="278" t="s">
+      <c r="D8" s="313" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="281" t="s">
+      <c r="E8" s="316" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="282"/>
-      <c r="J8" s="283"/>
-      <c r="K8" s="287" t="s">
+      <c r="F8" s="317"/>
+      <c r="G8" s="317"/>
+      <c r="H8" s="317"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="318"/>
+      <c r="K8" s="322" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="283"/>
-      <c r="O8" s="288" t="s">
+      <c r="L8" s="317"/>
+      <c r="M8" s="317"/>
+      <c r="N8" s="318"/>
+      <c r="O8" s="323" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="293" t="s">
+      <c r="P8" s="328" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="294"/>
-      <c r="R8" s="294"/>
-      <c r="S8" s="294"/>
-      <c r="T8" s="294"/>
-      <c r="U8" s="295"/>
-      <c r="V8" s="290" t="s">
+      <c r="Q8" s="329"/>
+      <c r="R8" s="329"/>
+      <c r="S8" s="329"/>
+      <c r="T8" s="329"/>
+      <c r="U8" s="330"/>
+      <c r="V8" s="325" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="290"/>
-      <c r="X8" s="290"/>
-      <c r="Y8" s="290"/>
-      <c r="Z8" s="290"/>
-      <c r="AA8" s="290"/>
-      <c r="AB8" s="290"/>
-      <c r="AC8" s="290"/>
-      <c r="AD8" s="290"/>
-      <c r="AE8" s="290"/>
-      <c r="AF8" s="290"/>
-      <c r="AG8" s="290"/>
-      <c r="AH8" s="290"/>
+      <c r="W8" s="325"/>
+      <c r="X8" s="325"/>
+      <c r="Y8" s="325"/>
+      <c r="Z8" s="325"/>
+      <c r="AA8" s="325"/>
+      <c r="AB8" s="325"/>
+      <c r="AC8" s="325"/>
+      <c r="AD8" s="325"/>
+      <c r="AE8" s="325"/>
+      <c r="AF8" s="325"/>
+      <c r="AG8" s="325"/>
+      <c r="AH8" s="325"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="284"/>
-      <c r="F9" s="285"/>
-      <c r="G9" s="285"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="284"/>
-      <c r="L9" s="285"/>
-      <c r="M9" s="285"/>
-      <c r="N9" s="286"/>
-      <c r="O9" s="289"/>
+      <c r="D9" s="314"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="320"/>
+      <c r="J9" s="321"/>
+      <c r="K9" s="319"/>
+      <c r="L9" s="320"/>
+      <c r="M9" s="320"/>
+      <c r="N9" s="321"/>
+      <c r="O9" s="324"/>
       <c r="P9" s="87" t="s">
         <v>45</v>
       </c>
@@ -12025,23 +12193,23 @@
       <c r="S9" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="291" t="s">
+      <c r="T9" s="326" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="292"/>
-      <c r="V9" s="290"/>
-      <c r="W9" s="290"/>
-      <c r="X9" s="290"/>
-      <c r="Y9" s="290"/>
-      <c r="Z9" s="290"/>
-      <c r="AA9" s="290"/>
-      <c r="AB9" s="290"/>
-      <c r="AC9" s="290"/>
-      <c r="AD9" s="290"/>
-      <c r="AE9" s="290"/>
-      <c r="AF9" s="290"/>
-      <c r="AG9" s="290"/>
-      <c r="AH9" s="290"/>
+      <c r="U9" s="327"/>
+      <c r="V9" s="325"/>
+      <c r="W9" s="325"/>
+      <c r="X9" s="325"/>
+      <c r="Y9" s="325"/>
+      <c r="Z9" s="325"/>
+      <c r="AA9" s="325"/>
+      <c r="AB9" s="325"/>
+      <c r="AC9" s="325"/>
+      <c r="AD9" s="325"/>
+      <c r="AE9" s="325"/>
+      <c r="AF9" s="325"/>
+      <c r="AG9" s="325"/>
+      <c r="AH9" s="325"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="29"/>
@@ -12049,20 +12217,20 @@
       <c r="D10" s="111">
         <v>1</v>
       </c>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="216" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="171" t="s">
+      <c r="F10" s="212"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="173"/>
+      <c r="L10" s="212"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="213"/>
       <c r="O10" s="112" t="s">
         <v>80</v>
       </c>
@@ -12078,23 +12246,23 @@
       <c r="S10" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="276" t="s">
+      <c r="T10" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="U10" s="277"/>
-      <c r="V10" s="171"/>
-      <c r="W10" s="172"/>
-      <c r="X10" s="172"/>
-      <c r="Y10" s="172"/>
-      <c r="Z10" s="172"/>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="172"/>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="172"/>
-      <c r="AE10" s="172"/>
-      <c r="AF10" s="172"/>
-      <c r="AG10" s="172"/>
-      <c r="AH10" s="173"/>
+      <c r="U10" s="332"/>
+      <c r="V10" s="211"/>
+      <c r="W10" s="212"/>
+      <c r="X10" s="212"/>
+      <c r="Y10" s="212"/>
+      <c r="Z10" s="212"/>
+      <c r="AA10" s="212"/>
+      <c r="AB10" s="212"/>
+      <c r="AC10" s="212"/>
+      <c r="AD10" s="212"/>
+      <c r="AE10" s="212"/>
+      <c r="AF10" s="212"/>
+      <c r="AG10" s="212"/>
+      <c r="AH10" s="213"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="29"/>
@@ -12102,20 +12270,20 @@
       <c r="D11" s="111">
         <v>2</v>
       </c>
-      <c r="E11" s="177" t="s">
+      <c r="E11" s="216" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="171" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="173"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="211" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="212"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="213"/>
       <c r="O11" s="113" t="s">
         <v>79</v>
       </c>
@@ -12131,23 +12299,23 @@
       <c r="S11" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="276" t="s">
+      <c r="T11" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="U11" s="277"/>
-      <c r="V11" s="171"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="172"/>
-      <c r="Z11" s="172"/>
-      <c r="AA11" s="172"/>
-      <c r="AB11" s="172"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="172"/>
-      <c r="AF11" s="172"/>
-      <c r="AG11" s="172"/>
-      <c r="AH11" s="173"/>
+      <c r="U11" s="332"/>
+      <c r="V11" s="211"/>
+      <c r="W11" s="212"/>
+      <c r="X11" s="212"/>
+      <c r="Y11" s="212"/>
+      <c r="Z11" s="212"/>
+      <c r="AA11" s="212"/>
+      <c r="AB11" s="212"/>
+      <c r="AC11" s="212"/>
+      <c r="AD11" s="212"/>
+      <c r="AE11" s="212"/>
+      <c r="AF11" s="212"/>
+      <c r="AG11" s="212"/>
+      <c r="AH11" s="213"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="29"/>
@@ -12155,20 +12323,20 @@
       <c r="D12" s="111">
         <v>3</v>
       </c>
-      <c r="E12" s="177" t="s">
+      <c r="E12" s="216" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="171" t="s">
+      <c r="F12" s="212"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="173"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="213"/>
       <c r="O12" s="113" t="s">
         <v>79</v>
       </c>
@@ -12184,23 +12352,23 @@
       <c r="S12" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="276" t="s">
+      <c r="T12" s="331" t="s">
         <v>81</v>
       </c>
-      <c r="U12" s="277"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="172"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="172"/>
-      <c r="Z12" s="172"/>
-      <c r="AA12" s="172"/>
-      <c r="AB12" s="172"/>
-      <c r="AC12" s="172"/>
-      <c r="AD12" s="172"/>
-      <c r="AE12" s="172"/>
-      <c r="AF12" s="172"/>
-      <c r="AG12" s="172"/>
-      <c r="AH12" s="173"/>
+      <c r="U12" s="332"/>
+      <c r="V12" s="211"/>
+      <c r="W12" s="212"/>
+      <c r="X12" s="212"/>
+      <c r="Y12" s="212"/>
+      <c r="Z12" s="212"/>
+      <c r="AA12" s="212"/>
+      <c r="AB12" s="212"/>
+      <c r="AC12" s="212"/>
+      <c r="AD12" s="212"/>
+      <c r="AE12" s="212"/>
+      <c r="AF12" s="212"/>
+      <c r="AG12" s="212"/>
+      <c r="AH12" s="213"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="29"/>
@@ -12350,40 +12518,40 @@
       <c r="D17" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="303" t="s">
+      <c r="E17" s="336" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="304"/>
-      <c r="G17" s="305"/>
-      <c r="H17" s="300" t="s">
+      <c r="F17" s="337"/>
+      <c r="G17" s="338"/>
+      <c r="H17" s="333" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="301"/>
-      <c r="J17" s="301"/>
-      <c r="K17" s="301"/>
-      <c r="L17" s="301"/>
-      <c r="M17" s="301"/>
-      <c r="N17" s="301"/>
-      <c r="O17" s="301"/>
-      <c r="P17" s="301"/>
-      <c r="Q17" s="301"/>
-      <c r="R17" s="301"/>
-      <c r="S17" s="301"/>
-      <c r="T17" s="301"/>
-      <c r="U17" s="301"/>
-      <c r="V17" s="301"/>
-      <c r="W17" s="301"/>
-      <c r="X17" s="301"/>
-      <c r="Y17" s="301"/>
-      <c r="Z17" s="301"/>
-      <c r="AA17" s="301"/>
-      <c r="AB17" s="301"/>
-      <c r="AC17" s="301"/>
-      <c r="AD17" s="301"/>
-      <c r="AE17" s="301"/>
-      <c r="AF17" s="301"/>
-      <c r="AG17" s="301"/>
-      <c r="AH17" s="302"/>
+      <c r="I17" s="334"/>
+      <c r="J17" s="334"/>
+      <c r="K17" s="334"/>
+      <c r="L17" s="334"/>
+      <c r="M17" s="334"/>
+      <c r="N17" s="334"/>
+      <c r="O17" s="334"/>
+      <c r="P17" s="334"/>
+      <c r="Q17" s="334"/>
+      <c r="R17" s="334"/>
+      <c r="S17" s="334"/>
+      <c r="T17" s="334"/>
+      <c r="U17" s="334"/>
+      <c r="V17" s="334"/>
+      <c r="W17" s="334"/>
+      <c r="X17" s="334"/>
+      <c r="Y17" s="334"/>
+      <c r="Z17" s="334"/>
+      <c r="AA17" s="334"/>
+      <c r="AB17" s="334"/>
+      <c r="AC17" s="334"/>
+      <c r="AD17" s="334"/>
+      <c r="AE17" s="334"/>
+      <c r="AF17" s="334"/>
+      <c r="AG17" s="334"/>
+      <c r="AH17" s="335"/>
     </row>
     <row r="18" spans="1:34" s="85" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="29"/>
@@ -12391,40 +12559,40 @@
       <c r="D18" s="111">
         <v>1</v>
       </c>
-      <c r="E18" s="177" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="172"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="177" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="172"/>
-      <c r="U18" s="172"/>
-      <c r="V18" s="172"/>
-      <c r="W18" s="172"/>
-      <c r="X18" s="172"/>
-      <c r="Y18" s="172"/>
-      <c r="Z18" s="172"/>
-      <c r="AA18" s="172"/>
-      <c r="AB18" s="172"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="172"/>
-      <c r="AE18" s="172"/>
-      <c r="AF18" s="172"/>
-      <c r="AG18" s="172"/>
-      <c r="AH18" s="173"/>
+      <c r="E18" s="216" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="212"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="216" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="212"/>
+      <c r="J18" s="212"/>
+      <c r="K18" s="212"/>
+      <c r="L18" s="212"/>
+      <c r="M18" s="212"/>
+      <c r="N18" s="212"/>
+      <c r="O18" s="212"/>
+      <c r="P18" s="212"/>
+      <c r="Q18" s="212"/>
+      <c r="R18" s="212"/>
+      <c r="S18" s="212"/>
+      <c r="T18" s="212"/>
+      <c r="U18" s="212"/>
+      <c r="V18" s="212"/>
+      <c r="W18" s="212"/>
+      <c r="X18" s="212"/>
+      <c r="Y18" s="212"/>
+      <c r="Z18" s="212"/>
+      <c r="AA18" s="212"/>
+      <c r="AB18" s="212"/>
+      <c r="AC18" s="212"/>
+      <c r="AD18" s="212"/>
+      <c r="AE18" s="212"/>
+      <c r="AF18" s="212"/>
+      <c r="AG18" s="212"/>
+      <c r="AH18" s="213"/>
     </row>
     <row r="19" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
@@ -12432,40 +12600,40 @@
       <c r="D19" s="111">
         <v>2</v>
       </c>
-      <c r="E19" s="177" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="172"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="177" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="172"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="172"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="172"/>
-      <c r="R19" s="172"/>
-      <c r="S19" s="172"/>
-      <c r="T19" s="172"/>
-      <c r="U19" s="172"/>
-      <c r="V19" s="172"/>
-      <c r="W19" s="172"/>
-      <c r="X19" s="172"/>
-      <c r="Y19" s="172"/>
-      <c r="Z19" s="172"/>
-      <c r="AA19" s="172"/>
-      <c r="AB19" s="172"/>
-      <c r="AC19" s="172"/>
-      <c r="AD19" s="172"/>
-      <c r="AE19" s="172"/>
-      <c r="AF19" s="172"/>
-      <c r="AG19" s="172"/>
-      <c r="AH19" s="173"/>
+      <c r="E19" s="216" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="212"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="216" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="212"/>
+      <c r="J19" s="212"/>
+      <c r="K19" s="212"/>
+      <c r="L19" s="212"/>
+      <c r="M19" s="212"/>
+      <c r="N19" s="212"/>
+      <c r="O19" s="212"/>
+      <c r="P19" s="212"/>
+      <c r="Q19" s="212"/>
+      <c r="R19" s="212"/>
+      <c r="S19" s="212"/>
+      <c r="T19" s="212"/>
+      <c r="U19" s="212"/>
+      <c r="V19" s="212"/>
+      <c r="W19" s="212"/>
+      <c r="X19" s="212"/>
+      <c r="Y19" s="212"/>
+      <c r="Z19" s="212"/>
+      <c r="AA19" s="212"/>
+      <c r="AB19" s="212"/>
+      <c r="AC19" s="212"/>
+      <c r="AD19" s="212"/>
+      <c r="AE19" s="212"/>
+      <c r="AF19" s="212"/>
+      <c r="AG19" s="212"/>
+      <c r="AH19" s="213"/>
     </row>
     <row r="20" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -12473,40 +12641,40 @@
       <c r="D20" s="111">
         <v>3</v>
       </c>
-      <c r="E20" s="177" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="177" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="172"/>
-      <c r="O20" s="172"/>
-      <c r="P20" s="172"/>
-      <c r="Q20" s="172"/>
-      <c r="R20" s="172"/>
-      <c r="S20" s="172"/>
-      <c r="T20" s="172"/>
-      <c r="U20" s="172"/>
-      <c r="V20" s="172"/>
-      <c r="W20" s="172"/>
-      <c r="X20" s="172"/>
-      <c r="Y20" s="172"/>
-      <c r="Z20" s="172"/>
-      <c r="AA20" s="172"/>
-      <c r="AB20" s="172"/>
-      <c r="AC20" s="172"/>
-      <c r="AD20" s="172"/>
-      <c r="AE20" s="172"/>
-      <c r="AF20" s="172"/>
-      <c r="AG20" s="172"/>
-      <c r="AH20" s="173"/>
+      <c r="E20" s="216" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="212"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="216" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="212"/>
+      <c r="J20" s="212"/>
+      <c r="K20" s="212"/>
+      <c r="L20" s="212"/>
+      <c r="M20" s="212"/>
+      <c r="N20" s="212"/>
+      <c r="O20" s="212"/>
+      <c r="P20" s="212"/>
+      <c r="Q20" s="212"/>
+      <c r="R20" s="212"/>
+      <c r="S20" s="212"/>
+      <c r="T20" s="212"/>
+      <c r="U20" s="212"/>
+      <c r="V20" s="212"/>
+      <c r="W20" s="212"/>
+      <c r="X20" s="212"/>
+      <c r="Y20" s="212"/>
+      <c r="Z20" s="212"/>
+      <c r="AA20" s="212"/>
+      <c r="AB20" s="212"/>
+      <c r="AC20" s="212"/>
+      <c r="AD20" s="212"/>
+      <c r="AE20" s="212"/>
+      <c r="AF20" s="212"/>
+      <c r="AG20" s="212"/>
+      <c r="AH20" s="213"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B21" s="84"/>
@@ -12691,7 +12859,7 @@
       <c r="B26" s="84"/>
       <c r="C26" s="90"/>
       <c r="E26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -12764,44 +12932,44 @@
       <c r="B28" s="84"/>
       <c r="C28" s="90"/>
       <c r="D28" s="121"/>
-      <c r="E28" s="299" t="s">
+      <c r="E28" s="291" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="299"/>
-      <c r="G28" s="280" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="280"/>
-      <c r="I28" s="280"/>
-      <c r="J28" s="280"/>
-      <c r="K28" s="280"/>
-      <c r="L28" s="280"/>
-      <c r="M28" s="299" t="s">
+      <c r="F28" s="291"/>
+      <c r="G28" s="315" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="315"/>
+      <c r="I28" s="315"/>
+      <c r="J28" s="315"/>
+      <c r="K28" s="315"/>
+      <c r="L28" s="315"/>
+      <c r="M28" s="291" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="299"/>
-      <c r="O28" s="296" t="s">
+      <c r="N28" s="291"/>
+      <c r="O28" s="288" t="s">
         <v>76</v>
       </c>
-      <c r="P28" s="297"/>
-      <c r="Q28" s="297"/>
-      <c r="R28" s="297"/>
-      <c r="S28" s="297"/>
-      <c r="T28" s="297"/>
-      <c r="U28" s="297"/>
-      <c r="V28" s="297"/>
-      <c r="W28" s="297"/>
-      <c r="X28" s="297"/>
-      <c r="Y28" s="297"/>
-      <c r="Z28" s="297"/>
-      <c r="AA28" s="297"/>
-      <c r="AB28" s="297"/>
-      <c r="AC28" s="297"/>
-      <c r="AD28" s="297"/>
-      <c r="AE28" s="297"/>
-      <c r="AF28" s="297"/>
-      <c r="AG28" s="297"/>
-      <c r="AH28" s="298"/>
+      <c r="P28" s="289"/>
+      <c r="Q28" s="289"/>
+      <c r="R28" s="289"/>
+      <c r="S28" s="289"/>
+      <c r="T28" s="289"/>
+      <c r="U28" s="289"/>
+      <c r="V28" s="289"/>
+      <c r="W28" s="289"/>
+      <c r="X28" s="289"/>
+      <c r="Y28" s="289"/>
+      <c r="Z28" s="289"/>
+      <c r="AA28" s="289"/>
+      <c r="AB28" s="289"/>
+      <c r="AC28" s="289"/>
+      <c r="AD28" s="289"/>
+      <c r="AE28" s="289"/>
+      <c r="AF28" s="289"/>
+      <c r="AG28" s="289"/>
+      <c r="AH28" s="290"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A29" s="46"/>
@@ -12845,10 +13013,10 @@
       <c r="C30" s="132"/>
       <c r="D30" s="121"/>
       <c r="E30" s="149" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F30" s="150" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G30" s="151"/>
       <c r="H30" s="151"/>
@@ -12856,7 +13024,7 @@
       <c r="J30" s="151"/>
       <c r="K30" s="152"/>
       <c r="L30" s="150" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M30" s="151"/>
       <c r="N30" s="151"/>
@@ -12868,10 +13036,10 @@
       <c r="T30" s="151"/>
       <c r="U30" s="152"/>
       <c r="V30" s="150" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W30" s="150" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="X30" s="151"/>
       <c r="Y30" s="151"/>
@@ -12894,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="141" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G31" s="142"/>
       <c r="H31" s="142"/>
@@ -12902,7 +13070,7 @@
       <c r="J31" s="142"/>
       <c r="K31" s="143"/>
       <c r="L31" s="141" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M31" s="142"/>
       <c r="N31" s="142"/>
@@ -12914,10 +13082,10 @@
       <c r="T31" s="142"/>
       <c r="U31" s="143"/>
       <c r="V31" s="141" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="W31" s="144" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="X31" s="145"/>
       <c r="Y31" s="145"/>
@@ -12940,7 +13108,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="144" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G32" s="145"/>
       <c r="H32" s="145"/>
@@ -12948,7 +13116,7 @@
       <c r="J32" s="145"/>
       <c r="K32" s="146"/>
       <c r="L32" s="144" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M32" s="145"/>
       <c r="N32" s="138"/>
@@ -12960,10 +13128,10 @@
       <c r="T32" s="145"/>
       <c r="U32" s="146"/>
       <c r="V32" s="144" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="W32" s="144" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="X32" s="145"/>
       <c r="Y32" s="145"/>
@@ -13173,43 +13341,43 @@
       <c r="E38" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="306" t="s">
+      <c r="F38" s="303" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="307"/>
-      <c r="H38" s="307"/>
-      <c r="I38" s="307"/>
-      <c r="J38" s="307"/>
-      <c r="K38" s="308"/>
-      <c r="L38" s="309" t="s">
+      <c r="G38" s="304"/>
+      <c r="H38" s="304"/>
+      <c r="I38" s="304"/>
+      <c r="J38" s="304"/>
+      <c r="K38" s="305"/>
+      <c r="L38" s="306" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="307"/>
-      <c r="N38" s="307"/>
-      <c r="O38" s="307"/>
-      <c r="P38" s="307"/>
-      <c r="Q38" s="307"/>
-      <c r="R38" s="307"/>
-      <c r="S38" s="307"/>
-      <c r="T38" s="307"/>
-      <c r="U38" s="308"/>
-      <c r="V38" s="310" t="s">
+      <c r="M38" s="304"/>
+      <c r="N38" s="304"/>
+      <c r="O38" s="304"/>
+      <c r="P38" s="304"/>
+      <c r="Q38" s="304"/>
+      <c r="R38" s="304"/>
+      <c r="S38" s="304"/>
+      <c r="T38" s="304"/>
+      <c r="U38" s="305"/>
+      <c r="V38" s="307" t="s">
         <v>86</v>
       </c>
-      <c r="W38" s="311"/>
-      <c r="X38" s="312"/>
-      <c r="Y38" s="310" t="s">
+      <c r="W38" s="308"/>
+      <c r="X38" s="309"/>
+      <c r="Y38" s="307" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="311"/>
-      <c r="AA38" s="311"/>
-      <c r="AB38" s="312"/>
-      <c r="AC38" s="313" t="s">
+      <c r="Z38" s="308"/>
+      <c r="AA38" s="308"/>
+      <c r="AB38" s="309"/>
+      <c r="AC38" s="310" t="s">
         <v>88</v>
       </c>
-      <c r="AD38" s="314"/>
-      <c r="AE38" s="314"/>
-      <c r="AF38" s="315"/>
+      <c r="AD38" s="311"/>
+      <c r="AE38" s="311"/>
+      <c r="AF38" s="312"/>
       <c r="AG38" s="46"/>
       <c r="AH38" s="46"/>
       <c r="AI38" s="46"/>
@@ -13222,43 +13390,43 @@
       <c r="E39" s="126">
         <v>1</v>
       </c>
-      <c r="F39" s="319" t="s">
+      <c r="F39" s="296" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="317"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="317"/>
-      <c r="J39" s="317"/>
-      <c r="K39" s="318"/>
-      <c r="L39" s="316" t="s">
+      <c r="G39" s="294"/>
+      <c r="H39" s="294"/>
+      <c r="I39" s="294"/>
+      <c r="J39" s="294"/>
+      <c r="K39" s="295"/>
+      <c r="L39" s="293" t="s">
         <v>90</v>
       </c>
-      <c r="M39" s="317"/>
-      <c r="N39" s="317"/>
-      <c r="O39" s="317"/>
-      <c r="P39" s="317"/>
-      <c r="Q39" s="317"/>
-      <c r="R39" s="317"/>
-      <c r="S39" s="317"/>
-      <c r="T39" s="317"/>
-      <c r="U39" s="318"/>
-      <c r="V39" s="320" t="s">
+      <c r="M39" s="294"/>
+      <c r="N39" s="294"/>
+      <c r="O39" s="294"/>
+      <c r="P39" s="294"/>
+      <c r="Q39" s="294"/>
+      <c r="R39" s="294"/>
+      <c r="S39" s="294"/>
+      <c r="T39" s="294"/>
+      <c r="U39" s="295"/>
+      <c r="V39" s="297" t="s">
         <v>91</v>
       </c>
-      <c r="W39" s="321"/>
-      <c r="X39" s="322"/>
-      <c r="Y39" s="323" t="s">
+      <c r="W39" s="298"/>
+      <c r="X39" s="299"/>
+      <c r="Y39" s="300" t="s">
         <v>92</v>
       </c>
-      <c r="Z39" s="324"/>
-      <c r="AA39" s="324"/>
-      <c r="AB39" s="325"/>
-      <c r="AC39" s="316" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD39" s="317"/>
-      <c r="AE39" s="317"/>
-      <c r="AF39" s="318"/>
+      <c r="Z39" s="301"/>
+      <c r="AA39" s="301"/>
+      <c r="AB39" s="302"/>
+      <c r="AC39" s="293" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD39" s="294"/>
+      <c r="AE39" s="294"/>
+      <c r="AF39" s="295"/>
       <c r="AG39" s="46"/>
       <c r="AH39" s="46"/>
       <c r="AI39" s="46"/>
@@ -13337,466 +13505,233 @@
       <c r="AH41" s="56"/>
       <c r="AI41" s="56"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="46"/>
-      <c r="AI42" s="46"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="46"/>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="46"/>
-      <c r="AE43" s="46"/>
-      <c r="AF43" s="46"/>
-      <c r="AG43" s="46"/>
-      <c r="AH43" s="46"/>
-      <c r="AI43" s="46"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="127" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="46"/>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="46"/>
-      <c r="AF44" s="46"/>
-      <c r="AG44" s="46"/>
-      <c r="AH44" s="46"/>
-      <c r="AI44" s="46"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46"/>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="46"/>
-      <c r="AA45" s="46"/>
-      <c r="AB45" s="46"/>
-      <c r="AC45" s="46"/>
-      <c r="AD45" s="46"/>
-      <c r="AE45" s="46"/>
-      <c r="AF45" s="46"/>
-      <c r="AG45" s="46"/>
-      <c r="AH45" s="46"/>
-      <c r="AI45" s="46"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46"/>
+    <row r="42" spans="1:35" s="155" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" s="155" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:35" s="155" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" s="155" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:35" s="155" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E46" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="56"/>
-      <c r="AC46" s="56"/>
-      <c r="AD46" s="56"/>
-      <c r="AE46" s="56"/>
-      <c r="AF46" s="56"/>
-      <c r="AG46" s="56"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="56"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="46"/>
-      <c r="AA47" s="46"/>
-      <c r="AB47" s="46"/>
-      <c r="AC47" s="46"/>
-      <c r="AD47" s="46"/>
-      <c r="AE47" s="46"/>
-      <c r="AF47" s="46"/>
-      <c r="AG47" s="46"/>
-      <c r="AH47" s="46"/>
-      <c r="AI47" s="46"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="46"/>
-      <c r="AD48" s="46"/>
-      <c r="AE48" s="46"/>
-      <c r="AF48" s="46"/>
-      <c r="AG48" s="46"/>
-      <c r="AH48" s="46"/>
-      <c r="AI48" s="46"/>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="46"/>
-      <c r="AA49" s="46"/>
-      <c r="AB49" s="46"/>
-      <c r="AC49" s="46"/>
-      <c r="AD49" s="46"/>
-      <c r="AE49" s="46"/>
-      <c r="AF49" s="46"/>
-      <c r="AG49" s="46"/>
-      <c r="AH49" s="46"/>
-      <c r="AI49" s="46"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="127" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="46"/>
-      <c r="AA50" s="46"/>
-      <c r="AB50" s="46"/>
-      <c r="AC50" s="46"/>
-      <c r="AD50" s="46"/>
-      <c r="AE50" s="46"/>
-      <c r="AF50" s="46"/>
-      <c r="AG50" s="46"/>
-      <c r="AH50" s="46"/>
-      <c r="AI50" s="46"/>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="46"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="46"/>
-      <c r="AB51" s="46"/>
-      <c r="AC51" s="46"/>
-      <c r="AD51" s="46"/>
-      <c r="AE51" s="46"/>
-      <c r="AF51" s="46"/>
-      <c r="AG51" s="46"/>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="46"/>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46"/>
-      <c r="Y52" s="46"/>
-      <c r="Z52" s="46"/>
-      <c r="AA52" s="46"/>
-      <c r="AB52" s="46"/>
-      <c r="AC52" s="46"/>
-      <c r="AD52" s="46"/>
-      <c r="AE52" s="46"/>
-      <c r="AF52" s="46"/>
-      <c r="AG52" s="46"/>
-      <c r="AH52" s="46"/>
-      <c r="AI52" s="46"/>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="46"/>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="46"/>
-      <c r="AA53" s="46"/>
-      <c r="AB53" s="46"/>
-      <c r="AC53" s="46"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:35" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="344" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="345"/>
+      <c r="I48" s="345"/>
+      <c r="J48" s="345"/>
+      <c r="K48" s="345"/>
+      <c r="L48" s="346"/>
+      <c r="M48" s="347" t="s">
+        <v>144</v>
+      </c>
+      <c r="N48" s="348"/>
+      <c r="O48" s="348"/>
+      <c r="P48" s="348"/>
+      <c r="Q48" s="348"/>
+      <c r="R48" s="348"/>
+      <c r="S48" s="348"/>
+      <c r="T48" s="348"/>
+      <c r="U48" s="348"/>
+      <c r="V48" s="348"/>
+      <c r="W48" s="349"/>
+      <c r="X48" s="344" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y48" s="345"/>
+      <c r="Z48" s="345"/>
+      <c r="AA48" s="345"/>
+      <c r="AB48" s="345"/>
+      <c r="AC48" s="346"/>
+      <c r="AD48" s="344" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE48" s="345"/>
+      <c r="AF48" s="345"/>
+      <c r="AG48" s="346"/>
+    </row>
+    <row r="49" spans="1:37" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="350"/>
+      <c r="G49" s="351"/>
+      <c r="H49" s="352"/>
+      <c r="I49" s="352"/>
+      <c r="J49" s="352"/>
+      <c r="K49" s="352"/>
+      <c r="L49" s="353"/>
+      <c r="M49" s="347" t="s">
+        <v>145</v>
+      </c>
+      <c r="N49" s="348"/>
+      <c r="O49" s="348"/>
+      <c r="P49" s="348"/>
+      <c r="Q49" s="349"/>
+      <c r="R49" s="354" t="s">
+        <v>29</v>
+      </c>
+      <c r="S49" s="355"/>
+      <c r="T49" s="355"/>
+      <c r="U49" s="355"/>
+      <c r="V49" s="355"/>
+      <c r="W49" s="356"/>
+      <c r="X49" s="351"/>
+      <c r="Y49" s="352"/>
+      <c r="Z49" s="352"/>
+      <c r="AA49" s="352"/>
+      <c r="AB49" s="352"/>
+      <c r="AC49" s="353"/>
+      <c r="AD49" s="351"/>
+      <c r="AE49" s="352"/>
+      <c r="AF49" s="352"/>
+      <c r="AG49" s="353"/>
+    </row>
+    <row r="50" spans="1:37" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="115">
+        <v>1</v>
+      </c>
+      <c r="G50" s="357" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="358"/>
+      <c r="I50" s="358"/>
+      <c r="J50" s="358"/>
+      <c r="K50" s="358"/>
+      <c r="L50" s="359"/>
+      <c r="M50" s="360" t="s">
+        <v>56</v>
+      </c>
+      <c r="N50" s="361"/>
+      <c r="O50" s="361"/>
+      <c r="P50" s="361"/>
+      <c r="Q50" s="362"/>
+      <c r="R50" s="357" t="s">
+        <v>56</v>
+      </c>
+      <c r="S50" s="358"/>
+      <c r="T50" s="358"/>
+      <c r="U50" s="358"/>
+      <c r="V50" s="358"/>
+      <c r="W50" s="359"/>
+      <c r="X50" s="161" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y50" s="162"/>
+      <c r="Z50" s="162"/>
+      <c r="AA50" s="162"/>
+      <c r="AB50" s="162"/>
+      <c r="AC50" s="163"/>
+      <c r="AD50" s="161"/>
+      <c r="AE50" s="162"/>
+      <c r="AF50" s="162"/>
+      <c r="AG50" s="163"/>
+    </row>
+    <row r="51" spans="1:37" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="115">
+        <v>2</v>
+      </c>
+      <c r="G51" s="357" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="358"/>
+      <c r="I51" s="358"/>
+      <c r="J51" s="358"/>
+      <c r="K51" s="358"/>
+      <c r="L51" s="359"/>
+      <c r="M51" s="363" t="s">
+        <v>148</v>
+      </c>
+      <c r="N51" s="364"/>
+      <c r="O51" s="364"/>
+      <c r="P51" s="364"/>
+      <c r="Q51" s="365"/>
+      <c r="R51" s="357" t="s">
+        <v>117</v>
+      </c>
+      <c r="S51" s="358"/>
+      <c r="T51" s="358"/>
+      <c r="U51" s="358"/>
+      <c r="V51" s="358"/>
+      <c r="W51" s="359"/>
+      <c r="X51" s="161" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y51" s="162"/>
+      <c r="Z51" s="162"/>
+      <c r="AA51" s="162"/>
+      <c r="AB51" s="162"/>
+      <c r="AC51" s="163"/>
+      <c r="AD51" s="161"/>
+      <c r="AE51" s="162"/>
+      <c r="AF51" s="162"/>
+      <c r="AG51" s="163"/>
+    </row>
+    <row r="52" spans="1:37" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="115">
+        <v>3</v>
+      </c>
+      <c r="G52" s="357" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="358"/>
+      <c r="I52" s="358"/>
+      <c r="J52" s="358"/>
+      <c r="K52" s="358"/>
+      <c r="L52" s="359"/>
+      <c r="M52" s="366"/>
+      <c r="N52" s="367"/>
+      <c r="O52" s="367"/>
+      <c r="P52" s="367"/>
+      <c r="Q52" s="368"/>
+      <c r="R52" s="357" t="s">
+        <v>119</v>
+      </c>
+      <c r="S52" s="358"/>
+      <c r="T52" s="358"/>
+      <c r="U52" s="358"/>
+      <c r="V52" s="358"/>
+      <c r="W52" s="359"/>
+      <c r="X52" s="161" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y52" s="162"/>
+      <c r="Z52" s="162"/>
+      <c r="AA52" s="162"/>
+      <c r="AB52" s="162"/>
+      <c r="AC52" s="163"/>
+      <c r="AD52" s="161"/>
+      <c r="AE52" s="162"/>
+      <c r="AF52" s="162"/>
+      <c r="AG52" s="163"/>
+    </row>
+    <row r="53" spans="1:37" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AD53" s="46"/>
       <c r="AE53" s="46"/>
       <c r="AF53" s="46"/>
       <c r="AG53" s="46"/>
       <c r="AH53" s="46"/>
       <c r="AI53" s="46"/>
+      <c r="AJ53" s="46"/>
+      <c r="AK53" s="46"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A54" s="46"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
+      <c r="D54" s="56" t="s">
+        <v>149</v>
+      </c>
       <c r="E54" s="46"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
@@ -13834,9 +13769,7 @@
       <c r="B55" s="46"/>
       <c r="C55" s="46"/>
       <c r="D55" s="46"/>
-      <c r="E55" s="56" t="s">
-        <v>110</v>
-      </c>
+      <c r="E55" s="46"/>
       <c r="F55" s="46"/>
       <c r="G55" s="46"/>
       <c r="H55" s="46"/>
@@ -13873,7 +13806,9 @@
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
       <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
+      <c r="E56" s="127" t="s">
+        <v>105</v>
+      </c>
       <c r="F56" s="46"/>
       <c r="G56" s="46"/>
       <c r="H56" s="46"/>
@@ -13910,7 +13845,7 @@
       <c r="B57" s="46"/>
       <c r="C57" s="46"/>
       <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
+      <c r="E57" s="127"/>
       <c r="F57" s="46"/>
       <c r="G57" s="46"/>
       <c r="H57" s="46"/>
@@ -13943,661 +13878,1131 @@
       <c r="AI57" s="46"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="C58" s="29" t="s">
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58"/>
+      <c r="E58" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58" s="56"/>
+      <c r="AB58" s="56"/>
+      <c r="AC58" s="56"/>
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="56"/>
+      <c r="AF58" s="56"/>
+      <c r="AG58" s="56"/>
+      <c r="AH58" s="56"/>
+      <c r="AI58" s="56"/>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="46"/>
+      <c r="AA59" s="46"/>
+      <c r="AB59" s="46"/>
+      <c r="AC59" s="46"/>
+      <c r="AD59" s="46"/>
+      <c r="AE59" s="46"/>
+      <c r="AF59" s="46"/>
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="46"/>
+      <c r="AI59" s="46"/>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
+      <c r="Y60" s="46"/>
+      <c r="Z60" s="46"/>
+      <c r="AA60" s="46"/>
+      <c r="AB60" s="46"/>
+      <c r="AC60" s="46"/>
+      <c r="AD60" s="46"/>
+      <c r="AE60" s="46"/>
+      <c r="AF60" s="46"/>
+      <c r="AG60" s="46"/>
+      <c r="AH60" s="46"/>
+      <c r="AI60" s="46"/>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
+      <c r="Y61" s="46"/>
+      <c r="Z61" s="46"/>
+      <c r="AA61" s="46"/>
+      <c r="AB61" s="46"/>
+      <c r="AC61" s="46"/>
+      <c r="AD61" s="46"/>
+      <c r="AE61" s="46"/>
+      <c r="AF61" s="46"/>
+      <c r="AG61" s="46"/>
+      <c r="AH61" s="46"/>
+      <c r="AI61" s="46"/>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="46"/>
+      <c r="X62" s="46"/>
+      <c r="Y62" s="46"/>
+      <c r="Z62" s="46"/>
+      <c r="AA62" s="46"/>
+      <c r="AB62" s="46"/>
+      <c r="AC62" s="46"/>
+      <c r="AD62" s="46"/>
+      <c r="AE62" s="46"/>
+      <c r="AF62" s="46"/>
+      <c r="AG62" s="46"/>
+      <c r="AH62" s="46"/>
+      <c r="AI62" s="46"/>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="46"/>
+      <c r="Y63" s="46"/>
+      <c r="Z63" s="46"/>
+      <c r="AA63" s="46"/>
+      <c r="AB63" s="46"/>
+      <c r="AC63" s="46"/>
+      <c r="AD63" s="46"/>
+      <c r="AE63" s="46"/>
+      <c r="AF63" s="46"/>
+      <c r="AG63" s="46"/>
+      <c r="AH63" s="46"/>
+      <c r="AI63" s="46"/>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="46"/>
+      <c r="Y64" s="46"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="46"/>
+      <c r="AB64" s="46"/>
+      <c r="AC64" s="46"/>
+      <c r="AD64" s="46"/>
+      <c r="AE64" s="46"/>
+      <c r="AF64" s="46"/>
+      <c r="AG64" s="46"/>
+      <c r="AH64" s="46"/>
+      <c r="AI64" s="46"/>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
+      <c r="Y65" s="46"/>
+      <c r="Z65" s="46"/>
+      <c r="AA65" s="46"/>
+      <c r="AB65" s="46"/>
+      <c r="AC65" s="46"/>
+      <c r="AD65" s="46"/>
+      <c r="AE65" s="46"/>
+      <c r="AF65" s="46"/>
+      <c r="AG65" s="46"/>
+      <c r="AH65" s="46"/>
+      <c r="AI65" s="46"/>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="46"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="46"/>
+      <c r="AB66" s="46"/>
+      <c r="AC66" s="46"/>
+      <c r="AD66" s="46"/>
+      <c r="AE66" s="46"/>
+      <c r="AF66" s="46"/>
+      <c r="AG66" s="46"/>
+      <c r="AH66" s="46"/>
+      <c r="AI66" s="46"/>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="46"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
+      <c r="Y67" s="46"/>
+      <c r="Z67" s="46"/>
+      <c r="AA67" s="46"/>
+      <c r="AB67" s="46"/>
+      <c r="AC67" s="46"/>
+      <c r="AD67" s="46"/>
+      <c r="AE67" s="46"/>
+      <c r="AF67" s="46"/>
+      <c r="AG67" s="46"/>
+      <c r="AH67" s="46"/>
+      <c r="AI67" s="46"/>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="46"/>
+      <c r="Y68" s="46"/>
+      <c r="Z68" s="46"/>
+      <c r="AA68" s="46"/>
+      <c r="AB68" s="46"/>
+      <c r="AC68" s="46"/>
+      <c r="AD68" s="46"/>
+      <c r="AE68" s="46"/>
+      <c r="AF68" s="46"/>
+      <c r="AG68" s="46"/>
+      <c r="AH68" s="46"/>
+      <c r="AI68" s="46"/>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="46"/>
+      <c r="Y69" s="46"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="46"/>
+      <c r="AB69" s="46"/>
+      <c r="AC69" s="46"/>
+      <c r="AD69" s="46"/>
+      <c r="AE69" s="46"/>
+      <c r="AF69" s="46"/>
+      <c r="AG69" s="46"/>
+      <c r="AH69" s="46"/>
+      <c r="AI69" s="46"/>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="C70" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="29"/>
-      <c r="AB58" s="29"/>
-      <c r="AC58" s="29"/>
-      <c r="AD58" s="29"/>
-      <c r="AE58" s="29"/>
-      <c r="AF58" s="29"/>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="C59" s="29"/>
-      <c r="D59" s="134" t="s">
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="29"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
+      <c r="AE70" s="29"/>
+      <c r="AF70" s="29"/>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="C71" s="29"/>
+      <c r="D71" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
-      <c r="N59" s="134"/>
-      <c r="O59" s="134"/>
-      <c r="P59" s="134"/>
-      <c r="Q59" s="134"/>
-      <c r="R59" s="134"/>
-      <c r="S59" s="134"/>
-      <c r="T59" s="134"/>
-      <c r="U59" s="134"/>
-      <c r="V59" s="134"/>
-      <c r="W59" s="134"/>
-      <c r="X59" s="134"/>
-      <c r="Y59" s="134"/>
-      <c r="Z59" s="134"/>
-      <c r="AA59" s="134"/>
-      <c r="AB59" s="134"/>
-      <c r="AC59" s="134"/>
-      <c r="AD59" s="134"/>
-      <c r="AE59" s="134"/>
-      <c r="AF59" s="134"/>
-      <c r="AG59" s="133"/>
-      <c r="AH59" s="133"/>
-      <c r="AI59" s="133"/>
-      <c r="AJ59" s="133"/>
-      <c r="AK59" s="133"/>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="C60" s="29"/>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="134"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
-      <c r="J60" s="134"/>
-      <c r="K60" s="134"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
-      <c r="N60" s="134"/>
-      <c r="O60" s="134"/>
-      <c r="P60" s="134"/>
-      <c r="Q60" s="134"/>
-      <c r="R60" s="134"/>
-      <c r="S60" s="134"/>
-      <c r="T60" s="134"/>
-      <c r="U60" s="134"/>
-      <c r="V60" s="134"/>
-      <c r="W60" s="134"/>
-      <c r="X60" s="134"/>
-      <c r="Y60" s="134"/>
-      <c r="Z60" s="134"/>
-      <c r="AA60" s="134"/>
-      <c r="AB60" s="134"/>
-      <c r="AC60" s="134"/>
-      <c r="AD60" s="134"/>
-      <c r="AE60" s="134"/>
-      <c r="AF60" s="134"/>
-      <c r="AG60" s="133"/>
-      <c r="AH60" s="133"/>
-      <c r="AI60" s="133"/>
-      <c r="AJ60" s="133"/>
-      <c r="AK60" s="133"/>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A61" s="156"/>
-      <c r="B61" s="156"/>
-      <c r="C61" s="159"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="157" t="s">
-        <v>133</v>
-      </c>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
-      <c r="K61" s="157"/>
-      <c r="L61" s="157"/>
-      <c r="M61" s="157"/>
-      <c r="N61" s="157"/>
-      <c r="O61" s="157"/>
-      <c r="P61" s="157"/>
-      <c r="Q61" s="157"/>
-      <c r="R61" s="157"/>
-      <c r="S61" s="157"/>
-      <c r="T61" s="157"/>
-      <c r="U61" s="157"/>
-      <c r="V61" s="157"/>
-      <c r="W61" s="157"/>
-      <c r="X61" s="157"/>
-      <c r="Y61" s="157"/>
-      <c r="Z61" s="157"/>
-      <c r="AA61" s="157"/>
-      <c r="AB61" s="157"/>
-      <c r="AC61" s="157"/>
-      <c r="AD61" s="158"/>
-      <c r="AE61" s="159"/>
-      <c r="AF61" s="159"/>
-      <c r="AG61" s="156"/>
-      <c r="AH61" s="156"/>
-      <c r="AI61" s="133"/>
-      <c r="AJ61" s="133"/>
-      <c r="AK61" s="133"/>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A62" s="155"/>
-      <c r="B62" s="155"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="157"/>
-      <c r="F62" s="157"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="157"/>
-      <c r="K62" s="157"/>
-      <c r="L62" s="157"/>
-      <c r="M62" s="157"/>
-      <c r="N62" s="157"/>
-      <c r="O62" s="157"/>
-      <c r="P62" s="157"/>
-      <c r="Q62" s="157"/>
-      <c r="R62" s="157"/>
-      <c r="S62" s="157"/>
-      <c r="T62" s="157"/>
-      <c r="U62" s="157"/>
-      <c r="V62" s="157"/>
-      <c r="W62" s="157"/>
-      <c r="X62" s="157"/>
-      <c r="Y62" s="157"/>
-      <c r="Z62" s="157"/>
-      <c r="AA62" s="157"/>
-      <c r="AB62" s="157"/>
-      <c r="AC62" s="157"/>
-      <c r="AD62" s="158"/>
-      <c r="AE62" s="159"/>
-      <c r="AF62" s="159"/>
-      <c r="AG62" s="156"/>
-      <c r="AH62" s="156"/>
-      <c r="AI62" s="133"/>
-      <c r="AJ62" s="133"/>
-      <c r="AK62" s="133"/>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A63" s="155"/>
-      <c r="B63" s="155"/>
-      <c r="C63" s="159"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="299" t="s">
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="134"/>
+      <c r="I71" s="134"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="134"/>
+      <c r="L71" s="134"/>
+      <c r="M71" s="134"/>
+      <c r="N71" s="134"/>
+      <c r="O71" s="134"/>
+      <c r="P71" s="134"/>
+      <c r="Q71" s="134"/>
+      <c r="R71" s="134"/>
+      <c r="S71" s="134"/>
+      <c r="T71" s="134"/>
+      <c r="U71" s="134"/>
+      <c r="V71" s="134"/>
+      <c r="W71" s="134"/>
+      <c r="X71" s="134"/>
+      <c r="Y71" s="134"/>
+      <c r="Z71" s="134"/>
+      <c r="AA71" s="134"/>
+      <c r="AB71" s="134"/>
+      <c r="AC71" s="134"/>
+      <c r="AD71" s="134"/>
+      <c r="AE71" s="134"/>
+      <c r="AF71" s="134"/>
+      <c r="AG71" s="133"/>
+      <c r="AH71" s="133"/>
+      <c r="AI71" s="133"/>
+      <c r="AJ71" s="133"/>
+      <c r="AK71" s="133"/>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="C72" s="29"/>
+      <c r="D72" s="134"/>
+      <c r="E72" s="134"/>
+      <c r="F72" s="134"/>
+      <c r="G72" s="134"/>
+      <c r="H72" s="134"/>
+      <c r="I72" s="134"/>
+      <c r="J72" s="134"/>
+      <c r="K72" s="134"/>
+      <c r="L72" s="134"/>
+      <c r="M72" s="134"/>
+      <c r="N72" s="134"/>
+      <c r="O72" s="134"/>
+      <c r="P72" s="134"/>
+      <c r="Q72" s="134"/>
+      <c r="R72" s="134"/>
+      <c r="S72" s="134"/>
+      <c r="T72" s="134"/>
+      <c r="U72" s="134"/>
+      <c r="V72" s="134"/>
+      <c r="W72" s="134"/>
+      <c r="X72" s="134"/>
+      <c r="Y72" s="134"/>
+      <c r="Z72" s="134"/>
+      <c r="AA72" s="134"/>
+      <c r="AB72" s="134"/>
+      <c r="AC72" s="134"/>
+      <c r="AD72" s="134"/>
+      <c r="AE72" s="134"/>
+      <c r="AF72" s="134"/>
+      <c r="AG72" s="133"/>
+      <c r="AH72" s="133"/>
+      <c r="AI72" s="133"/>
+      <c r="AJ72" s="133"/>
+      <c r="AK72" s="133"/>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A73" s="156"/>
+      <c r="B73" s="156"/>
+      <c r="C73" s="159"/>
+      <c r="D73" s="156"/>
+      <c r="E73" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="157"/>
+      <c r="G73" s="157"/>
+      <c r="H73" s="157"/>
+      <c r="I73" s="157"/>
+      <c r="J73" s="157"/>
+      <c r="K73" s="157"/>
+      <c r="L73" s="157"/>
+      <c r="M73" s="157"/>
+      <c r="N73" s="157"/>
+      <c r="O73" s="157"/>
+      <c r="P73" s="157"/>
+      <c r="Q73" s="157"/>
+      <c r="R73" s="157"/>
+      <c r="S73" s="157"/>
+      <c r="T73" s="157"/>
+      <c r="U73" s="157"/>
+      <c r="V73" s="157"/>
+      <c r="W73" s="157"/>
+      <c r="X73" s="157"/>
+      <c r="Y73" s="157"/>
+      <c r="Z73" s="157"/>
+      <c r="AA73" s="157"/>
+      <c r="AB73" s="157"/>
+      <c r="AC73" s="157"/>
+      <c r="AD73" s="158"/>
+      <c r="AE73" s="159"/>
+      <c r="AF73" s="159"/>
+      <c r="AG73" s="156"/>
+      <c r="AH73" s="156"/>
+      <c r="AI73" s="133"/>
+      <c r="AJ73" s="133"/>
+      <c r="AK73" s="133"/>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A74" s="155"/>
+      <c r="B74" s="155"/>
+      <c r="C74" s="159"/>
+      <c r="D74" s="157"/>
+      <c r="E74" s="157"/>
+      <c r="F74" s="157"/>
+      <c r="G74" s="157"/>
+      <c r="H74" s="157"/>
+      <c r="I74" s="157"/>
+      <c r="J74" s="157"/>
+      <c r="K74" s="157"/>
+      <c r="L74" s="157"/>
+      <c r="M74" s="157"/>
+      <c r="N74" s="157"/>
+      <c r="O74" s="157"/>
+      <c r="P74" s="157"/>
+      <c r="Q74" s="157"/>
+      <c r="R74" s="157"/>
+      <c r="S74" s="157"/>
+      <c r="T74" s="157"/>
+      <c r="U74" s="157"/>
+      <c r="V74" s="157"/>
+      <c r="W74" s="157"/>
+      <c r="X74" s="157"/>
+      <c r="Y74" s="157"/>
+      <c r="Z74" s="157"/>
+      <c r="AA74" s="157"/>
+      <c r="AB74" s="157"/>
+      <c r="AC74" s="157"/>
+      <c r="AD74" s="158"/>
+      <c r="AE74" s="159"/>
+      <c r="AF74" s="159"/>
+      <c r="AG74" s="156"/>
+      <c r="AH74" s="156"/>
+      <c r="AI74" s="133"/>
+      <c r="AJ74" s="133"/>
+      <c r="AK74" s="133"/>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A75" s="155"/>
+      <c r="B75" s="155"/>
+      <c r="C75" s="159"/>
+      <c r="D75" s="159"/>
+      <c r="E75" s="291" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="299"/>
-      <c r="G63" s="296" t="s">
-        <v>130</v>
-      </c>
-      <c r="H63" s="297"/>
-      <c r="I63" s="297"/>
-      <c r="J63" s="297"/>
-      <c r="K63" s="297"/>
-      <c r="L63" s="298"/>
-      <c r="M63" s="299" t="s">
+      <c r="F75" s="291"/>
+      <c r="G75" s="288" t="s">
+        <v>126</v>
+      </c>
+      <c r="H75" s="289"/>
+      <c r="I75" s="289"/>
+      <c r="J75" s="289"/>
+      <c r="K75" s="289"/>
+      <c r="L75" s="290"/>
+      <c r="M75" s="291" t="s">
         <v>22</v>
       </c>
-      <c r="N63" s="299"/>
-      <c r="O63" s="296" t="s">
-        <v>132</v>
-      </c>
-      <c r="P63" s="297"/>
-      <c r="Q63" s="297"/>
-      <c r="R63" s="297"/>
-      <c r="S63" s="297"/>
-      <c r="T63" s="297"/>
-      <c r="U63" s="297"/>
-      <c r="V63" s="297"/>
-      <c r="W63" s="297"/>
-      <c r="X63" s="297"/>
-      <c r="Y63" s="297"/>
-      <c r="Z63" s="297"/>
-      <c r="AA63" s="297"/>
-      <c r="AB63" s="297"/>
-      <c r="AC63" s="297"/>
-      <c r="AD63" s="297"/>
-      <c r="AE63" s="297"/>
-      <c r="AF63" s="297"/>
-      <c r="AG63" s="297"/>
-      <c r="AH63" s="298"/>
-      <c r="AI63" s="133"/>
-      <c r="AJ63" s="133"/>
-      <c r="AK63" s="133"/>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A64" s="155"/>
-      <c r="B64" s="155"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="159"/>
-      <c r="F64" s="159"/>
-      <c r="G64" s="159"/>
-      <c r="H64" s="159"/>
-      <c r="I64" s="159"/>
-      <c r="J64" s="159"/>
-      <c r="K64" s="159"/>
-      <c r="L64" s="159"/>
-      <c r="M64" s="159"/>
-      <c r="N64" s="159"/>
-      <c r="O64" s="159"/>
-      <c r="P64" s="159"/>
-      <c r="Q64" s="159"/>
-      <c r="R64" s="159"/>
-      <c r="S64" s="159"/>
-      <c r="T64" s="159"/>
-      <c r="U64" s="159"/>
-      <c r="V64" s="159"/>
-      <c r="W64" s="159"/>
-      <c r="X64" s="159"/>
-      <c r="Y64" s="159"/>
-      <c r="Z64" s="159"/>
-      <c r="AA64" s="159"/>
-      <c r="AB64" s="159"/>
-      <c r="AC64" s="159"/>
-      <c r="AD64" s="159"/>
-      <c r="AE64" s="159"/>
-      <c r="AF64" s="159"/>
-      <c r="AG64" s="156"/>
-      <c r="AH64" s="156"/>
-      <c r="AI64" s="133"/>
-      <c r="AJ64" s="133"/>
-      <c r="AK64" s="133"/>
-    </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A65" s="155"/>
-      <c r="B65" s="155"/>
-      <c r="C65" s="159"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="159"/>
-      <c r="F65" s="159"/>
-      <c r="G65" s="159"/>
-      <c r="H65" s="159"/>
-      <c r="I65" s="159"/>
-      <c r="J65" s="159"/>
-      <c r="K65" s="159"/>
-      <c r="L65" s="159"/>
-      <c r="M65" s="159"/>
-      <c r="N65" s="159"/>
-      <c r="O65" s="159"/>
-      <c r="P65" s="159"/>
-      <c r="Q65" s="159"/>
-      <c r="R65" s="159"/>
-      <c r="S65" s="159"/>
-      <c r="T65" s="159"/>
-      <c r="U65" s="159"/>
-      <c r="V65" s="159"/>
-      <c r="W65" s="159"/>
-      <c r="X65" s="159"/>
-      <c r="Y65" s="159"/>
-      <c r="Z65" s="159"/>
-      <c r="AA65" s="159"/>
-      <c r="AB65" s="159"/>
-      <c r="AC65" s="159"/>
-      <c r="AD65" s="159"/>
-      <c r="AE65" s="159"/>
-      <c r="AF65" s="159"/>
-      <c r="AG65" s="156"/>
-      <c r="AH65" s="156"/>
-      <c r="AI65" s="133"/>
-      <c r="AJ65" s="133"/>
-      <c r="AK65" s="133"/>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A66" s="155"/>
-      <c r="B66" s="155"/>
-      <c r="C66" s="159"/>
-      <c r="D66" s="159" t="s">
+      <c r="N75" s="291"/>
+      <c r="O75" s="288" t="s">
+        <v>128</v>
+      </c>
+      <c r="P75" s="289"/>
+      <c r="Q75" s="289"/>
+      <c r="R75" s="289"/>
+      <c r="S75" s="289"/>
+      <c r="T75" s="289"/>
+      <c r="U75" s="289"/>
+      <c r="V75" s="289"/>
+      <c r="W75" s="289"/>
+      <c r="X75" s="289"/>
+      <c r="Y75" s="289"/>
+      <c r="Z75" s="289"/>
+      <c r="AA75" s="289"/>
+      <c r="AB75" s="289"/>
+      <c r="AC75" s="289"/>
+      <c r="AD75" s="289"/>
+      <c r="AE75" s="289"/>
+      <c r="AF75" s="289"/>
+      <c r="AG75" s="289"/>
+      <c r="AH75" s="290"/>
+      <c r="AI75" s="133"/>
+      <c r="AJ75" s="133"/>
+      <c r="AK75" s="133"/>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A76" s="155"/>
+      <c r="B76" s="155"/>
+      <c r="C76" s="159"/>
+      <c r="D76" s="159"/>
+      <c r="E76" s="159"/>
+      <c r="F76" s="159"/>
+      <c r="G76" s="159"/>
+      <c r="H76" s="159"/>
+      <c r="I76" s="159"/>
+      <c r="J76" s="159"/>
+      <c r="K76" s="159"/>
+      <c r="L76" s="159"/>
+      <c r="M76" s="159"/>
+      <c r="N76" s="159"/>
+      <c r="O76" s="159"/>
+      <c r="P76" s="159"/>
+      <c r="Q76" s="159"/>
+      <c r="R76" s="159"/>
+      <c r="S76" s="159"/>
+      <c r="T76" s="159"/>
+      <c r="U76" s="159"/>
+      <c r="V76" s="159"/>
+      <c r="W76" s="159"/>
+      <c r="X76" s="159"/>
+      <c r="Y76" s="159"/>
+      <c r="Z76" s="159"/>
+      <c r="AA76" s="159"/>
+      <c r="AB76" s="159"/>
+      <c r="AC76" s="159"/>
+      <c r="AD76" s="159"/>
+      <c r="AE76" s="159"/>
+      <c r="AF76" s="159"/>
+      <c r="AG76" s="156"/>
+      <c r="AH76" s="156"/>
+      <c r="AI76" s="133"/>
+      <c r="AJ76" s="133"/>
+      <c r="AK76" s="133"/>
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A77" s="155"/>
+      <c r="B77" s="155"/>
+      <c r="C77" s="159"/>
+      <c r="D77" s="159"/>
+      <c r="E77" s="159"/>
+      <c r="F77" s="159"/>
+      <c r="G77" s="159"/>
+      <c r="H77" s="159"/>
+      <c r="I77" s="159"/>
+      <c r="J77" s="159"/>
+      <c r="K77" s="159"/>
+      <c r="L77" s="159"/>
+      <c r="M77" s="159"/>
+      <c r="N77" s="159"/>
+      <c r="O77" s="159"/>
+      <c r="P77" s="159"/>
+      <c r="Q77" s="159"/>
+      <c r="R77" s="159"/>
+      <c r="S77" s="159"/>
+      <c r="T77" s="159"/>
+      <c r="U77" s="159"/>
+      <c r="V77" s="159"/>
+      <c r="W77" s="159"/>
+      <c r="X77" s="159"/>
+      <c r="Y77" s="159"/>
+      <c r="Z77" s="159"/>
+      <c r="AA77" s="159"/>
+      <c r="AB77" s="159"/>
+      <c r="AC77" s="159"/>
+      <c r="AD77" s="159"/>
+      <c r="AE77" s="159"/>
+      <c r="AF77" s="159"/>
+      <c r="AG77" s="156"/>
+      <c r="AH77" s="156"/>
+      <c r="AI77" s="133"/>
+      <c r="AJ77" s="133"/>
+      <c r="AK77" s="133"/>
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A78" s="155"/>
+      <c r="B78" s="155"/>
+      <c r="C78" s="159"/>
+      <c r="D78" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="159"/>
-      <c r="F66" s="159"/>
-      <c r="G66" s="159"/>
-      <c r="H66" s="159"/>
-      <c r="I66" s="159"/>
-      <c r="J66" s="159"/>
-      <c r="K66" s="159"/>
-      <c r="L66" s="159"/>
-      <c r="M66" s="159"/>
-      <c r="N66" s="159"/>
-      <c r="O66" s="159"/>
-      <c r="P66" s="159"/>
-      <c r="Q66" s="159"/>
-      <c r="R66" s="159"/>
-      <c r="S66" s="159"/>
-      <c r="T66" s="159"/>
-      <c r="U66" s="159"/>
-      <c r="V66" s="159"/>
-      <c r="W66" s="159"/>
-      <c r="X66" s="159"/>
-      <c r="Y66" s="159"/>
-      <c r="Z66" s="159"/>
-      <c r="AA66" s="159"/>
-      <c r="AB66" s="159"/>
-      <c r="AC66" s="159"/>
-      <c r="AD66" s="159"/>
-      <c r="AE66" s="159"/>
-      <c r="AF66" s="159"/>
-      <c r="AG66" s="156"/>
-      <c r="AH66" s="156"/>
-      <c r="AI66" s="133"/>
-      <c r="AJ66" s="133"/>
-      <c r="AK66" s="133"/>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A67" s="155"/>
-      <c r="B67" s="155"/>
-      <c r="C67" s="159"/>
-      <c r="D67" s="159"/>
-      <c r="E67" s="159"/>
-      <c r="F67" s="159"/>
-      <c r="G67" s="159"/>
-      <c r="H67" s="159"/>
-      <c r="I67" s="159"/>
-      <c r="J67" s="159"/>
-      <c r="K67" s="159"/>
-      <c r="L67" s="159"/>
-      <c r="M67" s="159"/>
-      <c r="N67" s="159"/>
-      <c r="O67" s="159"/>
-      <c r="P67" s="159"/>
-      <c r="Q67" s="159"/>
-      <c r="R67" s="159"/>
-      <c r="S67" s="159"/>
-      <c r="T67" s="159"/>
-      <c r="U67" s="159"/>
-      <c r="V67" s="159"/>
-      <c r="W67" s="159"/>
-      <c r="X67" s="159"/>
-      <c r="Y67" s="159"/>
-      <c r="Z67" s="159"/>
-      <c r="AA67" s="159"/>
-      <c r="AB67" s="159"/>
-      <c r="AC67" s="159"/>
-      <c r="AD67" s="159"/>
-      <c r="AE67" s="159"/>
-      <c r="AF67" s="159"/>
-      <c r="AG67" s="156"/>
-      <c r="AH67" s="156"/>
-      <c r="AI67" s="133"/>
-      <c r="AJ67" s="133"/>
-      <c r="AK67" s="133"/>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A68" s="155"/>
-      <c r="B68" s="155"/>
-      <c r="C68" s="159"/>
-      <c r="D68" s="159"/>
-      <c r="E68" s="332" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" s="326" t="s">
+      <c r="E78" s="159"/>
+      <c r="F78" s="159"/>
+      <c r="G78" s="159"/>
+      <c r="H78" s="159"/>
+      <c r="I78" s="159"/>
+      <c r="J78" s="159"/>
+      <c r="K78" s="159"/>
+      <c r="L78" s="159"/>
+      <c r="M78" s="159"/>
+      <c r="N78" s="159"/>
+      <c r="O78" s="159"/>
+      <c r="P78" s="159"/>
+      <c r="Q78" s="159"/>
+      <c r="R78" s="159"/>
+      <c r="S78" s="159"/>
+      <c r="T78" s="159"/>
+      <c r="U78" s="159"/>
+      <c r="V78" s="159"/>
+      <c r="W78" s="159"/>
+      <c r="X78" s="159"/>
+      <c r="Y78" s="159"/>
+      <c r="Z78" s="159"/>
+      <c r="AA78" s="159"/>
+      <c r="AB78" s="159"/>
+      <c r="AC78" s="159"/>
+      <c r="AD78" s="159"/>
+      <c r="AE78" s="159"/>
+      <c r="AF78" s="159"/>
+      <c r="AG78" s="156"/>
+      <c r="AH78" s="156"/>
+      <c r="AI78" s="133"/>
+      <c r="AJ78" s="133"/>
+      <c r="AK78" s="133"/>
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A79" s="155"/>
+      <c r="B79" s="155"/>
+      <c r="C79" s="159"/>
+      <c r="D79" s="159"/>
+      <c r="E79" s="159"/>
+      <c r="F79" s="159"/>
+      <c r="G79" s="159"/>
+      <c r="H79" s="159"/>
+      <c r="I79" s="159"/>
+      <c r="J79" s="159"/>
+      <c r="K79" s="159"/>
+      <c r="L79" s="159"/>
+      <c r="M79" s="159"/>
+      <c r="N79" s="159"/>
+      <c r="O79" s="159"/>
+      <c r="P79" s="159"/>
+      <c r="Q79" s="159"/>
+      <c r="R79" s="159"/>
+      <c r="S79" s="159"/>
+      <c r="T79" s="159"/>
+      <c r="U79" s="159"/>
+      <c r="V79" s="159"/>
+      <c r="W79" s="159"/>
+      <c r="X79" s="159"/>
+      <c r="Y79" s="159"/>
+      <c r="Z79" s="159"/>
+      <c r="AA79" s="159"/>
+      <c r="AB79" s="159"/>
+      <c r="AC79" s="159"/>
+      <c r="AD79" s="159"/>
+      <c r="AE79" s="159"/>
+      <c r="AF79" s="159"/>
+      <c r="AG79" s="156"/>
+      <c r="AH79" s="156"/>
+      <c r="AI79" s="133"/>
+      <c r="AJ79" s="133"/>
+      <c r="AK79" s="133"/>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A80" s="155"/>
+      <c r="B80" s="155"/>
+      <c r="C80" s="159"/>
+      <c r="D80" s="159"/>
+      <c r="E80" s="285" t="s">
+        <v>110</v>
+      </c>
+      <c r="F80" s="279" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="327"/>
-      <c r="H68" s="327"/>
-      <c r="I68" s="328"/>
-      <c r="J68" s="326" t="s">
+      <c r="G80" s="280"/>
+      <c r="H80" s="280"/>
+      <c r="I80" s="281"/>
+      <c r="J80" s="279" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="327"/>
-      <c r="L68" s="327"/>
-      <c r="M68" s="328"/>
-      <c r="N68" s="334" t="s">
+      <c r="K80" s="280"/>
+      <c r="L80" s="280"/>
+      <c r="M80" s="281"/>
+      <c r="N80" s="287" t="s">
         <v>25</v>
       </c>
-      <c r="O68" s="334"/>
-      <c r="P68" s="334"/>
-      <c r="Q68" s="334"/>
-      <c r="R68" s="334"/>
-      <c r="S68" s="334"/>
-      <c r="T68" s="334"/>
-      <c r="U68" s="334"/>
-      <c r="V68" s="334"/>
-      <c r="W68" s="326" t="s">
+      <c r="O80" s="287"/>
+      <c r="P80" s="287"/>
+      <c r="Q80" s="287"/>
+      <c r="R80" s="287"/>
+      <c r="S80" s="287"/>
+      <c r="T80" s="287"/>
+      <c r="U80" s="287"/>
+      <c r="V80" s="287"/>
+      <c r="W80" s="279" t="s">
         <v>33</v>
       </c>
-      <c r="X68" s="327"/>
-      <c r="Y68" s="327"/>
-      <c r="Z68" s="327"/>
-      <c r="AA68" s="327"/>
-      <c r="AB68" s="327"/>
-      <c r="AC68" s="328"/>
-      <c r="AD68" s="326" t="s">
+      <c r="X80" s="280"/>
+      <c r="Y80" s="280"/>
+      <c r="Z80" s="280"/>
+      <c r="AA80" s="280"/>
+      <c r="AB80" s="280"/>
+      <c r="AC80" s="281"/>
+      <c r="AD80" s="279" t="s">
         <v>34</v>
       </c>
-      <c r="AE68" s="327"/>
-      <c r="AF68" s="327"/>
-      <c r="AG68" s="327"/>
-      <c r="AH68" s="328"/>
-      <c r="AI68" s="133"/>
-      <c r="AJ68" s="133"/>
-      <c r="AK68" s="133"/>
-    </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A69" s="155"/>
-      <c r="B69" s="155"/>
-      <c r="C69" s="159"/>
-      <c r="D69" s="157"/>
-      <c r="E69" s="333"/>
-      <c r="F69" s="329"/>
-      <c r="G69" s="330"/>
-      <c r="H69" s="330"/>
-      <c r="I69" s="331"/>
-      <c r="J69" s="329"/>
-      <c r="K69" s="330"/>
-      <c r="L69" s="330"/>
-      <c r="M69" s="331"/>
-      <c r="N69" s="334" t="s">
+      <c r="AE80" s="280"/>
+      <c r="AF80" s="280"/>
+      <c r="AG80" s="280"/>
+      <c r="AH80" s="281"/>
+      <c r="AI80" s="133"/>
+      <c r="AJ80" s="133"/>
+      <c r="AK80" s="133"/>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A81" s="155"/>
+      <c r="B81" s="155"/>
+      <c r="C81" s="159"/>
+      <c r="D81" s="157"/>
+      <c r="E81" s="286"/>
+      <c r="F81" s="282"/>
+      <c r="G81" s="283"/>
+      <c r="H81" s="283"/>
+      <c r="I81" s="284"/>
+      <c r="J81" s="282"/>
+      <c r="K81" s="283"/>
+      <c r="L81" s="283"/>
+      <c r="M81" s="284"/>
+      <c r="N81" s="287" t="s">
         <v>28</v>
       </c>
-      <c r="O69" s="334"/>
-      <c r="P69" s="334"/>
-      <c r="Q69" s="334"/>
-      <c r="R69" s="334"/>
-      <c r="S69" s="340" t="s">
+      <c r="O81" s="287"/>
+      <c r="P81" s="287"/>
+      <c r="Q81" s="287"/>
+      <c r="R81" s="287"/>
+      <c r="S81" s="292" t="s">
         <v>29</v>
       </c>
-      <c r="T69" s="340"/>
-      <c r="U69" s="340"/>
-      <c r="V69" s="340"/>
-      <c r="W69" s="329"/>
-      <c r="X69" s="330"/>
-      <c r="Y69" s="330"/>
-      <c r="Z69" s="330"/>
-      <c r="AA69" s="330"/>
-      <c r="AB69" s="330"/>
-      <c r="AC69" s="331"/>
-      <c r="AD69" s="329"/>
-      <c r="AE69" s="330"/>
-      <c r="AF69" s="330"/>
-      <c r="AG69" s="330"/>
-      <c r="AH69" s="331"/>
-    </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A70" s="155"/>
-      <c r="B70" s="155"/>
-      <c r="C70" s="159"/>
-      <c r="D70" s="157"/>
-      <c r="E70" s="160">
+      <c r="T81" s="292"/>
+      <c r="U81" s="292"/>
+      <c r="V81" s="292"/>
+      <c r="W81" s="282"/>
+      <c r="X81" s="283"/>
+      <c r="Y81" s="283"/>
+      <c r="Z81" s="283"/>
+      <c r="AA81" s="283"/>
+      <c r="AB81" s="283"/>
+      <c r="AC81" s="284"/>
+      <c r="AD81" s="282"/>
+      <c r="AE81" s="283"/>
+      <c r="AF81" s="283"/>
+      <c r="AG81" s="283"/>
+      <c r="AH81" s="284"/>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A82" s="155"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="159"/>
+      <c r="D82" s="157"/>
+      <c r="E82" s="160">
         <v>1</v>
       </c>
-      <c r="F70" s="335" t="s">
+      <c r="F82" s="272" t="s">
+        <v>121</v>
+      </c>
+      <c r="G82" s="275"/>
+      <c r="H82" s="275"/>
+      <c r="I82" s="276"/>
+      <c r="J82" s="272" t="s">
+        <v>122</v>
+      </c>
+      <c r="K82" s="273"/>
+      <c r="L82" s="273"/>
+      <c r="M82" s="274"/>
+      <c r="N82" s="277" t="s">
+        <v>123</v>
+      </c>
+      <c r="O82" s="278"/>
+      <c r="P82" s="278"/>
+      <c r="Q82" s="278"/>
+      <c r="R82" s="278"/>
+      <c r="S82" s="339" t="s">
+        <v>122</v>
+      </c>
+      <c r="T82" s="340"/>
+      <c r="U82" s="340"/>
+      <c r="V82" s="340"/>
+      <c r="W82" s="341"/>
+      <c r="X82" s="342"/>
+      <c r="Y82" s="342"/>
+      <c r="Z82" s="342"/>
+      <c r="AA82" s="342"/>
+      <c r="AB82" s="342"/>
+      <c r="AC82" s="343"/>
+      <c r="AD82" s="341"/>
+      <c r="AE82" s="342"/>
+      <c r="AF82" s="342"/>
+      <c r="AG82" s="342"/>
+      <c r="AH82" s="343"/>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A83" s="155"/>
+      <c r="B83" s="155"/>
+      <c r="C83" s="159"/>
+      <c r="D83" s="157"/>
+      <c r="E83" s="160">
+        <v>2</v>
+      </c>
+      <c r="F83" s="272" t="s">
+        <v>115</v>
+      </c>
+      <c r="G83" s="275"/>
+      <c r="H83" s="275"/>
+      <c r="I83" s="276"/>
+      <c r="J83" s="272" t="s">
+        <v>124</v>
+      </c>
+      <c r="K83" s="273"/>
+      <c r="L83" s="273"/>
+      <c r="M83" s="274"/>
+      <c r="N83" s="277" t="s">
+        <v>123</v>
+      </c>
+      <c r="O83" s="278"/>
+      <c r="P83" s="278"/>
+      <c r="Q83" s="278"/>
+      <c r="R83" s="278"/>
+      <c r="S83" s="339" t="s">
+        <v>124</v>
+      </c>
+      <c r="T83" s="340"/>
+      <c r="U83" s="340"/>
+      <c r="V83" s="340"/>
+      <c r="W83" s="341"/>
+      <c r="X83" s="342"/>
+      <c r="Y83" s="342"/>
+      <c r="Z83" s="342"/>
+      <c r="AA83" s="342"/>
+      <c r="AB83" s="342"/>
+      <c r="AC83" s="343"/>
+      <c r="AD83" s="341"/>
+      <c r="AE83" s="342"/>
+      <c r="AF83" s="342"/>
+      <c r="AG83" s="342"/>
+      <c r="AH83" s="343"/>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A84" s="155"/>
+      <c r="B84" s="155"/>
+      <c r="C84" s="159"/>
+      <c r="D84" s="157"/>
+      <c r="E84" s="160">
+        <v>3</v>
+      </c>
+      <c r="F84" s="272" t="s">
+        <v>127</v>
+      </c>
+      <c r="G84" s="275"/>
+      <c r="H84" s="275"/>
+      <c r="I84" s="276"/>
+      <c r="J84" s="272" t="s">
         <v>125</v>
       </c>
-      <c r="G70" s="338"/>
-      <c r="H70" s="338"/>
-      <c r="I70" s="339"/>
-      <c r="J70" s="335" t="s">
-        <v>126</v>
-      </c>
-      <c r="K70" s="336"/>
-      <c r="L70" s="336"/>
-      <c r="M70" s="337"/>
-      <c r="N70" s="269" t="s">
-        <v>127</v>
-      </c>
-      <c r="O70" s="270"/>
-      <c r="P70" s="270"/>
-      <c r="Q70" s="270"/>
-      <c r="R70" s="270"/>
-      <c r="S70" s="271" t="s">
-        <v>126</v>
-      </c>
-      <c r="T70" s="272"/>
-      <c r="U70" s="272"/>
-      <c r="V70" s="272"/>
-      <c r="W70" s="273"/>
-      <c r="X70" s="274"/>
-      <c r="Y70" s="274"/>
-      <c r="Z70" s="274"/>
-      <c r="AA70" s="274"/>
-      <c r="AB70" s="274"/>
-      <c r="AC70" s="275"/>
-      <c r="AD70" s="273"/>
-      <c r="AE70" s="274"/>
-      <c r="AF70" s="274"/>
-      <c r="AG70" s="274"/>
-      <c r="AH70" s="275"/>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A71" s="155"/>
-      <c r="B71" s="155"/>
-      <c r="C71" s="159"/>
-      <c r="D71" s="157"/>
-      <c r="E71" s="160">
-        <v>2</v>
-      </c>
-      <c r="F71" s="335" t="s">
-        <v>119</v>
-      </c>
-      <c r="G71" s="338"/>
-      <c r="H71" s="338"/>
-      <c r="I71" s="339"/>
-      <c r="J71" s="335" t="s">
-        <v>128</v>
-      </c>
-      <c r="K71" s="336"/>
-      <c r="L71" s="336"/>
-      <c r="M71" s="337"/>
-      <c r="N71" s="269" t="s">
-        <v>127</v>
-      </c>
-      <c r="O71" s="270"/>
-      <c r="P71" s="270"/>
-      <c r="Q71" s="270"/>
-      <c r="R71" s="270"/>
-      <c r="S71" s="271" t="s">
-        <v>128</v>
-      </c>
-      <c r="T71" s="272"/>
-      <c r="U71" s="272"/>
-      <c r="V71" s="272"/>
-      <c r="W71" s="273"/>
-      <c r="X71" s="274"/>
-      <c r="Y71" s="274"/>
-      <c r="Z71" s="274"/>
-      <c r="AA71" s="274"/>
-      <c r="AB71" s="274"/>
-      <c r="AC71" s="275"/>
-      <c r="AD71" s="273"/>
-      <c r="AE71" s="274"/>
-      <c r="AF71" s="274"/>
-      <c r="AG71" s="274"/>
-      <c r="AH71" s="275"/>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A72" s="155"/>
-      <c r="B72" s="155"/>
-      <c r="C72" s="159"/>
-      <c r="D72" s="157"/>
-      <c r="E72" s="160">
-        <v>3</v>
-      </c>
-      <c r="F72" s="335" t="s">
-        <v>131</v>
-      </c>
-      <c r="G72" s="338"/>
-      <c r="H72" s="338"/>
-      <c r="I72" s="339"/>
-      <c r="J72" s="335" t="s">
-        <v>129</v>
-      </c>
-      <c r="K72" s="336"/>
-      <c r="L72" s="336"/>
-      <c r="M72" s="337"/>
-      <c r="N72" s="269" t="s">
-        <v>127</v>
-      </c>
-      <c r="O72" s="270"/>
-      <c r="P72" s="270"/>
-      <c r="Q72" s="270"/>
-      <c r="R72" s="270"/>
-      <c r="S72" s="271" t="s">
-        <v>129</v>
-      </c>
-      <c r="T72" s="272"/>
-      <c r="U72" s="272"/>
-      <c r="V72" s="272"/>
-      <c r="W72" s="273"/>
-      <c r="X72" s="274"/>
-      <c r="Y72" s="274"/>
-      <c r="Z72" s="274"/>
-      <c r="AA72" s="274"/>
-      <c r="AB72" s="274"/>
-      <c r="AC72" s="275"/>
-      <c r="AD72" s="273"/>
-      <c r="AE72" s="274"/>
-      <c r="AF72" s="274"/>
-      <c r="AG72" s="274"/>
-      <c r="AH72" s="275"/>
+      <c r="K84" s="273"/>
+      <c r="L84" s="273"/>
+      <c r="M84" s="274"/>
+      <c r="N84" s="277" t="s">
+        <v>123</v>
+      </c>
+      <c r="O84" s="278"/>
+      <c r="P84" s="278"/>
+      <c r="Q84" s="278"/>
+      <c r="R84" s="278"/>
+      <c r="S84" s="339" t="s">
+        <v>125</v>
+      </c>
+      <c r="T84" s="340"/>
+      <c r="U84" s="340"/>
+      <c r="V84" s="340"/>
+      <c r="W84" s="341"/>
+      <c r="X84" s="342"/>
+      <c r="Y84" s="342"/>
+      <c r="Z84" s="342"/>
+      <c r="AA84" s="342"/>
+      <c r="AB84" s="342"/>
+      <c r="AC84" s="343"/>
+      <c r="AD84" s="341"/>
+      <c r="AE84" s="342"/>
+      <c r="AF84" s="342"/>
+      <c r="AG84" s="342"/>
+      <c r="AH84" s="343"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="N71:R71"/>
-    <mergeCell ref="N70:R70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="F68:I69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="N68:V68"/>
-    <mergeCell ref="N69:R69"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="O63:AH63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="W68:AC69"/>
-    <mergeCell ref="AD68:AH69"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="J68:M69"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="L39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="L38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
+  <mergeCells count="89">
+    <mergeCell ref="M51:Q52"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="S84:V84"/>
+    <mergeCell ref="W84:AC84"/>
+    <mergeCell ref="AD82:AH82"/>
+    <mergeCell ref="AD83:AH83"/>
+    <mergeCell ref="AD84:AH84"/>
+    <mergeCell ref="W82:AC82"/>
+    <mergeCell ref="W83:AC83"/>
+    <mergeCell ref="S83:V83"/>
+    <mergeCell ref="S82:V82"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="O28:AH28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E20:G20"/>
@@ -14609,53 +15014,37 @@
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="O28:AH28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="N72:R72"/>
-    <mergeCell ref="S72:V72"/>
-    <mergeCell ref="W72:AC72"/>
-    <mergeCell ref="AD70:AH70"/>
-    <mergeCell ref="AD71:AH71"/>
-    <mergeCell ref="AD72:AH72"/>
-    <mergeCell ref="W70:AC70"/>
-    <mergeCell ref="W71:AC71"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="L38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="L39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="F80:I81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="N80:V80"/>
+    <mergeCell ref="N81:R81"/>
+    <mergeCell ref="G75:L75"/>
+    <mergeCell ref="O75:AH75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="S81:V81"/>
+    <mergeCell ref="W80:AC81"/>
+    <mergeCell ref="AD80:AH81"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="J80:M81"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="N83:R83"/>
+    <mergeCell ref="N82:R82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="N84:R84"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
@@ -14677,7 +15066,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="34" max="34" man="1"/>
-    <brk id="56" max="34" man="1"/>
+    <brk id="68" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10103_顧客登録.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10103_顧客登録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AA95B5-4717-4784-8C31-F92EA4A5CBB0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF81C1-3EB8-4126-A9AA-7E1BE811E157}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="155">
   <si>
     <t>PJ名</t>
   </si>
@@ -1210,6 +1210,10 @@
     <rPh sb="23" eb="25">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DBによる自動採番</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2012,546 +2016,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2597,6 +2061,330 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2613,6 +2401,222 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6500,12 +6504,12 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="164">
+      <c r="I25" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44825</v>
       </c>
-      <c r="J25" s="164"/>
-      <c r="K25" s="164"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
       <c r="L25" s="36"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7136,57 +7140,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="175" t="s">
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="184" t="s">
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="193" t="s">
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="242" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="194"/>
-      <c r="U1" s="194"/>
-      <c r="V1" s="194"/>
-      <c r="W1" s="194"/>
-      <c r="X1" s="194"/>
-      <c r="Y1" s="194"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="181" t="s">
+      <c r="T1" s="243"/>
+      <c r="U1" s="243"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="243"/>
+      <c r="X1" s="243"/>
+      <c r="Y1" s="243"/>
+      <c r="Z1" s="244"/>
+      <c r="AA1" s="230" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="165" t="str">
+      <c r="AB1" s="232"/>
+      <c r="AC1" s="214" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="168">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="217">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="169"/>
-      <c r="AI1" s="170"/>
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="219"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -7194,53 +7198,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="175" t="s">
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="196"/>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="197"/>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="198"/>
-      <c r="AA2" s="181" t="s">
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="246"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="246"/>
+      <c r="X2" s="246"/>
+      <c r="Y2" s="246"/>
+      <c r="Z2" s="247"/>
+      <c r="AA2" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="178" t="str">
+      <c r="AB2" s="232"/>
+      <c r="AC2" s="227" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="180"/>
-      <c r="AG2" s="168">
+      <c r="AD2" s="228"/>
+      <c r="AE2" s="228"/>
+      <c r="AF2" s="229"/>
+      <c r="AG2" s="217">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="170"/>
+      <c r="AH2" s="218"/>
+      <c r="AI2" s="219"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -7248,45 +7252,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="175" t="s">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="199"/>
-      <c r="T3" s="200"/>
-      <c r="U3" s="200"/>
-      <c r="V3" s="200"/>
-      <c r="W3" s="200"/>
-      <c r="X3" s="200"/>
-      <c r="Y3" s="200"/>
-      <c r="Z3" s="201"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="170"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="248"/>
+      <c r="T3" s="249"/>
+      <c r="U3" s="249"/>
+      <c r="V3" s="249"/>
+      <c r="W3" s="249"/>
+      <c r="X3" s="249"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="250"/>
+      <c r="AA3" s="230"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="214"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="217"/>
+      <c r="AH3" s="218"/>
+      <c r="AI3" s="219"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -7323,1204 +7327,1048 @@
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="171" t="s">
+      <c r="C7" s="221"/>
+      <c r="D7" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="173"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="171" t="s">
+      <c r="E7" s="222"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="173"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="174" t="s">
+      <c r="H7" s="222"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="223" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="171" t="s">
+      <c r="K7" s="222"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="221"/>
+      <c r="Q7" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="172"/>
-      <c r="AF7" s="171" t="s">
+      <c r="R7" s="222"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="222"/>
+      <c r="U7" s="222"/>
+      <c r="V7" s="222"/>
+      <c r="W7" s="222"/>
+      <c r="X7" s="222"/>
+      <c r="Y7" s="222"/>
+      <c r="Z7" s="222"/>
+      <c r="AA7" s="222"/>
+      <c r="AB7" s="222"/>
+      <c r="AC7" s="222"/>
+      <c r="AD7" s="222"/>
+      <c r="AE7" s="221"/>
+      <c r="AF7" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="173"/>
-      <c r="AH7" s="173"/>
-      <c r="AI7" s="172"/>
+      <c r="AG7" s="222"/>
+      <c r="AH7" s="222"/>
+      <c r="AI7" s="221"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="114">
         <v>1</v>
       </c>
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="219"/>
-      <c r="D8" s="220">
+      <c r="C8" s="202"/>
+      <c r="D8" s="203">
         <v>43718</v>
       </c>
-      <c r="E8" s="221"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="223" t="s">
+      <c r="E8" s="204"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="206" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="224"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="225" t="s">
+      <c r="H8" s="207"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="208" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="226"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="226"/>
-      <c r="N8" s="226"/>
-      <c r="O8" s="226"/>
-      <c r="P8" s="227"/>
-      <c r="Q8" s="228" t="s">
+      <c r="K8" s="209"/>
+      <c r="L8" s="209"/>
+      <c r="M8" s="209"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="209"/>
+      <c r="P8" s="210"/>
+      <c r="Q8" s="211" t="s">
         <v>135</v>
       </c>
-      <c r="R8" s="229"/>
-      <c r="S8" s="229"/>
-      <c r="T8" s="229"/>
-      <c r="U8" s="229"/>
-      <c r="V8" s="229"/>
-      <c r="W8" s="229"/>
-      <c r="X8" s="229"/>
-      <c r="Y8" s="229"/>
-      <c r="Z8" s="229"/>
-      <c r="AA8" s="229"/>
-      <c r="AB8" s="229"/>
-      <c r="AC8" s="229"/>
-      <c r="AD8" s="229"/>
-      <c r="AE8" s="230"/>
-      <c r="AF8" s="225" t="s">
+      <c r="R8" s="212"/>
+      <c r="S8" s="212"/>
+      <c r="T8" s="212"/>
+      <c r="U8" s="212"/>
+      <c r="V8" s="212"/>
+      <c r="W8" s="212"/>
+      <c r="X8" s="212"/>
+      <c r="Y8" s="212"/>
+      <c r="Z8" s="212"/>
+      <c r="AA8" s="212"/>
+      <c r="AB8" s="212"/>
+      <c r="AC8" s="212"/>
+      <c r="AD8" s="212"/>
+      <c r="AE8" s="213"/>
+      <c r="AF8" s="208" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="226"/>
-      <c r="AH8" s="226"/>
-      <c r="AI8" s="227"/>
+      <c r="AG8" s="209"/>
+      <c r="AH8" s="209"/>
+      <c r="AI8" s="210"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="115">
         <v>2</v>
       </c>
-      <c r="B9" s="214" t="s">
+      <c r="B9" s="197" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="203"/>
-      <c r="D9" s="204">
+      <c r="C9" s="185"/>
+      <c r="D9" s="186">
         <v>44825</v>
       </c>
-      <c r="E9" s="205"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="215" t="s">
+      <c r="E9" s="187"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="198" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="207"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="216" t="s">
+      <c r="H9" s="189"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="199" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="209"/>
-      <c r="L9" s="209"/>
-      <c r="M9" s="209"/>
-      <c r="N9" s="209"/>
-      <c r="O9" s="209"/>
-      <c r="P9" s="210"/>
-      <c r="Q9" s="216" t="s">
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="199" t="s">
         <v>138</v>
       </c>
-      <c r="R9" s="212"/>
-      <c r="S9" s="212"/>
-      <c r="T9" s="212"/>
-      <c r="U9" s="212"/>
-      <c r="V9" s="212"/>
-      <c r="W9" s="212"/>
-      <c r="X9" s="212"/>
-      <c r="Y9" s="212"/>
-      <c r="Z9" s="212"/>
-      <c r="AA9" s="212"/>
-      <c r="AB9" s="212"/>
-      <c r="AC9" s="212"/>
-      <c r="AD9" s="212"/>
-      <c r="AE9" s="213"/>
-      <c r="AF9" s="217" t="s">
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
+      <c r="AD9" s="194"/>
+      <c r="AE9" s="195"/>
+      <c r="AF9" s="200" t="s">
         <v>137</v>
       </c>
-      <c r="AG9" s="209"/>
-      <c r="AH9" s="209"/>
-      <c r="AI9" s="210"/>
+      <c r="AG9" s="191"/>
+      <c r="AH9" s="191"/>
+      <c r="AI9" s="192"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="115"/>
-      <c r="B10" s="202"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="207"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="208"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="209"/>
-      <c r="M10" s="209"/>
-      <c r="N10" s="209"/>
-      <c r="O10" s="209"/>
-      <c r="P10" s="210"/>
-      <c r="Q10" s="211"/>
-      <c r="R10" s="212"/>
-      <c r="S10" s="212"/>
-      <c r="T10" s="212"/>
-      <c r="U10" s="212"/>
-      <c r="V10" s="212"/>
-      <c r="W10" s="212"/>
-      <c r="X10" s="212"/>
-      <c r="Y10" s="212"/>
-      <c r="Z10" s="212"/>
-      <c r="AA10" s="212"/>
-      <c r="AB10" s="212"/>
-      <c r="AC10" s="212"/>
-      <c r="AD10" s="212"/>
-      <c r="AE10" s="213"/>
-      <c r="AF10" s="208"/>
-      <c r="AG10" s="209"/>
-      <c r="AH10" s="209"/>
-      <c r="AI10" s="210"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="194"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="195"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="191"/>
+      <c r="AH10" s="191"/>
+      <c r="AI10" s="192"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="115"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="202"/>
-      <c r="H11" s="207"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="208"/>
-      <c r="K11" s="209"/>
-      <c r="L11" s="209"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="209"/>
-      <c r="O11" s="209"/>
-      <c r="P11" s="210"/>
-      <c r="Q11" s="211"/>
-      <c r="R11" s="212"/>
-      <c r="S11" s="212"/>
-      <c r="T11" s="212"/>
-      <c r="U11" s="212"/>
-      <c r="V11" s="212"/>
-      <c r="W11" s="212"/>
-      <c r="X11" s="212"/>
-      <c r="Y11" s="212"/>
-      <c r="Z11" s="212"/>
-      <c r="AA11" s="212"/>
-      <c r="AB11" s="212"/>
-      <c r="AC11" s="212"/>
-      <c r="AD11" s="212"/>
-      <c r="AE11" s="213"/>
-      <c r="AF11" s="208"/>
-      <c r="AG11" s="209"/>
-      <c r="AH11" s="209"/>
-      <c r="AI11" s="210"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="193"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="195"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="191"/>
+      <c r="AH11" s="191"/>
+      <c r="AI11" s="192"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="115"/>
-      <c r="B12" s="202"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="206"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="207"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="208"/>
-      <c r="K12" s="209"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="209"/>
-      <c r="O12" s="209"/>
-      <c r="P12" s="210"/>
-      <c r="Q12" s="211"/>
-      <c r="R12" s="212"/>
-      <c r="S12" s="212"/>
-      <c r="T12" s="212"/>
-      <c r="U12" s="212"/>
-      <c r="V12" s="212"/>
-      <c r="W12" s="212"/>
-      <c r="X12" s="212"/>
-      <c r="Y12" s="212"/>
-      <c r="Z12" s="212"/>
-      <c r="AA12" s="212"/>
-      <c r="AB12" s="212"/>
-      <c r="AC12" s="212"/>
-      <c r="AD12" s="212"/>
-      <c r="AE12" s="213"/>
-      <c r="AF12" s="208"/>
-      <c r="AG12" s="209"/>
-      <c r="AH12" s="209"/>
-      <c r="AI12" s="210"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="192"/>
+      <c r="Q12" s="193"/>
+      <c r="R12" s="194"/>
+      <c r="S12" s="194"/>
+      <c r="T12" s="194"/>
+      <c r="U12" s="194"/>
+      <c r="V12" s="194"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="195"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="191"/>
+      <c r="AH12" s="191"/>
+      <c r="AI12" s="192"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="115"/>
-      <c r="B13" s="202"/>
-      <c r="C13" s="203"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="206"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="207"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="208"/>
-      <c r="K13" s="209"/>
-      <c r="L13" s="209"/>
-      <c r="M13" s="209"/>
-      <c r="N13" s="209"/>
-      <c r="O13" s="209"/>
-      <c r="P13" s="210"/>
-      <c r="Q13" s="211"/>
-      <c r="R13" s="212"/>
-      <c r="S13" s="212"/>
-      <c r="T13" s="212"/>
-      <c r="U13" s="212"/>
-      <c r="V13" s="212"/>
-      <c r="W13" s="212"/>
-      <c r="X13" s="212"/>
-      <c r="Y13" s="212"/>
-      <c r="Z13" s="212"/>
-      <c r="AA13" s="212"/>
-      <c r="AB13" s="212"/>
-      <c r="AC13" s="212"/>
-      <c r="AD13" s="212"/>
-      <c r="AE13" s="213"/>
-      <c r="AF13" s="208"/>
-      <c r="AG13" s="209"/>
-      <c r="AH13" s="209"/>
-      <c r="AI13" s="210"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="192"/>
+      <c r="Q13" s="193"/>
+      <c r="R13" s="194"/>
+      <c r="S13" s="194"/>
+      <c r="T13" s="194"/>
+      <c r="U13" s="194"/>
+      <c r="V13" s="194"/>
+      <c r="W13" s="194"/>
+      <c r="X13" s="194"/>
+      <c r="Y13" s="194"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="194"/>
+      <c r="AB13" s="194"/>
+      <c r="AC13" s="194"/>
+      <c r="AD13" s="194"/>
+      <c r="AE13" s="195"/>
+      <c r="AF13" s="190"/>
+      <c r="AG13" s="191"/>
+      <c r="AH13" s="191"/>
+      <c r="AI13" s="192"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="115"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="206"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="208"/>
-      <c r="K14" s="209"/>
-      <c r="L14" s="209"/>
-      <c r="M14" s="209"/>
-      <c r="N14" s="209"/>
-      <c r="O14" s="209"/>
-      <c r="P14" s="210"/>
-      <c r="Q14" s="211"/>
-      <c r="R14" s="212"/>
-      <c r="S14" s="212"/>
-      <c r="T14" s="212"/>
-      <c r="U14" s="212"/>
-      <c r="V14" s="212"/>
-      <c r="W14" s="212"/>
-      <c r="X14" s="212"/>
-      <c r="Y14" s="212"/>
-      <c r="Z14" s="212"/>
-      <c r="AA14" s="212"/>
-      <c r="AB14" s="212"/>
-      <c r="AC14" s="212"/>
-      <c r="AD14" s="212"/>
-      <c r="AE14" s="213"/>
-      <c r="AF14" s="208"/>
-      <c r="AG14" s="209"/>
-      <c r="AH14" s="209"/>
-      <c r="AI14" s="210"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="192"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="194"/>
+      <c r="S14" s="194"/>
+      <c r="T14" s="194"/>
+      <c r="U14" s="194"/>
+      <c r="V14" s="194"/>
+      <c r="W14" s="194"/>
+      <c r="X14" s="194"/>
+      <c r="Y14" s="194"/>
+      <c r="Z14" s="194"/>
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="194"/>
+      <c r="AC14" s="194"/>
+      <c r="AD14" s="194"/>
+      <c r="AE14" s="195"/>
+      <c r="AF14" s="190"/>
+      <c r="AG14" s="191"/>
+      <c r="AH14" s="191"/>
+      <c r="AI14" s="192"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="115"/>
-      <c r="B15" s="202"/>
-      <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="206"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="207"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="208"/>
-      <c r="K15" s="209"/>
-      <c r="L15" s="209"/>
-      <c r="M15" s="209"/>
-      <c r="N15" s="209"/>
-      <c r="O15" s="209"/>
-      <c r="P15" s="210"/>
-      <c r="Q15" s="211"/>
-      <c r="R15" s="212"/>
-      <c r="S15" s="212"/>
-      <c r="T15" s="212"/>
-      <c r="U15" s="212"/>
-      <c r="V15" s="212"/>
-      <c r="W15" s="212"/>
-      <c r="X15" s="212"/>
-      <c r="Y15" s="212"/>
-      <c r="Z15" s="212"/>
-      <c r="AA15" s="212"/>
-      <c r="AB15" s="212"/>
-      <c r="AC15" s="212"/>
-      <c r="AD15" s="212"/>
-      <c r="AE15" s="213"/>
-      <c r="AF15" s="208"/>
-      <c r="AG15" s="209"/>
-      <c r="AH15" s="209"/>
-      <c r="AI15" s="210"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="192"/>
+      <c r="Q15" s="193"/>
+      <c r="R15" s="194"/>
+      <c r="S15" s="194"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="194"/>
+      <c r="V15" s="194"/>
+      <c r="W15" s="194"/>
+      <c r="X15" s="194"/>
+      <c r="Y15" s="194"/>
+      <c r="Z15" s="194"/>
+      <c r="AA15" s="194"/>
+      <c r="AB15" s="194"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="194"/>
+      <c r="AE15" s="195"/>
+      <c r="AF15" s="190"/>
+      <c r="AG15" s="191"/>
+      <c r="AH15" s="191"/>
+      <c r="AI15" s="192"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="115"/>
-      <c r="B16" s="202"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="202"/>
-      <c r="H16" s="207"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="208"/>
-      <c r="K16" s="209"/>
-      <c r="L16" s="209"/>
-      <c r="M16" s="209"/>
-      <c r="N16" s="209"/>
-      <c r="O16" s="209"/>
-      <c r="P16" s="210"/>
-      <c r="Q16" s="211"/>
-      <c r="R16" s="212"/>
-      <c r="S16" s="212"/>
-      <c r="T16" s="212"/>
-      <c r="U16" s="212"/>
-      <c r="V16" s="212"/>
-      <c r="W16" s="212"/>
-      <c r="X16" s="212"/>
-      <c r="Y16" s="212"/>
-      <c r="Z16" s="212"/>
-      <c r="AA16" s="212"/>
-      <c r="AB16" s="212"/>
-      <c r="AC16" s="212"/>
-      <c r="AD16" s="212"/>
-      <c r="AE16" s="213"/>
-      <c r="AF16" s="208"/>
-      <c r="AG16" s="209"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="210"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="191"/>
+      <c r="O16" s="191"/>
+      <c r="P16" s="192"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="194"/>
+      <c r="S16" s="194"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="194"/>
+      <c r="AA16" s="194"/>
+      <c r="AB16" s="194"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="194"/>
+      <c r="AE16" s="195"/>
+      <c r="AF16" s="190"/>
+      <c r="AG16" s="191"/>
+      <c r="AH16" s="191"/>
+      <c r="AI16" s="192"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="115"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="206"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="203"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="209"/>
-      <c r="L17" s="209"/>
-      <c r="M17" s="209"/>
-      <c r="N17" s="209"/>
-      <c r="O17" s="209"/>
-      <c r="P17" s="210"/>
-      <c r="Q17" s="211"/>
-      <c r="R17" s="212"/>
-      <c r="S17" s="212"/>
-      <c r="T17" s="212"/>
-      <c r="U17" s="212"/>
-      <c r="V17" s="212"/>
-      <c r="W17" s="212"/>
-      <c r="X17" s="212"/>
-      <c r="Y17" s="212"/>
-      <c r="Z17" s="212"/>
-      <c r="AA17" s="212"/>
-      <c r="AB17" s="212"/>
-      <c r="AC17" s="212"/>
-      <c r="AD17" s="212"/>
-      <c r="AE17" s="213"/>
-      <c r="AF17" s="208"/>
-      <c r="AG17" s="209"/>
-      <c r="AH17" s="209"/>
-      <c r="AI17" s="210"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="194"/>
+      <c r="X17" s="194"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="194"/>
+      <c r="AA17" s="194"/>
+      <c r="AB17" s="194"/>
+      <c r="AC17" s="194"/>
+      <c r="AD17" s="194"/>
+      <c r="AE17" s="195"/>
+      <c r="AF17" s="190"/>
+      <c r="AG17" s="191"/>
+      <c r="AH17" s="191"/>
+      <c r="AI17" s="192"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="115"/>
-      <c r="B18" s="202"/>
-      <c r="C18" s="203"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="202"/>
-      <c r="H18" s="207"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="209"/>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
-      <c r="O18" s="209"/>
-      <c r="P18" s="210"/>
-      <c r="Q18" s="211"/>
-      <c r="R18" s="212"/>
-      <c r="S18" s="212"/>
-      <c r="T18" s="212"/>
-      <c r="U18" s="212"/>
-      <c r="V18" s="212"/>
-      <c r="W18" s="212"/>
-      <c r="X18" s="212"/>
-      <c r="Y18" s="212"/>
-      <c r="Z18" s="212"/>
-      <c r="AA18" s="212"/>
-      <c r="AB18" s="212"/>
-      <c r="AC18" s="212"/>
-      <c r="AD18" s="212"/>
-      <c r="AE18" s="213"/>
-      <c r="AF18" s="208"/>
-      <c r="AG18" s="209"/>
-      <c r="AH18" s="209"/>
-      <c r="AI18" s="210"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="191"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="195"/>
+      <c r="AF18" s="190"/>
+      <c r="AG18" s="191"/>
+      <c r="AH18" s="191"/>
+      <c r="AI18" s="192"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="115"/>
-      <c r="B19" s="202"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="206"/>
-      <c r="G19" s="202"/>
-      <c r="H19" s="207"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="208"/>
-      <c r="K19" s="209"/>
-      <c r="L19" s="209"/>
-      <c r="M19" s="209"/>
-      <c r="N19" s="209"/>
-      <c r="O19" s="209"/>
-      <c r="P19" s="210"/>
-      <c r="Q19" s="211"/>
-      <c r="R19" s="212"/>
-      <c r="S19" s="212"/>
-      <c r="T19" s="212"/>
-      <c r="U19" s="212"/>
-      <c r="V19" s="212"/>
-      <c r="W19" s="212"/>
-      <c r="X19" s="212"/>
-      <c r="Y19" s="212"/>
-      <c r="Z19" s="212"/>
-      <c r="AA19" s="212"/>
-      <c r="AB19" s="212"/>
-      <c r="AC19" s="212"/>
-      <c r="AD19" s="212"/>
-      <c r="AE19" s="213"/>
-      <c r="AF19" s="208"/>
-      <c r="AG19" s="209"/>
-      <c r="AH19" s="209"/>
-      <c r="AI19" s="210"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="191"/>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="192"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
+      <c r="V19" s="194"/>
+      <c r="W19" s="194"/>
+      <c r="X19" s="194"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="194"/>
+      <c r="AA19" s="194"/>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="194"/>
+      <c r="AD19" s="194"/>
+      <c r="AE19" s="195"/>
+      <c r="AF19" s="190"/>
+      <c r="AG19" s="191"/>
+      <c r="AH19" s="191"/>
+      <c r="AI19" s="192"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="115"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="202"/>
-      <c r="H20" s="207"/>
-      <c r="I20" s="203"/>
-      <c r="J20" s="208"/>
-      <c r="K20" s="209"/>
-      <c r="L20" s="209"/>
-      <c r="M20" s="209"/>
-      <c r="N20" s="209"/>
-      <c r="O20" s="209"/>
-      <c r="P20" s="210"/>
-      <c r="Q20" s="211"/>
-      <c r="R20" s="212"/>
-      <c r="S20" s="212"/>
-      <c r="T20" s="212"/>
-      <c r="U20" s="212"/>
-      <c r="V20" s="212"/>
-      <c r="W20" s="212"/>
-      <c r="X20" s="212"/>
-      <c r="Y20" s="212"/>
-      <c r="Z20" s="212"/>
-      <c r="AA20" s="212"/>
-      <c r="AB20" s="212"/>
-      <c r="AC20" s="212"/>
-      <c r="AD20" s="212"/>
-      <c r="AE20" s="213"/>
-      <c r="AF20" s="208"/>
-      <c r="AG20" s="209"/>
-      <c r="AH20" s="209"/>
-      <c r="AI20" s="210"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="192"/>
+      <c r="Q20" s="193"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="194"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="194"/>
+      <c r="X20" s="194"/>
+      <c r="Y20" s="194"/>
+      <c r="Z20" s="194"/>
+      <c r="AA20" s="194"/>
+      <c r="AB20" s="194"/>
+      <c r="AC20" s="194"/>
+      <c r="AD20" s="194"/>
+      <c r="AE20" s="195"/>
+      <c r="AF20" s="190"/>
+      <c r="AG20" s="191"/>
+      <c r="AH20" s="191"/>
+      <c r="AI20" s="192"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="115"/>
-      <c r="B21" s="202"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="202"/>
-      <c r="H21" s="207"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="208"/>
-      <c r="K21" s="209"/>
-      <c r="L21" s="209"/>
-      <c r="M21" s="209"/>
-      <c r="N21" s="209"/>
-      <c r="O21" s="209"/>
-      <c r="P21" s="210"/>
-      <c r="Q21" s="211"/>
-      <c r="R21" s="212"/>
-      <c r="S21" s="212"/>
-      <c r="T21" s="212"/>
-      <c r="U21" s="212"/>
-      <c r="V21" s="212"/>
-      <c r="W21" s="212"/>
-      <c r="X21" s="212"/>
-      <c r="Y21" s="212"/>
-      <c r="Z21" s="212"/>
-      <c r="AA21" s="212"/>
-      <c r="AB21" s="212"/>
-      <c r="AC21" s="212"/>
-      <c r="AD21" s="212"/>
-      <c r="AE21" s="213"/>
-      <c r="AF21" s="208"/>
-      <c r="AG21" s="209"/>
-      <c r="AH21" s="209"/>
-      <c r="AI21" s="210"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="192"/>
+      <c r="Q21" s="193"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="194"/>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="194"/>
+      <c r="Y21" s="194"/>
+      <c r="Z21" s="194"/>
+      <c r="AA21" s="194"/>
+      <c r="AB21" s="194"/>
+      <c r="AC21" s="194"/>
+      <c r="AD21" s="194"/>
+      <c r="AE21" s="195"/>
+      <c r="AF21" s="190"/>
+      <c r="AG21" s="191"/>
+      <c r="AH21" s="191"/>
+      <c r="AI21" s="192"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="115"/>
-      <c r="B22" s="202"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="208"/>
-      <c r="K22" s="209"/>
-      <c r="L22" s="209"/>
-      <c r="M22" s="209"/>
-      <c r="N22" s="209"/>
-      <c r="O22" s="209"/>
-      <c r="P22" s="210"/>
-      <c r="Q22" s="211"/>
-      <c r="R22" s="212"/>
-      <c r="S22" s="212"/>
-      <c r="T22" s="212"/>
-      <c r="U22" s="212"/>
-      <c r="V22" s="212"/>
-      <c r="W22" s="212"/>
-      <c r="X22" s="212"/>
-      <c r="Y22" s="212"/>
-      <c r="Z22" s="212"/>
-      <c r="AA22" s="212"/>
-      <c r="AB22" s="212"/>
-      <c r="AC22" s="212"/>
-      <c r="AD22" s="212"/>
-      <c r="AE22" s="213"/>
-      <c r="AF22" s="208"/>
-      <c r="AG22" s="209"/>
-      <c r="AH22" s="209"/>
-      <c r="AI22" s="210"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="192"/>
+      <c r="Q22" s="193"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="194"/>
+      <c r="T22" s="194"/>
+      <c r="U22" s="194"/>
+      <c r="V22" s="194"/>
+      <c r="W22" s="194"/>
+      <c r="X22" s="194"/>
+      <c r="Y22" s="194"/>
+      <c r="Z22" s="194"/>
+      <c r="AA22" s="194"/>
+      <c r="AB22" s="194"/>
+      <c r="AC22" s="194"/>
+      <c r="AD22" s="194"/>
+      <c r="AE22" s="195"/>
+      <c r="AF22" s="190"/>
+      <c r="AG22" s="191"/>
+      <c r="AH22" s="191"/>
+      <c r="AI22" s="192"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="115"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="206"/>
-      <c r="G23" s="202"/>
-      <c r="H23" s="207"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="208"/>
-      <c r="K23" s="209"/>
-      <c r="L23" s="209"/>
-      <c r="M23" s="209"/>
-      <c r="N23" s="209"/>
-      <c r="O23" s="209"/>
-      <c r="P23" s="210"/>
-      <c r="Q23" s="211"/>
-      <c r="R23" s="212"/>
-      <c r="S23" s="212"/>
-      <c r="T23" s="212"/>
-      <c r="U23" s="212"/>
-      <c r="V23" s="212"/>
-      <c r="W23" s="212"/>
-      <c r="X23" s="212"/>
-      <c r="Y23" s="212"/>
-      <c r="Z23" s="212"/>
-      <c r="AA23" s="212"/>
-      <c r="AB23" s="212"/>
-      <c r="AC23" s="212"/>
-      <c r="AD23" s="212"/>
-      <c r="AE23" s="213"/>
-      <c r="AF23" s="208"/>
-      <c r="AG23" s="209"/>
-      <c r="AH23" s="209"/>
-      <c r="AI23" s="210"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="193"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="194"/>
+      <c r="T23" s="194"/>
+      <c r="U23" s="194"/>
+      <c r="V23" s="194"/>
+      <c r="W23" s="194"/>
+      <c r="X23" s="194"/>
+      <c r="Y23" s="194"/>
+      <c r="Z23" s="194"/>
+      <c r="AA23" s="194"/>
+      <c r="AB23" s="194"/>
+      <c r="AC23" s="194"/>
+      <c r="AD23" s="194"/>
+      <c r="AE23" s="195"/>
+      <c r="AF23" s="190"/>
+      <c r="AG23" s="191"/>
+      <c r="AH23" s="191"/>
+      <c r="AI23" s="192"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="115"/>
-      <c r="B24" s="202"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="206"/>
-      <c r="G24" s="202"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="203"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="209"/>
-      <c r="L24" s="209"/>
-      <c r="M24" s="209"/>
-      <c r="N24" s="209"/>
-      <c r="O24" s="209"/>
-      <c r="P24" s="210"/>
-      <c r="Q24" s="211"/>
-      <c r="R24" s="212"/>
-      <c r="S24" s="212"/>
-      <c r="T24" s="212"/>
-      <c r="U24" s="212"/>
-      <c r="V24" s="212"/>
-      <c r="W24" s="212"/>
-      <c r="X24" s="212"/>
-      <c r="Y24" s="212"/>
-      <c r="Z24" s="212"/>
-      <c r="AA24" s="212"/>
-      <c r="AB24" s="212"/>
-      <c r="AC24" s="212"/>
-      <c r="AD24" s="212"/>
-      <c r="AE24" s="213"/>
-      <c r="AF24" s="208"/>
-      <c r="AG24" s="209"/>
-      <c r="AH24" s="209"/>
-      <c r="AI24" s="210"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
+      <c r="P24" s="192"/>
+      <c r="Q24" s="193"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="194"/>
+      <c r="U24" s="194"/>
+      <c r="V24" s="194"/>
+      <c r="W24" s="194"/>
+      <c r="X24" s="194"/>
+      <c r="Y24" s="194"/>
+      <c r="Z24" s="194"/>
+      <c r="AA24" s="194"/>
+      <c r="AB24" s="194"/>
+      <c r="AC24" s="194"/>
+      <c r="AD24" s="194"/>
+      <c r="AE24" s="195"/>
+      <c r="AF24" s="190"/>
+      <c r="AG24" s="191"/>
+      <c r="AH24" s="191"/>
+      <c r="AI24" s="192"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="115"/>
-      <c r="B25" s="202"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="207"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="208"/>
-      <c r="K25" s="209"/>
-      <c r="L25" s="209"/>
-      <c r="M25" s="209"/>
-      <c r="N25" s="209"/>
-      <c r="O25" s="209"/>
-      <c r="P25" s="210"/>
-      <c r="Q25" s="211"/>
-      <c r="R25" s="212"/>
-      <c r="S25" s="212"/>
-      <c r="T25" s="212"/>
-      <c r="U25" s="212"/>
-      <c r="V25" s="212"/>
-      <c r="W25" s="212"/>
-      <c r="X25" s="212"/>
-      <c r="Y25" s="212"/>
-      <c r="Z25" s="212"/>
-      <c r="AA25" s="212"/>
-      <c r="AB25" s="212"/>
-      <c r="AC25" s="212"/>
-      <c r="AD25" s="212"/>
-      <c r="AE25" s="213"/>
-      <c r="AF25" s="208"/>
-      <c r="AG25" s="209"/>
-      <c r="AH25" s="209"/>
-      <c r="AI25" s="210"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="192"/>
+      <c r="Q25" s="193"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="194"/>
+      <c r="V25" s="194"/>
+      <c r="W25" s="194"/>
+      <c r="X25" s="194"/>
+      <c r="Y25" s="194"/>
+      <c r="Z25" s="194"/>
+      <c r="AA25" s="194"/>
+      <c r="AB25" s="194"/>
+      <c r="AC25" s="194"/>
+      <c r="AD25" s="194"/>
+      <c r="AE25" s="195"/>
+      <c r="AF25" s="190"/>
+      <c r="AG25" s="191"/>
+      <c r="AH25" s="191"/>
+      <c r="AI25" s="192"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="115"/>
-      <c r="B26" s="202"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="206"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="207"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="208"/>
-      <c r="K26" s="209"/>
-      <c r="L26" s="209"/>
-      <c r="M26" s="209"/>
-      <c r="N26" s="209"/>
-      <c r="O26" s="209"/>
-      <c r="P26" s="210"/>
-      <c r="Q26" s="211"/>
-      <c r="R26" s="212"/>
-      <c r="S26" s="212"/>
-      <c r="T26" s="212"/>
-      <c r="U26" s="212"/>
-      <c r="V26" s="212"/>
-      <c r="W26" s="212"/>
-      <c r="X26" s="212"/>
-      <c r="Y26" s="212"/>
-      <c r="Z26" s="212"/>
-      <c r="AA26" s="212"/>
-      <c r="AB26" s="212"/>
-      <c r="AC26" s="212"/>
-      <c r="AD26" s="212"/>
-      <c r="AE26" s="213"/>
-      <c r="AF26" s="208"/>
-      <c r="AG26" s="209"/>
-      <c r="AH26" s="209"/>
-      <c r="AI26" s="210"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="191"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="192"/>
+      <c r="Q26" s="193"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="194"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="194"/>
+      <c r="Y26" s="194"/>
+      <c r="Z26" s="194"/>
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="194"/>
+      <c r="AC26" s="194"/>
+      <c r="AD26" s="194"/>
+      <c r="AE26" s="195"/>
+      <c r="AF26" s="190"/>
+      <c r="AG26" s="191"/>
+      <c r="AH26" s="191"/>
+      <c r="AI26" s="192"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="115"/>
-      <c r="B27" s="202"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="206"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="203"/>
-      <c r="J27" s="208"/>
-      <c r="K27" s="209"/>
-      <c r="L27" s="209"/>
-      <c r="M27" s="209"/>
-      <c r="N27" s="209"/>
-      <c r="O27" s="209"/>
-      <c r="P27" s="210"/>
-      <c r="Q27" s="211"/>
-      <c r="R27" s="212"/>
-      <c r="S27" s="212"/>
-      <c r="T27" s="212"/>
-      <c r="U27" s="212"/>
-      <c r="V27" s="212"/>
-      <c r="W27" s="212"/>
-      <c r="X27" s="212"/>
-      <c r="Y27" s="212"/>
-      <c r="Z27" s="212"/>
-      <c r="AA27" s="212"/>
-      <c r="AB27" s="212"/>
-      <c r="AC27" s="212"/>
-      <c r="AD27" s="212"/>
-      <c r="AE27" s="213"/>
-      <c r="AF27" s="208"/>
-      <c r="AG27" s="209"/>
-      <c r="AH27" s="209"/>
-      <c r="AI27" s="210"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="191"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="192"/>
+      <c r="Q27" s="193"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="194"/>
+      <c r="W27" s="194"/>
+      <c r="X27" s="194"/>
+      <c r="Y27" s="194"/>
+      <c r="Z27" s="194"/>
+      <c r="AA27" s="194"/>
+      <c r="AB27" s="194"/>
+      <c r="AC27" s="194"/>
+      <c r="AD27" s="194"/>
+      <c r="AE27" s="195"/>
+      <c r="AF27" s="190"/>
+      <c r="AG27" s="191"/>
+      <c r="AH27" s="191"/>
+      <c r="AI27" s="192"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="115"/>
-      <c r="B28" s="202"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="206"/>
-      <c r="G28" s="202"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="203"/>
-      <c r="J28" s="208"/>
-      <c r="K28" s="209"/>
-      <c r="L28" s="209"/>
-      <c r="M28" s="209"/>
-      <c r="N28" s="209"/>
-      <c r="O28" s="209"/>
-      <c r="P28" s="210"/>
-      <c r="Q28" s="211"/>
-      <c r="R28" s="212"/>
-      <c r="S28" s="212"/>
-      <c r="T28" s="212"/>
-      <c r="U28" s="212"/>
-      <c r="V28" s="212"/>
-      <c r="W28" s="212"/>
-      <c r="X28" s="212"/>
-      <c r="Y28" s="212"/>
-      <c r="Z28" s="212"/>
-      <c r="AA28" s="212"/>
-      <c r="AB28" s="212"/>
-      <c r="AC28" s="212"/>
-      <c r="AD28" s="212"/>
-      <c r="AE28" s="213"/>
-      <c r="AF28" s="208"/>
-      <c r="AG28" s="209"/>
-      <c r="AH28" s="209"/>
-      <c r="AI28" s="210"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="191"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="191"/>
+      <c r="O28" s="191"/>
+      <c r="P28" s="192"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
+      <c r="S28" s="194"/>
+      <c r="T28" s="194"/>
+      <c r="U28" s="194"/>
+      <c r="V28" s="194"/>
+      <c r="W28" s="194"/>
+      <c r="X28" s="194"/>
+      <c r="Y28" s="194"/>
+      <c r="Z28" s="194"/>
+      <c r="AA28" s="194"/>
+      <c r="AB28" s="194"/>
+      <c r="AC28" s="194"/>
+      <c r="AD28" s="194"/>
+      <c r="AE28" s="195"/>
+      <c r="AF28" s="190"/>
+      <c r="AG28" s="191"/>
+      <c r="AH28" s="191"/>
+      <c r="AI28" s="192"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="115"/>
-      <c r="B29" s="202"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="205"/>
-      <c r="F29" s="206"/>
-      <c r="G29" s="202"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="203"/>
-      <c r="J29" s="208"/>
-      <c r="K29" s="209"/>
-      <c r="L29" s="209"/>
-      <c r="M29" s="209"/>
-      <c r="N29" s="209"/>
-      <c r="O29" s="209"/>
-      <c r="P29" s="210"/>
-      <c r="Q29" s="211"/>
-      <c r="R29" s="212"/>
-      <c r="S29" s="212"/>
-      <c r="T29" s="212"/>
-      <c r="U29" s="212"/>
-      <c r="V29" s="212"/>
-      <c r="W29" s="212"/>
-      <c r="X29" s="212"/>
-      <c r="Y29" s="212"/>
-      <c r="Z29" s="212"/>
-      <c r="AA29" s="212"/>
-      <c r="AB29" s="212"/>
-      <c r="AC29" s="212"/>
-      <c r="AD29" s="212"/>
-      <c r="AE29" s="213"/>
-      <c r="AF29" s="208"/>
-      <c r="AG29" s="209"/>
-      <c r="AH29" s="209"/>
-      <c r="AI29" s="210"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="191"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="192"/>
+      <c r="Q29" s="193"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="194"/>
+      <c r="T29" s="194"/>
+      <c r="U29" s="194"/>
+      <c r="V29" s="194"/>
+      <c r="W29" s="194"/>
+      <c r="X29" s="194"/>
+      <c r="Y29" s="194"/>
+      <c r="Z29" s="194"/>
+      <c r="AA29" s="194"/>
+      <c r="AB29" s="194"/>
+      <c r="AC29" s="194"/>
+      <c r="AD29" s="194"/>
+      <c r="AE29" s="195"/>
+      <c r="AF29" s="190"/>
+      <c r="AG29" s="191"/>
+      <c r="AH29" s="191"/>
+      <c r="AI29" s="192"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="115"/>
-      <c r="B30" s="202"/>
-      <c r="C30" s="203"/>
-      <c r="D30" s="204"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="206"/>
-      <c r="G30" s="202"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="203"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="209"/>
-      <c r="L30" s="209"/>
-      <c r="M30" s="209"/>
-      <c r="N30" s="209"/>
-      <c r="O30" s="209"/>
-      <c r="P30" s="210"/>
-      <c r="Q30" s="211"/>
-      <c r="R30" s="212"/>
-      <c r="S30" s="212"/>
-      <c r="T30" s="212"/>
-      <c r="U30" s="212"/>
-      <c r="V30" s="212"/>
-      <c r="W30" s="212"/>
-      <c r="X30" s="212"/>
-      <c r="Y30" s="212"/>
-      <c r="Z30" s="212"/>
-      <c r="AA30" s="212"/>
-      <c r="AB30" s="212"/>
-      <c r="AC30" s="212"/>
-      <c r="AD30" s="212"/>
-      <c r="AE30" s="213"/>
-      <c r="AF30" s="208"/>
-      <c r="AG30" s="209"/>
-      <c r="AH30" s="209"/>
-      <c r="AI30" s="210"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="192"/>
+      <c r="Q30" s="193"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="194"/>
+      <c r="U30" s="194"/>
+      <c r="V30" s="194"/>
+      <c r="W30" s="194"/>
+      <c r="X30" s="194"/>
+      <c r="Y30" s="194"/>
+      <c r="Z30" s="194"/>
+      <c r="AA30" s="194"/>
+      <c r="AB30" s="194"/>
+      <c r="AC30" s="194"/>
+      <c r="AD30" s="194"/>
+      <c r="AE30" s="195"/>
+      <c r="AF30" s="190"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="192"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="115"/>
-      <c r="B31" s="202"/>
-      <c r="C31" s="203"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="207"/>
-      <c r="I31" s="203"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="209"/>
-      <c r="L31" s="209"/>
-      <c r="M31" s="209"/>
-      <c r="N31" s="209"/>
-      <c r="O31" s="209"/>
-      <c r="P31" s="210"/>
-      <c r="Q31" s="211"/>
-      <c r="R31" s="212"/>
-      <c r="S31" s="212"/>
-      <c r="T31" s="212"/>
-      <c r="U31" s="212"/>
-      <c r="V31" s="212"/>
-      <c r="W31" s="212"/>
-      <c r="X31" s="212"/>
-      <c r="Y31" s="212"/>
-      <c r="Z31" s="212"/>
-      <c r="AA31" s="212"/>
-      <c r="AB31" s="212"/>
-      <c r="AC31" s="212"/>
-      <c r="AD31" s="212"/>
-      <c r="AE31" s="213"/>
-      <c r="AF31" s="208"/>
-      <c r="AG31" s="209"/>
-      <c r="AH31" s="209"/>
-      <c r="AI31" s="210"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="191"/>
+      <c r="L31" s="191"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="191"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="192"/>
+      <c r="Q31" s="193"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="194"/>
+      <c r="T31" s="194"/>
+      <c r="U31" s="194"/>
+      <c r="V31" s="194"/>
+      <c r="W31" s="194"/>
+      <c r="X31" s="194"/>
+      <c r="Y31" s="194"/>
+      <c r="Z31" s="194"/>
+      <c r="AA31" s="194"/>
+      <c r="AB31" s="194"/>
+      <c r="AC31" s="194"/>
+      <c r="AD31" s="194"/>
+      <c r="AE31" s="195"/>
+      <c r="AF31" s="190"/>
+      <c r="AG31" s="191"/>
+      <c r="AH31" s="191"/>
+      <c r="AI31" s="192"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="115"/>
-      <c r="B32" s="202"/>
-      <c r="C32" s="203"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="206"/>
-      <c r="G32" s="202"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="203"/>
-      <c r="J32" s="208"/>
-      <c r="K32" s="231"/>
-      <c r="L32" s="209"/>
-      <c r="M32" s="209"/>
-      <c r="N32" s="209"/>
-      <c r="O32" s="209"/>
-      <c r="P32" s="210"/>
-      <c r="Q32" s="211"/>
-      <c r="R32" s="212"/>
-      <c r="S32" s="212"/>
-      <c r="T32" s="212"/>
-      <c r="U32" s="212"/>
-      <c r="V32" s="212"/>
-      <c r="W32" s="212"/>
-      <c r="X32" s="212"/>
-      <c r="Y32" s="212"/>
-      <c r="Z32" s="212"/>
-      <c r="AA32" s="212"/>
-      <c r="AB32" s="212"/>
-      <c r="AC32" s="212"/>
-      <c r="AD32" s="212"/>
-      <c r="AE32" s="213"/>
-      <c r="AF32" s="208"/>
-      <c r="AG32" s="209"/>
-      <c r="AH32" s="209"/>
-      <c r="AI32" s="210"/>
+      <c r="B32" s="184"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="191"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="192"/>
+      <c r="Q32" s="193"/>
+      <c r="R32" s="194"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="194"/>
+      <c r="U32" s="194"/>
+      <c r="V32" s="194"/>
+      <c r="W32" s="194"/>
+      <c r="X32" s="194"/>
+      <c r="Y32" s="194"/>
+      <c r="Z32" s="194"/>
+      <c r="AA32" s="194"/>
+      <c r="AB32" s="194"/>
+      <c r="AC32" s="194"/>
+      <c r="AD32" s="194"/>
+      <c r="AE32" s="195"/>
+      <c r="AF32" s="190"/>
+      <c r="AG32" s="191"/>
+      <c r="AH32" s="191"/>
+      <c r="AI32" s="192"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="115"/>
-      <c r="B33" s="202"/>
-      <c r="C33" s="203"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="205"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="207"/>
-      <c r="I33" s="203"/>
-      <c r="J33" s="208"/>
-      <c r="K33" s="209"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="209"/>
-      <c r="N33" s="209"/>
-      <c r="O33" s="209"/>
-      <c r="P33" s="210"/>
-      <c r="Q33" s="211"/>
-      <c r="R33" s="212"/>
-      <c r="S33" s="212"/>
-      <c r="T33" s="212"/>
-      <c r="U33" s="212"/>
-      <c r="V33" s="212"/>
-      <c r="W33" s="212"/>
-      <c r="X33" s="212"/>
-      <c r="Y33" s="212"/>
-      <c r="Z33" s="212"/>
-      <c r="AA33" s="212"/>
-      <c r="AB33" s="212"/>
-      <c r="AC33" s="212"/>
-      <c r="AD33" s="212"/>
-      <c r="AE33" s="213"/>
-      <c r="AF33" s="208"/>
-      <c r="AG33" s="209"/>
-      <c r="AH33" s="209"/>
-      <c r="AI33" s="210"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="191"/>
+      <c r="P33" s="192"/>
+      <c r="Q33" s="193"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="194"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="194"/>
+      <c r="V33" s="194"/>
+      <c r="W33" s="194"/>
+      <c r="X33" s="194"/>
+      <c r="Y33" s="194"/>
+      <c r="Z33" s="194"/>
+      <c r="AA33" s="194"/>
+      <c r="AB33" s="194"/>
+      <c r="AC33" s="194"/>
+      <c r="AD33" s="194"/>
+      <c r="AE33" s="195"/>
+      <c r="AF33" s="190"/>
+      <c r="AG33" s="191"/>
+      <c r="AH33" s="191"/>
+      <c r="AI33" s="192"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8544,6 +8392,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8700,157 +8704,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="235" t="s">
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="248" t="str">
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="250"/>
-      <c r="AA1" s="232" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="264" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="234"/>
-      <c r="AC1" s="165" t="str">
+      <c r="AB1" s="266"/>
+      <c r="AC1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="245">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="246"/>
-      <c r="AI1" s="247"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="265"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="252"/>
-      <c r="Z2" s="253"/>
-      <c r="AA2" s="232" t="s">
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="272"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="264" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="234"/>
-      <c r="AC2" s="165" t="str">
+      <c r="AB2" s="266"/>
+      <c r="AC2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="245">
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="246"/>
-      <c r="AI2" s="247"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="241"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="255"/>
-      <c r="W3" s="255"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="255"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="232"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="165" t="str">
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="274"/>
+      <c r="Q3" s="274"/>
+      <c r="R3" s="275"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="264"/>
+      <c r="AB3" s="266"/>
+      <c r="AC3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="245" t="str">
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="246"/>
-      <c r="AI3" s="247"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42"/>
@@ -10317,6 +10321,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -10326,14 +10338,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10362,157 +10366,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="184" t="s">
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="233" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="248" t="str">
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="250"/>
-      <c r="AA1" s="181" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="165" t="str">
+      <c r="AB1" s="232"/>
+      <c r="AC1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="258">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="259"/>
-      <c r="AI1" s="260"/>
+      <c r="AH1" s="287"/>
+      <c r="AI1" s="288"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="252"/>
-      <c r="Z2" s="253"/>
-      <c r="AA2" s="181" t="s">
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="165" t="str">
+      <c r="AB2" s="232"/>
+      <c r="AC2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="258">
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="259"/>
-      <c r="AI2" s="260"/>
+      <c r="AH2" s="287"/>
+      <c r="AI2" s="288"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="255"/>
-      <c r="W3" s="255"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="255"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="165" t="str">
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="230"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="258" t="str">
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="286" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="259"/>
-      <c r="AI3" s="260"/>
+      <c r="AH3" s="287"/>
+      <c r="AI3" s="288"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -10668,92 +10672,92 @@
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="263" t="s">
+      <c r="D8" s="279" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="265"/>
-      <c r="H8" s="261" t="s">
+      <c r="E8" s="280"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="281"/>
+      <c r="H8" s="289" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="262"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="262"/>
-      <c r="L8" s="262"/>
-      <c r="M8" s="262"/>
-      <c r="N8" s="262"/>
-      <c r="O8" s="262"/>
-      <c r="P8" s="262"/>
-      <c r="Q8" s="262"/>
-      <c r="R8" s="262"/>
-      <c r="S8" s="262"/>
-      <c r="T8" s="262"/>
-      <c r="U8" s="262"/>
-      <c r="V8" s="262"/>
-      <c r="W8" s="262"/>
-      <c r="X8" s="262"/>
-      <c r="Y8" s="262"/>
-      <c r="Z8" s="262"/>
-      <c r="AA8" s="262"/>
-      <c r="AB8" s="262"/>
-      <c r="AC8" s="262"/>
-      <c r="AD8" s="262"/>
-      <c r="AE8" s="262"/>
-      <c r="AF8" s="262"/>
-      <c r="AG8" s="262"/>
-      <c r="AH8" s="262"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="290"/>
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="290"/>
+      <c r="R8" s="290"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="290"/>
+      <c r="V8" s="290"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="290"/>
+      <c r="Y8" s="290"/>
+      <c r="Z8" s="290"/>
+      <c r="AA8" s="290"/>
+      <c r="AB8" s="290"/>
+      <c r="AC8" s="290"/>
+      <c r="AD8" s="290"/>
+      <c r="AE8" s="290"/>
+      <c r="AF8" s="290"/>
+      <c r="AG8" s="290"/>
+      <c r="AH8" s="290"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="263" t="s">
+      <c r="D9" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="257" t="s">
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="281"/>
+      <c r="H9" s="285" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="257"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="257"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="257"/>
-      <c r="P9" s="257"/>
-      <c r="Q9" s="257"/>
-      <c r="R9" s="257"/>
-      <c r="S9" s="257"/>
-      <c r="T9" s="257"/>
-      <c r="U9" s="257"/>
-      <c r="V9" s="257"/>
-      <c r="W9" s="257"/>
-      <c r="X9" s="257"/>
-      <c r="Y9" s="257"/>
-      <c r="Z9" s="257"/>
-      <c r="AA9" s="257"/>
-      <c r="AB9" s="257"/>
-      <c r="AC9" s="257"/>
-      <c r="AD9" s="257"/>
-      <c r="AE9" s="257"/>
-      <c r="AF9" s="257"/>
-      <c r="AG9" s="257"/>
-      <c r="AH9" s="257"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="285"/>
+      <c r="K9" s="285"/>
+      <c r="L9" s="285"/>
+      <c r="M9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="285"/>
+      <c r="Q9" s="285"/>
+      <c r="R9" s="285"/>
+      <c r="S9" s="285"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="285"/>
+      <c r="V9" s="285"/>
+      <c r="W9" s="285"/>
+      <c r="X9" s="285"/>
+      <c r="Y9" s="285"/>
+      <c r="Z9" s="285"/>
+      <c r="AA9" s="285"/>
+      <c r="AB9" s="285"/>
+      <c r="AC9" s="285"/>
+      <c r="AD9" s="285"/>
+      <c r="AE9" s="285"/>
+      <c r="AF9" s="285"/>
+      <c r="AG9" s="285"/>
+      <c r="AH9" s="285"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="266" t="s">
+      <c r="D10" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="267"/>
-      <c r="F10" s="267"/>
-      <c r="G10" s="268"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
+      <c r="G10" s="278"/>
       <c r="H10" s="100" t="s">
         <v>75</v>
       </c>
@@ -10788,172 +10792,172 @@
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="263" t="s">
+      <c r="D11" s="279" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="264"/>
-      <c r="F11" s="264"/>
-      <c r="G11" s="265"/>
-      <c r="H11" s="261" t="s">
+      <c r="E11" s="280"/>
+      <c r="F11" s="280"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="289" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="262"/>
-      <c r="J11" s="262"/>
-      <c r="K11" s="262"/>
-      <c r="L11" s="262"/>
-      <c r="M11" s="262"/>
-      <c r="N11" s="262"/>
-      <c r="O11" s="262"/>
-      <c r="P11" s="262"/>
-      <c r="Q11" s="262"/>
-      <c r="R11" s="262"/>
-      <c r="S11" s="262"/>
-      <c r="T11" s="262"/>
-      <c r="U11" s="262"/>
-      <c r="V11" s="262"/>
-      <c r="W11" s="262"/>
-      <c r="X11" s="262"/>
-      <c r="Y11" s="262"/>
-      <c r="Z11" s="262"/>
-      <c r="AA11" s="262"/>
-      <c r="AB11" s="262"/>
-      <c r="AC11" s="262"/>
-      <c r="AD11" s="262"/>
-      <c r="AE11" s="262"/>
-      <c r="AF11" s="262"/>
-      <c r="AG11" s="262"/>
-      <c r="AH11" s="262"/>
+      <c r="I11" s="290"/>
+      <c r="J11" s="290"/>
+      <c r="K11" s="290"/>
+      <c r="L11" s="290"/>
+      <c r="M11" s="290"/>
+      <c r="N11" s="290"/>
+      <c r="O11" s="290"/>
+      <c r="P11" s="290"/>
+      <c r="Q11" s="290"/>
+      <c r="R11" s="290"/>
+      <c r="S11" s="290"/>
+      <c r="T11" s="290"/>
+      <c r="U11" s="290"/>
+      <c r="V11" s="290"/>
+      <c r="W11" s="290"/>
+      <c r="X11" s="290"/>
+      <c r="Y11" s="290"/>
+      <c r="Z11" s="290"/>
+      <c r="AA11" s="290"/>
+      <c r="AB11" s="290"/>
+      <c r="AC11" s="290"/>
+      <c r="AD11" s="290"/>
+      <c r="AE11" s="290"/>
+      <c r="AF11" s="290"/>
+      <c r="AG11" s="290"/>
+      <c r="AH11" s="290"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="263" t="s">
+      <c r="D12" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="264"/>
-      <c r="F12" s="264"/>
-      <c r="G12" s="265"/>
-      <c r="H12" s="257" t="s">
+      <c r="E12" s="280"/>
+      <c r="F12" s="280"/>
+      <c r="G12" s="281"/>
+      <c r="H12" s="285" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="257"/>
-      <c r="J12" s="257"/>
-      <c r="K12" s="257"/>
-      <c r="L12" s="257"/>
-      <c r="M12" s="257"/>
-      <c r="N12" s="257"/>
-      <c r="O12" s="257"/>
-      <c r="P12" s="257"/>
-      <c r="Q12" s="257"/>
-      <c r="R12" s="257"/>
-      <c r="S12" s="257"/>
-      <c r="T12" s="257"/>
-      <c r="U12" s="257"/>
-      <c r="V12" s="257"/>
-      <c r="W12" s="257"/>
-      <c r="X12" s="257"/>
-      <c r="Y12" s="257"/>
-      <c r="Z12" s="257"/>
-      <c r="AA12" s="257"/>
-      <c r="AB12" s="257"/>
-      <c r="AC12" s="257"/>
-      <c r="AD12" s="257"/>
-      <c r="AE12" s="257"/>
-      <c r="AF12" s="257"/>
-      <c r="AG12" s="257"/>
-      <c r="AH12" s="257"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
+      <c r="K12" s="285"/>
+      <c r="L12" s="285"/>
+      <c r="M12" s="285"/>
+      <c r="N12" s="285"/>
+      <c r="O12" s="285"/>
+      <c r="P12" s="285"/>
+      <c r="Q12" s="285"/>
+      <c r="R12" s="285"/>
+      <c r="S12" s="285"/>
+      <c r="T12" s="285"/>
+      <c r="U12" s="285"/>
+      <c r="V12" s="285"/>
+      <c r="W12" s="285"/>
+      <c r="X12" s="285"/>
+      <c r="Y12" s="285"/>
+      <c r="Z12" s="285"/>
+      <c r="AA12" s="285"/>
+      <c r="AB12" s="285"/>
+      <c r="AC12" s="285"/>
+      <c r="AD12" s="285"/>
+      <c r="AE12" s="285"/>
+      <c r="AF12" s="285"/>
+      <c r="AG12" s="285"/>
+      <c r="AH12" s="285"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="263" t="s">
+      <c r="D13" s="279" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="264"/>
-      <c r="F13" s="264"/>
-      <c r="G13" s="265"/>
-      <c r="H13" s="257" t="s">
+      <c r="E13" s="280"/>
+      <c r="F13" s="280"/>
+      <c r="G13" s="281"/>
+      <c r="H13" s="285" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="257"/>
-      <c r="J13" s="257"/>
-      <c r="K13" s="257"/>
-      <c r="L13" s="257"/>
-      <c r="M13" s="257"/>
-      <c r="N13" s="257"/>
-      <c r="O13" s="257"/>
-      <c r="P13" s="257"/>
-      <c r="Q13" s="257"/>
-      <c r="R13" s="257"/>
-      <c r="S13" s="257"/>
-      <c r="T13" s="257"/>
-      <c r="U13" s="257"/>
-      <c r="V13" s="257"/>
-      <c r="W13" s="257"/>
-      <c r="X13" s="257"/>
-      <c r="Y13" s="257"/>
-      <c r="Z13" s="257"/>
-      <c r="AA13" s="257"/>
-      <c r="AB13" s="257"/>
-      <c r="AC13" s="257"/>
-      <c r="AD13" s="257"/>
-      <c r="AE13" s="257"/>
-      <c r="AF13" s="257"/>
-      <c r="AG13" s="257"/>
-      <c r="AH13" s="257"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="285"/>
+      <c r="M13" s="285"/>
+      <c r="N13" s="285"/>
+      <c r="O13" s="285"/>
+      <c r="P13" s="285"/>
+      <c r="Q13" s="285"/>
+      <c r="R13" s="285"/>
+      <c r="S13" s="285"/>
+      <c r="T13" s="285"/>
+      <c r="U13" s="285"/>
+      <c r="V13" s="285"/>
+      <c r="W13" s="285"/>
+      <c r="X13" s="285"/>
+      <c r="Y13" s="285"/>
+      <c r="Z13" s="285"/>
+      <c r="AA13" s="285"/>
+      <c r="AB13" s="285"/>
+      <c r="AC13" s="285"/>
+      <c r="AD13" s="285"/>
+      <c r="AE13" s="285"/>
+      <c r="AF13" s="285"/>
+      <c r="AG13" s="285"/>
+      <c r="AH13" s="285"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="263" t="s">
+      <c r="D14" s="279" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="264"/>
-      <c r="F14" s="264"/>
-      <c r="G14" s="265"/>
-      <c r="H14" s="257" t="s">
+      <c r="E14" s="280"/>
+      <c r="F14" s="280"/>
+      <c r="G14" s="281"/>
+      <c r="H14" s="285" t="s">
         <v>94</v>
       </c>
-      <c r="I14" s="257"/>
-      <c r="J14" s="257"/>
-      <c r="K14" s="257"/>
-      <c r="L14" s="257"/>
-      <c r="M14" s="257"/>
-      <c r="N14" s="257"/>
-      <c r="O14" s="257"/>
-      <c r="P14" s="257"/>
-      <c r="Q14" s="257"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="257"/>
-      <c r="T14" s="257"/>
-      <c r="U14" s="257"/>
-      <c r="V14" s="257"/>
-      <c r="W14" s="257"/>
-      <c r="X14" s="257"/>
-      <c r="Y14" s="257"/>
-      <c r="Z14" s="257"/>
-      <c r="AA14" s="257"/>
-      <c r="AB14" s="257"/>
-      <c r="AC14" s="257"/>
-      <c r="AD14" s="257"/>
-      <c r="AE14" s="257"/>
-      <c r="AF14" s="257"/>
-      <c r="AG14" s="257"/>
-      <c r="AH14" s="257"/>
+      <c r="I14" s="285"/>
+      <c r="J14" s="285"/>
+      <c r="K14" s="285"/>
+      <c r="L14" s="285"/>
+      <c r="M14" s="285"/>
+      <c r="N14" s="285"/>
+      <c r="O14" s="285"/>
+      <c r="P14" s="285"/>
+      <c r="Q14" s="285"/>
+      <c r="R14" s="285"/>
+      <c r="S14" s="285"/>
+      <c r="T14" s="285"/>
+      <c r="U14" s="285"/>
+      <c r="V14" s="285"/>
+      <c r="W14" s="285"/>
+      <c r="X14" s="285"/>
+      <c r="Y14" s="285"/>
+      <c r="Z14" s="285"/>
+      <c r="AA14" s="285"/>
+      <c r="AB14" s="285"/>
+      <c r="AC14" s="285"/>
+      <c r="AD14" s="285"/>
+      <c r="AE14" s="285"/>
+      <c r="AF14" s="285"/>
+      <c r="AG14" s="285"/>
+      <c r="AH14" s="285"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="263" t="s">
+      <c r="D15" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="264"/>
-      <c r="F15" s="264"/>
-      <c r="G15" s="265"/>
+      <c r="E15" s="280"/>
+      <c r="F15" s="280"/>
+      <c r="G15" s="281"/>
       <c r="H15" s="128" t="s">
         <v>97</v>
       </c>
@@ -11105,30 +11109,30 @@
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="271"/>
-      <c r="J19" s="271"/>
-      <c r="K19" s="271"/>
-      <c r="L19" s="271"/>
-      <c r="M19" s="271"/>
-      <c r="N19" s="271"/>
-      <c r="O19" s="269"/>
-      <c r="P19" s="270"/>
-      <c r="Q19" s="270"/>
-      <c r="R19" s="270"/>
-      <c r="S19" s="270"/>
-      <c r="T19" s="270"/>
-      <c r="U19" s="270"/>
-      <c r="V19" s="270"/>
-      <c r="W19" s="270"/>
-      <c r="X19" s="270"/>
-      <c r="Y19" s="270"/>
-      <c r="Z19" s="270"/>
-      <c r="AA19" s="270"/>
-      <c r="AB19" s="270"/>
-      <c r="AC19" s="270"/>
-      <c r="AD19" s="270"/>
+      <c r="G19" s="284"/>
+      <c r="H19" s="284"/>
+      <c r="I19" s="284"/>
+      <c r="J19" s="284"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="284"/>
+      <c r="N19" s="284"/>
+      <c r="O19" s="282"/>
+      <c r="P19" s="283"/>
+      <c r="Q19" s="283"/>
+      <c r="R19" s="283"/>
+      <c r="S19" s="283"/>
+      <c r="T19" s="283"/>
+      <c r="U19" s="283"/>
+      <c r="V19" s="283"/>
+      <c r="W19" s="283"/>
+      <c r="X19" s="283"/>
+      <c r="Y19" s="283"/>
+      <c r="Z19" s="283"/>
+      <c r="AA19" s="283"/>
+      <c r="AB19" s="283"/>
+      <c r="AC19" s="283"/>
+      <c r="AD19" s="283"/>
       <c r="AE19" s="31"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11580,15 +11584,14 @@
     <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11605,14 +11608,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11641,157 +11645,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="184" t="s">
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="233" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="248" t="str">
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="250"/>
-      <c r="AA1" s="181" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="165" t="str">
+      <c r="AB1" s="232"/>
+      <c r="AC1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="258">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="259"/>
-      <c r="AI1" s="260"/>
+      <c r="AH1" s="287"/>
+      <c r="AI1" s="288"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="252"/>
-      <c r="Z2" s="253"/>
-      <c r="AA2" s="181" t="s">
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="165" t="str">
+      <c r="AB2" s="232"/>
+      <c r="AC2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="258">
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="259"/>
-      <c r="AI2" s="260"/>
+      <c r="AH2" s="287"/>
+      <c r="AI2" s="288"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="255"/>
-      <c r="W3" s="255"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="255"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="165" t="str">
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="230"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="258" t="str">
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="286" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="259"/>
-      <c r="AI3" s="260"/>
+      <c r="AH3" s="287"/>
+      <c r="AI3" s="288"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11802,12 +11806,6 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11819,6 +11817,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11848,163 +11852,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="181" t="s">
+      <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="177"/>
-      <c r="O1" s="184" t="s">
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="233" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="248" t="str">
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="249"/>
-      <c r="U1" s="249"/>
-      <c r="V1" s="249"/>
-      <c r="W1" s="249"/>
-      <c r="X1" s="249"/>
-      <c r="Y1" s="249"/>
-      <c r="Z1" s="250"/>
-      <c r="AA1" s="181" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="165" t="str">
+      <c r="AB1" s="232"/>
+      <c r="AC1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="258">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="259"/>
-      <c r="AI1" s="260"/>
+      <c r="AH1" s="287"/>
+      <c r="AI1" s="288"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="177"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="252"/>
-      <c r="U2" s="252"/>
-      <c r="V2" s="252"/>
-      <c r="W2" s="252"/>
-      <c r="X2" s="252"/>
-      <c r="Y2" s="252"/>
-      <c r="Z2" s="253"/>
-      <c r="AA2" s="181" t="s">
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="165" t="str">
+      <c r="AB2" s="232"/>
+      <c r="AC2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="258">
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="259"/>
-      <c r="AI2" s="260"/>
+      <c r="AH2" s="287"/>
+      <c r="AI2" s="288"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="192"/>
-      <c r="S3" s="254"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="255"/>
-      <c r="V3" s="255"/>
-      <c r="W3" s="255"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="255"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="165" t="str">
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="230"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="258" t="str">
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="286" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="259"/>
-      <c r="AI3" s="260"/>
+      <c r="AH3" s="287"/>
+      <c r="AI3" s="288"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -12122,65 +12126,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="313" t="s">
+      <c r="D8" s="317" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="316" t="s">
+      <c r="E8" s="320" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="317"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="317"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="318"/>
-      <c r="K8" s="322" t="s">
+      <c r="F8" s="321"/>
+      <c r="G8" s="321"/>
+      <c r="H8" s="321"/>
+      <c r="I8" s="321"/>
+      <c r="J8" s="322"/>
+      <c r="K8" s="326" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="318"/>
-      <c r="O8" s="323" t="s">
+      <c r="L8" s="321"/>
+      <c r="M8" s="321"/>
+      <c r="N8" s="322"/>
+      <c r="O8" s="327" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="328" t="s">
+      <c r="P8" s="305" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="329"/>
-      <c r="R8" s="329"/>
-      <c r="S8" s="329"/>
-      <c r="T8" s="329"/>
-      <c r="U8" s="330"/>
-      <c r="V8" s="325" t="s">
+      <c r="Q8" s="306"/>
+      <c r="R8" s="306"/>
+      <c r="S8" s="306"/>
+      <c r="T8" s="306"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="302" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="325"/>
-      <c r="X8" s="325"/>
-      <c r="Y8" s="325"/>
-      <c r="Z8" s="325"/>
-      <c r="AA8" s="325"/>
-      <c r="AB8" s="325"/>
-      <c r="AC8" s="325"/>
-      <c r="AD8" s="325"/>
-      <c r="AE8" s="325"/>
-      <c r="AF8" s="325"/>
-      <c r="AG8" s="325"/>
-      <c r="AH8" s="325"/>
+      <c r="W8" s="302"/>
+      <c r="X8" s="302"/>
+      <c r="Y8" s="302"/>
+      <c r="Z8" s="302"/>
+      <c r="AA8" s="302"/>
+      <c r="AB8" s="302"/>
+      <c r="AC8" s="302"/>
+      <c r="AD8" s="302"/>
+      <c r="AE8" s="302"/>
+      <c r="AF8" s="302"/>
+      <c r="AG8" s="302"/>
+      <c r="AH8" s="302"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="314"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="320"/>
-      <c r="J9" s="321"/>
-      <c r="K9" s="319"/>
-      <c r="L9" s="320"/>
-      <c r="M9" s="320"/>
-      <c r="N9" s="321"/>
-      <c r="O9" s="324"/>
+      <c r="D9" s="318"/>
+      <c r="E9" s="323"/>
+      <c r="F9" s="324"/>
+      <c r="G9" s="324"/>
+      <c r="H9" s="324"/>
+      <c r="I9" s="324"/>
+      <c r="J9" s="325"/>
+      <c r="K9" s="323"/>
+      <c r="L9" s="324"/>
+      <c r="M9" s="324"/>
+      <c r="N9" s="325"/>
+      <c r="O9" s="328"/>
       <c r="P9" s="87" t="s">
         <v>45</v>
       </c>
@@ -12193,23 +12197,23 @@
       <c r="S9" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="326" t="s">
+      <c r="T9" s="303" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="327"/>
-      <c r="V9" s="325"/>
-      <c r="W9" s="325"/>
-      <c r="X9" s="325"/>
-      <c r="Y9" s="325"/>
-      <c r="Z9" s="325"/>
-      <c r="AA9" s="325"/>
-      <c r="AB9" s="325"/>
-      <c r="AC9" s="325"/>
-      <c r="AD9" s="325"/>
-      <c r="AE9" s="325"/>
-      <c r="AF9" s="325"/>
-      <c r="AG9" s="325"/>
-      <c r="AH9" s="325"/>
+      <c r="U9" s="304"/>
+      <c r="V9" s="302"/>
+      <c r="W9" s="302"/>
+      <c r="X9" s="302"/>
+      <c r="Y9" s="302"/>
+      <c r="Z9" s="302"/>
+      <c r="AA9" s="302"/>
+      <c r="AB9" s="302"/>
+      <c r="AC9" s="302"/>
+      <c r="AD9" s="302"/>
+      <c r="AE9" s="302"/>
+      <c r="AF9" s="302"/>
+      <c r="AG9" s="302"/>
+      <c r="AH9" s="302"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="29"/>
@@ -12217,20 +12221,20 @@
       <c r="D10" s="111">
         <v>1</v>
       </c>
-      <c r="E10" s="216" t="s">
+      <c r="E10" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="212"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="211" t="s">
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="212"/>
-      <c r="M10" s="212"/>
-      <c r="N10" s="213"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="195"/>
       <c r="O10" s="112" t="s">
         <v>80</v>
       </c>
@@ -12246,23 +12250,23 @@
       <c r="S10" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="331" t="s">
+      <c r="T10" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="U10" s="332"/>
-      <c r="V10" s="211"/>
-      <c r="W10" s="212"/>
-      <c r="X10" s="212"/>
-      <c r="Y10" s="212"/>
-      <c r="Z10" s="212"/>
-      <c r="AA10" s="212"/>
-      <c r="AB10" s="212"/>
-      <c r="AC10" s="212"/>
-      <c r="AD10" s="212"/>
-      <c r="AE10" s="212"/>
-      <c r="AF10" s="212"/>
-      <c r="AG10" s="212"/>
-      <c r="AH10" s="213"/>
+      <c r="U10" s="313"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="194"/>
+      <c r="AF10" s="194"/>
+      <c r="AG10" s="194"/>
+      <c r="AH10" s="195"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="29"/>
@@ -12270,20 +12274,20 @@
       <c r="D11" s="111">
         <v>2</v>
       </c>
-      <c r="E11" s="216" t="s">
+      <c r="E11" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="212"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="211" t="s">
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="L11" s="212"/>
-      <c r="M11" s="212"/>
-      <c r="N11" s="213"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="195"/>
       <c r="O11" s="113" t="s">
         <v>79</v>
       </c>
@@ -12299,23 +12303,23 @@
       <c r="S11" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="331" t="s">
+      <c r="T11" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="U11" s="332"/>
-      <c r="V11" s="211"/>
-      <c r="W11" s="212"/>
-      <c r="X11" s="212"/>
-      <c r="Y11" s="212"/>
-      <c r="Z11" s="212"/>
-      <c r="AA11" s="212"/>
-      <c r="AB11" s="212"/>
-      <c r="AC11" s="212"/>
-      <c r="AD11" s="212"/>
-      <c r="AE11" s="212"/>
-      <c r="AF11" s="212"/>
-      <c r="AG11" s="212"/>
-      <c r="AH11" s="213"/>
+      <c r="U11" s="313"/>
+      <c r="V11" s="193"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="194"/>
+      <c r="AF11" s="194"/>
+      <c r="AG11" s="194"/>
+      <c r="AH11" s="195"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="29"/>
@@ -12323,20 +12327,20 @@
       <c r="D12" s="111">
         <v>3</v>
       </c>
-      <c r="E12" s="216" t="s">
+      <c r="E12" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="211" t="s">
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="212"/>
-      <c r="M12" s="212"/>
-      <c r="N12" s="213"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="195"/>
       <c r="O12" s="113" t="s">
         <v>79</v>
       </c>
@@ -12352,23 +12356,23 @@
       <c r="S12" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="331" t="s">
+      <c r="T12" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="U12" s="332"/>
-      <c r="V12" s="211"/>
-      <c r="W12" s="212"/>
-      <c r="X12" s="212"/>
-      <c r="Y12" s="212"/>
-      <c r="Z12" s="212"/>
-      <c r="AA12" s="212"/>
-      <c r="AB12" s="212"/>
-      <c r="AC12" s="212"/>
-      <c r="AD12" s="212"/>
-      <c r="AE12" s="212"/>
-      <c r="AF12" s="212"/>
-      <c r="AG12" s="212"/>
-      <c r="AH12" s="213"/>
+      <c r="U12" s="313"/>
+      <c r="V12" s="193"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
+      <c r="AF12" s="194"/>
+      <c r="AG12" s="194"/>
+      <c r="AH12" s="195"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="29"/>
@@ -12518,40 +12522,40 @@
       <c r="D17" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="336" t="s">
+      <c r="E17" s="329" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="337"/>
-      <c r="G17" s="338"/>
-      <c r="H17" s="333" t="s">
+      <c r="F17" s="330"/>
+      <c r="G17" s="331"/>
+      <c r="H17" s="314" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="334"/>
-      <c r="J17" s="334"/>
-      <c r="K17" s="334"/>
-      <c r="L17" s="334"/>
-      <c r="M17" s="334"/>
-      <c r="N17" s="334"/>
-      <c r="O17" s="334"/>
-      <c r="P17" s="334"/>
-      <c r="Q17" s="334"/>
-      <c r="R17" s="334"/>
-      <c r="S17" s="334"/>
-      <c r="T17" s="334"/>
-      <c r="U17" s="334"/>
-      <c r="V17" s="334"/>
-      <c r="W17" s="334"/>
-      <c r="X17" s="334"/>
-      <c r="Y17" s="334"/>
-      <c r="Z17" s="334"/>
-      <c r="AA17" s="334"/>
-      <c r="AB17" s="334"/>
-      <c r="AC17" s="334"/>
-      <c r="AD17" s="334"/>
-      <c r="AE17" s="334"/>
-      <c r="AF17" s="334"/>
-      <c r="AG17" s="334"/>
-      <c r="AH17" s="335"/>
+      <c r="I17" s="315"/>
+      <c r="J17" s="315"/>
+      <c r="K17" s="315"/>
+      <c r="L17" s="315"/>
+      <c r="M17" s="315"/>
+      <c r="N17" s="315"/>
+      <c r="O17" s="315"/>
+      <c r="P17" s="315"/>
+      <c r="Q17" s="315"/>
+      <c r="R17" s="315"/>
+      <c r="S17" s="315"/>
+      <c r="T17" s="315"/>
+      <c r="U17" s="315"/>
+      <c r="V17" s="315"/>
+      <c r="W17" s="315"/>
+      <c r="X17" s="315"/>
+      <c r="Y17" s="315"/>
+      <c r="Z17" s="315"/>
+      <c r="AA17" s="315"/>
+      <c r="AB17" s="315"/>
+      <c r="AC17" s="315"/>
+      <c r="AD17" s="315"/>
+      <c r="AE17" s="315"/>
+      <c r="AF17" s="315"/>
+      <c r="AG17" s="315"/>
+      <c r="AH17" s="316"/>
     </row>
     <row r="18" spans="1:34" s="85" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="29"/>
@@ -12559,40 +12563,40 @@
       <c r="D18" s="111">
         <v>1</v>
       </c>
-      <c r="E18" s="216" t="s">
+      <c r="E18" s="199" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="212"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="216" t="s">
+      <c r="F18" s="194"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="199" t="s">
         <v>100</v>
       </c>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="212"/>
-      <c r="M18" s="212"/>
-      <c r="N18" s="212"/>
-      <c r="O18" s="212"/>
-      <c r="P18" s="212"/>
-      <c r="Q18" s="212"/>
-      <c r="R18" s="212"/>
-      <c r="S18" s="212"/>
-      <c r="T18" s="212"/>
-      <c r="U18" s="212"/>
-      <c r="V18" s="212"/>
-      <c r="W18" s="212"/>
-      <c r="X18" s="212"/>
-      <c r="Y18" s="212"/>
-      <c r="Z18" s="212"/>
-      <c r="AA18" s="212"/>
-      <c r="AB18" s="212"/>
-      <c r="AC18" s="212"/>
-      <c r="AD18" s="212"/>
-      <c r="AE18" s="212"/>
-      <c r="AF18" s="212"/>
-      <c r="AG18" s="212"/>
-      <c r="AH18" s="213"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="194"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="194"/>
+      <c r="AF18" s="194"/>
+      <c r="AG18" s="194"/>
+      <c r="AH18" s="195"/>
     </row>
     <row r="19" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
@@ -12600,40 +12604,40 @@
       <c r="D19" s="111">
         <v>2</v>
       </c>
-      <c r="E19" s="216" t="s">
+      <c r="E19" s="199" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="212"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="216" t="s">
+      <c r="F19" s="194"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="212"/>
-      <c r="J19" s="212"/>
-      <c r="K19" s="212"/>
-      <c r="L19" s="212"/>
-      <c r="M19" s="212"/>
-      <c r="N19" s="212"/>
-      <c r="O19" s="212"/>
-      <c r="P19" s="212"/>
-      <c r="Q19" s="212"/>
-      <c r="R19" s="212"/>
-      <c r="S19" s="212"/>
-      <c r="T19" s="212"/>
-      <c r="U19" s="212"/>
-      <c r="V19" s="212"/>
-      <c r="W19" s="212"/>
-      <c r="X19" s="212"/>
-      <c r="Y19" s="212"/>
-      <c r="Z19" s="212"/>
-      <c r="AA19" s="212"/>
-      <c r="AB19" s="212"/>
-      <c r="AC19" s="212"/>
-      <c r="AD19" s="212"/>
-      <c r="AE19" s="212"/>
-      <c r="AF19" s="212"/>
-      <c r="AG19" s="212"/>
-      <c r="AH19" s="213"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
+      <c r="V19" s="194"/>
+      <c r="W19" s="194"/>
+      <c r="X19" s="194"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="194"/>
+      <c r="AA19" s="194"/>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="194"/>
+      <c r="AD19" s="194"/>
+      <c r="AE19" s="194"/>
+      <c r="AF19" s="194"/>
+      <c r="AG19" s="194"/>
+      <c r="AH19" s="195"/>
     </row>
     <row r="20" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -12641,40 +12645,40 @@
       <c r="D20" s="111">
         <v>3</v>
       </c>
-      <c r="E20" s="216" t="s">
+      <c r="E20" s="199" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="212"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="216" t="s">
+      <c r="F20" s="194"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="212"/>
-      <c r="J20" s="212"/>
-      <c r="K20" s="212"/>
-      <c r="L20" s="212"/>
-      <c r="M20" s="212"/>
-      <c r="N20" s="212"/>
-      <c r="O20" s="212"/>
-      <c r="P20" s="212"/>
-      <c r="Q20" s="212"/>
-      <c r="R20" s="212"/>
-      <c r="S20" s="212"/>
-      <c r="T20" s="212"/>
-      <c r="U20" s="212"/>
-      <c r="V20" s="212"/>
-      <c r="W20" s="212"/>
-      <c r="X20" s="212"/>
-      <c r="Y20" s="212"/>
-      <c r="Z20" s="212"/>
-      <c r="AA20" s="212"/>
-      <c r="AB20" s="212"/>
-      <c r="AC20" s="212"/>
-      <c r="AD20" s="212"/>
-      <c r="AE20" s="212"/>
-      <c r="AF20" s="212"/>
-      <c r="AG20" s="212"/>
-      <c r="AH20" s="213"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="194"/>
+      <c r="Q20" s="194"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="194"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="194"/>
+      <c r="X20" s="194"/>
+      <c r="Y20" s="194"/>
+      <c r="Z20" s="194"/>
+      <c r="AA20" s="194"/>
+      <c r="AB20" s="194"/>
+      <c r="AC20" s="194"/>
+      <c r="AD20" s="194"/>
+      <c r="AE20" s="194"/>
+      <c r="AF20" s="194"/>
+      <c r="AG20" s="194"/>
+      <c r="AH20" s="195"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B21" s="84"/>
@@ -12932,44 +12936,44 @@
       <c r="B28" s="84"/>
       <c r="C28" s="90"/>
       <c r="D28" s="121"/>
-      <c r="E28" s="291" t="s">
+      <c r="E28" s="311" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="291"/>
-      <c r="G28" s="315" t="s">
+      <c r="F28" s="311"/>
+      <c r="G28" s="319" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="315"/>
-      <c r="I28" s="315"/>
-      <c r="J28" s="315"/>
-      <c r="K28" s="315"/>
-      <c r="L28" s="315"/>
-      <c r="M28" s="291" t="s">
+      <c r="H28" s="319"/>
+      <c r="I28" s="319"/>
+      <c r="J28" s="319"/>
+      <c r="K28" s="319"/>
+      <c r="L28" s="319"/>
+      <c r="M28" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="291"/>
-      <c r="O28" s="288" t="s">
+      <c r="N28" s="311"/>
+      <c r="O28" s="308" t="s">
         <v>76</v>
       </c>
-      <c r="P28" s="289"/>
-      <c r="Q28" s="289"/>
-      <c r="R28" s="289"/>
-      <c r="S28" s="289"/>
-      <c r="T28" s="289"/>
-      <c r="U28" s="289"/>
-      <c r="V28" s="289"/>
-      <c r="W28" s="289"/>
-      <c r="X28" s="289"/>
-      <c r="Y28" s="289"/>
-      <c r="Z28" s="289"/>
-      <c r="AA28" s="289"/>
-      <c r="AB28" s="289"/>
-      <c r="AC28" s="289"/>
-      <c r="AD28" s="289"/>
-      <c r="AE28" s="289"/>
-      <c r="AF28" s="289"/>
-      <c r="AG28" s="289"/>
-      <c r="AH28" s="290"/>
+      <c r="P28" s="309"/>
+      <c r="Q28" s="309"/>
+      <c r="R28" s="309"/>
+      <c r="S28" s="309"/>
+      <c r="T28" s="309"/>
+      <c r="U28" s="309"/>
+      <c r="V28" s="309"/>
+      <c r="W28" s="309"/>
+      <c r="X28" s="309"/>
+      <c r="Y28" s="309"/>
+      <c r="Z28" s="309"/>
+      <c r="AA28" s="309"/>
+      <c r="AB28" s="309"/>
+      <c r="AC28" s="309"/>
+      <c r="AD28" s="309"/>
+      <c r="AE28" s="309"/>
+      <c r="AF28" s="309"/>
+      <c r="AG28" s="309"/>
+      <c r="AH28" s="310"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A29" s="46"/>
@@ -13341,43 +13345,43 @@
       <c r="E38" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="303" t="s">
+      <c r="F38" s="332" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="304"/>
-      <c r="H38" s="304"/>
-      <c r="I38" s="304"/>
-      <c r="J38" s="304"/>
-      <c r="K38" s="305"/>
-      <c r="L38" s="306" t="s">
+      <c r="G38" s="333"/>
+      <c r="H38" s="333"/>
+      <c r="I38" s="333"/>
+      <c r="J38" s="333"/>
+      <c r="K38" s="334"/>
+      <c r="L38" s="335" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="304"/>
-      <c r="N38" s="304"/>
-      <c r="O38" s="304"/>
-      <c r="P38" s="304"/>
-      <c r="Q38" s="304"/>
-      <c r="R38" s="304"/>
-      <c r="S38" s="304"/>
-      <c r="T38" s="304"/>
-      <c r="U38" s="305"/>
-      <c r="V38" s="307" t="s">
+      <c r="M38" s="333"/>
+      <c r="N38" s="333"/>
+      <c r="O38" s="333"/>
+      <c r="P38" s="333"/>
+      <c r="Q38" s="333"/>
+      <c r="R38" s="333"/>
+      <c r="S38" s="333"/>
+      <c r="T38" s="333"/>
+      <c r="U38" s="334"/>
+      <c r="V38" s="336" t="s">
         <v>86</v>
       </c>
-      <c r="W38" s="308"/>
-      <c r="X38" s="309"/>
-      <c r="Y38" s="307" t="s">
+      <c r="W38" s="337"/>
+      <c r="X38" s="338"/>
+      <c r="Y38" s="336" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="308"/>
-      <c r="AA38" s="308"/>
-      <c r="AB38" s="309"/>
-      <c r="AC38" s="310" t="s">
+      <c r="Z38" s="337"/>
+      <c r="AA38" s="337"/>
+      <c r="AB38" s="338"/>
+      <c r="AC38" s="339" t="s">
         <v>88</v>
       </c>
-      <c r="AD38" s="311"/>
-      <c r="AE38" s="311"/>
-      <c r="AF38" s="312"/>
+      <c r="AD38" s="340"/>
+      <c r="AE38" s="340"/>
+      <c r="AF38" s="341"/>
       <c r="AG38" s="46"/>
       <c r="AH38" s="46"/>
       <c r="AI38" s="46"/>
@@ -13390,43 +13394,43 @@
       <c r="E39" s="126">
         <v>1</v>
       </c>
-      <c r="F39" s="296" t="s">
+      <c r="F39" s="345" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="294"/>
-      <c r="H39" s="294"/>
-      <c r="I39" s="294"/>
-      <c r="J39" s="294"/>
-      <c r="K39" s="295"/>
-      <c r="L39" s="293" t="s">
+      <c r="G39" s="343"/>
+      <c r="H39" s="343"/>
+      <c r="I39" s="343"/>
+      <c r="J39" s="343"/>
+      <c r="K39" s="344"/>
+      <c r="L39" s="342" t="s">
         <v>90</v>
       </c>
-      <c r="M39" s="294"/>
-      <c r="N39" s="294"/>
-      <c r="O39" s="294"/>
-      <c r="P39" s="294"/>
-      <c r="Q39" s="294"/>
-      <c r="R39" s="294"/>
-      <c r="S39" s="294"/>
-      <c r="T39" s="294"/>
-      <c r="U39" s="295"/>
-      <c r="V39" s="297" t="s">
+      <c r="M39" s="343"/>
+      <c r="N39" s="343"/>
+      <c r="O39" s="343"/>
+      <c r="P39" s="343"/>
+      <c r="Q39" s="343"/>
+      <c r="R39" s="343"/>
+      <c r="S39" s="343"/>
+      <c r="T39" s="343"/>
+      <c r="U39" s="344"/>
+      <c r="V39" s="346" t="s">
         <v>91</v>
       </c>
-      <c r="W39" s="298"/>
-      <c r="X39" s="299"/>
-      <c r="Y39" s="300" t="s">
+      <c r="W39" s="347"/>
+      <c r="X39" s="348"/>
+      <c r="Y39" s="349" t="s">
         <v>92</v>
       </c>
-      <c r="Z39" s="301"/>
-      <c r="AA39" s="301"/>
-      <c r="AB39" s="302"/>
-      <c r="AC39" s="293" t="s">
+      <c r="Z39" s="350"/>
+      <c r="AA39" s="350"/>
+      <c r="AB39" s="351"/>
+      <c r="AC39" s="342" t="s">
         <v>102</v>
       </c>
-      <c r="AD39" s="294"/>
-      <c r="AE39" s="294"/>
-      <c r="AF39" s="295"/>
+      <c r="AD39" s="343"/>
+      <c r="AE39" s="343"/>
+      <c r="AF39" s="344"/>
       <c r="AG39" s="46"/>
       <c r="AH39" s="46"/>
       <c r="AI39" s="46"/>
@@ -13527,103 +13531,103 @@
       <c r="F48" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="G48" s="344" t="s">
+      <c r="G48" s="164" t="s">
         <v>143</v>
       </c>
-      <c r="H48" s="345"/>
-      <c r="I48" s="345"/>
-      <c r="J48" s="345"/>
-      <c r="K48" s="345"/>
-      <c r="L48" s="346"/>
-      <c r="M48" s="347" t="s">
+      <c r="H48" s="165"/>
+      <c r="I48" s="165"/>
+      <c r="J48" s="165"/>
+      <c r="K48" s="165"/>
+      <c r="L48" s="166"/>
+      <c r="M48" s="167" t="s">
         <v>144</v>
       </c>
-      <c r="N48" s="348"/>
-      <c r="O48" s="348"/>
-      <c r="P48" s="348"/>
-      <c r="Q48" s="348"/>
-      <c r="R48" s="348"/>
-      <c r="S48" s="348"/>
-      <c r="T48" s="348"/>
-      <c r="U48" s="348"/>
-      <c r="V48" s="348"/>
-      <c r="W48" s="349"/>
-      <c r="X48" s="344" t="s">
+      <c r="N48" s="168"/>
+      <c r="O48" s="168"/>
+      <c r="P48" s="168"/>
+      <c r="Q48" s="168"/>
+      <c r="R48" s="168"/>
+      <c r="S48" s="168"/>
+      <c r="T48" s="168"/>
+      <c r="U48" s="168"/>
+      <c r="V48" s="168"/>
+      <c r="W48" s="169"/>
+      <c r="X48" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="Y48" s="345"/>
-      <c r="Z48" s="345"/>
-      <c r="AA48" s="345"/>
-      <c r="AB48" s="345"/>
-      <c r="AC48" s="346"/>
-      <c r="AD48" s="344" t="s">
+      <c r="Y48" s="165"/>
+      <c r="Z48" s="165"/>
+      <c r="AA48" s="165"/>
+      <c r="AB48" s="165"/>
+      <c r="AC48" s="166"/>
+      <c r="AD48" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="AE48" s="345"/>
-      <c r="AF48" s="345"/>
-      <c r="AG48" s="346"/>
+      <c r="AE48" s="165"/>
+      <c r="AF48" s="165"/>
+      <c r="AG48" s="166"/>
     </row>
     <row r="49" spans="1:37" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F49" s="350"/>
-      <c r="G49" s="351"/>
-      <c r="H49" s="352"/>
-      <c r="I49" s="352"/>
-      <c r="J49" s="352"/>
-      <c r="K49" s="352"/>
-      <c r="L49" s="353"/>
-      <c r="M49" s="347" t="s">
+      <c r="F49" s="170"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="172"/>
+      <c r="J49" s="172"/>
+      <c r="K49" s="172"/>
+      <c r="L49" s="173"/>
+      <c r="M49" s="167" t="s">
         <v>145</v>
       </c>
-      <c r="N49" s="348"/>
-      <c r="O49" s="348"/>
-      <c r="P49" s="348"/>
-      <c r="Q49" s="349"/>
-      <c r="R49" s="354" t="s">
+      <c r="N49" s="168"/>
+      <c r="O49" s="168"/>
+      <c r="P49" s="168"/>
+      <c r="Q49" s="169"/>
+      <c r="R49" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="S49" s="355"/>
-      <c r="T49" s="355"/>
-      <c r="U49" s="355"/>
-      <c r="V49" s="355"/>
-      <c r="W49" s="356"/>
-      <c r="X49" s="351"/>
-      <c r="Y49" s="352"/>
-      <c r="Z49" s="352"/>
-      <c r="AA49" s="352"/>
-      <c r="AB49" s="352"/>
-      <c r="AC49" s="353"/>
-      <c r="AD49" s="351"/>
-      <c r="AE49" s="352"/>
-      <c r="AF49" s="352"/>
-      <c r="AG49" s="353"/>
+      <c r="S49" s="175"/>
+      <c r="T49" s="175"/>
+      <c r="U49" s="175"/>
+      <c r="V49" s="175"/>
+      <c r="W49" s="176"/>
+      <c r="X49" s="171"/>
+      <c r="Y49" s="172"/>
+      <c r="Z49" s="172"/>
+      <c r="AA49" s="172"/>
+      <c r="AB49" s="172"/>
+      <c r="AC49" s="173"/>
+      <c r="AD49" s="171"/>
+      <c r="AE49" s="172"/>
+      <c r="AF49" s="172"/>
+      <c r="AG49" s="173"/>
     </row>
     <row r="50" spans="1:37" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F50" s="115">
         <v>1</v>
       </c>
-      <c r="G50" s="357" t="s">
+      <c r="G50" s="177" t="s">
         <v>146</v>
       </c>
-      <c r="H50" s="358"/>
-      <c r="I50" s="358"/>
-      <c r="J50" s="358"/>
-      <c r="K50" s="358"/>
-      <c r="L50" s="359"/>
-      <c r="M50" s="360" t="s">
+      <c r="H50" s="178"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="178"/>
+      <c r="K50" s="178"/>
+      <c r="L50" s="179"/>
+      <c r="M50" s="180" t="s">
+        <v>154</v>
+      </c>
+      <c r="N50" s="181"/>
+      <c r="O50" s="181"/>
+      <c r="P50" s="181"/>
+      <c r="Q50" s="182"/>
+      <c r="R50" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="N50" s="361"/>
-      <c r="O50" s="361"/>
-      <c r="P50" s="361"/>
-      <c r="Q50" s="362"/>
-      <c r="R50" s="357" t="s">
-        <v>56</v>
-      </c>
-      <c r="S50" s="358"/>
-      <c r="T50" s="358"/>
-      <c r="U50" s="358"/>
-      <c r="V50" s="358"/>
-      <c r="W50" s="359"/>
+      <c r="S50" s="178"/>
+      <c r="T50" s="178"/>
+      <c r="U50" s="178"/>
+      <c r="V50" s="178"/>
+      <c r="W50" s="179"/>
       <c r="X50" s="161" t="s">
         <v>147</v>
       </c>
@@ -13641,29 +13645,29 @@
       <c r="F51" s="115">
         <v>2</v>
       </c>
-      <c r="G51" s="357" t="s">
+      <c r="G51" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="H51" s="358"/>
-      <c r="I51" s="358"/>
-      <c r="J51" s="358"/>
-      <c r="K51" s="358"/>
-      <c r="L51" s="359"/>
-      <c r="M51" s="363" t="s">
+      <c r="H51" s="178"/>
+      <c r="I51" s="178"/>
+      <c r="J51" s="178"/>
+      <c r="K51" s="178"/>
+      <c r="L51" s="179"/>
+      <c r="M51" s="291" t="s">
         <v>148</v>
       </c>
-      <c r="N51" s="364"/>
-      <c r="O51" s="364"/>
-      <c r="P51" s="364"/>
-      <c r="Q51" s="365"/>
-      <c r="R51" s="357" t="s">
+      <c r="N51" s="292"/>
+      <c r="O51" s="292"/>
+      <c r="P51" s="292"/>
+      <c r="Q51" s="293"/>
+      <c r="R51" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="S51" s="358"/>
-      <c r="T51" s="358"/>
-      <c r="U51" s="358"/>
-      <c r="V51" s="358"/>
-      <c r="W51" s="359"/>
+      <c r="S51" s="178"/>
+      <c r="T51" s="178"/>
+      <c r="U51" s="178"/>
+      <c r="V51" s="178"/>
+      <c r="W51" s="179"/>
       <c r="X51" s="161" t="s">
         <v>147</v>
       </c>
@@ -13681,27 +13685,27 @@
       <c r="F52" s="115">
         <v>3</v>
       </c>
-      <c r="G52" s="357" t="s">
+      <c r="G52" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="H52" s="358"/>
-      <c r="I52" s="358"/>
-      <c r="J52" s="358"/>
-      <c r="K52" s="358"/>
-      <c r="L52" s="359"/>
-      <c r="M52" s="366"/>
-      <c r="N52" s="367"/>
-      <c r="O52" s="367"/>
-      <c r="P52" s="367"/>
-      <c r="Q52" s="368"/>
-      <c r="R52" s="357" t="s">
+      <c r="H52" s="178"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="178"/>
+      <c r="K52" s="178"/>
+      <c r="L52" s="179"/>
+      <c r="M52" s="294"/>
+      <c r="N52" s="295"/>
+      <c r="O52" s="295"/>
+      <c r="P52" s="295"/>
+      <c r="Q52" s="296"/>
+      <c r="R52" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="S52" s="358"/>
-      <c r="T52" s="358"/>
-      <c r="U52" s="358"/>
-      <c r="V52" s="358"/>
-      <c r="W52" s="359"/>
+      <c r="S52" s="178"/>
+      <c r="T52" s="178"/>
+      <c r="U52" s="178"/>
+      <c r="V52" s="178"/>
+      <c r="W52" s="179"/>
       <c r="X52" s="161" t="s">
         <v>147</v>
       </c>
@@ -14525,44 +14529,44 @@
       <c r="B75" s="155"/>
       <c r="C75" s="159"/>
       <c r="D75" s="159"/>
-      <c r="E75" s="291" t="s">
+      <c r="E75" s="311" t="s">
         <v>21</v>
       </c>
-      <c r="F75" s="291"/>
-      <c r="G75" s="288" t="s">
+      <c r="F75" s="311"/>
+      <c r="G75" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="H75" s="289"/>
-      <c r="I75" s="289"/>
-      <c r="J75" s="289"/>
-      <c r="K75" s="289"/>
-      <c r="L75" s="290"/>
-      <c r="M75" s="291" t="s">
+      <c r="H75" s="309"/>
+      <c r="I75" s="309"/>
+      <c r="J75" s="309"/>
+      <c r="K75" s="309"/>
+      <c r="L75" s="310"/>
+      <c r="M75" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="N75" s="291"/>
-      <c r="O75" s="288" t="s">
+      <c r="N75" s="311"/>
+      <c r="O75" s="308" t="s">
         <v>128</v>
       </c>
-      <c r="P75" s="289"/>
-      <c r="Q75" s="289"/>
-      <c r="R75" s="289"/>
-      <c r="S75" s="289"/>
-      <c r="T75" s="289"/>
-      <c r="U75" s="289"/>
-      <c r="V75" s="289"/>
-      <c r="W75" s="289"/>
-      <c r="X75" s="289"/>
-      <c r="Y75" s="289"/>
-      <c r="Z75" s="289"/>
-      <c r="AA75" s="289"/>
-      <c r="AB75" s="289"/>
-      <c r="AC75" s="289"/>
-      <c r="AD75" s="289"/>
-      <c r="AE75" s="289"/>
-      <c r="AF75" s="289"/>
-      <c r="AG75" s="289"/>
-      <c r="AH75" s="290"/>
+      <c r="P75" s="309"/>
+      <c r="Q75" s="309"/>
+      <c r="R75" s="309"/>
+      <c r="S75" s="309"/>
+      <c r="T75" s="309"/>
+      <c r="U75" s="309"/>
+      <c r="V75" s="309"/>
+      <c r="W75" s="309"/>
+      <c r="X75" s="309"/>
+      <c r="Y75" s="309"/>
+      <c r="Z75" s="309"/>
+      <c r="AA75" s="309"/>
+      <c r="AB75" s="309"/>
+      <c r="AC75" s="309"/>
+      <c r="AD75" s="309"/>
+      <c r="AE75" s="309"/>
+      <c r="AF75" s="309"/>
+      <c r="AG75" s="309"/>
+      <c r="AH75" s="310"/>
       <c r="AI75" s="133"/>
       <c r="AJ75" s="133"/>
       <c r="AK75" s="133"/>
@@ -14730,48 +14734,48 @@
       <c r="B80" s="155"/>
       <c r="C80" s="159"/>
       <c r="D80" s="159"/>
-      <c r="E80" s="285" t="s">
+      <c r="E80" s="358" t="s">
         <v>110</v>
       </c>
-      <c r="F80" s="279" t="s">
+      <c r="F80" s="352" t="s">
         <v>23</v>
       </c>
-      <c r="G80" s="280"/>
-      <c r="H80" s="280"/>
-      <c r="I80" s="281"/>
-      <c r="J80" s="279" t="s">
+      <c r="G80" s="353"/>
+      <c r="H80" s="353"/>
+      <c r="I80" s="354"/>
+      <c r="J80" s="352" t="s">
         <v>24</v>
       </c>
-      <c r="K80" s="280"/>
-      <c r="L80" s="280"/>
-      <c r="M80" s="281"/>
-      <c r="N80" s="287" t="s">
+      <c r="K80" s="353"/>
+      <c r="L80" s="353"/>
+      <c r="M80" s="354"/>
+      <c r="N80" s="360" t="s">
         <v>25</v>
       </c>
-      <c r="O80" s="287"/>
-      <c r="P80" s="287"/>
-      <c r="Q80" s="287"/>
-      <c r="R80" s="287"/>
-      <c r="S80" s="287"/>
-      <c r="T80" s="287"/>
-      <c r="U80" s="287"/>
-      <c r="V80" s="287"/>
-      <c r="W80" s="279" t="s">
+      <c r="O80" s="360"/>
+      <c r="P80" s="360"/>
+      <c r="Q80" s="360"/>
+      <c r="R80" s="360"/>
+      <c r="S80" s="360"/>
+      <c r="T80" s="360"/>
+      <c r="U80" s="360"/>
+      <c r="V80" s="360"/>
+      <c r="W80" s="352" t="s">
         <v>33</v>
       </c>
-      <c r="X80" s="280"/>
-      <c r="Y80" s="280"/>
-      <c r="Z80" s="280"/>
-      <c r="AA80" s="280"/>
-      <c r="AB80" s="280"/>
-      <c r="AC80" s="281"/>
-      <c r="AD80" s="279" t="s">
+      <c r="X80" s="353"/>
+      <c r="Y80" s="353"/>
+      <c r="Z80" s="353"/>
+      <c r="AA80" s="353"/>
+      <c r="AB80" s="353"/>
+      <c r="AC80" s="354"/>
+      <c r="AD80" s="352" t="s">
         <v>34</v>
       </c>
-      <c r="AE80" s="280"/>
-      <c r="AF80" s="280"/>
-      <c r="AG80" s="280"/>
-      <c r="AH80" s="281"/>
+      <c r="AE80" s="353"/>
+      <c r="AF80" s="353"/>
+      <c r="AG80" s="353"/>
+      <c r="AH80" s="354"/>
       <c r="AI80" s="133"/>
       <c r="AJ80" s="133"/>
       <c r="AK80" s="133"/>
@@ -14781,40 +14785,40 @@
       <c r="B81" s="155"/>
       <c r="C81" s="159"/>
       <c r="D81" s="157"/>
-      <c r="E81" s="286"/>
-      <c r="F81" s="282"/>
-      <c r="G81" s="283"/>
-      <c r="H81" s="283"/>
-      <c r="I81" s="284"/>
-      <c r="J81" s="282"/>
-      <c r="K81" s="283"/>
-      <c r="L81" s="283"/>
-      <c r="M81" s="284"/>
-      <c r="N81" s="287" t="s">
+      <c r="E81" s="359"/>
+      <c r="F81" s="355"/>
+      <c r="G81" s="356"/>
+      <c r="H81" s="356"/>
+      <c r="I81" s="357"/>
+      <c r="J81" s="355"/>
+      <c r="K81" s="356"/>
+      <c r="L81" s="356"/>
+      <c r="M81" s="357"/>
+      <c r="N81" s="360" t="s">
         <v>28</v>
       </c>
-      <c r="O81" s="287"/>
-      <c r="P81" s="287"/>
-      <c r="Q81" s="287"/>
-      <c r="R81" s="287"/>
-      <c r="S81" s="292" t="s">
+      <c r="O81" s="360"/>
+      <c r="P81" s="360"/>
+      <c r="Q81" s="360"/>
+      <c r="R81" s="360"/>
+      <c r="S81" s="361" t="s">
         <v>29</v>
       </c>
-      <c r="T81" s="292"/>
-      <c r="U81" s="292"/>
-      <c r="V81" s="292"/>
-      <c r="W81" s="282"/>
-      <c r="X81" s="283"/>
-      <c r="Y81" s="283"/>
-      <c r="Z81" s="283"/>
-      <c r="AA81" s="283"/>
-      <c r="AB81" s="283"/>
-      <c r="AC81" s="284"/>
-      <c r="AD81" s="282"/>
-      <c r="AE81" s="283"/>
-      <c r="AF81" s="283"/>
-      <c r="AG81" s="283"/>
-      <c r="AH81" s="284"/>
+      <c r="T81" s="361"/>
+      <c r="U81" s="361"/>
+      <c r="V81" s="361"/>
+      <c r="W81" s="355"/>
+      <c r="X81" s="356"/>
+      <c r="Y81" s="356"/>
+      <c r="Z81" s="356"/>
+      <c r="AA81" s="356"/>
+      <c r="AB81" s="356"/>
+      <c r="AC81" s="357"/>
+      <c r="AD81" s="355"/>
+      <c r="AE81" s="356"/>
+      <c r="AF81" s="356"/>
+      <c r="AG81" s="356"/>
+      <c r="AH81" s="357"/>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A82" s="155"/>
@@ -14824,43 +14828,43 @@
       <c r="E82" s="160">
         <v>1</v>
       </c>
-      <c r="F82" s="272" t="s">
+      <c r="F82" s="362" t="s">
         <v>121</v>
       </c>
-      <c r="G82" s="275"/>
-      <c r="H82" s="275"/>
-      <c r="I82" s="276"/>
-      <c r="J82" s="272" t="s">
+      <c r="G82" s="365"/>
+      <c r="H82" s="365"/>
+      <c r="I82" s="366"/>
+      <c r="J82" s="362" t="s">
         <v>122</v>
       </c>
-      <c r="K82" s="273"/>
-      <c r="L82" s="273"/>
-      <c r="M82" s="274"/>
-      <c r="N82" s="277" t="s">
+      <c r="K82" s="363"/>
+      <c r="L82" s="363"/>
+      <c r="M82" s="364"/>
+      <c r="N82" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="O82" s="278"/>
-      <c r="P82" s="278"/>
-      <c r="Q82" s="278"/>
-      <c r="R82" s="278"/>
-      <c r="S82" s="339" t="s">
+      <c r="O82" s="368"/>
+      <c r="P82" s="368"/>
+      <c r="Q82" s="368"/>
+      <c r="R82" s="368"/>
+      <c r="S82" s="297" t="s">
         <v>122</v>
       </c>
-      <c r="T82" s="340"/>
-      <c r="U82" s="340"/>
-      <c r="V82" s="340"/>
-      <c r="W82" s="341"/>
-      <c r="X82" s="342"/>
-      <c r="Y82" s="342"/>
-      <c r="Z82" s="342"/>
-      <c r="AA82" s="342"/>
-      <c r="AB82" s="342"/>
-      <c r="AC82" s="343"/>
-      <c r="AD82" s="341"/>
-      <c r="AE82" s="342"/>
-      <c r="AF82" s="342"/>
-      <c r="AG82" s="342"/>
-      <c r="AH82" s="343"/>
+      <c r="T82" s="298"/>
+      <c r="U82" s="298"/>
+      <c r="V82" s="298"/>
+      <c r="W82" s="299"/>
+      <c r="X82" s="300"/>
+      <c r="Y82" s="300"/>
+      <c r="Z82" s="300"/>
+      <c r="AA82" s="300"/>
+      <c r="AB82" s="300"/>
+      <c r="AC82" s="301"/>
+      <c r="AD82" s="299"/>
+      <c r="AE82" s="300"/>
+      <c r="AF82" s="300"/>
+      <c r="AG82" s="300"/>
+      <c r="AH82" s="301"/>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A83" s="155"/>
@@ -14870,43 +14874,43 @@
       <c r="E83" s="160">
         <v>2</v>
       </c>
-      <c r="F83" s="272" t="s">
+      <c r="F83" s="362" t="s">
         <v>115</v>
       </c>
-      <c r="G83" s="275"/>
-      <c r="H83" s="275"/>
-      <c r="I83" s="276"/>
-      <c r="J83" s="272" t="s">
+      <c r="G83" s="365"/>
+      <c r="H83" s="365"/>
+      <c r="I83" s="366"/>
+      <c r="J83" s="362" t="s">
         <v>124</v>
       </c>
-      <c r="K83" s="273"/>
-      <c r="L83" s="273"/>
-      <c r="M83" s="274"/>
-      <c r="N83" s="277" t="s">
+      <c r="K83" s="363"/>
+      <c r="L83" s="363"/>
+      <c r="M83" s="364"/>
+      <c r="N83" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="O83" s="278"/>
-      <c r="P83" s="278"/>
-      <c r="Q83" s="278"/>
-      <c r="R83" s="278"/>
-      <c r="S83" s="339" t="s">
+      <c r="O83" s="368"/>
+      <c r="P83" s="368"/>
+      <c r="Q83" s="368"/>
+      <c r="R83" s="368"/>
+      <c r="S83" s="297" t="s">
         <v>124</v>
       </c>
-      <c r="T83" s="340"/>
-      <c r="U83" s="340"/>
-      <c r="V83" s="340"/>
-      <c r="W83" s="341"/>
-      <c r="X83" s="342"/>
-      <c r="Y83" s="342"/>
-      <c r="Z83" s="342"/>
-      <c r="AA83" s="342"/>
-      <c r="AB83" s="342"/>
-      <c r="AC83" s="343"/>
-      <c r="AD83" s="341"/>
-      <c r="AE83" s="342"/>
-      <c r="AF83" s="342"/>
-      <c r="AG83" s="342"/>
-      <c r="AH83" s="343"/>
+      <c r="T83" s="298"/>
+      <c r="U83" s="298"/>
+      <c r="V83" s="298"/>
+      <c r="W83" s="299"/>
+      <c r="X83" s="300"/>
+      <c r="Y83" s="300"/>
+      <c r="Z83" s="300"/>
+      <c r="AA83" s="300"/>
+      <c r="AB83" s="300"/>
+      <c r="AC83" s="301"/>
+      <c r="AD83" s="299"/>
+      <c r="AE83" s="300"/>
+      <c r="AF83" s="300"/>
+      <c r="AG83" s="300"/>
+      <c r="AH83" s="301"/>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A84" s="155"/>
@@ -14916,73 +14920,81 @@
       <c r="E84" s="160">
         <v>3</v>
       </c>
-      <c r="F84" s="272" t="s">
+      <c r="F84" s="362" t="s">
         <v>127</v>
       </c>
-      <c r="G84" s="275"/>
-      <c r="H84" s="275"/>
-      <c r="I84" s="276"/>
-      <c r="J84" s="272" t="s">
+      <c r="G84" s="365"/>
+      <c r="H84" s="365"/>
+      <c r="I84" s="366"/>
+      <c r="J84" s="362" t="s">
         <v>125</v>
       </c>
-      <c r="K84" s="273"/>
-      <c r="L84" s="273"/>
-      <c r="M84" s="274"/>
-      <c r="N84" s="277" t="s">
+      <c r="K84" s="363"/>
+      <c r="L84" s="363"/>
+      <c r="M84" s="364"/>
+      <c r="N84" s="367" t="s">
         <v>123</v>
       </c>
-      <c r="O84" s="278"/>
-      <c r="P84" s="278"/>
-      <c r="Q84" s="278"/>
-      <c r="R84" s="278"/>
-      <c r="S84" s="339" t="s">
+      <c r="O84" s="368"/>
+      <c r="P84" s="368"/>
+      <c r="Q84" s="368"/>
+      <c r="R84" s="368"/>
+      <c r="S84" s="297" t="s">
         <v>125</v>
       </c>
-      <c r="T84" s="340"/>
-      <c r="U84" s="340"/>
-      <c r="V84" s="340"/>
-      <c r="W84" s="341"/>
-      <c r="X84" s="342"/>
-      <c r="Y84" s="342"/>
-      <c r="Z84" s="342"/>
-      <c r="AA84" s="342"/>
-      <c r="AB84" s="342"/>
-      <c r="AC84" s="343"/>
-      <c r="AD84" s="341"/>
-      <c r="AE84" s="342"/>
-      <c r="AF84" s="342"/>
-      <c r="AG84" s="342"/>
-      <c r="AH84" s="343"/>
+      <c r="T84" s="298"/>
+      <c r="U84" s="298"/>
+      <c r="V84" s="298"/>
+      <c r="W84" s="299"/>
+      <c r="X84" s="300"/>
+      <c r="Y84" s="300"/>
+      <c r="Z84" s="300"/>
+      <c r="AA84" s="300"/>
+      <c r="AB84" s="300"/>
+      <c r="AC84" s="301"/>
+      <c r="AD84" s="299"/>
+      <c r="AE84" s="300"/>
+      <c r="AF84" s="300"/>
+      <c r="AG84" s="300"/>
+      <c r="AH84" s="301"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="M51:Q52"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="S84:V84"/>
-    <mergeCell ref="W84:AC84"/>
-    <mergeCell ref="AD82:AH82"/>
-    <mergeCell ref="AD83:AH83"/>
-    <mergeCell ref="AD84:AH84"/>
-    <mergeCell ref="W82:AC82"/>
-    <mergeCell ref="W83:AC83"/>
-    <mergeCell ref="S83:V83"/>
-    <mergeCell ref="S82:V82"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="N83:R83"/>
+    <mergeCell ref="N82:R82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="N84:R84"/>
+    <mergeCell ref="F80:I81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="N80:V80"/>
+    <mergeCell ref="N81:R81"/>
+    <mergeCell ref="G75:L75"/>
+    <mergeCell ref="O75:AH75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="S81:V81"/>
+    <mergeCell ref="W80:AC81"/>
+    <mergeCell ref="AD80:AH81"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="J80:M81"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="L39:U39"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="L38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
     <mergeCell ref="V8:AH9"/>
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="P8:U8"/>
@@ -14997,9 +15009,36 @@
     <mergeCell ref="V11:AH11"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="T10:U10"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="E8:J9"/>
+    <mergeCell ref="S84:V84"/>
+    <mergeCell ref="W84:AC84"/>
+    <mergeCell ref="AD82:AH82"/>
+    <mergeCell ref="AD83:AH83"/>
+    <mergeCell ref="AD84:AH84"/>
+    <mergeCell ref="W82:AC82"/>
+    <mergeCell ref="W83:AC83"/>
+    <mergeCell ref="S83:V83"/>
+    <mergeCell ref="S82:V82"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="M51:Q52"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="K8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="E17:G17"/>
@@ -15010,41 +15049,6 @@
     <mergeCell ref="H18:AH18"/>
     <mergeCell ref="H19:AH19"/>
     <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="L38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="L39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="F80:I81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="N80:V80"/>
-    <mergeCell ref="N81:R81"/>
-    <mergeCell ref="G75:L75"/>
-    <mergeCell ref="O75:AH75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="S81:V81"/>
-    <mergeCell ref="W80:AC81"/>
-    <mergeCell ref="AD80:AH81"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="J80:M81"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="F82:I82"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="N83:R83"/>
-    <mergeCell ref="N82:R82"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="N84:R84"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">

--- a/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10103_顧客登録.xlsx
+++ b/サンプルプロジェクト/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10103_顧客登録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67847C71-5B60-4B7C-853B-AD5827520F8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BF81C1-3EB8-4126-A9AA-7E1BE811E157}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. Webサービス取引概要'!$A$1:$AI$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10103（顧客登録）'!$A$1:$AI$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10103（顧客登録）'!$A$1:$AI$85</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="155">
   <si>
     <t>PJ名</t>
   </si>
@@ -701,16 +701,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>(3) 登録処理</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -808,42 +798,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(2) 重複登録チェック</t>
-    <rPh sb="4" eb="6">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>指定された顧客データを登録する。</t>
-    <rPh sb="0" eb="1">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>(4) 応答電文作成</t>
-    <rPh sb="4" eb="6">
-      <t>オウトウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>デンブン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1114,6 +1068,152 @@
   <si>
     <t>200
 (OK)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>登録仕様については下記の通り。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出力項目名</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>出力情報</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>情報取得元</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>‐</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>入力データ</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(3) 重複登録チェック</t>
+    <rPh sb="4" eb="6">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(4) 登録処理</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(5) 応答電文作成</t>
+    <rPh sb="4" eb="6">
+      <t>オウトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>デンブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>(2) DBアクセス（登録処理）</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>指定された顧客データを(2)の登録仕様に沿って登録する。</t>
+    <rPh sb="0" eb="1">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DBによる自動採番</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1529,7 +1629,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1907,6 +2007,60 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2231,221 +2385,239 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6314,7 +6486,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="36"/>
       <c r="J23" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
@@ -6332,12 +6504,12 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="161">
+      <c r="I25" s="183">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44825</v>
       </c>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
       <c r="L25" s="36"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6968,57 +7140,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="202" t="s">
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="224" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="211" t="s">
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="220" t="s">
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="242" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="221"/>
-      <c r="U1" s="221"/>
-      <c r="V1" s="221"/>
-      <c r="W1" s="221"/>
-      <c r="X1" s="221"/>
-      <c r="Y1" s="221"/>
-      <c r="Z1" s="222"/>
-      <c r="AA1" s="208" t="s">
+      <c r="T1" s="243"/>
+      <c r="U1" s="243"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="243"/>
+      <c r="X1" s="243"/>
+      <c r="Y1" s="243"/>
+      <c r="Z1" s="244"/>
+      <c r="AA1" s="230" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="232"/>
+      <c r="AC1" s="214" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="195">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="217">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="196"/>
-      <c r="AI1" s="197"/>
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="219"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -7026,53 +7198,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="202" t="s">
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="224" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="223"/>
-      <c r="T2" s="224"/>
-      <c r="U2" s="224"/>
-      <c r="V2" s="224"/>
-      <c r="W2" s="224"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
-      <c r="Z2" s="225"/>
-      <c r="AA2" s="208" t="s">
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="245"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="246"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="246"/>
+      <c r="X2" s="246"/>
+      <c r="Y2" s="246"/>
+      <c r="Z2" s="247"/>
+      <c r="AA2" s="230" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="205" t="str">
+      <c r="AB2" s="232"/>
+      <c r="AC2" s="227" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="206"/>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="207"/>
-      <c r="AG2" s="195">
+      <c r="AD2" s="228"/>
+      <c r="AE2" s="228"/>
+      <c r="AF2" s="229"/>
+      <c r="AG2" s="217">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="197"/>
+      <c r="AH2" s="218"/>
+      <c r="AI2" s="219"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -7080,45 +7252,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="202" t="s">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="224" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="226"/>
-      <c r="T3" s="227"/>
-      <c r="U3" s="227"/>
-      <c r="V3" s="227"/>
-      <c r="W3" s="227"/>
-      <c r="X3" s="227"/>
-      <c r="Y3" s="227"/>
-      <c r="Z3" s="228"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="192"/>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="195"/>
-      <c r="AH3" s="196"/>
-      <c r="AI3" s="197"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="248"/>
+      <c r="T3" s="249"/>
+      <c r="U3" s="249"/>
+      <c r="V3" s="249"/>
+      <c r="W3" s="249"/>
+      <c r="X3" s="249"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="250"/>
+      <c r="AA3" s="230"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="214"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="217"/>
+      <c r="AH3" s="218"/>
+      <c r="AI3" s="219"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -7155,1042 +7327,1042 @@
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="198" t="s">
+      <c r="C7" s="221"/>
+      <c r="D7" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="198" t="s">
+      <c r="E7" s="222"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="200"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="222"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="223" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="198" t="s">
+      <c r="K7" s="222"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="221"/>
+      <c r="Q7" s="220" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="200"/>
-      <c r="W7" s="200"/>
-      <c r="X7" s="200"/>
-      <c r="Y7" s="200"/>
-      <c r="Z7" s="200"/>
-      <c r="AA7" s="200"/>
-      <c r="AB7" s="200"/>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="200"/>
-      <c r="AE7" s="199"/>
-      <c r="AF7" s="198" t="s">
+      <c r="R7" s="222"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="222"/>
+      <c r="U7" s="222"/>
+      <c r="V7" s="222"/>
+      <c r="W7" s="222"/>
+      <c r="X7" s="222"/>
+      <c r="Y7" s="222"/>
+      <c r="Z7" s="222"/>
+      <c r="AA7" s="222"/>
+      <c r="AB7" s="222"/>
+      <c r="AC7" s="222"/>
+      <c r="AD7" s="222"/>
+      <c r="AE7" s="221"/>
+      <c r="AF7" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="200"/>
-      <c r="AH7" s="200"/>
-      <c r="AI7" s="199"/>
+      <c r="AG7" s="222"/>
+      <c r="AH7" s="222"/>
+      <c r="AI7" s="221"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="114">
         <v>1</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="181">
+      <c r="C8" s="202"/>
+      <c r="D8" s="203">
         <v>43718</v>
       </c>
-      <c r="E8" s="182"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="184" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="185"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="186" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="187"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="189" t="s">
-        <v>139</v>
-      </c>
-      <c r="R8" s="190"/>
-      <c r="S8" s="190"/>
-      <c r="T8" s="190"/>
-      <c r="U8" s="190"/>
-      <c r="V8" s="190"/>
-      <c r="W8" s="190"/>
-      <c r="X8" s="190"/>
-      <c r="Y8" s="190"/>
-      <c r="Z8" s="190"/>
-      <c r="AA8" s="190"/>
-      <c r="AB8" s="190"/>
-      <c r="AC8" s="190"/>
-      <c r="AD8" s="190"/>
-      <c r="AE8" s="191"/>
-      <c r="AF8" s="186" t="s">
+      <c r="E8" s="204"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="206" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="207"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="208" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="209"/>
+      <c r="L8" s="209"/>
+      <c r="M8" s="209"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="209"/>
+      <c r="P8" s="210"/>
+      <c r="Q8" s="211" t="s">
+        <v>135</v>
+      </c>
+      <c r="R8" s="212"/>
+      <c r="S8" s="212"/>
+      <c r="T8" s="212"/>
+      <c r="U8" s="212"/>
+      <c r="V8" s="212"/>
+      <c r="W8" s="212"/>
+      <c r="X8" s="212"/>
+      <c r="Y8" s="212"/>
+      <c r="Z8" s="212"/>
+      <c r="AA8" s="212"/>
+      <c r="AB8" s="212"/>
+      <c r="AC8" s="212"/>
+      <c r="AD8" s="212"/>
+      <c r="AE8" s="213"/>
+      <c r="AF8" s="208" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="187"/>
-      <c r="AH8" s="187"/>
-      <c r="AI8" s="188"/>
+      <c r="AG8" s="209"/>
+      <c r="AH8" s="209"/>
+      <c r="AI8" s="210"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="115">
         <v>2</v>
       </c>
-      <c r="B9" s="175" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="164">
+      <c r="B9" s="197" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186">
         <v>44825</v>
       </c>
-      <c r="E9" s="165"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="176" t="s">
+      <c r="E9" s="187"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="189"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="199" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="167"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="177" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="169"/>
-      <c r="L9" s="169"/>
-      <c r="M9" s="169"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="177" t="s">
-        <v>142</v>
-      </c>
-      <c r="R9" s="172"/>
-      <c r="S9" s="172"/>
-      <c r="T9" s="172"/>
-      <c r="U9" s="172"/>
-      <c r="V9" s="172"/>
-      <c r="W9" s="172"/>
-      <c r="X9" s="172"/>
-      <c r="Y9" s="172"/>
-      <c r="Z9" s="172"/>
-      <c r="AA9" s="172"/>
-      <c r="AB9" s="172"/>
-      <c r="AC9" s="172"/>
-      <c r="AD9" s="172"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="178" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG9" s="169"/>
-      <c r="AH9" s="169"/>
-      <c r="AI9" s="170"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="199" t="s">
+        <v>138</v>
+      </c>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
+      <c r="AD9" s="194"/>
+      <c r="AE9" s="195"/>
+      <c r="AF9" s="200" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG9" s="191"/>
+      <c r="AH9" s="191"/>
+      <c r="AI9" s="192"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="115"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="169"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="172"/>
-      <c r="S10" s="172"/>
-      <c r="T10" s="172"/>
-      <c r="U10" s="172"/>
-      <c r="V10" s="172"/>
-      <c r="W10" s="172"/>
-      <c r="X10" s="172"/>
-      <c r="Y10" s="172"/>
-      <c r="Z10" s="172"/>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="172"/>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="172"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="168"/>
-      <c r="AG10" s="169"/>
-      <c r="AH10" s="169"/>
-      <c r="AI10" s="170"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="194"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="195"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="191"/>
+      <c r="AH10" s="191"/>
+      <c r="AI10" s="192"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="115"/>
-      <c r="B11" s="162"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="169"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="172"/>
-      <c r="S11" s="172"/>
-      <c r="T11" s="172"/>
-      <c r="U11" s="172"/>
-      <c r="V11" s="172"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="172"/>
-      <c r="Z11" s="172"/>
-      <c r="AA11" s="172"/>
-      <c r="AB11" s="172"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="168"/>
-      <c r="AG11" s="169"/>
-      <c r="AH11" s="169"/>
-      <c r="AI11" s="170"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="193"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="195"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="191"/>
+      <c r="AH11" s="191"/>
+      <c r="AI11" s="192"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="115"/>
-      <c r="B12" s="162"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="169"/>
-      <c r="N12" s="169"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="171"/>
-      <c r="R12" s="172"/>
-      <c r="S12" s="172"/>
-      <c r="T12" s="172"/>
-      <c r="U12" s="172"/>
-      <c r="V12" s="172"/>
-      <c r="W12" s="172"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="172"/>
-      <c r="Z12" s="172"/>
-      <c r="AA12" s="172"/>
-      <c r="AB12" s="172"/>
-      <c r="AC12" s="172"/>
-      <c r="AD12" s="172"/>
-      <c r="AE12" s="173"/>
-      <c r="AF12" s="168"/>
-      <c r="AG12" s="169"/>
-      <c r="AH12" s="169"/>
-      <c r="AI12" s="170"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="192"/>
+      <c r="Q12" s="193"/>
+      <c r="R12" s="194"/>
+      <c r="S12" s="194"/>
+      <c r="T12" s="194"/>
+      <c r="U12" s="194"/>
+      <c r="V12" s="194"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="195"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="191"/>
+      <c r="AH12" s="191"/>
+      <c r="AI12" s="192"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="115"/>
-      <c r="B13" s="162"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="168"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="169"/>
-      <c r="N13" s="169"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="172"/>
-      <c r="S13" s="172"/>
-      <c r="T13" s="172"/>
-      <c r="U13" s="172"/>
-      <c r="V13" s="172"/>
-      <c r="W13" s="172"/>
-      <c r="X13" s="172"/>
-      <c r="Y13" s="172"/>
-      <c r="Z13" s="172"/>
-      <c r="AA13" s="172"/>
-      <c r="AB13" s="172"/>
-      <c r="AC13" s="172"/>
-      <c r="AD13" s="172"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="168"/>
-      <c r="AG13" s="169"/>
-      <c r="AH13" s="169"/>
-      <c r="AI13" s="170"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="192"/>
+      <c r="Q13" s="193"/>
+      <c r="R13" s="194"/>
+      <c r="S13" s="194"/>
+      <c r="T13" s="194"/>
+      <c r="U13" s="194"/>
+      <c r="V13" s="194"/>
+      <c r="W13" s="194"/>
+      <c r="X13" s="194"/>
+      <c r="Y13" s="194"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="194"/>
+      <c r="AB13" s="194"/>
+      <c r="AC13" s="194"/>
+      <c r="AD13" s="194"/>
+      <c r="AE13" s="195"/>
+      <c r="AF13" s="190"/>
+      <c r="AG13" s="191"/>
+      <c r="AH13" s="191"/>
+      <c r="AI13" s="192"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="115"/>
-      <c r="B14" s="162"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="171"/>
-      <c r="R14" s="172"/>
-      <c r="S14" s="172"/>
-      <c r="T14" s="172"/>
-      <c r="U14" s="172"/>
-      <c r="V14" s="172"/>
-      <c r="W14" s="172"/>
-      <c r="X14" s="172"/>
-      <c r="Y14" s="172"/>
-      <c r="Z14" s="172"/>
-      <c r="AA14" s="172"/>
-      <c r="AB14" s="172"/>
-      <c r="AC14" s="172"/>
-      <c r="AD14" s="172"/>
-      <c r="AE14" s="173"/>
-      <c r="AF14" s="168"/>
-      <c r="AG14" s="169"/>
-      <c r="AH14" s="169"/>
-      <c r="AI14" s="170"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="192"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="194"/>
+      <c r="S14" s="194"/>
+      <c r="T14" s="194"/>
+      <c r="U14" s="194"/>
+      <c r="V14" s="194"/>
+      <c r="W14" s="194"/>
+      <c r="X14" s="194"/>
+      <c r="Y14" s="194"/>
+      <c r="Z14" s="194"/>
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="194"/>
+      <c r="AC14" s="194"/>
+      <c r="AD14" s="194"/>
+      <c r="AE14" s="195"/>
+      <c r="AF14" s="190"/>
+      <c r="AG14" s="191"/>
+      <c r="AH14" s="191"/>
+      <c r="AI14" s="192"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="115"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="172"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="172"/>
-      <c r="U15" s="172"/>
-      <c r="V15" s="172"/>
-      <c r="W15" s="172"/>
-      <c r="X15" s="172"/>
-      <c r="Y15" s="172"/>
-      <c r="Z15" s="172"/>
-      <c r="AA15" s="172"/>
-      <c r="AB15" s="172"/>
-      <c r="AC15" s="172"/>
-      <c r="AD15" s="172"/>
-      <c r="AE15" s="173"/>
-      <c r="AF15" s="168"/>
-      <c r="AG15" s="169"/>
-      <c r="AH15" s="169"/>
-      <c r="AI15" s="170"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="192"/>
+      <c r="Q15" s="193"/>
+      <c r="R15" s="194"/>
+      <c r="S15" s="194"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="194"/>
+      <c r="V15" s="194"/>
+      <c r="W15" s="194"/>
+      <c r="X15" s="194"/>
+      <c r="Y15" s="194"/>
+      <c r="Z15" s="194"/>
+      <c r="AA15" s="194"/>
+      <c r="AB15" s="194"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="194"/>
+      <c r="AE15" s="195"/>
+      <c r="AF15" s="190"/>
+      <c r="AG15" s="191"/>
+      <c r="AH15" s="191"/>
+      <c r="AI15" s="192"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="115"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="169"/>
-      <c r="N16" s="169"/>
-      <c r="O16" s="169"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="172"/>
-      <c r="U16" s="172"/>
-      <c r="V16" s="172"/>
-      <c r="W16" s="172"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="172"/>
-      <c r="Z16" s="172"/>
-      <c r="AA16" s="172"/>
-      <c r="AB16" s="172"/>
-      <c r="AC16" s="172"/>
-      <c r="AD16" s="172"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="168"/>
-      <c r="AG16" s="169"/>
-      <c r="AH16" s="169"/>
-      <c r="AI16" s="170"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="191"/>
+      <c r="O16" s="191"/>
+      <c r="P16" s="192"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="194"/>
+      <c r="S16" s="194"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="194"/>
+      <c r="AA16" s="194"/>
+      <c r="AB16" s="194"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="194"/>
+      <c r="AE16" s="195"/>
+      <c r="AF16" s="190"/>
+      <c r="AG16" s="191"/>
+      <c r="AH16" s="191"/>
+      <c r="AI16" s="192"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="115"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="169"/>
-      <c r="N17" s="169"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="171"/>
-      <c r="R17" s="172"/>
-      <c r="S17" s="172"/>
-      <c r="T17" s="172"/>
-      <c r="U17" s="172"/>
-      <c r="V17" s="172"/>
-      <c r="W17" s="172"/>
-      <c r="X17" s="172"/>
-      <c r="Y17" s="172"/>
-      <c r="Z17" s="172"/>
-      <c r="AA17" s="172"/>
-      <c r="AB17" s="172"/>
-      <c r="AC17" s="172"/>
-      <c r="AD17" s="172"/>
-      <c r="AE17" s="173"/>
-      <c r="AF17" s="168"/>
-      <c r="AG17" s="169"/>
-      <c r="AH17" s="169"/>
-      <c r="AI17" s="170"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="194"/>
+      <c r="X17" s="194"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="194"/>
+      <c r="AA17" s="194"/>
+      <c r="AB17" s="194"/>
+      <c r="AC17" s="194"/>
+      <c r="AD17" s="194"/>
+      <c r="AE17" s="195"/>
+      <c r="AF17" s="190"/>
+      <c r="AG17" s="191"/>
+      <c r="AH17" s="191"/>
+      <c r="AI17" s="192"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="115"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="171"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="172"/>
-      <c r="U18" s="172"/>
-      <c r="V18" s="172"/>
-      <c r="W18" s="172"/>
-      <c r="X18" s="172"/>
-      <c r="Y18" s="172"/>
-      <c r="Z18" s="172"/>
-      <c r="AA18" s="172"/>
-      <c r="AB18" s="172"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="172"/>
-      <c r="AE18" s="173"/>
-      <c r="AF18" s="168"/>
-      <c r="AG18" s="169"/>
-      <c r="AH18" s="169"/>
-      <c r="AI18" s="170"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="191"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="195"/>
+      <c r="AF18" s="190"/>
+      <c r="AG18" s="191"/>
+      <c r="AH18" s="191"/>
+      <c r="AI18" s="192"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="115"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="169"/>
-      <c r="M19" s="169"/>
-      <c r="N19" s="169"/>
-      <c r="O19" s="169"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="171"/>
-      <c r="R19" s="172"/>
-      <c r="S19" s="172"/>
-      <c r="T19" s="172"/>
-      <c r="U19" s="172"/>
-      <c r="V19" s="172"/>
-      <c r="W19" s="172"/>
-      <c r="X19" s="172"/>
-      <c r="Y19" s="172"/>
-      <c r="Z19" s="172"/>
-      <c r="AA19" s="172"/>
-      <c r="AB19" s="172"/>
-      <c r="AC19" s="172"/>
-      <c r="AD19" s="172"/>
-      <c r="AE19" s="173"/>
-      <c r="AF19" s="168"/>
-      <c r="AG19" s="169"/>
-      <c r="AH19" s="169"/>
-      <c r="AI19" s="170"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="191"/>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="192"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
+      <c r="V19" s="194"/>
+      <c r="W19" s="194"/>
+      <c r="X19" s="194"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="194"/>
+      <c r="AA19" s="194"/>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="194"/>
+      <c r="AD19" s="194"/>
+      <c r="AE19" s="195"/>
+      <c r="AF19" s="190"/>
+      <c r="AG19" s="191"/>
+      <c r="AH19" s="191"/>
+      <c r="AI19" s="192"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="115"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="171"/>
-      <c r="R20" s="172"/>
-      <c r="S20" s="172"/>
-      <c r="T20" s="172"/>
-      <c r="U20" s="172"/>
-      <c r="V20" s="172"/>
-      <c r="W20" s="172"/>
-      <c r="X20" s="172"/>
-      <c r="Y20" s="172"/>
-      <c r="Z20" s="172"/>
-      <c r="AA20" s="172"/>
-      <c r="AB20" s="172"/>
-      <c r="AC20" s="172"/>
-      <c r="AD20" s="172"/>
-      <c r="AE20" s="173"/>
-      <c r="AF20" s="168"/>
-      <c r="AG20" s="169"/>
-      <c r="AH20" s="169"/>
-      <c r="AI20" s="170"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="192"/>
+      <c r="Q20" s="193"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="194"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="194"/>
+      <c r="X20" s="194"/>
+      <c r="Y20" s="194"/>
+      <c r="Z20" s="194"/>
+      <c r="AA20" s="194"/>
+      <c r="AB20" s="194"/>
+      <c r="AC20" s="194"/>
+      <c r="AD20" s="194"/>
+      <c r="AE20" s="195"/>
+      <c r="AF20" s="190"/>
+      <c r="AG20" s="191"/>
+      <c r="AH20" s="191"/>
+      <c r="AI20" s="192"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="115"/>
-      <c r="B21" s="162"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="169"/>
-      <c r="N21" s="169"/>
-      <c r="O21" s="169"/>
-      <c r="P21" s="170"/>
-      <c r="Q21" s="171"/>
-      <c r="R21" s="172"/>
-      <c r="S21" s="172"/>
-      <c r="T21" s="172"/>
-      <c r="U21" s="172"/>
-      <c r="V21" s="172"/>
-      <c r="W21" s="172"/>
-      <c r="X21" s="172"/>
-      <c r="Y21" s="172"/>
-      <c r="Z21" s="172"/>
-      <c r="AA21" s="172"/>
-      <c r="AB21" s="172"/>
-      <c r="AC21" s="172"/>
-      <c r="AD21" s="172"/>
-      <c r="AE21" s="173"/>
-      <c r="AF21" s="168"/>
-      <c r="AG21" s="169"/>
-      <c r="AH21" s="169"/>
-      <c r="AI21" s="170"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="192"/>
+      <c r="Q21" s="193"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="194"/>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="194"/>
+      <c r="Y21" s="194"/>
+      <c r="Z21" s="194"/>
+      <c r="AA21" s="194"/>
+      <c r="AB21" s="194"/>
+      <c r="AC21" s="194"/>
+      <c r="AD21" s="194"/>
+      <c r="AE21" s="195"/>
+      <c r="AF21" s="190"/>
+      <c r="AG21" s="191"/>
+      <c r="AH21" s="191"/>
+      <c r="AI21" s="192"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="115"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="169"/>
-      <c r="P22" s="170"/>
-      <c r="Q22" s="171"/>
-      <c r="R22" s="172"/>
-      <c r="S22" s="172"/>
-      <c r="T22" s="172"/>
-      <c r="U22" s="172"/>
-      <c r="V22" s="172"/>
-      <c r="W22" s="172"/>
-      <c r="X22" s="172"/>
-      <c r="Y22" s="172"/>
-      <c r="Z22" s="172"/>
-      <c r="AA22" s="172"/>
-      <c r="AB22" s="172"/>
-      <c r="AC22" s="172"/>
-      <c r="AD22" s="172"/>
-      <c r="AE22" s="173"/>
-      <c r="AF22" s="168"/>
-      <c r="AG22" s="169"/>
-      <c r="AH22" s="169"/>
-      <c r="AI22" s="170"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="192"/>
+      <c r="Q22" s="193"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="194"/>
+      <c r="T22" s="194"/>
+      <c r="U22" s="194"/>
+      <c r="V22" s="194"/>
+      <c r="W22" s="194"/>
+      <c r="X22" s="194"/>
+      <c r="Y22" s="194"/>
+      <c r="Z22" s="194"/>
+      <c r="AA22" s="194"/>
+      <c r="AB22" s="194"/>
+      <c r="AC22" s="194"/>
+      <c r="AD22" s="194"/>
+      <c r="AE22" s="195"/>
+      <c r="AF22" s="190"/>
+      <c r="AG22" s="191"/>
+      <c r="AH22" s="191"/>
+      <c r="AI22" s="192"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="115"/>
-      <c r="B23" s="162"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="169"/>
-      <c r="O23" s="169"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="171"/>
-      <c r="R23" s="172"/>
-      <c r="S23" s="172"/>
-      <c r="T23" s="172"/>
-      <c r="U23" s="172"/>
-      <c r="V23" s="172"/>
-      <c r="W23" s="172"/>
-      <c r="X23" s="172"/>
-      <c r="Y23" s="172"/>
-      <c r="Z23" s="172"/>
-      <c r="AA23" s="172"/>
-      <c r="AB23" s="172"/>
-      <c r="AC23" s="172"/>
-      <c r="AD23" s="172"/>
-      <c r="AE23" s="173"/>
-      <c r="AF23" s="168"/>
-      <c r="AG23" s="169"/>
-      <c r="AH23" s="169"/>
-      <c r="AI23" s="170"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="193"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="194"/>
+      <c r="T23" s="194"/>
+      <c r="U23" s="194"/>
+      <c r="V23" s="194"/>
+      <c r="W23" s="194"/>
+      <c r="X23" s="194"/>
+      <c r="Y23" s="194"/>
+      <c r="Z23" s="194"/>
+      <c r="AA23" s="194"/>
+      <c r="AB23" s="194"/>
+      <c r="AC23" s="194"/>
+      <c r="AD23" s="194"/>
+      <c r="AE23" s="195"/>
+      <c r="AF23" s="190"/>
+      <c r="AG23" s="191"/>
+      <c r="AH23" s="191"/>
+      <c r="AI23" s="192"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="115"/>
-      <c r="B24" s="162"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="169"/>
-      <c r="M24" s="169"/>
-      <c r="N24" s="169"/>
-      <c r="O24" s="169"/>
-      <c r="P24" s="170"/>
-      <c r="Q24" s="171"/>
-      <c r="R24" s="172"/>
-      <c r="S24" s="172"/>
-      <c r="T24" s="172"/>
-      <c r="U24" s="172"/>
-      <c r="V24" s="172"/>
-      <c r="W24" s="172"/>
-      <c r="X24" s="172"/>
-      <c r="Y24" s="172"/>
-      <c r="Z24" s="172"/>
-      <c r="AA24" s="172"/>
-      <c r="AB24" s="172"/>
-      <c r="AC24" s="172"/>
-      <c r="AD24" s="172"/>
-      <c r="AE24" s="173"/>
-      <c r="AF24" s="168"/>
-      <c r="AG24" s="169"/>
-      <c r="AH24" s="169"/>
-      <c r="AI24" s="170"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
+      <c r="P24" s="192"/>
+      <c r="Q24" s="193"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="194"/>
+      <c r="U24" s="194"/>
+      <c r="V24" s="194"/>
+      <c r="W24" s="194"/>
+      <c r="X24" s="194"/>
+      <c r="Y24" s="194"/>
+      <c r="Z24" s="194"/>
+      <c r="AA24" s="194"/>
+      <c r="AB24" s="194"/>
+      <c r="AC24" s="194"/>
+      <c r="AD24" s="194"/>
+      <c r="AE24" s="195"/>
+      <c r="AF24" s="190"/>
+      <c r="AG24" s="191"/>
+      <c r="AH24" s="191"/>
+      <c r="AI24" s="192"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="115"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="169"/>
-      <c r="M25" s="169"/>
-      <c r="N25" s="169"/>
-      <c r="O25" s="169"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="171"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
-      <c r="T25" s="172"/>
-      <c r="U25" s="172"/>
-      <c r="V25" s="172"/>
-      <c r="W25" s="172"/>
-      <c r="X25" s="172"/>
-      <c r="Y25" s="172"/>
-      <c r="Z25" s="172"/>
-      <c r="AA25" s="172"/>
-      <c r="AB25" s="172"/>
-      <c r="AC25" s="172"/>
-      <c r="AD25" s="172"/>
-      <c r="AE25" s="173"/>
-      <c r="AF25" s="168"/>
-      <c r="AG25" s="169"/>
-      <c r="AH25" s="169"/>
-      <c r="AI25" s="170"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="192"/>
+      <c r="Q25" s="193"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="194"/>
+      <c r="V25" s="194"/>
+      <c r="W25" s="194"/>
+      <c r="X25" s="194"/>
+      <c r="Y25" s="194"/>
+      <c r="Z25" s="194"/>
+      <c r="AA25" s="194"/>
+      <c r="AB25" s="194"/>
+      <c r="AC25" s="194"/>
+      <c r="AD25" s="194"/>
+      <c r="AE25" s="195"/>
+      <c r="AF25" s="190"/>
+      <c r="AG25" s="191"/>
+      <c r="AH25" s="191"/>
+      <c r="AI25" s="192"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="115"/>
-      <c r="B26" s="162"/>
-      <c r="C26" s="163"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="169"/>
-      <c r="N26" s="169"/>
-      <c r="O26" s="169"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="171"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172"/>
-      <c r="U26" s="172"/>
-      <c r="V26" s="172"/>
-      <c r="W26" s="172"/>
-      <c r="X26" s="172"/>
-      <c r="Y26" s="172"/>
-      <c r="Z26" s="172"/>
-      <c r="AA26" s="172"/>
-      <c r="AB26" s="172"/>
-      <c r="AC26" s="172"/>
-      <c r="AD26" s="172"/>
-      <c r="AE26" s="173"/>
-      <c r="AF26" s="168"/>
-      <c r="AG26" s="169"/>
-      <c r="AH26" s="169"/>
-      <c r="AI26" s="170"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="191"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="192"/>
+      <c r="Q26" s="193"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="194"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="194"/>
+      <c r="Y26" s="194"/>
+      <c r="Z26" s="194"/>
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="194"/>
+      <c r="AC26" s="194"/>
+      <c r="AD26" s="194"/>
+      <c r="AE26" s="195"/>
+      <c r="AF26" s="190"/>
+      <c r="AG26" s="191"/>
+      <c r="AH26" s="191"/>
+      <c r="AI26" s="192"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="115"/>
-      <c r="B27" s="162"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="164"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="169"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="169"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="171"/>
-      <c r="R27" s="172"/>
-      <c r="S27" s="172"/>
-      <c r="T27" s="172"/>
-      <c r="U27" s="172"/>
-      <c r="V27" s="172"/>
-      <c r="W27" s="172"/>
-      <c r="X27" s="172"/>
-      <c r="Y27" s="172"/>
-      <c r="Z27" s="172"/>
-      <c r="AA27" s="172"/>
-      <c r="AB27" s="172"/>
-      <c r="AC27" s="172"/>
-      <c r="AD27" s="172"/>
-      <c r="AE27" s="173"/>
-      <c r="AF27" s="168"/>
-      <c r="AG27" s="169"/>
-      <c r="AH27" s="169"/>
-      <c r="AI27" s="170"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="191"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="192"/>
+      <c r="Q27" s="193"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="194"/>
+      <c r="W27" s="194"/>
+      <c r="X27" s="194"/>
+      <c r="Y27" s="194"/>
+      <c r="Z27" s="194"/>
+      <c r="AA27" s="194"/>
+      <c r="AB27" s="194"/>
+      <c r="AC27" s="194"/>
+      <c r="AD27" s="194"/>
+      <c r="AE27" s="195"/>
+      <c r="AF27" s="190"/>
+      <c r="AG27" s="191"/>
+      <c r="AH27" s="191"/>
+      <c r="AI27" s="192"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="115"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="169"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="169"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="171"/>
-      <c r="R28" s="172"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="172"/>
-      <c r="U28" s="172"/>
-      <c r="V28" s="172"/>
-      <c r="W28" s="172"/>
-      <c r="X28" s="172"/>
-      <c r="Y28" s="172"/>
-      <c r="Z28" s="172"/>
-      <c r="AA28" s="172"/>
-      <c r="AB28" s="172"/>
-      <c r="AC28" s="172"/>
-      <c r="AD28" s="172"/>
-      <c r="AE28" s="173"/>
-      <c r="AF28" s="168"/>
-      <c r="AG28" s="169"/>
-      <c r="AH28" s="169"/>
-      <c r="AI28" s="170"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="191"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="191"/>
+      <c r="O28" s="191"/>
+      <c r="P28" s="192"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
+      <c r="S28" s="194"/>
+      <c r="T28" s="194"/>
+      <c r="U28" s="194"/>
+      <c r="V28" s="194"/>
+      <c r="W28" s="194"/>
+      <c r="X28" s="194"/>
+      <c r="Y28" s="194"/>
+      <c r="Z28" s="194"/>
+      <c r="AA28" s="194"/>
+      <c r="AB28" s="194"/>
+      <c r="AC28" s="194"/>
+      <c r="AD28" s="194"/>
+      <c r="AE28" s="195"/>
+      <c r="AF28" s="190"/>
+      <c r="AG28" s="191"/>
+      <c r="AH28" s="191"/>
+      <c r="AI28" s="192"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="115"/>
-      <c r="B29" s="162"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="169"/>
-      <c r="M29" s="169"/>
-      <c r="N29" s="169"/>
-      <c r="O29" s="169"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="171"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="172"/>
-      <c r="T29" s="172"/>
-      <c r="U29" s="172"/>
-      <c r="V29" s="172"/>
-      <c r="W29" s="172"/>
-      <c r="X29" s="172"/>
-      <c r="Y29" s="172"/>
-      <c r="Z29" s="172"/>
-      <c r="AA29" s="172"/>
-      <c r="AB29" s="172"/>
-      <c r="AC29" s="172"/>
-      <c r="AD29" s="172"/>
-      <c r="AE29" s="173"/>
-      <c r="AF29" s="168"/>
-      <c r="AG29" s="169"/>
-      <c r="AH29" s="169"/>
-      <c r="AI29" s="170"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="191"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="192"/>
+      <c r="Q29" s="193"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="194"/>
+      <c r="T29" s="194"/>
+      <c r="U29" s="194"/>
+      <c r="V29" s="194"/>
+      <c r="W29" s="194"/>
+      <c r="X29" s="194"/>
+      <c r="Y29" s="194"/>
+      <c r="Z29" s="194"/>
+      <c r="AA29" s="194"/>
+      <c r="AB29" s="194"/>
+      <c r="AC29" s="194"/>
+      <c r="AD29" s="194"/>
+      <c r="AE29" s="195"/>
+      <c r="AF29" s="190"/>
+      <c r="AG29" s="191"/>
+      <c r="AH29" s="191"/>
+      <c r="AI29" s="192"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="115"/>
-      <c r="B30" s="162"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="169"/>
-      <c r="N30" s="169"/>
-      <c r="O30" s="169"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="171"/>
-      <c r="R30" s="172"/>
-      <c r="S30" s="172"/>
-      <c r="T30" s="172"/>
-      <c r="U30" s="172"/>
-      <c r="V30" s="172"/>
-      <c r="W30" s="172"/>
-      <c r="X30" s="172"/>
-      <c r="Y30" s="172"/>
-      <c r="Z30" s="172"/>
-      <c r="AA30" s="172"/>
-      <c r="AB30" s="172"/>
-      <c r="AC30" s="172"/>
-      <c r="AD30" s="172"/>
-      <c r="AE30" s="173"/>
-      <c r="AF30" s="168"/>
-      <c r="AG30" s="169"/>
-      <c r="AH30" s="169"/>
-      <c r="AI30" s="170"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="192"/>
+      <c r="Q30" s="193"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="194"/>
+      <c r="U30" s="194"/>
+      <c r="V30" s="194"/>
+      <c r="W30" s="194"/>
+      <c r="X30" s="194"/>
+      <c r="Y30" s="194"/>
+      <c r="Z30" s="194"/>
+      <c r="AA30" s="194"/>
+      <c r="AB30" s="194"/>
+      <c r="AC30" s="194"/>
+      <c r="AD30" s="194"/>
+      <c r="AE30" s="195"/>
+      <c r="AF30" s="190"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="192"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="115"/>
-      <c r="B31" s="162"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="162"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="169"/>
-      <c r="N31" s="169"/>
-      <c r="O31" s="169"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="171"/>
-      <c r="R31" s="172"/>
-      <c r="S31" s="172"/>
-      <c r="T31" s="172"/>
-      <c r="U31" s="172"/>
-      <c r="V31" s="172"/>
-      <c r="W31" s="172"/>
-      <c r="X31" s="172"/>
-      <c r="Y31" s="172"/>
-      <c r="Z31" s="172"/>
-      <c r="AA31" s="172"/>
-      <c r="AB31" s="172"/>
-      <c r="AC31" s="172"/>
-      <c r="AD31" s="172"/>
-      <c r="AE31" s="173"/>
-      <c r="AF31" s="168"/>
-      <c r="AG31" s="169"/>
-      <c r="AH31" s="169"/>
-      <c r="AI31" s="170"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="191"/>
+      <c r="L31" s="191"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="191"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="192"/>
+      <c r="Q31" s="193"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="194"/>
+      <c r="T31" s="194"/>
+      <c r="U31" s="194"/>
+      <c r="V31" s="194"/>
+      <c r="W31" s="194"/>
+      <c r="X31" s="194"/>
+      <c r="Y31" s="194"/>
+      <c r="Z31" s="194"/>
+      <c r="AA31" s="194"/>
+      <c r="AB31" s="194"/>
+      <c r="AC31" s="194"/>
+      <c r="AD31" s="194"/>
+      <c r="AE31" s="195"/>
+      <c r="AF31" s="190"/>
+      <c r="AG31" s="191"/>
+      <c r="AH31" s="191"/>
+      <c r="AI31" s="192"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="115"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="168"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="169"/>
-      <c r="O32" s="169"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="171"/>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
-      <c r="T32" s="172"/>
-      <c r="U32" s="172"/>
-      <c r="V32" s="172"/>
-      <c r="W32" s="172"/>
-      <c r="X32" s="172"/>
-      <c r="Y32" s="172"/>
-      <c r="Z32" s="172"/>
-      <c r="AA32" s="172"/>
-      <c r="AB32" s="172"/>
-      <c r="AC32" s="172"/>
-      <c r="AD32" s="172"/>
-      <c r="AE32" s="173"/>
-      <c r="AF32" s="168"/>
-      <c r="AG32" s="169"/>
-      <c r="AH32" s="169"/>
-      <c r="AI32" s="170"/>
+      <c r="B32" s="184"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="191"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="192"/>
+      <c r="Q32" s="193"/>
+      <c r="R32" s="194"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="194"/>
+      <c r="U32" s="194"/>
+      <c r="V32" s="194"/>
+      <c r="W32" s="194"/>
+      <c r="X32" s="194"/>
+      <c r="Y32" s="194"/>
+      <c r="Z32" s="194"/>
+      <c r="AA32" s="194"/>
+      <c r="AB32" s="194"/>
+      <c r="AC32" s="194"/>
+      <c r="AD32" s="194"/>
+      <c r="AE32" s="195"/>
+      <c r="AF32" s="190"/>
+      <c r="AG32" s="191"/>
+      <c r="AH32" s="191"/>
+      <c r="AI32" s="192"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="115"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="169"/>
-      <c r="N33" s="169"/>
-      <c r="O33" s="169"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="171"/>
-      <c r="R33" s="172"/>
-      <c r="S33" s="172"/>
-      <c r="T33" s="172"/>
-      <c r="U33" s="172"/>
-      <c r="V33" s="172"/>
-      <c r="W33" s="172"/>
-      <c r="X33" s="172"/>
-      <c r="Y33" s="172"/>
-      <c r="Z33" s="172"/>
-      <c r="AA33" s="172"/>
-      <c r="AB33" s="172"/>
-      <c r="AC33" s="172"/>
-      <c r="AD33" s="172"/>
-      <c r="AE33" s="173"/>
-      <c r="AF33" s="168"/>
-      <c r="AG33" s="169"/>
-      <c r="AH33" s="169"/>
-      <c r="AI33" s="170"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="191"/>
+      <c r="P33" s="192"/>
+      <c r="Q33" s="193"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="194"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="194"/>
+      <c r="V33" s="194"/>
+      <c r="W33" s="194"/>
+      <c r="X33" s="194"/>
+      <c r="Y33" s="194"/>
+      <c r="Z33" s="194"/>
+      <c r="AA33" s="194"/>
+      <c r="AB33" s="194"/>
+      <c r="AC33" s="194"/>
+      <c r="AD33" s="194"/>
+      <c r="AE33" s="195"/>
+      <c r="AF33" s="190"/>
+      <c r="AG33" s="191"/>
+      <c r="AH33" s="191"/>
+      <c r="AI33" s="192"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="23"/>
@@ -8532,157 +8704,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="242" t="s">
+      <c r="A1" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="232" t="str">
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="245" t="s">
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="246"/>
-      <c r="Q1" s="246"/>
-      <c r="R1" s="247"/>
-      <c r="S1" s="233" t="str">
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="269"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="234"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="242" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="264" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="244"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="266"/>
+      <c r="AC1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="229">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="230"/>
-      <c r="AI1" s="231"/>
+      <c r="AH1" s="252"/>
+      <c r="AI1" s="253"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="242" t="s">
+      <c r="A2" s="264" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="232" t="str">
+      <c r="B2" s="265"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="248"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="250"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="238"/>
-      <c r="AA2" s="242" t="s">
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="270"/>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
+      <c r="R2" s="272"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="264" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="244"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="266"/>
+      <c r="AC2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="229">
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="251">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="230"/>
-      <c r="AI2" s="231"/>
+      <c r="AH2" s="252"/>
+      <c r="AI2" s="253"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="264" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="232" t="str">
+      <c r="B3" s="265"/>
+      <c r="C3" s="265"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="251"/>
-      <c r="P3" s="252"/>
-      <c r="Q3" s="252"/>
-      <c r="R3" s="253"/>
-      <c r="S3" s="239"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="242"/>
-      <c r="AB3" s="244"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="274"/>
+      <c r="Q3" s="274"/>
+      <c r="R3" s="275"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="264"/>
+      <c r="AB3" s="266"/>
+      <c r="AC3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="229" t="str">
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="251" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="230"/>
-      <c r="AI3" s="231"/>
+      <c r="AH3" s="252"/>
+      <c r="AI3" s="253"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42"/>
@@ -10194,157 +10366,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="232" t="str">
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="211" t="s">
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="233" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="233" t="str">
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="234"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="208" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="232"/>
+      <c r="AC1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
+      <c r="AH1" s="287"/>
+      <c r="AI1" s="288"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="232" t="str">
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="238"/>
-      <c r="AA2" s="208" t="s">
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="232"/>
+      <c r="AC2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="264">
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
+      <c r="AH2" s="287"/>
+      <c r="AI2" s="288"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="232" t="str">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="239"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="230"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="264" t="str">
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="286" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
+      <c r="AH3" s="287"/>
+      <c r="AI3" s="288"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -10500,92 +10672,92 @@
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="257" t="s">
+      <c r="D8" s="279" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="258"/>
-      <c r="F8" s="258"/>
-      <c r="G8" s="259"/>
-      <c r="H8" s="267" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="268"/>
-      <c r="J8" s="268"/>
-      <c r="K8" s="268"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="268"/>
-      <c r="N8" s="268"/>
-      <c r="O8" s="268"/>
-      <c r="P8" s="268"/>
-      <c r="Q8" s="268"/>
-      <c r="R8" s="268"/>
-      <c r="S8" s="268"/>
-      <c r="T8" s="268"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="268"/>
-      <c r="W8" s="268"/>
-      <c r="X8" s="268"/>
-      <c r="Y8" s="268"/>
-      <c r="Z8" s="268"/>
-      <c r="AA8" s="268"/>
-      <c r="AB8" s="268"/>
-      <c r="AC8" s="268"/>
-      <c r="AD8" s="268"/>
-      <c r="AE8" s="268"/>
-      <c r="AF8" s="268"/>
-      <c r="AG8" s="268"/>
-      <c r="AH8" s="268"/>
+      <c r="E8" s="280"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="281"/>
+      <c r="H8" s="289" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="290"/>
+      <c r="J8" s="290"/>
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="290"/>
+      <c r="R8" s="290"/>
+      <c r="S8" s="290"/>
+      <c r="T8" s="290"/>
+      <c r="U8" s="290"/>
+      <c r="V8" s="290"/>
+      <c r="W8" s="290"/>
+      <c r="X8" s="290"/>
+      <c r="Y8" s="290"/>
+      <c r="Z8" s="290"/>
+      <c r="AA8" s="290"/>
+      <c r="AB8" s="290"/>
+      <c r="AC8" s="290"/>
+      <c r="AD8" s="290"/>
+      <c r="AE8" s="290"/>
+      <c r="AF8" s="290"/>
+      <c r="AG8" s="290"/>
+      <c r="AH8" s="290"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="257" t="s">
+      <c r="D9" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="258"/>
-      <c r="F9" s="258"/>
-      <c r="G9" s="259"/>
-      <c r="H9" s="263" t="s">
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="281"/>
+      <c r="H9" s="285" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="263"/>
-      <c r="J9" s="263"/>
-      <c r="K9" s="263"/>
-      <c r="L9" s="263"/>
-      <c r="M9" s="263"/>
-      <c r="N9" s="263"/>
-      <c r="O9" s="263"/>
-      <c r="P9" s="263"/>
-      <c r="Q9" s="263"/>
-      <c r="R9" s="263"/>
-      <c r="S9" s="263"/>
-      <c r="T9" s="263"/>
-      <c r="U9" s="263"/>
-      <c r="V9" s="263"/>
-      <c r="W9" s="263"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="263"/>
-      <c r="Z9" s="263"/>
-      <c r="AA9" s="263"/>
-      <c r="AB9" s="263"/>
-      <c r="AC9" s="263"/>
-      <c r="AD9" s="263"/>
-      <c r="AE9" s="263"/>
-      <c r="AF9" s="263"/>
-      <c r="AG9" s="263"/>
-      <c r="AH9" s="263"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="285"/>
+      <c r="K9" s="285"/>
+      <c r="L9" s="285"/>
+      <c r="M9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="285"/>
+      <c r="Q9" s="285"/>
+      <c r="R9" s="285"/>
+      <c r="S9" s="285"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="285"/>
+      <c r="V9" s="285"/>
+      <c r="W9" s="285"/>
+      <c r="X9" s="285"/>
+      <c r="Y9" s="285"/>
+      <c r="Z9" s="285"/>
+      <c r="AA9" s="285"/>
+      <c r="AB9" s="285"/>
+      <c r="AC9" s="285"/>
+      <c r="AD9" s="285"/>
+      <c r="AE9" s="285"/>
+      <c r="AF9" s="285"/>
+      <c r="AG9" s="285"/>
+      <c r="AH9" s="285"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="254" t="s">
+      <c r="D10" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="255"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="256"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
+      <c r="G10" s="278"/>
       <c r="H10" s="100" t="s">
         <v>75</v>
       </c>
@@ -10620,174 +10792,174 @@
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="257" t="s">
+      <c r="D11" s="279" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="258"/>
-      <c r="F11" s="258"/>
-      <c r="G11" s="259"/>
-      <c r="H11" s="267" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="268"/>
-      <c r="J11" s="268"/>
-      <c r="K11" s="268"/>
-      <c r="L11" s="268"/>
-      <c r="M11" s="268"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="268"/>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="268"/>
-      <c r="R11" s="268"/>
-      <c r="S11" s="268"/>
-      <c r="T11" s="268"/>
-      <c r="U11" s="268"/>
-      <c r="V11" s="268"/>
-      <c r="W11" s="268"/>
-      <c r="X11" s="268"/>
-      <c r="Y11" s="268"/>
-      <c r="Z11" s="268"/>
-      <c r="AA11" s="268"/>
-      <c r="AB11" s="268"/>
-      <c r="AC11" s="268"/>
-      <c r="AD11" s="268"/>
-      <c r="AE11" s="268"/>
-      <c r="AF11" s="268"/>
-      <c r="AG11" s="268"/>
-      <c r="AH11" s="268"/>
+      <c r="E11" s="280"/>
+      <c r="F11" s="280"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="289" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="290"/>
+      <c r="J11" s="290"/>
+      <c r="K11" s="290"/>
+      <c r="L11" s="290"/>
+      <c r="M11" s="290"/>
+      <c r="N11" s="290"/>
+      <c r="O11" s="290"/>
+      <c r="P11" s="290"/>
+      <c r="Q11" s="290"/>
+      <c r="R11" s="290"/>
+      <c r="S11" s="290"/>
+      <c r="T11" s="290"/>
+      <c r="U11" s="290"/>
+      <c r="V11" s="290"/>
+      <c r="W11" s="290"/>
+      <c r="X11" s="290"/>
+      <c r="Y11" s="290"/>
+      <c r="Z11" s="290"/>
+      <c r="AA11" s="290"/>
+      <c r="AB11" s="290"/>
+      <c r="AC11" s="290"/>
+      <c r="AD11" s="290"/>
+      <c r="AE11" s="290"/>
+      <c r="AF11" s="290"/>
+      <c r="AG11" s="290"/>
+      <c r="AH11" s="290"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="257" t="s">
+      <c r="D12" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="258"/>
-      <c r="F12" s="258"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="263" t="s">
+      <c r="E12" s="280"/>
+      <c r="F12" s="280"/>
+      <c r="G12" s="281"/>
+      <c r="H12" s="285" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="263"/>
-      <c r="J12" s="263"/>
-      <c r="K12" s="263"/>
-      <c r="L12" s="263"/>
-      <c r="M12" s="263"/>
-      <c r="N12" s="263"/>
-      <c r="O12" s="263"/>
-      <c r="P12" s="263"/>
-      <c r="Q12" s="263"/>
-      <c r="R12" s="263"/>
-      <c r="S12" s="263"/>
-      <c r="T12" s="263"/>
-      <c r="U12" s="263"/>
-      <c r="V12" s="263"/>
-      <c r="W12" s="263"/>
-      <c r="X12" s="263"/>
-      <c r="Y12" s="263"/>
-      <c r="Z12" s="263"/>
-      <c r="AA12" s="263"/>
-      <c r="AB12" s="263"/>
-      <c r="AC12" s="263"/>
-      <c r="AD12" s="263"/>
-      <c r="AE12" s="263"/>
-      <c r="AF12" s="263"/>
-      <c r="AG12" s="263"/>
-      <c r="AH12" s="263"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
+      <c r="K12" s="285"/>
+      <c r="L12" s="285"/>
+      <c r="M12" s="285"/>
+      <c r="N12" s="285"/>
+      <c r="O12" s="285"/>
+      <c r="P12" s="285"/>
+      <c r="Q12" s="285"/>
+      <c r="R12" s="285"/>
+      <c r="S12" s="285"/>
+      <c r="T12" s="285"/>
+      <c r="U12" s="285"/>
+      <c r="V12" s="285"/>
+      <c r="W12" s="285"/>
+      <c r="X12" s="285"/>
+      <c r="Y12" s="285"/>
+      <c r="Z12" s="285"/>
+      <c r="AA12" s="285"/>
+      <c r="AB12" s="285"/>
+      <c r="AC12" s="285"/>
+      <c r="AD12" s="285"/>
+      <c r="AE12" s="285"/>
+      <c r="AF12" s="285"/>
+      <c r="AG12" s="285"/>
+      <c r="AH12" s="285"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="257" t="s">
+      <c r="D13" s="279" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="258"/>
-      <c r="F13" s="258"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="263" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="263"/>
-      <c r="J13" s="263"/>
-      <c r="K13" s="263"/>
-      <c r="L13" s="263"/>
-      <c r="M13" s="263"/>
-      <c r="N13" s="263"/>
-      <c r="O13" s="263"/>
-      <c r="P13" s="263"/>
-      <c r="Q13" s="263"/>
-      <c r="R13" s="263"/>
-      <c r="S13" s="263"/>
-      <c r="T13" s="263"/>
-      <c r="U13" s="263"/>
-      <c r="V13" s="263"/>
-      <c r="W13" s="263"/>
-      <c r="X13" s="263"/>
-      <c r="Y13" s="263"/>
-      <c r="Z13" s="263"/>
-      <c r="AA13" s="263"/>
-      <c r="AB13" s="263"/>
-      <c r="AC13" s="263"/>
-      <c r="AD13" s="263"/>
-      <c r="AE13" s="263"/>
-      <c r="AF13" s="263"/>
-      <c r="AG13" s="263"/>
-      <c r="AH13" s="263"/>
+      <c r="E13" s="280"/>
+      <c r="F13" s="280"/>
+      <c r="G13" s="281"/>
+      <c r="H13" s="285" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="285"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="285"/>
+      <c r="M13" s="285"/>
+      <c r="N13" s="285"/>
+      <c r="O13" s="285"/>
+      <c r="P13" s="285"/>
+      <c r="Q13" s="285"/>
+      <c r="R13" s="285"/>
+      <c r="S13" s="285"/>
+      <c r="T13" s="285"/>
+      <c r="U13" s="285"/>
+      <c r="V13" s="285"/>
+      <c r="W13" s="285"/>
+      <c r="X13" s="285"/>
+      <c r="Y13" s="285"/>
+      <c r="Z13" s="285"/>
+      <c r="AA13" s="285"/>
+      <c r="AB13" s="285"/>
+      <c r="AC13" s="285"/>
+      <c r="AD13" s="285"/>
+      <c r="AE13" s="285"/>
+      <c r="AF13" s="285"/>
+      <c r="AG13" s="285"/>
+      <c r="AH13" s="285"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="257" t="s">
+      <c r="D14" s="279" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="258"/>
-      <c r="F14" s="258"/>
-      <c r="G14" s="259"/>
-      <c r="H14" s="263" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="263"/>
-      <c r="J14" s="263"/>
-      <c r="K14" s="263"/>
-      <c r="L14" s="263"/>
-      <c r="M14" s="263"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="263"/>
-      <c r="P14" s="263"/>
-      <c r="Q14" s="263"/>
-      <c r="R14" s="263"/>
-      <c r="S14" s="263"/>
-      <c r="T14" s="263"/>
-      <c r="U14" s="263"/>
-      <c r="V14" s="263"/>
-      <c r="W14" s="263"/>
-      <c r="X14" s="263"/>
-      <c r="Y14" s="263"/>
-      <c r="Z14" s="263"/>
-      <c r="AA14" s="263"/>
-      <c r="AB14" s="263"/>
-      <c r="AC14" s="263"/>
-      <c r="AD14" s="263"/>
-      <c r="AE14" s="263"/>
-      <c r="AF14" s="263"/>
-      <c r="AG14" s="263"/>
-      <c r="AH14" s="263"/>
+      <c r="E14" s="280"/>
+      <c r="F14" s="280"/>
+      <c r="G14" s="281"/>
+      <c r="H14" s="285" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="285"/>
+      <c r="J14" s="285"/>
+      <c r="K14" s="285"/>
+      <c r="L14" s="285"/>
+      <c r="M14" s="285"/>
+      <c r="N14" s="285"/>
+      <c r="O14" s="285"/>
+      <c r="P14" s="285"/>
+      <c r="Q14" s="285"/>
+      <c r="R14" s="285"/>
+      <c r="S14" s="285"/>
+      <c r="T14" s="285"/>
+      <c r="U14" s="285"/>
+      <c r="V14" s="285"/>
+      <c r="W14" s="285"/>
+      <c r="X14" s="285"/>
+      <c r="Y14" s="285"/>
+      <c r="Z14" s="285"/>
+      <c r="AA14" s="285"/>
+      <c r="AB14" s="285"/>
+      <c r="AC14" s="285"/>
+      <c r="AD14" s="285"/>
+      <c r="AE14" s="285"/>
+      <c r="AF14" s="285"/>
+      <c r="AG14" s="285"/>
+      <c r="AH14" s="285"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="257" t="s">
+      <c r="D15" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="258"/>
-      <c r="F15" s="258"/>
-      <c r="G15" s="259"/>
+      <c r="E15" s="280"/>
+      <c r="F15" s="280"/>
+      <c r="G15" s="281"/>
       <c r="H15" s="128" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" s="129"/>
       <c r="J15" s="129"/>
@@ -10937,30 +11109,30 @@
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
-      <c r="G19" s="262"/>
-      <c r="H19" s="262"/>
-      <c r="I19" s="262"/>
-      <c r="J19" s="262"/>
-      <c r="K19" s="262"/>
-      <c r="L19" s="262"/>
-      <c r="M19" s="262"/>
-      <c r="N19" s="262"/>
-      <c r="O19" s="260"/>
-      <c r="P19" s="261"/>
-      <c r="Q19" s="261"/>
-      <c r="R19" s="261"/>
-      <c r="S19" s="261"/>
-      <c r="T19" s="261"/>
-      <c r="U19" s="261"/>
-      <c r="V19" s="261"/>
-      <c r="W19" s="261"/>
-      <c r="X19" s="261"/>
-      <c r="Y19" s="261"/>
-      <c r="Z19" s="261"/>
-      <c r="AA19" s="261"/>
-      <c r="AB19" s="261"/>
-      <c r="AC19" s="261"/>
-      <c r="AD19" s="261"/>
+      <c r="G19" s="284"/>
+      <c r="H19" s="284"/>
+      <c r="I19" s="284"/>
+      <c r="J19" s="284"/>
+      <c r="K19" s="284"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="284"/>
+      <c r="N19" s="284"/>
+      <c r="O19" s="282"/>
+      <c r="P19" s="283"/>
+      <c r="Q19" s="283"/>
+      <c r="R19" s="283"/>
+      <c r="S19" s="283"/>
+      <c r="T19" s="283"/>
+      <c r="U19" s="283"/>
+      <c r="V19" s="283"/>
+      <c r="W19" s="283"/>
+      <c r="X19" s="283"/>
+      <c r="Y19" s="283"/>
+      <c r="Z19" s="283"/>
+      <c r="AA19" s="283"/>
+      <c r="AB19" s="283"/>
+      <c r="AC19" s="283"/>
+      <c r="AD19" s="283"/>
       <c r="AE19" s="31"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11473,157 +11645,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="232" t="str">
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="211" t="s">
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="233" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="233" t="str">
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="234"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="208" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="232"/>
+      <c r="AC1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
+      <c r="AH1" s="287"/>
+      <c r="AI1" s="288"/>
     </row>
     <row r="2" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="232" t="str">
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="238"/>
-      <c r="AA2" s="208" t="s">
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="232"/>
+      <c r="AC2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="264">
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
+      <c r="AH2" s="287"/>
+      <c r="AI2" s="288"/>
     </row>
     <row r="3" spans="1:35" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="232" t="str">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="239"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="230"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="264" t="str">
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="286" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
+      <c r="AH3" s="287"/>
+      <c r="AI3" s="288"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11668,7 +11840,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL72"/>
+  <dimension ref="A1:AL84"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -11680,163 +11852,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="232" t="str">
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
-      <c r="L1" s="203"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="211" t="s">
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="225"/>
+      <c r="K1" s="225"/>
+      <c r="L1" s="225"/>
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="233" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="213"/>
-      <c r="S1" s="233" t="str">
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="235"/>
+      <c r="S1" s="255" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="234"/>
-      <c r="W1" s="234"/>
-      <c r="X1" s="234"/>
-      <c r="Y1" s="234"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="208" t="s">
+      <c r="T1" s="256"/>
+      <c r="U1" s="256"/>
+      <c r="V1" s="256"/>
+      <c r="W1" s="256"/>
+      <c r="X1" s="256"/>
+      <c r="Y1" s="256"/>
+      <c r="Z1" s="257"/>
+      <c r="AA1" s="230" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="192" t="str">
+      <c r="AB1" s="232"/>
+      <c r="AC1" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="193"/>
-      <c r="AE1" s="193"/>
-      <c r="AF1" s="194"/>
-      <c r="AG1" s="264">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="265"/>
-      <c r="AI1" s="266"/>
+      <c r="AH1" s="287"/>
+      <c r="AI1" s="288"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="232" t="str">
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="204"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="237"/>
-      <c r="V2" s="237"/>
-      <c r="W2" s="237"/>
-      <c r="X2" s="237"/>
-      <c r="Y2" s="237"/>
-      <c r="Z2" s="238"/>
-      <c r="AA2" s="208" t="s">
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="225"/>
+      <c r="M2" s="225"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="258"/>
+      <c r="T2" s="259"/>
+      <c r="U2" s="259"/>
+      <c r="V2" s="259"/>
+      <c r="W2" s="259"/>
+      <c r="X2" s="259"/>
+      <c r="Y2" s="259"/>
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="230" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="210"/>
-      <c r="AC2" s="192" t="str">
+      <c r="AB2" s="232"/>
+      <c r="AC2" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="264">
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="216"/>
+      <c r="AG2" s="286">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44825</v>
       </c>
-      <c r="AH2" s="265"/>
-      <c r="AI2" s="266"/>
+      <c r="AH2" s="287"/>
+      <c r="AI2" s="288"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="40" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="232" t="str">
+      <c r="B3" s="231"/>
+      <c r="C3" s="231"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="218"/>
-      <c r="Q3" s="218"/>
-      <c r="R3" s="219"/>
-      <c r="S3" s="239"/>
-      <c r="T3" s="240"/>
-      <c r="U3" s="240"/>
-      <c r="V3" s="240"/>
-      <c r="W3" s="240"/>
-      <c r="X3" s="240"/>
-      <c r="Y3" s="240"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="192" t="str">
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
+      <c r="L3" s="225"/>
+      <c r="M3" s="225"/>
+      <c r="N3" s="226"/>
+      <c r="O3" s="239"/>
+      <c r="P3" s="240"/>
+      <c r="Q3" s="240"/>
+      <c r="R3" s="241"/>
+      <c r="S3" s="261"/>
+      <c r="T3" s="262"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="230"/>
+      <c r="AB3" s="232"/>
+      <c r="AC3" s="214" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="264" t="str">
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="286" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="265"/>
-      <c r="AI3" s="266"/>
+      <c r="AH3" s="287"/>
+      <c r="AI3" s="288"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11844,7 +12016,7 @@
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -11954,65 +12126,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
-      <c r="D8" s="278" t="s">
+      <c r="D8" s="317" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="281" t="s">
+      <c r="E8" s="320" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="282"/>
-      <c r="J8" s="283"/>
-      <c r="K8" s="287" t="s">
+      <c r="F8" s="321"/>
+      <c r="G8" s="321"/>
+      <c r="H8" s="321"/>
+      <c r="I8" s="321"/>
+      <c r="J8" s="322"/>
+      <c r="K8" s="326" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="283"/>
-      <c r="O8" s="288" t="s">
+      <c r="L8" s="321"/>
+      <c r="M8" s="321"/>
+      <c r="N8" s="322"/>
+      <c r="O8" s="327" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="293" t="s">
+      <c r="P8" s="305" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="294"/>
-      <c r="R8" s="294"/>
-      <c r="S8" s="294"/>
-      <c r="T8" s="294"/>
-      <c r="U8" s="295"/>
-      <c r="V8" s="290" t="s">
+      <c r="Q8" s="306"/>
+      <c r="R8" s="306"/>
+      <c r="S8" s="306"/>
+      <c r="T8" s="306"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="302" t="s">
         <v>34</v>
       </c>
-      <c r="W8" s="290"/>
-      <c r="X8" s="290"/>
-      <c r="Y8" s="290"/>
-      <c r="Z8" s="290"/>
-      <c r="AA8" s="290"/>
-      <c r="AB8" s="290"/>
-      <c r="AC8" s="290"/>
-      <c r="AD8" s="290"/>
-      <c r="AE8" s="290"/>
-      <c r="AF8" s="290"/>
-      <c r="AG8" s="290"/>
-      <c r="AH8" s="290"/>
+      <c r="W8" s="302"/>
+      <c r="X8" s="302"/>
+      <c r="Y8" s="302"/>
+      <c r="Z8" s="302"/>
+      <c r="AA8" s="302"/>
+      <c r="AB8" s="302"/>
+      <c r="AC8" s="302"/>
+      <c r="AD8" s="302"/>
+      <c r="AE8" s="302"/>
+      <c r="AF8" s="302"/>
+      <c r="AG8" s="302"/>
+      <c r="AH8" s="302"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
-      <c r="D9" s="279"/>
-      <c r="E9" s="284"/>
-      <c r="F9" s="285"/>
-      <c r="G9" s="285"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="284"/>
-      <c r="L9" s="285"/>
-      <c r="M9" s="285"/>
-      <c r="N9" s="286"/>
-      <c r="O9" s="289"/>
+      <c r="D9" s="318"/>
+      <c r="E9" s="323"/>
+      <c r="F9" s="324"/>
+      <c r="G9" s="324"/>
+      <c r="H9" s="324"/>
+      <c r="I9" s="324"/>
+      <c r="J9" s="325"/>
+      <c r="K9" s="323"/>
+      <c r="L9" s="324"/>
+      <c r="M9" s="324"/>
+      <c r="N9" s="325"/>
+      <c r="O9" s="328"/>
       <c r="P9" s="87" t="s">
         <v>45</v>
       </c>
@@ -12025,23 +12197,23 @@
       <c r="S9" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="291" t="s">
+      <c r="T9" s="303" t="s">
         <v>41</v>
       </c>
-      <c r="U9" s="292"/>
-      <c r="V9" s="290"/>
-      <c r="W9" s="290"/>
-      <c r="X9" s="290"/>
-      <c r="Y9" s="290"/>
-      <c r="Z9" s="290"/>
-      <c r="AA9" s="290"/>
-      <c r="AB9" s="290"/>
-      <c r="AC9" s="290"/>
-      <c r="AD9" s="290"/>
-      <c r="AE9" s="290"/>
-      <c r="AF9" s="290"/>
-      <c r="AG9" s="290"/>
-      <c r="AH9" s="290"/>
+      <c r="U9" s="304"/>
+      <c r="V9" s="302"/>
+      <c r="W9" s="302"/>
+      <c r="X9" s="302"/>
+      <c r="Y9" s="302"/>
+      <c r="Z9" s="302"/>
+      <c r="AA9" s="302"/>
+      <c r="AB9" s="302"/>
+      <c r="AC9" s="302"/>
+      <c r="AD9" s="302"/>
+      <c r="AE9" s="302"/>
+      <c r="AF9" s="302"/>
+      <c r="AG9" s="302"/>
+      <c r="AH9" s="302"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="29"/>
@@ -12049,20 +12221,20 @@
       <c r="D10" s="111">
         <v>1</v>
       </c>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="172"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="171" t="s">
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="172"/>
-      <c r="M10" s="172"/>
-      <c r="N10" s="173"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="195"/>
       <c r="O10" s="112" t="s">
         <v>80</v>
       </c>
@@ -12078,23 +12250,23 @@
       <c r="S10" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="T10" s="276" t="s">
+      <c r="T10" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="U10" s="277"/>
-      <c r="V10" s="171"/>
-      <c r="W10" s="172"/>
-      <c r="X10" s="172"/>
-      <c r="Y10" s="172"/>
-      <c r="Z10" s="172"/>
-      <c r="AA10" s="172"/>
-      <c r="AB10" s="172"/>
-      <c r="AC10" s="172"/>
-      <c r="AD10" s="172"/>
-      <c r="AE10" s="172"/>
-      <c r="AF10" s="172"/>
-      <c r="AG10" s="172"/>
-      <c r="AH10" s="173"/>
+      <c r="U10" s="313"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="194"/>
+      <c r="AF10" s="194"/>
+      <c r="AG10" s="194"/>
+      <c r="AH10" s="195"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="29"/>
@@ -12102,20 +12274,20 @@
       <c r="D11" s="111">
         <v>2</v>
       </c>
-      <c r="E11" s="177" t="s">
+      <c r="E11" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="171" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="172"/>
-      <c r="M11" s="172"/>
-      <c r="N11" s="173"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="193" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="195"/>
       <c r="O11" s="113" t="s">
         <v>79</v>
       </c>
@@ -12131,23 +12303,23 @@
       <c r="S11" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="T11" s="276" t="s">
+      <c r="T11" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="U11" s="277"/>
-      <c r="V11" s="171"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="172"/>
-      <c r="Z11" s="172"/>
-      <c r="AA11" s="172"/>
-      <c r="AB11" s="172"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="172"/>
-      <c r="AF11" s="172"/>
-      <c r="AG11" s="172"/>
-      <c r="AH11" s="173"/>
+      <c r="U11" s="313"/>
+      <c r="V11" s="193"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="194"/>
+      <c r="AF11" s="194"/>
+      <c r="AG11" s="194"/>
+      <c r="AH11" s="195"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="29"/>
@@ -12155,20 +12327,20 @@
       <c r="D12" s="111">
         <v>3</v>
       </c>
-      <c r="E12" s="177" t="s">
+      <c r="E12" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="171" t="s">
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="193" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="173"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="195"/>
       <c r="O12" s="113" t="s">
         <v>79</v>
       </c>
@@ -12184,23 +12356,23 @@
       <c r="S12" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="T12" s="276" t="s">
+      <c r="T12" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="U12" s="277"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="172"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="172"/>
-      <c r="Z12" s="172"/>
-      <c r="AA12" s="172"/>
-      <c r="AB12" s="172"/>
-      <c r="AC12" s="172"/>
-      <c r="AD12" s="172"/>
-      <c r="AE12" s="172"/>
-      <c r="AF12" s="172"/>
-      <c r="AG12" s="172"/>
-      <c r="AH12" s="173"/>
+      <c r="U12" s="313"/>
+      <c r="V12" s="193"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
+      <c r="AF12" s="194"/>
+      <c r="AG12" s="194"/>
+      <c r="AH12" s="195"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="29"/>
@@ -12350,40 +12522,40 @@
       <c r="D17" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="303" t="s">
+      <c r="E17" s="329" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="304"/>
-      <c r="G17" s="305"/>
-      <c r="H17" s="300" t="s">
+      <c r="F17" s="330"/>
+      <c r="G17" s="331"/>
+      <c r="H17" s="314" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="301"/>
-      <c r="J17" s="301"/>
-      <c r="K17" s="301"/>
-      <c r="L17" s="301"/>
-      <c r="M17" s="301"/>
-      <c r="N17" s="301"/>
-      <c r="O17" s="301"/>
-      <c r="P17" s="301"/>
-      <c r="Q17" s="301"/>
-      <c r="R17" s="301"/>
-      <c r="S17" s="301"/>
-      <c r="T17" s="301"/>
-      <c r="U17" s="301"/>
-      <c r="V17" s="301"/>
-      <c r="W17" s="301"/>
-      <c r="X17" s="301"/>
-      <c r="Y17" s="301"/>
-      <c r="Z17" s="301"/>
-      <c r="AA17" s="301"/>
-      <c r="AB17" s="301"/>
-      <c r="AC17" s="301"/>
-      <c r="AD17" s="301"/>
-      <c r="AE17" s="301"/>
-      <c r="AF17" s="301"/>
-      <c r="AG17" s="301"/>
-      <c r="AH17" s="302"/>
+      <c r="I17" s="315"/>
+      <c r="J17" s="315"/>
+      <c r="K17" s="315"/>
+      <c r="L17" s="315"/>
+      <c r="M17" s="315"/>
+      <c r="N17" s="315"/>
+      <c r="O17" s="315"/>
+      <c r="P17" s="315"/>
+      <c r="Q17" s="315"/>
+      <c r="R17" s="315"/>
+      <c r="S17" s="315"/>
+      <c r="T17" s="315"/>
+      <c r="U17" s="315"/>
+      <c r="V17" s="315"/>
+      <c r="W17" s="315"/>
+      <c r="X17" s="315"/>
+      <c r="Y17" s="315"/>
+      <c r="Z17" s="315"/>
+      <c r="AA17" s="315"/>
+      <c r="AB17" s="315"/>
+      <c r="AC17" s="315"/>
+      <c r="AD17" s="315"/>
+      <c r="AE17" s="315"/>
+      <c r="AF17" s="315"/>
+      <c r="AG17" s="315"/>
+      <c r="AH17" s="316"/>
     </row>
     <row r="18" spans="1:34" s="85" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="29"/>
@@ -12391,40 +12563,40 @@
       <c r="D18" s="111">
         <v>1</v>
       </c>
-      <c r="E18" s="177" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="172"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="177" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
-      <c r="N18" s="172"/>
-      <c r="O18" s="172"/>
-      <c r="P18" s="172"/>
-      <c r="Q18" s="172"/>
-      <c r="R18" s="172"/>
-      <c r="S18" s="172"/>
-      <c r="T18" s="172"/>
-      <c r="U18" s="172"/>
-      <c r="V18" s="172"/>
-      <c r="W18" s="172"/>
-      <c r="X18" s="172"/>
-      <c r="Y18" s="172"/>
-      <c r="Z18" s="172"/>
-      <c r="AA18" s="172"/>
-      <c r="AB18" s="172"/>
-      <c r="AC18" s="172"/>
-      <c r="AD18" s="172"/>
-      <c r="AE18" s="172"/>
-      <c r="AF18" s="172"/>
-      <c r="AG18" s="172"/>
-      <c r="AH18" s="173"/>
+      <c r="E18" s="199" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="194"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="199" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="194"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="194"/>
+      <c r="AF18" s="194"/>
+      <c r="AG18" s="194"/>
+      <c r="AH18" s="195"/>
     </row>
     <row r="19" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
@@ -12432,40 +12604,40 @@
       <c r="D19" s="111">
         <v>2</v>
       </c>
-      <c r="E19" s="177" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="172"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="177" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="172"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="172"/>
-      <c r="N19" s="172"/>
-      <c r="O19" s="172"/>
-      <c r="P19" s="172"/>
-      <c r="Q19" s="172"/>
-      <c r="R19" s="172"/>
-      <c r="S19" s="172"/>
-      <c r="T19" s="172"/>
-      <c r="U19" s="172"/>
-      <c r="V19" s="172"/>
-      <c r="W19" s="172"/>
-      <c r="X19" s="172"/>
-      <c r="Y19" s="172"/>
-      <c r="Z19" s="172"/>
-      <c r="AA19" s="172"/>
-      <c r="AB19" s="172"/>
-      <c r="AC19" s="172"/>
-      <c r="AD19" s="172"/>
-      <c r="AE19" s="172"/>
-      <c r="AF19" s="172"/>
-      <c r="AG19" s="172"/>
-      <c r="AH19" s="173"/>
+      <c r="E19" s="199" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="194"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="199" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
+      <c r="V19" s="194"/>
+      <c r="W19" s="194"/>
+      <c r="X19" s="194"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="194"/>
+      <c r="AA19" s="194"/>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="194"/>
+      <c r="AD19" s="194"/>
+      <c r="AE19" s="194"/>
+      <c r="AF19" s="194"/>
+      <c r="AG19" s="194"/>
+      <c r="AH19" s="195"/>
     </row>
     <row r="20" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -12473,40 +12645,40 @@
       <c r="D20" s="111">
         <v>3</v>
       </c>
-      <c r="E20" s="177" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="177" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="172"/>
-      <c r="O20" s="172"/>
-      <c r="P20" s="172"/>
-      <c r="Q20" s="172"/>
-      <c r="R20" s="172"/>
-      <c r="S20" s="172"/>
-      <c r="T20" s="172"/>
-      <c r="U20" s="172"/>
-      <c r="V20" s="172"/>
-      <c r="W20" s="172"/>
-      <c r="X20" s="172"/>
-      <c r="Y20" s="172"/>
-      <c r="Z20" s="172"/>
-      <c r="AA20" s="172"/>
-      <c r="AB20" s="172"/>
-      <c r="AC20" s="172"/>
-      <c r="AD20" s="172"/>
-      <c r="AE20" s="172"/>
-      <c r="AF20" s="172"/>
-      <c r="AG20" s="172"/>
-      <c r="AH20" s="173"/>
+      <c r="E20" s="199" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="194"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="194"/>
+      <c r="Q20" s="194"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="194"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="194"/>
+      <c r="X20" s="194"/>
+      <c r="Y20" s="194"/>
+      <c r="Z20" s="194"/>
+      <c r="AA20" s="194"/>
+      <c r="AB20" s="194"/>
+      <c r="AC20" s="194"/>
+      <c r="AD20" s="194"/>
+      <c r="AE20" s="194"/>
+      <c r="AF20" s="194"/>
+      <c r="AG20" s="194"/>
+      <c r="AH20" s="195"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B21" s="84"/>
@@ -12691,7 +12863,7 @@
       <c r="B26" s="84"/>
       <c r="C26" s="90"/>
       <c r="E26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -12764,44 +12936,44 @@
       <c r="B28" s="84"/>
       <c r="C28" s="90"/>
       <c r="D28" s="121"/>
-      <c r="E28" s="299" t="s">
+      <c r="E28" s="311" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="299"/>
-      <c r="G28" s="280" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="280"/>
-      <c r="I28" s="280"/>
-      <c r="J28" s="280"/>
-      <c r="K28" s="280"/>
-      <c r="L28" s="280"/>
-      <c r="M28" s="299" t="s">
+      <c r="F28" s="311"/>
+      <c r="G28" s="319" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="319"/>
+      <c r="I28" s="319"/>
+      <c r="J28" s="319"/>
+      <c r="K28" s="319"/>
+      <c r="L28" s="319"/>
+      <c r="M28" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="N28" s="299"/>
-      <c r="O28" s="296" t="s">
+      <c r="N28" s="311"/>
+      <c r="O28" s="308" t="s">
         <v>76</v>
       </c>
-      <c r="P28" s="297"/>
-      <c r="Q28" s="297"/>
-      <c r="R28" s="297"/>
-      <c r="S28" s="297"/>
-      <c r="T28" s="297"/>
-      <c r="U28" s="297"/>
-      <c r="V28" s="297"/>
-      <c r="W28" s="297"/>
-      <c r="X28" s="297"/>
-      <c r="Y28" s="297"/>
-      <c r="Z28" s="297"/>
-      <c r="AA28" s="297"/>
-      <c r="AB28" s="297"/>
-      <c r="AC28" s="297"/>
-      <c r="AD28" s="297"/>
-      <c r="AE28" s="297"/>
-      <c r="AF28" s="297"/>
-      <c r="AG28" s="297"/>
-      <c r="AH28" s="298"/>
+      <c r="P28" s="309"/>
+      <c r="Q28" s="309"/>
+      <c r="R28" s="309"/>
+      <c r="S28" s="309"/>
+      <c r="T28" s="309"/>
+      <c r="U28" s="309"/>
+      <c r="V28" s="309"/>
+      <c r="W28" s="309"/>
+      <c r="X28" s="309"/>
+      <c r="Y28" s="309"/>
+      <c r="Z28" s="309"/>
+      <c r="AA28" s="309"/>
+      <c r="AB28" s="309"/>
+      <c r="AC28" s="309"/>
+      <c r="AD28" s="309"/>
+      <c r="AE28" s="309"/>
+      <c r="AF28" s="309"/>
+      <c r="AG28" s="309"/>
+      <c r="AH28" s="310"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A29" s="46"/>
@@ -12845,10 +13017,10 @@
       <c r="C30" s="132"/>
       <c r="D30" s="121"/>
       <c r="E30" s="149" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F30" s="150" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G30" s="151"/>
       <c r="H30" s="151"/>
@@ -12856,7 +13028,7 @@
       <c r="J30" s="151"/>
       <c r="K30" s="152"/>
       <c r="L30" s="150" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M30" s="151"/>
       <c r="N30" s="151"/>
@@ -12868,10 +13040,10 @@
       <c r="T30" s="151"/>
       <c r="U30" s="152"/>
       <c r="V30" s="150" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="W30" s="150" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="X30" s="151"/>
       <c r="Y30" s="151"/>
@@ -12894,7 +13066,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="141" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G31" s="142"/>
       <c r="H31" s="142"/>
@@ -12902,7 +13074,7 @@
       <c r="J31" s="142"/>
       <c r="K31" s="143"/>
       <c r="L31" s="141" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M31" s="142"/>
       <c r="N31" s="142"/>
@@ -12914,10 +13086,10 @@
       <c r="T31" s="142"/>
       <c r="U31" s="143"/>
       <c r="V31" s="141" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="W31" s="144" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="X31" s="145"/>
       <c r="Y31" s="145"/>
@@ -12940,7 +13112,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="144" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G32" s="145"/>
       <c r="H32" s="145"/>
@@ -12948,7 +13120,7 @@
       <c r="J32" s="145"/>
       <c r="K32" s="146"/>
       <c r="L32" s="144" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M32" s="145"/>
       <c r="N32" s="138"/>
@@ -12960,10 +13132,10 @@
       <c r="T32" s="145"/>
       <c r="U32" s="146"/>
       <c r="V32" s="144" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="W32" s="144" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="X32" s="145"/>
       <c r="Y32" s="145"/>
@@ -13173,43 +13345,43 @@
       <c r="E38" s="125" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="306" t="s">
+      <c r="F38" s="332" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="307"/>
-      <c r="H38" s="307"/>
-      <c r="I38" s="307"/>
-      <c r="J38" s="307"/>
-      <c r="K38" s="308"/>
-      <c r="L38" s="309" t="s">
+      <c r="G38" s="333"/>
+      <c r="H38" s="333"/>
+      <c r="I38" s="333"/>
+      <c r="J38" s="333"/>
+      <c r="K38" s="334"/>
+      <c r="L38" s="335" t="s">
         <v>85</v>
       </c>
-      <c r="M38" s="307"/>
-      <c r="N38" s="307"/>
-      <c r="O38" s="307"/>
-      <c r="P38" s="307"/>
-      <c r="Q38" s="307"/>
-      <c r="R38" s="307"/>
-      <c r="S38" s="307"/>
-      <c r="T38" s="307"/>
-      <c r="U38" s="308"/>
-      <c r="V38" s="310" t="s">
+      <c r="M38" s="333"/>
+      <c r="N38" s="333"/>
+      <c r="O38" s="333"/>
+      <c r="P38" s="333"/>
+      <c r="Q38" s="333"/>
+      <c r="R38" s="333"/>
+      <c r="S38" s="333"/>
+      <c r="T38" s="333"/>
+      <c r="U38" s="334"/>
+      <c r="V38" s="336" t="s">
         <v>86</v>
       </c>
-      <c r="W38" s="311"/>
-      <c r="X38" s="312"/>
-      <c r="Y38" s="310" t="s">
+      <c r="W38" s="337"/>
+      <c r="X38" s="338"/>
+      <c r="Y38" s="336" t="s">
         <v>87</v>
       </c>
-      <c r="Z38" s="311"/>
-      <c r="AA38" s="311"/>
-      <c r="AB38" s="312"/>
-      <c r="AC38" s="313" t="s">
+      <c r="Z38" s="337"/>
+      <c r="AA38" s="337"/>
+      <c r="AB38" s="338"/>
+      <c r="AC38" s="339" t="s">
         <v>88</v>
       </c>
-      <c r="AD38" s="314"/>
-      <c r="AE38" s="314"/>
-      <c r="AF38" s="315"/>
+      <c r="AD38" s="340"/>
+      <c r="AE38" s="340"/>
+      <c r="AF38" s="341"/>
       <c r="AG38" s="46"/>
       <c r="AH38" s="46"/>
       <c r="AI38" s="46"/>
@@ -13222,43 +13394,43 @@
       <c r="E39" s="126">
         <v>1</v>
       </c>
-      <c r="F39" s="319" t="s">
+      <c r="F39" s="345" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="317"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="317"/>
-      <c r="J39" s="317"/>
-      <c r="K39" s="318"/>
-      <c r="L39" s="316" t="s">
+      <c r="G39" s="343"/>
+      <c r="H39" s="343"/>
+      <c r="I39" s="343"/>
+      <c r="J39" s="343"/>
+      <c r="K39" s="344"/>
+      <c r="L39" s="342" t="s">
         <v>90</v>
       </c>
-      <c r="M39" s="317"/>
-      <c r="N39" s="317"/>
-      <c r="O39" s="317"/>
-      <c r="P39" s="317"/>
-      <c r="Q39" s="317"/>
-      <c r="R39" s="317"/>
-      <c r="S39" s="317"/>
-      <c r="T39" s="317"/>
-      <c r="U39" s="318"/>
-      <c r="V39" s="320" t="s">
+      <c r="M39" s="343"/>
+      <c r="N39" s="343"/>
+      <c r="O39" s="343"/>
+      <c r="P39" s="343"/>
+      <c r="Q39" s="343"/>
+      <c r="R39" s="343"/>
+      <c r="S39" s="343"/>
+      <c r="T39" s="343"/>
+      <c r="U39" s="344"/>
+      <c r="V39" s="346" t="s">
         <v>91</v>
       </c>
-      <c r="W39" s="321"/>
-      <c r="X39" s="322"/>
-      <c r="Y39" s="323" t="s">
+      <c r="W39" s="347"/>
+      <c r="X39" s="348"/>
+      <c r="Y39" s="349" t="s">
         <v>92</v>
       </c>
-      <c r="Z39" s="324"/>
-      <c r="AA39" s="324"/>
-      <c r="AB39" s="325"/>
-      <c r="AC39" s="316" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD39" s="317"/>
-      <c r="AE39" s="317"/>
-      <c r="AF39" s="318"/>
+      <c r="Z39" s="350"/>
+      <c r="AA39" s="350"/>
+      <c r="AB39" s="351"/>
+      <c r="AC39" s="342" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD39" s="343"/>
+      <c r="AE39" s="343"/>
+      <c r="AF39" s="344"/>
       <c r="AG39" s="46"/>
       <c r="AH39" s="46"/>
       <c r="AI39" s="46"/>
@@ -13337,466 +13509,233 @@
       <c r="AH41" s="56"/>
       <c r="AI41" s="56"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="46"/>
-      <c r="U42" s="46"/>
-      <c r="V42" s="46"/>
-      <c r="W42" s="46"/>
-      <c r="X42" s="46"/>
-      <c r="Y42" s="46"/>
-      <c r="Z42" s="46"/>
-      <c r="AA42" s="46"/>
-      <c r="AB42" s="46"/>
-      <c r="AC42" s="46"/>
-      <c r="AD42" s="46"/>
-      <c r="AE42" s="46"/>
-      <c r="AF42" s="46"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="46"/>
-      <c r="AI42" s="46"/>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
-      <c r="U43" s="46"/>
-      <c r="V43" s="46"/>
-      <c r="W43" s="46"/>
-      <c r="X43" s="46"/>
-      <c r="Y43" s="46"/>
-      <c r="Z43" s="46"/>
-      <c r="AA43" s="46"/>
-      <c r="AB43" s="46"/>
-      <c r="AC43" s="46"/>
-      <c r="AD43" s="46"/>
-      <c r="AE43" s="46"/>
-      <c r="AF43" s="46"/>
-      <c r="AG43" s="46"/>
-      <c r="AH43" s="46"/>
-      <c r="AI43" s="46"/>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="127" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="46"/>
-      <c r="U44" s="46"/>
-      <c r="V44" s="46"/>
-      <c r="W44" s="46"/>
-      <c r="X44" s="46"/>
-      <c r="Y44" s="46"/>
-      <c r="Z44" s="46"/>
-      <c r="AA44" s="46"/>
-      <c r="AB44" s="46"/>
-      <c r="AC44" s="46"/>
-      <c r="AD44" s="46"/>
-      <c r="AE44" s="46"/>
-      <c r="AF44" s="46"/>
-      <c r="AG44" s="46"/>
-      <c r="AH44" s="46"/>
-      <c r="AI44" s="46"/>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46"/>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="46"/>
-      <c r="AA45" s="46"/>
-      <c r="AB45" s="46"/>
-      <c r="AC45" s="46"/>
-      <c r="AD45" s="46"/>
-      <c r="AE45" s="46"/>
-      <c r="AF45" s="46"/>
-      <c r="AG45" s="46"/>
-      <c r="AH45" s="46"/>
-      <c r="AI45" s="46"/>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46"/>
+    <row r="42" spans="1:35" s="155" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" s="155" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:35" s="155" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" s="155" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:35" s="155" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E46" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="56"/>
-      <c r="AC46" s="56"/>
-      <c r="AD46" s="56"/>
-      <c r="AE46" s="56"/>
-      <c r="AF46" s="56"/>
-      <c r="AG46" s="56"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="56"/>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="46"/>
-      <c r="AA47" s="46"/>
-      <c r="AB47" s="46"/>
-      <c r="AC47" s="46"/>
-      <c r="AD47" s="46"/>
-      <c r="AE47" s="46"/>
-      <c r="AF47" s="46"/>
-      <c r="AG47" s="46"/>
-      <c r="AH47" s="46"/>
-      <c r="AI47" s="46"/>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="46"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="46"/>
-      <c r="AD48" s="46"/>
-      <c r="AE48" s="46"/>
-      <c r="AF48" s="46"/>
-      <c r="AG48" s="46"/>
-      <c r="AH48" s="46"/>
-      <c r="AI48" s="46"/>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="46"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="46"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="46"/>
-      <c r="AA49" s="46"/>
-      <c r="AB49" s="46"/>
-      <c r="AC49" s="46"/>
-      <c r="AD49" s="46"/>
-      <c r="AE49" s="46"/>
-      <c r="AF49" s="46"/>
-      <c r="AG49" s="46"/>
-      <c r="AH49" s="46"/>
-      <c r="AI49" s="46"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="127" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="46"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="46"/>
-      <c r="U50" s="46"/>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="46"/>
-      <c r="AA50" s="46"/>
-      <c r="AB50" s="46"/>
-      <c r="AC50" s="46"/>
-      <c r="AD50" s="46"/>
-      <c r="AE50" s="46"/>
-      <c r="AF50" s="46"/>
-      <c r="AG50" s="46"/>
-      <c r="AH50" s="46"/>
-      <c r="AI50" s="46"/>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="46"/>
-      <c r="P51" s="46"/>
-      <c r="Q51" s="46"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="46"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="46"/>
-      <c r="AB51" s="46"/>
-      <c r="AC51" s="46"/>
-      <c r="AD51" s="46"/>
-      <c r="AE51" s="46"/>
-      <c r="AF51" s="46"/>
-      <c r="AG51" s="46"/>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="46"/>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46"/>
-      <c r="Y52" s="46"/>
-      <c r="Z52" s="46"/>
-      <c r="AA52" s="46"/>
-      <c r="AB52" s="46"/>
-      <c r="AC52" s="46"/>
-      <c r="AD52" s="46"/>
-      <c r="AE52" s="46"/>
-      <c r="AF52" s="46"/>
-      <c r="AG52" s="46"/>
-      <c r="AH52" s="46"/>
-      <c r="AI52" s="46"/>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
-      <c r="P53" s="46"/>
-      <c r="Q53" s="46"/>
-      <c r="R53" s="46"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="46"/>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="46"/>
-      <c r="AA53" s="46"/>
-      <c r="AB53" s="46"/>
-      <c r="AC53" s="46"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:35" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="164" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="165"/>
+      <c r="I48" s="165"/>
+      <c r="J48" s="165"/>
+      <c r="K48" s="165"/>
+      <c r="L48" s="166"/>
+      <c r="M48" s="167" t="s">
+        <v>144</v>
+      </c>
+      <c r="N48" s="168"/>
+      <c r="O48" s="168"/>
+      <c r="P48" s="168"/>
+      <c r="Q48" s="168"/>
+      <c r="R48" s="168"/>
+      <c r="S48" s="168"/>
+      <c r="T48" s="168"/>
+      <c r="U48" s="168"/>
+      <c r="V48" s="168"/>
+      <c r="W48" s="169"/>
+      <c r="X48" s="164" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y48" s="165"/>
+      <c r="Z48" s="165"/>
+      <c r="AA48" s="165"/>
+      <c r="AB48" s="165"/>
+      <c r="AC48" s="166"/>
+      <c r="AD48" s="164" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE48" s="165"/>
+      <c r="AF48" s="165"/>
+      <c r="AG48" s="166"/>
+    </row>
+    <row r="49" spans="1:37" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="170"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="172"/>
+      <c r="J49" s="172"/>
+      <c r="K49" s="172"/>
+      <c r="L49" s="173"/>
+      <c r="M49" s="167" t="s">
+        <v>145</v>
+      </c>
+      <c r="N49" s="168"/>
+      <c r="O49" s="168"/>
+      <c r="P49" s="168"/>
+      <c r="Q49" s="169"/>
+      <c r="R49" s="174" t="s">
+        <v>29</v>
+      </c>
+      <c r="S49" s="175"/>
+      <c r="T49" s="175"/>
+      <c r="U49" s="175"/>
+      <c r="V49" s="175"/>
+      <c r="W49" s="176"/>
+      <c r="X49" s="171"/>
+      <c r="Y49" s="172"/>
+      <c r="Z49" s="172"/>
+      <c r="AA49" s="172"/>
+      <c r="AB49" s="172"/>
+      <c r="AC49" s="173"/>
+      <c r="AD49" s="171"/>
+      <c r="AE49" s="172"/>
+      <c r="AF49" s="172"/>
+      <c r="AG49" s="173"/>
+    </row>
+    <row r="50" spans="1:37" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="115">
+        <v>1</v>
+      </c>
+      <c r="G50" s="177" t="s">
+        <v>146</v>
+      </c>
+      <c r="H50" s="178"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="178"/>
+      <c r="K50" s="178"/>
+      <c r="L50" s="179"/>
+      <c r="M50" s="180" t="s">
+        <v>154</v>
+      </c>
+      <c r="N50" s="181"/>
+      <c r="O50" s="181"/>
+      <c r="P50" s="181"/>
+      <c r="Q50" s="182"/>
+      <c r="R50" s="177" t="s">
+        <v>56</v>
+      </c>
+      <c r="S50" s="178"/>
+      <c r="T50" s="178"/>
+      <c r="U50" s="178"/>
+      <c r="V50" s="178"/>
+      <c r="W50" s="179"/>
+      <c r="X50" s="161" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y50" s="162"/>
+      <c r="Z50" s="162"/>
+      <c r="AA50" s="162"/>
+      <c r="AB50" s="162"/>
+      <c r="AC50" s="163"/>
+      <c r="AD50" s="161"/>
+      <c r="AE50" s="162"/>
+      <c r="AF50" s="162"/>
+      <c r="AG50" s="163"/>
+    </row>
+    <row r="51" spans="1:37" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="115">
+        <v>2</v>
+      </c>
+      <c r="G51" s="177" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="178"/>
+      <c r="I51" s="178"/>
+      <c r="J51" s="178"/>
+      <c r="K51" s="178"/>
+      <c r="L51" s="179"/>
+      <c r="M51" s="291" t="s">
+        <v>148</v>
+      </c>
+      <c r="N51" s="292"/>
+      <c r="O51" s="292"/>
+      <c r="P51" s="292"/>
+      <c r="Q51" s="293"/>
+      <c r="R51" s="177" t="s">
+        <v>117</v>
+      </c>
+      <c r="S51" s="178"/>
+      <c r="T51" s="178"/>
+      <c r="U51" s="178"/>
+      <c r="V51" s="178"/>
+      <c r="W51" s="179"/>
+      <c r="X51" s="161" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y51" s="162"/>
+      <c r="Z51" s="162"/>
+      <c r="AA51" s="162"/>
+      <c r="AB51" s="162"/>
+      <c r="AC51" s="163"/>
+      <c r="AD51" s="161"/>
+      <c r="AE51" s="162"/>
+      <c r="AF51" s="162"/>
+      <c r="AG51" s="163"/>
+    </row>
+    <row r="52" spans="1:37" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="115">
+        <v>3</v>
+      </c>
+      <c r="G52" s="177" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" s="178"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="178"/>
+      <c r="K52" s="178"/>
+      <c r="L52" s="179"/>
+      <c r="M52" s="294"/>
+      <c r="N52" s="295"/>
+      <c r="O52" s="295"/>
+      <c r="P52" s="295"/>
+      <c r="Q52" s="296"/>
+      <c r="R52" s="177" t="s">
+        <v>119</v>
+      </c>
+      <c r="S52" s="178"/>
+      <c r="T52" s="178"/>
+      <c r="U52" s="178"/>
+      <c r="V52" s="178"/>
+      <c r="W52" s="179"/>
+      <c r="X52" s="161" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y52" s="162"/>
+      <c r="Z52" s="162"/>
+      <c r="AA52" s="162"/>
+      <c r="AB52" s="162"/>
+      <c r="AC52" s="163"/>
+      <c r="AD52" s="161"/>
+      <c r="AE52" s="162"/>
+      <c r="AF52" s="162"/>
+      <c r="AG52" s="163"/>
+    </row>
+    <row r="53" spans="1:37" s="155" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AD53" s="46"/>
       <c r="AE53" s="46"/>
       <c r="AF53" s="46"/>
       <c r="AG53" s="46"/>
       <c r="AH53" s="46"/>
       <c r="AI53" s="46"/>
+      <c r="AJ53" s="46"/>
+      <c r="AK53" s="46"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A54" s="46"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
+      <c r="D54" s="56" t="s">
+        <v>149</v>
+      </c>
       <c r="E54" s="46"/>
       <c r="F54" s="46"/>
       <c r="G54" s="46"/>
@@ -13834,9 +13773,7 @@
       <c r="B55" s="46"/>
       <c r="C55" s="46"/>
       <c r="D55" s="46"/>
-      <c r="E55" s="56" t="s">
-        <v>110</v>
-      </c>
+      <c r="E55" s="46"/>
       <c r="F55" s="46"/>
       <c r="G55" s="46"/>
       <c r="H55" s="46"/>
@@ -13873,7 +13810,9 @@
       <c r="B56" s="46"/>
       <c r="C56" s="46"/>
       <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
+      <c r="E56" s="127" t="s">
+        <v>105</v>
+      </c>
       <c r="F56" s="46"/>
       <c r="G56" s="46"/>
       <c r="H56" s="46"/>
@@ -13910,7 +13849,7 @@
       <c r="B57" s="46"/>
       <c r="C57" s="46"/>
       <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
+      <c r="E57" s="127"/>
       <c r="F57" s="46"/>
       <c r="G57" s="46"/>
       <c r="H57" s="46"/>
@@ -13943,661 +13882,1166 @@
       <c r="AI57" s="46"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="C58" s="29" t="s">
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58"/>
+      <c r="E58" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58" s="56"/>
+      <c r="AB58" s="56"/>
+      <c r="AC58" s="56"/>
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="56"/>
+      <c r="AF58" s="56"/>
+      <c r="AG58" s="56"/>
+      <c r="AH58" s="56"/>
+      <c r="AI58" s="56"/>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="46"/>
+      <c r="AA59" s="46"/>
+      <c r="AB59" s="46"/>
+      <c r="AC59" s="46"/>
+      <c r="AD59" s="46"/>
+      <c r="AE59" s="46"/>
+      <c r="AF59" s="46"/>
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="46"/>
+      <c r="AI59" s="46"/>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
+      <c r="Y60" s="46"/>
+      <c r="Z60" s="46"/>
+      <c r="AA60" s="46"/>
+      <c r="AB60" s="46"/>
+      <c r="AC60" s="46"/>
+      <c r="AD60" s="46"/>
+      <c r="AE60" s="46"/>
+      <c r="AF60" s="46"/>
+      <c r="AG60" s="46"/>
+      <c r="AH60" s="46"/>
+      <c r="AI60" s="46"/>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
+      <c r="Y61" s="46"/>
+      <c r="Z61" s="46"/>
+      <c r="AA61" s="46"/>
+      <c r="AB61" s="46"/>
+      <c r="AC61" s="46"/>
+      <c r="AD61" s="46"/>
+      <c r="AE61" s="46"/>
+      <c r="AF61" s="46"/>
+      <c r="AG61" s="46"/>
+      <c r="AH61" s="46"/>
+      <c r="AI61" s="46"/>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="46"/>
+      <c r="X62" s="46"/>
+      <c r="Y62" s="46"/>
+      <c r="Z62" s="46"/>
+      <c r="AA62" s="46"/>
+      <c r="AB62" s="46"/>
+      <c r="AC62" s="46"/>
+      <c r="AD62" s="46"/>
+      <c r="AE62" s="46"/>
+      <c r="AF62" s="46"/>
+      <c r="AG62" s="46"/>
+      <c r="AH62" s="46"/>
+      <c r="AI62" s="46"/>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="46"/>
+      <c r="Y63" s="46"/>
+      <c r="Z63" s="46"/>
+      <c r="AA63" s="46"/>
+      <c r="AB63" s="46"/>
+      <c r="AC63" s="46"/>
+      <c r="AD63" s="46"/>
+      <c r="AE63" s="46"/>
+      <c r="AF63" s="46"/>
+      <c r="AG63" s="46"/>
+      <c r="AH63" s="46"/>
+      <c r="AI63" s="46"/>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="46"/>
+      <c r="Y64" s="46"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="46"/>
+      <c r="AB64" s="46"/>
+      <c r="AC64" s="46"/>
+      <c r="AD64" s="46"/>
+      <c r="AE64" s="46"/>
+      <c r="AF64" s="46"/>
+      <c r="AG64" s="46"/>
+      <c r="AH64" s="46"/>
+      <c r="AI64" s="46"/>
+    </row>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
+      <c r="Y65" s="46"/>
+      <c r="Z65" s="46"/>
+      <c r="AA65" s="46"/>
+      <c r="AB65" s="46"/>
+      <c r="AC65" s="46"/>
+      <c r="AD65" s="46"/>
+      <c r="AE65" s="46"/>
+      <c r="AF65" s="46"/>
+      <c r="AG65" s="46"/>
+      <c r="AH65" s="46"/>
+      <c r="AI65" s="46"/>
+    </row>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="46"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="46"/>
+      <c r="AB66" s="46"/>
+      <c r="AC66" s="46"/>
+      <c r="AD66" s="46"/>
+      <c r="AE66" s="46"/>
+      <c r="AF66" s="46"/>
+      <c r="AG66" s="46"/>
+      <c r="AH66" s="46"/>
+      <c r="AI66" s="46"/>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="46"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
+      <c r="Y67" s="46"/>
+      <c r="Z67" s="46"/>
+      <c r="AA67" s="46"/>
+      <c r="AB67" s="46"/>
+      <c r="AC67" s="46"/>
+      <c r="AD67" s="46"/>
+      <c r="AE67" s="46"/>
+      <c r="AF67" s="46"/>
+      <c r="AG67" s="46"/>
+      <c r="AH67" s="46"/>
+      <c r="AI67" s="46"/>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="46"/>
+      <c r="Y68" s="46"/>
+      <c r="Z68" s="46"/>
+      <c r="AA68" s="46"/>
+      <c r="AB68" s="46"/>
+      <c r="AC68" s="46"/>
+      <c r="AD68" s="46"/>
+      <c r="AE68" s="46"/>
+      <c r="AF68" s="46"/>
+      <c r="AG68" s="46"/>
+      <c r="AH68" s="46"/>
+      <c r="AI68" s="46"/>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="46"/>
+      <c r="Y69" s="46"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="46"/>
+      <c r="AB69" s="46"/>
+      <c r="AC69" s="46"/>
+      <c r="AD69" s="46"/>
+      <c r="AE69" s="46"/>
+      <c r="AF69" s="46"/>
+      <c r="AG69" s="46"/>
+      <c r="AH69" s="46"/>
+      <c r="AI69" s="46"/>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="C70" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="29"/>
-      <c r="AB58" s="29"/>
-      <c r="AC58" s="29"/>
-      <c r="AD58" s="29"/>
-      <c r="AE58" s="29"/>
-      <c r="AF58" s="29"/>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="C59" s="29"/>
-      <c r="D59" s="134" t="s">
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="29"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
+      <c r="AE70" s="29"/>
+      <c r="AF70" s="29"/>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="C71" s="29"/>
+      <c r="D71" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
-      <c r="N59" s="134"/>
-      <c r="O59" s="134"/>
-      <c r="P59" s="134"/>
-      <c r="Q59" s="134"/>
-      <c r="R59" s="134"/>
-      <c r="S59" s="134"/>
-      <c r="T59" s="134"/>
-      <c r="U59" s="134"/>
-      <c r="V59" s="134"/>
-      <c r="W59" s="134"/>
-      <c r="X59" s="134"/>
-      <c r="Y59" s="134"/>
-      <c r="Z59" s="134"/>
-      <c r="AA59" s="134"/>
-      <c r="AB59" s="134"/>
-      <c r="AC59" s="134"/>
-      <c r="AD59" s="134"/>
-      <c r="AE59" s="134"/>
-      <c r="AF59" s="134"/>
-      <c r="AG59" s="133"/>
-      <c r="AH59" s="133"/>
-      <c r="AI59" s="133"/>
-      <c r="AJ59" s="133"/>
-      <c r="AK59" s="133"/>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="C60" s="29"/>
-      <c r="D60" s="134"/>
-      <c r="E60" s="134"/>
-      <c r="F60" s="134"/>
-      <c r="G60" s="134"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
-      <c r="J60" s="134"/>
-      <c r="K60" s="134"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
-      <c r="N60" s="134"/>
-      <c r="O60" s="134"/>
-      <c r="P60" s="134"/>
-      <c r="Q60" s="134"/>
-      <c r="R60" s="134"/>
-      <c r="S60" s="134"/>
-      <c r="T60" s="134"/>
-      <c r="U60" s="134"/>
-      <c r="V60" s="134"/>
-      <c r="W60" s="134"/>
-      <c r="X60" s="134"/>
-      <c r="Y60" s="134"/>
-      <c r="Z60" s="134"/>
-      <c r="AA60" s="134"/>
-      <c r="AB60" s="134"/>
-      <c r="AC60" s="134"/>
-      <c r="AD60" s="134"/>
-      <c r="AE60" s="134"/>
-      <c r="AF60" s="134"/>
-      <c r="AG60" s="133"/>
-      <c r="AH60" s="133"/>
-      <c r="AI60" s="133"/>
-      <c r="AJ60" s="133"/>
-      <c r="AK60" s="133"/>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A61" s="156"/>
-      <c r="B61" s="156"/>
-      <c r="C61" s="159"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="157" t="s">
-        <v>133</v>
-      </c>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
-      <c r="K61" s="157"/>
-      <c r="L61" s="157"/>
-      <c r="M61" s="157"/>
-      <c r="N61" s="157"/>
-      <c r="O61" s="157"/>
-      <c r="P61" s="157"/>
-      <c r="Q61" s="157"/>
-      <c r="R61" s="157"/>
-      <c r="S61" s="157"/>
-      <c r="T61" s="157"/>
-      <c r="U61" s="157"/>
-      <c r="V61" s="157"/>
-      <c r="W61" s="157"/>
-      <c r="X61" s="157"/>
-      <c r="Y61" s="157"/>
-      <c r="Z61" s="157"/>
-      <c r="AA61" s="157"/>
-      <c r="AB61" s="157"/>
-      <c r="AC61" s="157"/>
-      <c r="AD61" s="158"/>
-      <c r="AE61" s="159"/>
-      <c r="AF61" s="159"/>
-      <c r="AG61" s="156"/>
-      <c r="AH61" s="156"/>
-      <c r="AI61" s="133"/>
-      <c r="AJ61" s="133"/>
-      <c r="AK61" s="133"/>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A62" s="155"/>
-      <c r="B62" s="155"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="157"/>
-      <c r="F62" s="157"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="157"/>
-      <c r="K62" s="157"/>
-      <c r="L62" s="157"/>
-      <c r="M62" s="157"/>
-      <c r="N62" s="157"/>
-      <c r="O62" s="157"/>
-      <c r="P62" s="157"/>
-      <c r="Q62" s="157"/>
-      <c r="R62" s="157"/>
-      <c r="S62" s="157"/>
-      <c r="T62" s="157"/>
-      <c r="U62" s="157"/>
-      <c r="V62" s="157"/>
-      <c r="W62" s="157"/>
-      <c r="X62" s="157"/>
-      <c r="Y62" s="157"/>
-      <c r="Z62" s="157"/>
-      <c r="AA62" s="157"/>
-      <c r="AB62" s="157"/>
-      <c r="AC62" s="157"/>
-      <c r="AD62" s="158"/>
-      <c r="AE62" s="159"/>
-      <c r="AF62" s="159"/>
-      <c r="AG62" s="156"/>
-      <c r="AH62" s="156"/>
-      <c r="AI62" s="133"/>
-      <c r="AJ62" s="133"/>
-      <c r="AK62" s="133"/>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A63" s="155"/>
-      <c r="B63" s="155"/>
-      <c r="C63" s="159"/>
-      <c r="D63" s="159"/>
-      <c r="E63" s="299" t="s">
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
+      <c r="G71" s="134"/>
+      <c r="H71" s="134"/>
+      <c r="I71" s="134"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="134"/>
+      <c r="L71" s="134"/>
+      <c r="M71" s="134"/>
+      <c r="N71" s="134"/>
+      <c r="O71" s="134"/>
+      <c r="P71" s="134"/>
+      <c r="Q71" s="134"/>
+      <c r="R71" s="134"/>
+      <c r="S71" s="134"/>
+      <c r="T71" s="134"/>
+      <c r="U71" s="134"/>
+      <c r="V71" s="134"/>
+      <c r="W71" s="134"/>
+      <c r="X71" s="134"/>
+      <c r="Y71" s="134"/>
+      <c r="Z71" s="134"/>
+      <c r="AA71" s="134"/>
+      <c r="AB71" s="134"/>
+      <c r="AC71" s="134"/>
+      <c r="AD71" s="134"/>
+      <c r="AE71" s="134"/>
+      <c r="AF71" s="134"/>
+      <c r="AG71" s="133"/>
+      <c r="AH71" s="133"/>
+      <c r="AI71" s="133"/>
+      <c r="AJ71" s="133"/>
+      <c r="AK71" s="133"/>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="C72" s="29"/>
+      <c r="D72" s="134"/>
+      <c r="E72" s="134"/>
+      <c r="F72" s="134"/>
+      <c r="G72" s="134"/>
+      <c r="H72" s="134"/>
+      <c r="I72" s="134"/>
+      <c r="J72" s="134"/>
+      <c r="K72" s="134"/>
+      <c r="L72" s="134"/>
+      <c r="M72" s="134"/>
+      <c r="N72" s="134"/>
+      <c r="O72" s="134"/>
+      <c r="P72" s="134"/>
+      <c r="Q72" s="134"/>
+      <c r="R72" s="134"/>
+      <c r="S72" s="134"/>
+      <c r="T72" s="134"/>
+      <c r="U72" s="134"/>
+      <c r="V72" s="134"/>
+      <c r="W72" s="134"/>
+      <c r="X72" s="134"/>
+      <c r="Y72" s="134"/>
+      <c r="Z72" s="134"/>
+      <c r="AA72" s="134"/>
+      <c r="AB72" s="134"/>
+      <c r="AC72" s="134"/>
+      <c r="AD72" s="134"/>
+      <c r="AE72" s="134"/>
+      <c r="AF72" s="134"/>
+      <c r="AG72" s="133"/>
+      <c r="AH72" s="133"/>
+      <c r="AI72" s="133"/>
+      <c r="AJ72" s="133"/>
+      <c r="AK72" s="133"/>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A73" s="156"/>
+      <c r="B73" s="156"/>
+      <c r="C73" s="159"/>
+      <c r="D73" s="156"/>
+      <c r="E73" s="157" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="157"/>
+      <c r="G73" s="157"/>
+      <c r="H73" s="157"/>
+      <c r="I73" s="157"/>
+      <c r="J73" s="157"/>
+      <c r="K73" s="157"/>
+      <c r="L73" s="157"/>
+      <c r="M73" s="157"/>
+      <c r="N73" s="157"/>
+      <c r="O73" s="157"/>
+      <c r="P73" s="157"/>
+      <c r="Q73" s="157"/>
+      <c r="R73" s="157"/>
+      <c r="S73" s="157"/>
+      <c r="T73" s="157"/>
+      <c r="U73" s="157"/>
+      <c r="V73" s="157"/>
+      <c r="W73" s="157"/>
+      <c r="X73" s="157"/>
+      <c r="Y73" s="157"/>
+      <c r="Z73" s="157"/>
+      <c r="AA73" s="157"/>
+      <c r="AB73" s="157"/>
+      <c r="AC73" s="157"/>
+      <c r="AD73" s="158"/>
+      <c r="AE73" s="159"/>
+      <c r="AF73" s="159"/>
+      <c r="AG73" s="156"/>
+      <c r="AH73" s="156"/>
+      <c r="AI73" s="133"/>
+      <c r="AJ73" s="133"/>
+      <c r="AK73" s="133"/>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A74" s="155"/>
+      <c r="B74" s="155"/>
+      <c r="C74" s="159"/>
+      <c r="D74" s="157"/>
+      <c r="E74" s="157"/>
+      <c r="F74" s="157"/>
+      <c r="G74" s="157"/>
+      <c r="H74" s="157"/>
+      <c r="I74" s="157"/>
+      <c r="J74" s="157"/>
+      <c r="K74" s="157"/>
+      <c r="L74" s="157"/>
+      <c r="M74" s="157"/>
+      <c r="N74" s="157"/>
+      <c r="O74" s="157"/>
+      <c r="P74" s="157"/>
+      <c r="Q74" s="157"/>
+      <c r="R74" s="157"/>
+      <c r="S74" s="157"/>
+      <c r="T74" s="157"/>
+      <c r="U74" s="157"/>
+      <c r="V74" s="157"/>
+      <c r="W74" s="157"/>
+      <c r="X74" s="157"/>
+      <c r="Y74" s="157"/>
+      <c r="Z74" s="157"/>
+      <c r="AA74" s="157"/>
+      <c r="AB74" s="157"/>
+      <c r="AC74" s="157"/>
+      <c r="AD74" s="158"/>
+      <c r="AE74" s="159"/>
+      <c r="AF74" s="159"/>
+      <c r="AG74" s="156"/>
+      <c r="AH74" s="156"/>
+      <c r="AI74" s="133"/>
+      <c r="AJ74" s="133"/>
+      <c r="AK74" s="133"/>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A75" s="155"/>
+      <c r="B75" s="155"/>
+      <c r="C75" s="159"/>
+      <c r="D75" s="159"/>
+      <c r="E75" s="311" t="s">
         <v>21</v>
       </c>
-      <c r="F63" s="299"/>
-      <c r="G63" s="296" t="s">
-        <v>130</v>
-      </c>
-      <c r="H63" s="297"/>
-      <c r="I63" s="297"/>
-      <c r="J63" s="297"/>
-      <c r="K63" s="297"/>
-      <c r="L63" s="298"/>
-      <c r="M63" s="299" t="s">
+      <c r="F75" s="311"/>
+      <c r="G75" s="308" t="s">
+        <v>126</v>
+      </c>
+      <c r="H75" s="309"/>
+      <c r="I75" s="309"/>
+      <c r="J75" s="309"/>
+      <c r="K75" s="309"/>
+      <c r="L75" s="310"/>
+      <c r="M75" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="N63" s="299"/>
-      <c r="O63" s="296" t="s">
-        <v>132</v>
-      </c>
-      <c r="P63" s="297"/>
-      <c r="Q63" s="297"/>
-      <c r="R63" s="297"/>
-      <c r="S63" s="297"/>
-      <c r="T63" s="297"/>
-      <c r="U63" s="297"/>
-      <c r="V63" s="297"/>
-      <c r="W63" s="297"/>
-      <c r="X63" s="297"/>
-      <c r="Y63" s="297"/>
-      <c r="Z63" s="297"/>
-      <c r="AA63" s="297"/>
-      <c r="AB63" s="297"/>
-      <c r="AC63" s="297"/>
-      <c r="AD63" s="297"/>
-      <c r="AE63" s="297"/>
-      <c r="AF63" s="297"/>
-      <c r="AG63" s="297"/>
-      <c r="AH63" s="298"/>
-      <c r="AI63" s="133"/>
-      <c r="AJ63" s="133"/>
-      <c r="AK63" s="133"/>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A64" s="155"/>
-      <c r="B64" s="155"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="159"/>
-      <c r="E64" s="159"/>
-      <c r="F64" s="159"/>
-      <c r="G64" s="159"/>
-      <c r="H64" s="159"/>
-      <c r="I64" s="159"/>
-      <c r="J64" s="159"/>
-      <c r="K64" s="159"/>
-      <c r="L64" s="159"/>
-      <c r="M64" s="159"/>
-      <c r="N64" s="159"/>
-      <c r="O64" s="159"/>
-      <c r="P64" s="159"/>
-      <c r="Q64" s="159"/>
-      <c r="R64" s="159"/>
-      <c r="S64" s="159"/>
-      <c r="T64" s="159"/>
-      <c r="U64" s="159"/>
-      <c r="V64" s="159"/>
-      <c r="W64" s="159"/>
-      <c r="X64" s="159"/>
-      <c r="Y64" s="159"/>
-      <c r="Z64" s="159"/>
-      <c r="AA64" s="159"/>
-      <c r="AB64" s="159"/>
-      <c r="AC64" s="159"/>
-      <c r="AD64" s="159"/>
-      <c r="AE64" s="159"/>
-      <c r="AF64" s="159"/>
-      <c r="AG64" s="156"/>
-      <c r="AH64" s="156"/>
-      <c r="AI64" s="133"/>
-      <c r="AJ64" s="133"/>
-      <c r="AK64" s="133"/>
-    </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A65" s="155"/>
-      <c r="B65" s="155"/>
-      <c r="C65" s="159"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="159"/>
-      <c r="F65" s="159"/>
-      <c r="G65" s="159"/>
-      <c r="H65" s="159"/>
-      <c r="I65" s="159"/>
-      <c r="J65" s="159"/>
-      <c r="K65" s="159"/>
-      <c r="L65" s="159"/>
-      <c r="M65" s="159"/>
-      <c r="N65" s="159"/>
-      <c r="O65" s="159"/>
-      <c r="P65" s="159"/>
-      <c r="Q65" s="159"/>
-      <c r="R65" s="159"/>
-      <c r="S65" s="159"/>
-      <c r="T65" s="159"/>
-      <c r="U65" s="159"/>
-      <c r="V65" s="159"/>
-      <c r="W65" s="159"/>
-      <c r="X65" s="159"/>
-      <c r="Y65" s="159"/>
-      <c r="Z65" s="159"/>
-      <c r="AA65" s="159"/>
-      <c r="AB65" s="159"/>
-      <c r="AC65" s="159"/>
-      <c r="AD65" s="159"/>
-      <c r="AE65" s="159"/>
-      <c r="AF65" s="159"/>
-      <c r="AG65" s="156"/>
-      <c r="AH65" s="156"/>
-      <c r="AI65" s="133"/>
-      <c r="AJ65" s="133"/>
-      <c r="AK65" s="133"/>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A66" s="155"/>
-      <c r="B66" s="155"/>
-      <c r="C66" s="159"/>
-      <c r="D66" s="159" t="s">
+      <c r="N75" s="311"/>
+      <c r="O75" s="308" t="s">
+        <v>128</v>
+      </c>
+      <c r="P75" s="309"/>
+      <c r="Q75" s="309"/>
+      <c r="R75" s="309"/>
+      <c r="S75" s="309"/>
+      <c r="T75" s="309"/>
+      <c r="U75" s="309"/>
+      <c r="V75" s="309"/>
+      <c r="W75" s="309"/>
+      <c r="X75" s="309"/>
+      <c r="Y75" s="309"/>
+      <c r="Z75" s="309"/>
+      <c r="AA75" s="309"/>
+      <c r="AB75" s="309"/>
+      <c r="AC75" s="309"/>
+      <c r="AD75" s="309"/>
+      <c r="AE75" s="309"/>
+      <c r="AF75" s="309"/>
+      <c r="AG75" s="309"/>
+      <c r="AH75" s="310"/>
+      <c r="AI75" s="133"/>
+      <c r="AJ75" s="133"/>
+      <c r="AK75" s="133"/>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A76" s="155"/>
+      <c r="B76" s="155"/>
+      <c r="C76" s="159"/>
+      <c r="D76" s="159"/>
+      <c r="E76" s="159"/>
+      <c r="F76" s="159"/>
+      <c r="G76" s="159"/>
+      <c r="H76" s="159"/>
+      <c r="I76" s="159"/>
+      <c r="J76" s="159"/>
+      <c r="K76" s="159"/>
+      <c r="L76" s="159"/>
+      <c r="M76" s="159"/>
+      <c r="N76" s="159"/>
+      <c r="O76" s="159"/>
+      <c r="P76" s="159"/>
+      <c r="Q76" s="159"/>
+      <c r="R76" s="159"/>
+      <c r="S76" s="159"/>
+      <c r="T76" s="159"/>
+      <c r="U76" s="159"/>
+      <c r="V76" s="159"/>
+      <c r="W76" s="159"/>
+      <c r="X76" s="159"/>
+      <c r="Y76" s="159"/>
+      <c r="Z76" s="159"/>
+      <c r="AA76" s="159"/>
+      <c r="AB76" s="159"/>
+      <c r="AC76" s="159"/>
+      <c r="AD76" s="159"/>
+      <c r="AE76" s="159"/>
+      <c r="AF76" s="159"/>
+      <c r="AG76" s="156"/>
+      <c r="AH76" s="156"/>
+      <c r="AI76" s="133"/>
+      <c r="AJ76" s="133"/>
+      <c r="AK76" s="133"/>
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A77" s="155"/>
+      <c r="B77" s="155"/>
+      <c r="C77" s="159"/>
+      <c r="D77" s="159"/>
+      <c r="E77" s="159"/>
+      <c r="F77" s="159"/>
+      <c r="G77" s="159"/>
+      <c r="H77" s="159"/>
+      <c r="I77" s="159"/>
+      <c r="J77" s="159"/>
+      <c r="K77" s="159"/>
+      <c r="L77" s="159"/>
+      <c r="M77" s="159"/>
+      <c r="N77" s="159"/>
+      <c r="O77" s="159"/>
+      <c r="P77" s="159"/>
+      <c r="Q77" s="159"/>
+      <c r="R77" s="159"/>
+      <c r="S77" s="159"/>
+      <c r="T77" s="159"/>
+      <c r="U77" s="159"/>
+      <c r="V77" s="159"/>
+      <c r="W77" s="159"/>
+      <c r="X77" s="159"/>
+      <c r="Y77" s="159"/>
+      <c r="Z77" s="159"/>
+      <c r="AA77" s="159"/>
+      <c r="AB77" s="159"/>
+      <c r="AC77" s="159"/>
+      <c r="AD77" s="159"/>
+      <c r="AE77" s="159"/>
+      <c r="AF77" s="159"/>
+      <c r="AG77" s="156"/>
+      <c r="AH77" s="156"/>
+      <c r="AI77" s="133"/>
+      <c r="AJ77" s="133"/>
+      <c r="AK77" s="133"/>
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A78" s="155"/>
+      <c r="B78" s="155"/>
+      <c r="C78" s="159"/>
+      <c r="D78" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="E66" s="159"/>
-      <c r="F66" s="159"/>
-      <c r="G66" s="159"/>
-      <c r="H66" s="159"/>
-      <c r="I66" s="159"/>
-      <c r="J66" s="159"/>
-      <c r="K66" s="159"/>
-      <c r="L66" s="159"/>
-      <c r="M66" s="159"/>
-      <c r="N66" s="159"/>
-      <c r="O66" s="159"/>
-      <c r="P66" s="159"/>
-      <c r="Q66" s="159"/>
-      <c r="R66" s="159"/>
-      <c r="S66" s="159"/>
-      <c r="T66" s="159"/>
-      <c r="U66" s="159"/>
-      <c r="V66" s="159"/>
-      <c r="W66" s="159"/>
-      <c r="X66" s="159"/>
-      <c r="Y66" s="159"/>
-      <c r="Z66" s="159"/>
-      <c r="AA66" s="159"/>
-      <c r="AB66" s="159"/>
-      <c r="AC66" s="159"/>
-      <c r="AD66" s="159"/>
-      <c r="AE66" s="159"/>
-      <c r="AF66" s="159"/>
-      <c r="AG66" s="156"/>
-      <c r="AH66" s="156"/>
-      <c r="AI66" s="133"/>
-      <c r="AJ66" s="133"/>
-      <c r="AK66" s="133"/>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A67" s="155"/>
-      <c r="B67" s="155"/>
-      <c r="C67" s="159"/>
-      <c r="D67" s="159"/>
-      <c r="E67" s="159"/>
-      <c r="F67" s="159"/>
-      <c r="G67" s="159"/>
-      <c r="H67" s="159"/>
-      <c r="I67" s="159"/>
-      <c r="J67" s="159"/>
-      <c r="K67" s="159"/>
-      <c r="L67" s="159"/>
-      <c r="M67" s="159"/>
-      <c r="N67" s="159"/>
-      <c r="O67" s="159"/>
-      <c r="P67" s="159"/>
-      <c r="Q67" s="159"/>
-      <c r="R67" s="159"/>
-      <c r="S67" s="159"/>
-      <c r="T67" s="159"/>
-      <c r="U67" s="159"/>
-      <c r="V67" s="159"/>
-      <c r="W67" s="159"/>
-      <c r="X67" s="159"/>
-      <c r="Y67" s="159"/>
-      <c r="Z67" s="159"/>
-      <c r="AA67" s="159"/>
-      <c r="AB67" s="159"/>
-      <c r="AC67" s="159"/>
-      <c r="AD67" s="159"/>
-      <c r="AE67" s="159"/>
-      <c r="AF67" s="159"/>
-      <c r="AG67" s="156"/>
-      <c r="AH67" s="156"/>
-      <c r="AI67" s="133"/>
-      <c r="AJ67" s="133"/>
-      <c r="AK67" s="133"/>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A68" s="155"/>
-      <c r="B68" s="155"/>
-      <c r="C68" s="159"/>
-      <c r="D68" s="159"/>
-      <c r="E68" s="332" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" s="326" t="s">
+      <c r="E78" s="159"/>
+      <c r="F78" s="159"/>
+      <c r="G78" s="159"/>
+      <c r="H78" s="159"/>
+      <c r="I78" s="159"/>
+      <c r="J78" s="159"/>
+      <c r="K78" s="159"/>
+      <c r="L78" s="159"/>
+      <c r="M78" s="159"/>
+      <c r="N78" s="159"/>
+      <c r="O78" s="159"/>
+      <c r="P78" s="159"/>
+      <c r="Q78" s="159"/>
+      <c r="R78" s="159"/>
+      <c r="S78" s="159"/>
+      <c r="T78" s="159"/>
+      <c r="U78" s="159"/>
+      <c r="V78" s="159"/>
+      <c r="W78" s="159"/>
+      <c r="X78" s="159"/>
+      <c r="Y78" s="159"/>
+      <c r="Z78" s="159"/>
+      <c r="AA78" s="159"/>
+      <c r="AB78" s="159"/>
+      <c r="AC78" s="159"/>
+      <c r="AD78" s="159"/>
+      <c r="AE78" s="159"/>
+      <c r="AF78" s="159"/>
+      <c r="AG78" s="156"/>
+      <c r="AH78" s="156"/>
+      <c r="AI78" s="133"/>
+      <c r="AJ78" s="133"/>
+      <c r="AK78" s="133"/>
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A79" s="155"/>
+      <c r="B79" s="155"/>
+      <c r="C79" s="159"/>
+      <c r="D79" s="159"/>
+      <c r="E79" s="159"/>
+      <c r="F79" s="159"/>
+      <c r="G79" s="159"/>
+      <c r="H79" s="159"/>
+      <c r="I79" s="159"/>
+      <c r="J79" s="159"/>
+      <c r="K79" s="159"/>
+      <c r="L79" s="159"/>
+      <c r="M79" s="159"/>
+      <c r="N79" s="159"/>
+      <c r="O79" s="159"/>
+      <c r="P79" s="159"/>
+      <c r="Q79" s="159"/>
+      <c r="R79" s="159"/>
+      <c r="S79" s="159"/>
+      <c r="T79" s="159"/>
+      <c r="U79" s="159"/>
+      <c r="V79" s="159"/>
+      <c r="W79" s="159"/>
+      <c r="X79" s="159"/>
+      <c r="Y79" s="159"/>
+      <c r="Z79" s="159"/>
+      <c r="AA79" s="159"/>
+      <c r="AB79" s="159"/>
+      <c r="AC79" s="159"/>
+      <c r="AD79" s="159"/>
+      <c r="AE79" s="159"/>
+      <c r="AF79" s="159"/>
+      <c r="AG79" s="156"/>
+      <c r="AH79" s="156"/>
+      <c r="AI79" s="133"/>
+      <c r="AJ79" s="133"/>
+      <c r="AK79" s="133"/>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A80" s="155"/>
+      <c r="B80" s="155"/>
+      <c r="C80" s="159"/>
+      <c r="D80" s="159"/>
+      <c r="E80" s="358" t="s">
+        <v>110</v>
+      </c>
+      <c r="F80" s="352" t="s">
         <v>23</v>
       </c>
-      <c r="G68" s="327"/>
-      <c r="H68" s="327"/>
-      <c r="I68" s="328"/>
-      <c r="J68" s="326" t="s">
+      <c r="G80" s="353"/>
+      <c r="H80" s="353"/>
+      <c r="I80" s="354"/>
+      <c r="J80" s="352" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="327"/>
-      <c r="L68" s="327"/>
-      <c r="M68" s="328"/>
-      <c r="N68" s="334" t="s">
+      <c r="K80" s="353"/>
+      <c r="L80" s="353"/>
+      <c r="M80" s="354"/>
+      <c r="N80" s="360" t="s">
         <v>25</v>
       </c>
-      <c r="O68" s="334"/>
-      <c r="P68" s="334"/>
-      <c r="Q68" s="334"/>
-      <c r="R68" s="334"/>
-      <c r="S68" s="334"/>
-      <c r="T68" s="334"/>
-      <c r="U68" s="334"/>
-      <c r="V68" s="334"/>
-      <c r="W68" s="326" t="s">
+      <c r="O80" s="360"/>
+      <c r="P80" s="360"/>
+      <c r="Q80" s="360"/>
+      <c r="R80" s="360"/>
+      <c r="S80" s="360"/>
+      <c r="T80" s="360"/>
+      <c r="U80" s="360"/>
+      <c r="V80" s="360"/>
+      <c r="W80" s="352" t="s">
         <v>33</v>
       </c>
-      <c r="X68" s="327"/>
-      <c r="Y68" s="327"/>
-      <c r="Z68" s="327"/>
-      <c r="AA68" s="327"/>
-      <c r="AB68" s="327"/>
-      <c r="AC68" s="328"/>
-      <c r="AD68" s="326" t="s">
+      <c r="X80" s="353"/>
+      <c r="Y80" s="353"/>
+      <c r="Z80" s="353"/>
+      <c r="AA80" s="353"/>
+      <c r="AB80" s="353"/>
+      <c r="AC80" s="354"/>
+      <c r="AD80" s="352" t="s">
         <v>34</v>
       </c>
-      <c r="AE68" s="327"/>
-      <c r="AF68" s="327"/>
-      <c r="AG68" s="327"/>
-      <c r="AH68" s="328"/>
-      <c r="AI68" s="133"/>
-      <c r="AJ68" s="133"/>
-      <c r="AK68" s="133"/>
-    </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A69" s="155"/>
-      <c r="B69" s="155"/>
-      <c r="C69" s="159"/>
-      <c r="D69" s="157"/>
-      <c r="E69" s="333"/>
-      <c r="F69" s="329"/>
-      <c r="G69" s="330"/>
-      <c r="H69" s="330"/>
-      <c r="I69" s="331"/>
-      <c r="J69" s="329"/>
-      <c r="K69" s="330"/>
-      <c r="L69" s="330"/>
-      <c r="M69" s="331"/>
-      <c r="N69" s="334" t="s">
+      <c r="AE80" s="353"/>
+      <c r="AF80" s="353"/>
+      <c r="AG80" s="353"/>
+      <c r="AH80" s="354"/>
+      <c r="AI80" s="133"/>
+      <c r="AJ80" s="133"/>
+      <c r="AK80" s="133"/>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A81" s="155"/>
+      <c r="B81" s="155"/>
+      <c r="C81" s="159"/>
+      <c r="D81" s="157"/>
+      <c r="E81" s="359"/>
+      <c r="F81" s="355"/>
+      <c r="G81" s="356"/>
+      <c r="H81" s="356"/>
+      <c r="I81" s="357"/>
+      <c r="J81" s="355"/>
+      <c r="K81" s="356"/>
+      <c r="L81" s="356"/>
+      <c r="M81" s="357"/>
+      <c r="N81" s="360" t="s">
         <v>28</v>
       </c>
-      <c r="O69" s="334"/>
-      <c r="P69" s="334"/>
-      <c r="Q69" s="334"/>
-      <c r="R69" s="334"/>
-      <c r="S69" s="340" t="s">
+      <c r="O81" s="360"/>
+      <c r="P81" s="360"/>
+      <c r="Q81" s="360"/>
+      <c r="R81" s="360"/>
+      <c r="S81" s="361" t="s">
         <v>29</v>
       </c>
-      <c r="T69" s="340"/>
-      <c r="U69" s="340"/>
-      <c r="V69" s="340"/>
-      <c r="W69" s="329"/>
-      <c r="X69" s="330"/>
-      <c r="Y69" s="330"/>
-      <c r="Z69" s="330"/>
-      <c r="AA69" s="330"/>
-      <c r="AB69" s="330"/>
-      <c r="AC69" s="331"/>
-      <c r="AD69" s="329"/>
-      <c r="AE69" s="330"/>
-      <c r="AF69" s="330"/>
-      <c r="AG69" s="330"/>
-      <c r="AH69" s="331"/>
-    </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A70" s="155"/>
-      <c r="B70" s="155"/>
-      <c r="C70" s="159"/>
-      <c r="D70" s="157"/>
-      <c r="E70" s="160">
+      <c r="T81" s="361"/>
+      <c r="U81" s="361"/>
+      <c r="V81" s="361"/>
+      <c r="W81" s="355"/>
+      <c r="X81" s="356"/>
+      <c r="Y81" s="356"/>
+      <c r="Z81" s="356"/>
+      <c r="AA81" s="356"/>
+      <c r="AB81" s="356"/>
+      <c r="AC81" s="357"/>
+      <c r="AD81" s="355"/>
+      <c r="AE81" s="356"/>
+      <c r="AF81" s="356"/>
+      <c r="AG81" s="356"/>
+      <c r="AH81" s="357"/>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A82" s="155"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="159"/>
+      <c r="D82" s="157"/>
+      <c r="E82" s="160">
         <v>1</v>
       </c>
-      <c r="F70" s="335" t="s">
+      <c r="F82" s="362" t="s">
+        <v>121</v>
+      </c>
+      <c r="G82" s="365"/>
+      <c r="H82" s="365"/>
+      <c r="I82" s="366"/>
+      <c r="J82" s="362" t="s">
+        <v>122</v>
+      </c>
+      <c r="K82" s="363"/>
+      <c r="L82" s="363"/>
+      <c r="M82" s="364"/>
+      <c r="N82" s="367" t="s">
+        <v>123</v>
+      </c>
+      <c r="O82" s="368"/>
+      <c r="P82" s="368"/>
+      <c r="Q82" s="368"/>
+      <c r="R82" s="368"/>
+      <c r="S82" s="297" t="s">
+        <v>122</v>
+      </c>
+      <c r="T82" s="298"/>
+      <c r="U82" s="298"/>
+      <c r="V82" s="298"/>
+      <c r="W82" s="299"/>
+      <c r="X82" s="300"/>
+      <c r="Y82" s="300"/>
+      <c r="Z82" s="300"/>
+      <c r="AA82" s="300"/>
+      <c r="AB82" s="300"/>
+      <c r="AC82" s="301"/>
+      <c r="AD82" s="299"/>
+      <c r="AE82" s="300"/>
+      <c r="AF82" s="300"/>
+      <c r="AG82" s="300"/>
+      <c r="AH82" s="301"/>
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A83" s="155"/>
+      <c r="B83" s="155"/>
+      <c r="C83" s="159"/>
+      <c r="D83" s="157"/>
+      <c r="E83" s="160">
+        <v>2</v>
+      </c>
+      <c r="F83" s="362" t="s">
+        <v>115</v>
+      </c>
+      <c r="G83" s="365"/>
+      <c r="H83" s="365"/>
+      <c r="I83" s="366"/>
+      <c r="J83" s="362" t="s">
+        <v>124</v>
+      </c>
+      <c r="K83" s="363"/>
+      <c r="L83" s="363"/>
+      <c r="M83" s="364"/>
+      <c r="N83" s="367" t="s">
+        <v>123</v>
+      </c>
+      <c r="O83" s="368"/>
+      <c r="P83" s="368"/>
+      <c r="Q83" s="368"/>
+      <c r="R83" s="368"/>
+      <c r="S83" s="297" t="s">
+        <v>124</v>
+      </c>
+      <c r="T83" s="298"/>
+      <c r="U83" s="298"/>
+      <c r="V83" s="298"/>
+      <c r="W83" s="299"/>
+      <c r="X83" s="300"/>
+      <c r="Y83" s="300"/>
+      <c r="Z83" s="300"/>
+      <c r="AA83" s="300"/>
+      <c r="AB83" s="300"/>
+      <c r="AC83" s="301"/>
+      <c r="AD83" s="299"/>
+      <c r="AE83" s="300"/>
+      <c r="AF83" s="300"/>
+      <c r="AG83" s="300"/>
+      <c r="AH83" s="301"/>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A84" s="155"/>
+      <c r="B84" s="155"/>
+      <c r="C84" s="159"/>
+      <c r="D84" s="157"/>
+      <c r="E84" s="160">
+        <v>3</v>
+      </c>
+      <c r="F84" s="362" t="s">
+        <v>127</v>
+      </c>
+      <c r="G84" s="365"/>
+      <c r="H84" s="365"/>
+      <c r="I84" s="366"/>
+      <c r="J84" s="362" t="s">
         <v>125</v>
       </c>
-      <c r="G70" s="338"/>
-      <c r="H70" s="338"/>
-      <c r="I70" s="339"/>
-      <c r="J70" s="335" t="s">
-        <v>126</v>
-      </c>
-      <c r="K70" s="336"/>
-      <c r="L70" s="336"/>
-      <c r="M70" s="337"/>
-      <c r="N70" s="269" t="s">
-        <v>127</v>
-      </c>
-      <c r="O70" s="270"/>
-      <c r="P70" s="270"/>
-      <c r="Q70" s="270"/>
-      <c r="R70" s="270"/>
-      <c r="S70" s="271" t="s">
-        <v>126</v>
-      </c>
-      <c r="T70" s="272"/>
-      <c r="U70" s="272"/>
-      <c r="V70" s="272"/>
-      <c r="W70" s="273"/>
-      <c r="X70" s="274"/>
-      <c r="Y70" s="274"/>
-      <c r="Z70" s="274"/>
-      <c r="AA70" s="274"/>
-      <c r="AB70" s="274"/>
-      <c r="AC70" s="275"/>
-      <c r="AD70" s="273"/>
-      <c r="AE70" s="274"/>
-      <c r="AF70" s="274"/>
-      <c r="AG70" s="274"/>
-      <c r="AH70" s="275"/>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A71" s="155"/>
-      <c r="B71" s="155"/>
-      <c r="C71" s="159"/>
-      <c r="D71" s="157"/>
-      <c r="E71" s="160">
-        <v>2</v>
-      </c>
-      <c r="F71" s="335" t="s">
-        <v>119</v>
-      </c>
-      <c r="G71" s="338"/>
-      <c r="H71" s="338"/>
-      <c r="I71" s="339"/>
-      <c r="J71" s="335" t="s">
-        <v>128</v>
-      </c>
-      <c r="K71" s="336"/>
-      <c r="L71" s="336"/>
-      <c r="M71" s="337"/>
-      <c r="N71" s="269" t="s">
-        <v>127</v>
-      </c>
-      <c r="O71" s="270"/>
-      <c r="P71" s="270"/>
-      <c r="Q71" s="270"/>
-      <c r="R71" s="270"/>
-      <c r="S71" s="271" t="s">
-        <v>128</v>
-      </c>
-      <c r="T71" s="272"/>
-      <c r="U71" s="272"/>
-      <c r="V71" s="272"/>
-      <c r="W71" s="273"/>
-      <c r="X71" s="274"/>
-      <c r="Y71" s="274"/>
-      <c r="Z71" s="274"/>
-      <c r="AA71" s="274"/>
-      <c r="AB71" s="274"/>
-      <c r="AC71" s="275"/>
-      <c r="AD71" s="273"/>
-      <c r="AE71" s="274"/>
-      <c r="AF71" s="274"/>
-      <c r="AG71" s="274"/>
-      <c r="AH71" s="275"/>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A72" s="155"/>
-      <c r="B72" s="155"/>
-      <c r="C72" s="159"/>
-      <c r="D72" s="157"/>
-      <c r="E72" s="160">
-        <v>3</v>
-      </c>
-      <c r="F72" s="335" t="s">
-        <v>131</v>
-      </c>
-      <c r="G72" s="338"/>
-      <c r="H72" s="338"/>
-      <c r="I72" s="339"/>
-      <c r="J72" s="335" t="s">
-        <v>129</v>
-      </c>
-      <c r="K72" s="336"/>
-      <c r="L72" s="336"/>
-      <c r="M72" s="337"/>
-      <c r="N72" s="269" t="s">
-        <v>127</v>
-      </c>
-      <c r="O72" s="270"/>
-      <c r="P72" s="270"/>
-      <c r="Q72" s="270"/>
-      <c r="R72" s="270"/>
-      <c r="S72" s="271" t="s">
-        <v>129</v>
-      </c>
-      <c r="T72" s="272"/>
-      <c r="U72" s="272"/>
-      <c r="V72" s="272"/>
-      <c r="W72" s="273"/>
-      <c r="X72" s="274"/>
-      <c r="Y72" s="274"/>
-      <c r="Z72" s="274"/>
-      <c r="AA72" s="274"/>
-      <c r="AB72" s="274"/>
-      <c r="AC72" s="275"/>
-      <c r="AD72" s="273"/>
-      <c r="AE72" s="274"/>
-      <c r="AF72" s="274"/>
-      <c r="AG72" s="274"/>
-      <c r="AH72" s="275"/>
+      <c r="K84" s="363"/>
+      <c r="L84" s="363"/>
+      <c r="M84" s="364"/>
+      <c r="N84" s="367" t="s">
+        <v>123</v>
+      </c>
+      <c r="O84" s="368"/>
+      <c r="P84" s="368"/>
+      <c r="Q84" s="368"/>
+      <c r="R84" s="368"/>
+      <c r="S84" s="297" t="s">
+        <v>125</v>
+      </c>
+      <c r="T84" s="298"/>
+      <c r="U84" s="298"/>
+      <c r="V84" s="298"/>
+      <c r="W84" s="299"/>
+      <c r="X84" s="300"/>
+      <c r="Y84" s="300"/>
+      <c r="Z84" s="300"/>
+      <c r="AA84" s="300"/>
+      <c r="AB84" s="300"/>
+      <c r="AC84" s="301"/>
+      <c r="AD84" s="299"/>
+      <c r="AE84" s="300"/>
+      <c r="AF84" s="300"/>
+      <c r="AG84" s="300"/>
+      <c r="AH84" s="301"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="N71:R71"/>
-    <mergeCell ref="N70:R70"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="F68:I69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="N68:V68"/>
-    <mergeCell ref="N69:R69"/>
-    <mergeCell ref="G63:L63"/>
-    <mergeCell ref="O63:AH63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="S69:V69"/>
-    <mergeCell ref="W68:AC69"/>
-    <mergeCell ref="AD68:AH69"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="J68:M69"/>
+  <mergeCells count="89">
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="F82:I82"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="N83:R83"/>
+    <mergeCell ref="N82:R82"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="N84:R84"/>
+    <mergeCell ref="F80:I81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="N80:V80"/>
+    <mergeCell ref="N81:R81"/>
+    <mergeCell ref="G75:L75"/>
+    <mergeCell ref="O75:AH75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="S81:V81"/>
+    <mergeCell ref="W80:AC81"/>
+    <mergeCell ref="AD80:AH81"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="J80:M81"/>
     <mergeCell ref="AC39:AF39"/>
     <mergeCell ref="F39:K39"/>
     <mergeCell ref="L39:U39"/>
     <mergeCell ref="V39:X39"/>
     <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="L38:U38"/>
     <mergeCell ref="V38:X38"/>
     <mergeCell ref="Y38:AB38"/>
     <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="O28:AH28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="S84:V84"/>
+    <mergeCell ref="W84:AC84"/>
+    <mergeCell ref="AD82:AH82"/>
+    <mergeCell ref="AD83:AH83"/>
+    <mergeCell ref="AD84:AH84"/>
+    <mergeCell ref="W82:AC82"/>
+    <mergeCell ref="W83:AC83"/>
+    <mergeCell ref="S83:V83"/>
+    <mergeCell ref="S82:V82"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="M51:Q52"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="E10:J10"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E20:G20"/>
@@ -14605,57 +15049,6 @@
     <mergeCell ref="H18:AH18"/>
     <mergeCell ref="H19:AH19"/>
     <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="O28:AH28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="N72:R72"/>
-    <mergeCell ref="S72:V72"/>
-    <mergeCell ref="W72:AC72"/>
-    <mergeCell ref="AD70:AH70"/>
-    <mergeCell ref="AD71:AH71"/>
-    <mergeCell ref="AD72:AH72"/>
-    <mergeCell ref="W70:AC70"/>
-    <mergeCell ref="W71:AC71"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
@@ -14677,7 +15070,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="34" max="34" man="1"/>
-    <brk id="56" max="34" man="1"/>
+    <brk id="68" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
